--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murraylab\OneDrive\python\partslist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_2D096208810B7BFFB2B590D93042F4C1634202DA" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{27C5D8C7-DD79-4933-ABAC-986B1925EC2A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -19,10 +18,10 @@
     <sheet name="survey" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$197</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="779">
   <si>
     <t>well</t>
   </si>
@@ -475,9 +474,6 @@
     <t>P9m Pr-OR1-OR2 (cI); grown at 30C</t>
   </si>
   <si>
-    <t>Promoter</t>
-  </si>
-  <si>
     <t>GGAGTGCTGTTCCGCTGGGCATGCTGAGCTAACACCGTGCGTGTTGACAATTTTACCTCTGGCGGTGATAATGGTTGCAGCTACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
   </si>
   <si>
@@ -682,9 +678,6 @@
     <t>Carb Resistance</t>
   </si>
   <si>
-    <t>ooPart1</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -724,9 +717,6 @@
     <t>p15a origin</t>
   </si>
   <si>
-    <t>ooPart2</t>
-  </si>
-  <si>
     <t>aaaggtctcaCGCTgcggagtgtatactggcttactatgttggcactgatgagggtgtcagtgaagtgcttcatgtggcaggagaaaaaaggctgcaccggtgcgtcagcagaatatgtgatacaggatatattccgcttcctcgctcactgactcgctacgctcggtcgttcgactgcggcgagcggaaatggcttacgaacggggcggagatttcctggaagatgccaggaagatacttaacagggaagtgagagggccgcggcaaagccgtttttccataggctccgcccccctgacaagcatcacgaaatctgacgctcaaatcagtggtggcgaaacccgacaggactataaagataccaggcgtttccccctggcggctccctcgtgcgctctcctgttcctgcctttcggtttaccggtgtcattccgctgttatggccgcgtttgtctcattccacgcctgacactcagttccgggtaggcagttcgctccaagctggactgtatgcacgaaccccccgttcagtccgaccgctgcgccttatccggtaactatcgtcttgagtccaacccggaaagacatgcaaaagcaccactggcagcagccactggtaattgatttagaggagttagtcttgaagtcatgcgccggttaaggctaaactgaaaggacaagttttggtgactgcgctcctccaagccagttacctcggttcaaagagttggtagctcagagaaccttcgaaaaaccgccctgcaaggcggttttttcgttttcagagcaagagattacgcgcagaccaaaacgatctcaagaagatcatcttattaatcagataaaatatttctagatttcagtgcaatttatctcttcaaatgtagcacctgaagtcagccccatacgatataagttgtaaGGAGtGAGACCttt</t>
   </si>
   <si>
@@ -1435,9 +1425,6 @@
     <t>amyE-5P</t>
   </si>
   <si>
-    <t>homology</t>
-  </si>
-  <si>
     <t>CCGGTCTCAGGAGTGTCAAGAATGTTTGCAAAACGATTCAAAACCTCTTTACTGCCGTTATTCGCTGGATTTTTATTGCTGTTTCATTTGGTTCTGGCAGGACCGGCGGCTGCGAGTGCTGAAACGGCGAACAAATCGAATGAGCTTACAGCACCGTCGATCAAAAGCGGAACCATTCTTCATGCATGGAATTGGTCGTTCAATACGTTAAAACACAATATGAAGGATATTCATGATGCAGGATATACAGCCATTCAGACATCTCCGATTAACCAAGTAAAGGAAGGGAATCAAGGAGATAAAAGCATGTCGAACTGGTACTGGCTGTATCAGCCGACATCGTATCAAATTGGCAACCGTTACTTAGGTACTGAACAAGAATTTAAAGAAATGTGTGCAGCCGCTGAAGAATATGGCATAAAGGTCATTGTTGACGCGGTCATCAATCATACCACCAGTGATTATGCCGCGATTTCCAATGAGGTTAAGAGTATTCCAAACTGGACACATGGAAACACACAAATTAAAAACTGGTCTGATCGATGGGATGCTTAGAGACCCC</t>
   </si>
   <si>
@@ -1486,9 +1473,6 @@
     <t>cat gene</t>
   </si>
   <si>
-    <t>resistance</t>
-  </si>
-  <si>
     <t>CCGGTCTCAGGAGACAGCTTATCATCGGCAATAGTTACCCTTATTATCAAGATAAGAAAGAAAAGGATTTTTCGCTACGCTCAAATCCTTTAAAAAAACACAAAAGACCACATTTTTTAATGTGGTCTTTATTCTTCAACTAAAGCACCCATTAGTTCAACAAACGAAAATTGGATAAAGTGGGATATTTTTAAAATATATATTTATGTTACAGTAATATTGACTTTTAAAAAAGGATTGATTCTAATGAAGAAAGCAGACAAGTAAGCCTCCTAAATTCACTTTAGATAAAAATTTAGGAGGCATATCAAATGAACTTTAATAAAATTGATTTAGACAATTGGAAGAGAAAAGAGATATTTAATCATTATTTGAACCAACAAACGACTTTTAGTATAACCACAGAAATTGATATTAGTGTTTTATACCGAAACATAAAACAAGAAGGATATAAATTTTACCCTGCATTTATTTTCTTAGTGACAAGGGTGATAAACTCAAATACAGCTTTTAGAACTGGTTACAATAGCGACGGAGAGTTAGGTTATTGGGATAAGTTAGAGCCACTTTATACAATTTTTGATGGTGTATCTAAAACATTCTCTGGTATTTGGACTCCTGTAAAGAATGACTTCAAAGAGTTTTATGATTTATACCTTTCTGATGTAGAGAAATATAATGGTTCGGGGAAATTGTTTCCCAAAACACCTATACCTGAAAATGCTTTTTCTCTTTCTATTATTCCATGGACTTCATTTACTGGGTTTAACTTAAATATCAATAATAATAGTAATTACCTTCTACCCATTATTACAGCAGGAAAATTCATTAATAAAGGTAATTCAATATATTTACCGCTATCTTTACAGGTACATCATTCTGTTTGTGATGGTTATCATGCAGGATTGTTTATGAACTCTATTCAGGAATTGTCAGATAGGCCTAATGACTGGCTTTTATAATATGAGATAATGCCGACTGTACTTTTTACAGTCGGTTTTCTAATGTCACTAACCTGCCCCGTTAGTTGAAGAAGGTTTTTATATTACAGCTCCAGATCCTCTACGCCGGACGCATCGTGGCAGGCATCACCGGCGCCACAGGTGCGGTTGCTGGCGCCTATATCGCCGACATCACCGATGGGGAAGATCGGGCTCGCCACTTCGGGCTCATGAGCGCTTGTTTCGGCGTGGGTATGGTGGCAGCTTTGAGACCCC</t>
   </si>
   <si>
@@ -2357,13 +2341,40 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>attsite</t>
+  </si>
+  <si>
+    <t>minicircle</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>guide</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>sc2</t>
+  </si>
+  <si>
+    <t>scaffold</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>construct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2734,17 +2745,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="D147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N158" sqref="N158"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="39.140625" customWidth="1"/>
@@ -2753,7 +2764,7 @@
     <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3011,7 +3022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3063,7 +3074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3115,7 +3126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3219,7 +3230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3323,7 +3334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3375,7 +3386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3427,7 +3438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3479,7 +3490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3635,7 +3646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3687,7 +3698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3739,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -3895,7 +3906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -3947,7 +3958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -3964,7 +3975,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -3999,7 +4010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -4016,7 +4027,7 @@
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4051,7 +4062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -4103,7 +4114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -4120,7 +4131,7 @@
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -4155,7 +4166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -4172,7 +4183,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -4207,7 +4218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>775</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -4259,7 +4270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -4289,7 +4300,7 @@
         <v>6605</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -4311,18 +4322,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" t="s">
         <v>150</v>
       </c>
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -4341,7 +4352,7 @@
         <v>6606</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -4363,24 +4374,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" t="s">
         <v>154</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>155</v>
-      </c>
-      <c r="D32" t="s">
-        <v>156</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -4393,7 +4404,7 @@
         <v>6607</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -4415,21 +4426,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" t="s">
         <v>160</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>161</v>
       </c>
-      <c r="D33" t="s">
-        <v>162</v>
-      </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
         <v>110</v>
@@ -4445,7 +4456,7 @@
         <v>6608</v>
       </c>
       <c r="J33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -4467,18 +4478,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
         <v>166</v>
-      </c>
-      <c r="D34" t="s">
-        <v>167</v>
       </c>
       <c r="E34" t="s">
         <v>110</v>
@@ -4497,7 +4508,7 @@
         <v>6609</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -4519,18 +4530,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>110</v>
@@ -4549,7 +4560,7 @@
         <v>6610</v>
       </c>
       <c r="J35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -4571,18 +4582,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" t="s">
         <v>174</v>
       </c>
-      <c r="C36" t="s">
-        <v>175</v>
-      </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -4601,7 +4612,7 @@
         <v>6611</v>
       </c>
       <c r="J36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -4623,18 +4634,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" t="s">
         <v>178</v>
       </c>
-      <c r="C37" t="s">
-        <v>179</v>
-      </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
@@ -4653,7 +4664,7 @@
         <v>6612</v>
       </c>
       <c r="J37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -4675,18 +4686,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" t="s">
         <v>182</v>
       </c>
-      <c r="C38" t="s">
-        <v>183</v>
-      </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -4705,7 +4716,7 @@
         <v>6613</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -4727,18 +4738,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" t="s">
         <v>186</v>
       </c>
-      <c r="C39" t="s">
-        <v>187</v>
-      </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
         <v>110</v>
@@ -4757,7 +4768,7 @@
         <v>6614</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -4779,18 +4790,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C40" t="s">
         <v>190</v>
       </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
       <c r="D40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>110</v>
@@ -4809,7 +4820,7 @@
         <v>6615</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -4831,18 +4842,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" t="s">
         <v>194</v>
       </c>
-      <c r="C41" t="s">
-        <v>195</v>
-      </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
         <v>110</v>
@@ -4861,7 +4872,7 @@
         <v>6616</v>
       </c>
       <c r="J41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -4883,21 +4894,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" t="s">
         <v>198</v>
       </c>
-      <c r="C42" t="s">
-        <v>199</v>
-      </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -4913,7 +4924,7 @@
         <v>6617</v>
       </c>
       <c r="J42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -4935,24 +4946,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" t="s">
         <v>202</v>
       </c>
-      <c r="C43" t="s">
-        <v>203</v>
-      </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" t="s">
         <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -4965,7 +4976,7 @@
         <v>6618</v>
       </c>
       <c r="J43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -4987,24 +4998,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" t="s">
         <v>206</v>
       </c>
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
       <c r="D44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
         <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -5017,7 +5028,7 @@
         <v>6619</v>
       </c>
       <c r="J44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -5039,24 +5050,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" t="s">
         <v>210</v>
       </c>
-      <c r="C45" t="s">
-        <v>211</v>
-      </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
         <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G45">
         <v>30</v>
@@ -5069,7 +5080,7 @@
         <v>6620</v>
       </c>
       <c r="J45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -5091,24 +5102,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
         <v>213</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>214</v>
       </c>
-      <c r="C46" t="s">
-        <v>215</v>
-      </c>
       <c r="D46" t="s">
-        <v>216</v>
+        <v>772</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G46">
         <v>30</v>
@@ -5121,7 +5132,7 @@
         <v>6701</v>
       </c>
       <c r="J46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -5143,24 +5154,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
         <v>219</v>
       </c>
-      <c r="B47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" t="s">
-        <v>221</v>
-      </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>772</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -5173,7 +5184,7 @@
         <v>6702</v>
       </c>
       <c r="J47" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -5195,24 +5206,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
         <v>223</v>
       </c>
-      <c r="B48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>772</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -5225,7 +5236,7 @@
         <v>6703</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -5247,21 +5258,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
         <v>227</v>
       </c>
-      <c r="B49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" t="s">
-        <v>229</v>
-      </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>772</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -5277,7 +5288,7 @@
         <v>6704</v>
       </c>
       <c r="J49" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -5299,21 +5310,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>772</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -5329,7 +5340,7 @@
         <v>6705</v>
       </c>
       <c r="J50" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -5351,21 +5362,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>772</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -5381,7 +5392,7 @@
         <v>6706</v>
       </c>
       <c r="J51" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -5403,21 +5414,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>772</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -5433,7 +5444,7 @@
         <v>6707</v>
       </c>
       <c r="J52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -5455,21 +5466,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>772</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
         <v>21</v>
@@ -5485,7 +5496,7 @@
         <v>6708</v>
       </c>
       <c r="J53" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -5507,18 +5518,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>110</v>
       </c>
       <c r="G54" s="8">
         <v>18.190000000000001</v>
@@ -5531,7 +5548,7 @@
         <v>6711</v>
       </c>
       <c r="J54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -5549,18 +5566,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
       </c>
       <c r="G55" s="8">
         <v>20.11</v>
@@ -5573,7 +5596,7 @@
         <v>6712</v>
       </c>
       <c r="J55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -5591,18 +5614,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
       </c>
       <c r="G56" s="8">
         <v>20.73</v>
@@ -5615,7 +5644,7 @@
         <v>6713</v>
       </c>
       <c r="J56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -5633,18 +5662,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
       </c>
       <c r="G57" s="8">
         <v>25.48</v>
@@ -5657,7 +5692,7 @@
         <v>6714</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -5675,18 +5710,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
       </c>
       <c r="G58" s="8">
         <v>24.18</v>
@@ -5699,7 +5740,7 @@
         <v>6715</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -5717,18 +5758,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" t="s">
+        <v>110</v>
       </c>
       <c r="G59" s="8">
         <v>22.99</v>
@@ -5741,7 +5788,7 @@
         <v>6716</v>
       </c>
       <c r="J59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -5759,18 +5806,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
       </c>
       <c r="G60" s="8">
         <v>25.24</v>
@@ -5783,7 +5836,7 @@
         <v>6717</v>
       </c>
       <c r="J60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -5801,18 +5854,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
       </c>
       <c r="G61" s="8">
         <v>19.71</v>
@@ -5825,7 +5884,7 @@
         <v>6718</v>
       </c>
       <c r="J61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
@@ -5843,21 +5902,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
         <v>110</v>
@@ -5873,7 +5932,7 @@
         <v>6719</v>
       </c>
       <c r="J62" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -5895,24 +5954,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
         <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -5925,7 +5984,7 @@
         <v>6720</v>
       </c>
       <c r="J63" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -5947,18 +6006,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -5977,7 +6036,7 @@
         <v>6721</v>
       </c>
       <c r="J64" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -5999,15 +6058,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="D65" t="s">
+        <v>770</v>
       </c>
       <c r="E65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F65" t="s">
         <v>106</v>
@@ -6023,7 +6085,7 @@
         <v>6722</v>
       </c>
       <c r="J65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -6045,15 +6107,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="D66" t="s">
+        <v>770</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
         <v>106</v>
@@ -6069,7 +6134,7 @@
         <v>6723</v>
       </c>
       <c r="J66" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -6091,15 +6156,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="D67" t="s">
+        <v>770</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F67" t="s">
         <v>106</v>
@@ -6115,7 +6183,7 @@
         <v>6724</v>
       </c>
       <c r="J67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -6137,15 +6205,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="D68" t="s">
+        <v>770</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F68" t="s">
         <v>106</v>
@@ -6161,7 +6232,7 @@
         <v>6801</v>
       </c>
       <c r="J68" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -6183,18 +6254,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="D69" t="s">
+        <v>770</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -6207,7 +6281,7 @@
         <v>6802</v>
       </c>
       <c r="J69" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -6229,18 +6303,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>301</v>
+      </c>
+      <c r="D70" t="s">
+        <v>770</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G70">
         <v>50</v>
@@ -6253,7 +6330,7 @@
         <v>6803</v>
       </c>
       <c r="J70" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -6275,18 +6352,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>770</v>
       </c>
       <c r="E71" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G71">
         <v>21.32</v>
@@ -6299,7 +6379,7 @@
         <v>6804</v>
       </c>
       <c r="J71" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -6321,18 +6401,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>487</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -6351,7 +6431,7 @@
         <v>6805</v>
       </c>
       <c r="J72" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
@@ -6373,18 +6453,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D73" t="s">
+        <v>770</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
         <v>106</v>
@@ -6400,7 +6483,7 @@
         <v>6806</v>
       </c>
       <c r="J73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -6422,18 +6505,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B74" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D74" t="s">
+        <v>770</v>
       </c>
       <c r="E74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
         <v>106</v>
@@ -6449,7 +6535,7 @@
         <v>6807</v>
       </c>
       <c r="J74" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -6471,18 +6557,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D75" t="s">
+        <v>770</v>
       </c>
       <c r="E75" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F75" t="s">
         <v>106</v>
@@ -6498,7 +6587,7 @@
         <v>6808</v>
       </c>
       <c r="J75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -6520,18 +6609,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D76" t="s">
+        <v>770</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F76" t="s">
         <v>106</v>
@@ -6547,7 +6639,7 @@
         <v>6809</v>
       </c>
       <c r="J76" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -6569,21 +6661,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D77" t="s">
+        <v>770</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -6596,7 +6691,7 @@
         <v>6810</v>
       </c>
       <c r="J77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -6618,21 +6713,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B78" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="D78" t="s">
+        <v>770</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -6645,7 +6743,7 @@
         <v>6811</v>
       </c>
       <c r="J78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -6667,18 +6765,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" t="s">
+        <v>325</v>
+      </c>
+      <c r="D79" t="s">
+        <v>771</v>
+      </c>
+      <c r="E79" t="s">
         <v>326</v>
-      </c>
-      <c r="B79" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" t="s">
-        <v>328</v>
-      </c>
-      <c r="E79" t="s">
-        <v>329</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -6694,7 +6795,7 @@
         <v>6812</v>
       </c>
       <c r="J79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -6712,18 +6813,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B80" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D80" t="s">
+        <v>771</v>
       </c>
       <c r="E80" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -6739,7 +6843,7 @@
         <v>6813</v>
       </c>
       <c r="J80" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -6757,18 +6861,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D81" t="s">
+        <v>771</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -6784,7 +6891,7 @@
         <v>6814</v>
       </c>
       <c r="J81" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -6802,18 +6909,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>771</v>
       </c>
       <c r="E82" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -6829,7 +6939,7 @@
         <v>6815</v>
       </c>
       <c r="J82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -6847,18 +6957,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D83" t="s">
+        <v>771</v>
       </c>
       <c r="E83" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -6874,7 +6987,7 @@
         <v>6816</v>
       </c>
       <c r="J83" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -6892,18 +7005,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C84" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
+        <v>771</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
         <v>38</v>
@@ -6919,7 +7035,7 @@
         <v>6817</v>
       </c>
       <c r="J84" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -6937,18 +7053,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C85" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D85" t="s">
+        <v>771</v>
       </c>
       <c r="E85" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -6964,7 +7083,7 @@
         <v>6818</v>
       </c>
       <c r="J85" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -6982,18 +7101,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C86" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="D86" t="s">
+        <v>771</v>
       </c>
       <c r="E86" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -7009,7 +7131,7 @@
         <v>6819</v>
       </c>
       <c r="J86" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -7027,24 +7149,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" t="s">
         <v>210</v>
       </c>
-      <c r="C87" t="s">
-        <v>211</v>
-      </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
         <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G87">
         <v>30</v>
@@ -7057,7 +7179,7 @@
         <v>6820</v>
       </c>
       <c r="J87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -7079,24 +7201,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>772</v>
+      </c>
+      <c r="E88" t="s">
         <v>215</v>
       </c>
-      <c r="D88" t="s">
-        <v>216</v>
-      </c>
-      <c r="E88" t="s">
-        <v>217</v>
-      </c>
       <c r="F88" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G88">
         <v>24</v>
@@ -7109,7 +7231,7 @@
         <v>6901</v>
       </c>
       <c r="J88" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -7131,21 +7253,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C89" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+      <c r="D89" t="s">
+        <v>772</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G89">
         <v>24</v>
@@ -7158,7 +7283,7 @@
         <v>6902</v>
       </c>
       <c r="J89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -7180,24 +7305,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B90" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C90" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>772</v>
       </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G90">
         <v>24</v>
@@ -7210,7 +7335,7 @@
         <v>6903</v>
       </c>
       <c r="J90" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -7232,21 +7357,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="D91" t="s">
+        <v>772</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F91" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G91">
         <v>24</v>
@@ -7259,7 +7387,7 @@
         <v>6904</v>
       </c>
       <c r="J91" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -7281,21 +7409,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C92" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>772</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G92">
         <v>24</v>
@@ -7308,7 +7439,7 @@
         <v>6905</v>
       </c>
       <c r="J92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -7330,21 +7461,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="D93" t="s">
+        <v>772</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -7357,7 +7491,7 @@
         <v>6906</v>
       </c>
       <c r="J93" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -7379,21 +7513,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="D94" t="s">
+        <v>772</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G94">
         <v>30</v>
@@ -7406,7 +7543,7 @@
         <v>6907</v>
       </c>
       <c r="J94" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -7428,21 +7565,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="D95" t="s">
+        <v>772</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -7455,7 +7595,7 @@
         <v>6908</v>
       </c>
       <c r="J95" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -7477,21 +7617,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="D96" t="s">
+        <v>772</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G96">
         <v>30</v>
@@ -7504,7 +7647,7 @@
         <v>6909</v>
       </c>
       <c r="J96" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -7526,21 +7669,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C97" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="D97" t="s">
+        <v>772</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G97">
         <v>30</v>
@@ -7553,7 +7699,7 @@
         <v>6910</v>
       </c>
       <c r="J97" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -7575,15 +7721,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C98" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="D98" t="s">
+        <v>770</v>
       </c>
       <c r="E98" t="s">
         <v>110</v>
@@ -7602,7 +7751,7 @@
         <v>6911</v>
       </c>
       <c r="J98" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -7624,15 +7773,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C99" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="D99" t="s">
+        <v>770</v>
       </c>
       <c r="E99" t="s">
         <v>106</v>
@@ -7651,7 +7803,7 @@
         <v>6912</v>
       </c>
       <c r="J99" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -7673,15 +7825,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>388</v>
+      </c>
+      <c r="D100" t="s">
+        <v>770</v>
       </c>
       <c r="E100" t="s">
         <v>106</v>
@@ -7700,7 +7855,7 @@
         <v>6913</v>
       </c>
       <c r="J100" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -7722,15 +7877,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C101" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="D101" t="s">
+        <v>770</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>
@@ -7749,7 +7907,7 @@
         <v>6914</v>
       </c>
       <c r="J101" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -7771,18 +7929,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C102" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E102" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F102" t="s">
         <v>110</v>
@@ -7798,7 +7956,7 @@
         <v>6915</v>
       </c>
       <c r="J102" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -7820,18 +7978,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C103" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F103" t="s">
         <v>110</v>
@@ -7847,7 +8005,7 @@
         <v>6916</v>
       </c>
       <c r="J103" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -7869,21 +8027,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E104" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G104">
         <v>30</v>
@@ -7896,7 +8054,7 @@
         <v>6917</v>
       </c>
       <c r="J104" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -7918,21 +8076,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G105">
         <v>30</v>
@@ -7945,7 +8103,7 @@
         <v>6918</v>
       </c>
       <c r="J105" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -7967,21 +8125,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C106" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E106" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F106" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G106">
         <v>30</v>
@@ -7994,7 +8152,7 @@
         <v>6919</v>
       </c>
       <c r="J106" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -8016,15 +8174,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C107" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="D107" t="s">
+        <v>487</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -8043,7 +8204,7 @@
         <v>6920</v>
       </c>
       <c r="J107" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -8065,15 +8226,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C108" t="s">
-        <v>419</v>
+        <v>416</v>
+      </c>
+      <c r="D108" t="s">
+        <v>487</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -8092,7 +8256,7 @@
         <v>6921</v>
       </c>
       <c r="J108" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -8114,12 +8278,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G109">
         <v>50</v>
@@ -8136,12 +8300,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>424</v>
+      </c>
+      <c r="D110" t="s">
+        <v>778</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -8160,7 +8327,7 @@
         <v>8801</v>
       </c>
       <c r="J110" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -8172,12 +8339,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B111" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+      <c r="D111" t="s">
+        <v>778</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -8196,7 +8366,7 @@
         <v>8802</v>
       </c>
       <c r="J111" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
@@ -8208,12 +8378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>430</v>
+      </c>
+      <c r="D112" t="s">
+        <v>778</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
@@ -8232,7 +8405,7 @@
         <v>8803</v>
       </c>
       <c r="J112" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -8244,12 +8417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="D113" t="s">
+        <v>778</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
@@ -8268,7 +8444,7 @@
         <v>8804</v>
       </c>
       <c r="J113" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -8280,12 +8456,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="D114" t="s">
+        <v>778</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
@@ -8304,7 +8483,7 @@
         <v>8805</v>
       </c>
       <c r="J114" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -8316,12 +8495,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
+        <v>439</v>
+      </c>
+      <c r="D115" t="s">
+        <v>778</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -8340,7 +8522,7 @@
         <v>8806</v>
       </c>
       <c r="J115" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -8352,12 +8534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>442</v>
+      </c>
+      <c r="D116" t="s">
+        <v>778</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -8376,7 +8561,7 @@
         <v>8807</v>
       </c>
       <c r="J116" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K116" t="b">
         <v>1</v>
@@ -8388,15 +8573,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B117" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
+      <c r="D117" t="s">
+        <v>778</v>
+      </c>
       <c r="E117" t="s">
         <v>21</v>
       </c>
@@ -8414,7 +8601,7 @@
         <v>8808</v>
       </c>
       <c r="J117" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
@@ -8426,15 +8613,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B118" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="D118" t="s">
+        <v>778</v>
+      </c>
       <c r="E118" t="s">
         <v>21</v>
       </c>
@@ -8452,7 +8641,7 @@
         <v>8809</v>
       </c>
       <c r="J118" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K118" t="b">
         <v>1</v>
@@ -8464,15 +8653,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
+      <c r="D119" t="s">
+        <v>778</v>
+      </c>
       <c r="E119" t="s">
         <v>21</v>
       </c>
@@ -8490,7 +8681,7 @@
         <v>8810</v>
       </c>
       <c r="J119" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K119" t="b">
         <v>1</v>
@@ -8502,18 +8693,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B120" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C120" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E120" t="s">
         <v>110</v>
@@ -8532,7 +8723,7 @@
         <v>8811</v>
       </c>
       <c r="J120" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K120" t="b">
         <v>1</v>
@@ -8554,18 +8745,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B121" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E121" t="s">
         <v>110</v>
@@ -8584,7 +8775,7 @@
         <v>8812</v>
       </c>
       <c r="J121" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K121" t="b">
         <v>1</v>
@@ -8606,18 +8797,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C122" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D122" t="s">
-        <v>467</v>
+        <v>778</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>38</v>
       </c>
       <c r="G122">
         <v>30</v>
@@ -8626,7 +8823,7 @@
         <v>43284</v>
       </c>
       <c r="J122" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -8644,18 +8841,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B123" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C123" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D123" t="s">
-        <v>467</v>
+        <v>778</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>38</v>
       </c>
       <c r="G123">
         <v>30</v>
@@ -8664,7 +8867,7 @@
         <v>43284</v>
       </c>
       <c r="J123" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -8682,18 +8885,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B124" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C124" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D124" t="s">
-        <v>467</v>
+        <v>778</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>38</v>
       </c>
       <c r="G124">
         <v>30</v>
@@ -8702,7 +8911,7 @@
         <v>43284</v>
       </c>
       <c r="J124" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -8720,18 +8929,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B125" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C125" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D125" t="s">
-        <v>467</v>
+        <v>778</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>38</v>
       </c>
       <c r="G125">
         <v>30</v>
@@ -8740,7 +8955,7 @@
         <v>43284</v>
       </c>
       <c r="J125" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -8758,18 +8973,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C126" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D126" t="s">
-        <v>484</v>
+        <v>778</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>38</v>
       </c>
       <c r="G126">
         <v>30</v>
@@ -8778,7 +8999,7 @@
         <v>43284</v>
       </c>
       <c r="J126" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -8796,18 +9017,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B127" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C127" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D127" t="s">
-        <v>484</v>
+        <v>778</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
       </c>
       <c r="G127">
         <v>30</v>
@@ -8816,7 +9043,7 @@
         <v>43284</v>
       </c>
       <c r="J127" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -8834,18 +9061,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B128" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C128" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D128" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" t="s">
+        <v>106</v>
       </c>
       <c r="G128">
         <v>30</v>
@@ -8854,7 +9087,7 @@
         <v>43284</v>
       </c>
       <c r="J128" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -8872,18 +9105,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B129" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C129" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D129" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>106</v>
       </c>
       <c r="G129">
         <v>30</v>
@@ -8892,7 +9131,7 @@
         <v>43284</v>
       </c>
       <c r="J129" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -8910,18 +9149,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B130" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C130" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D130" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>106</v>
       </c>
       <c r="G130">
         <v>30</v>
@@ -8930,7 +9175,7 @@
         <v>43284</v>
       </c>
       <c r="J130" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
@@ -8948,18 +9193,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B131" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C131" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D131" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" t="s">
+        <v>106</v>
       </c>
       <c r="G131">
         <v>30</v>
@@ -8968,7 +9219,7 @@
         <v>43284</v>
       </c>
       <c r="J131" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
@@ -8986,17 +9237,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B132" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C132" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D132" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" t="s">
+        <v>106</v>
+      </c>
+      <c r="F132" t="s">
         <v>156</v>
       </c>
       <c r="G132">
@@ -9006,7 +9263,7 @@
         <v>43284</v>
       </c>
       <c r="J132" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -9024,12 +9281,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B133" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="D133" t="s">
+        <v>773</v>
+      </c>
+      <c r="E133" t="s">
+        <v>106</v>
+      </c>
+      <c r="F133" t="s">
+        <v>774</v>
       </c>
       <c r="G133">
         <v>30</v>
@@ -9038,7 +9304,7 @@
         <v>43287</v>
       </c>
       <c r="J133" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -9050,12 +9316,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B134" t="s">
-        <v>511</v>
+        <v>506</v>
+      </c>
+      <c r="D134" t="s">
+        <v>773</v>
+      </c>
+      <c r="E134" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134" t="s">
+        <v>774</v>
       </c>
       <c r="G134">
         <v>30</v>
@@ -9064,7 +9339,7 @@
         <v>43287</v>
       </c>
       <c r="J134" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -9076,12 +9351,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B135" t="s">
-        <v>514</v>
+        <v>509</v>
+      </c>
+      <c r="D135" t="s">
+        <v>773</v>
+      </c>
+      <c r="E135" t="s">
+        <v>106</v>
+      </c>
+      <c r="F135" t="s">
+        <v>774</v>
       </c>
       <c r="G135">
         <v>30</v>
@@ -9090,7 +9374,7 @@
         <v>43287</v>
       </c>
       <c r="J135" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -9102,12 +9386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B136" t="s">
-        <v>517</v>
+        <v>512</v>
+      </c>
+      <c r="D136" t="s">
+        <v>772</v>
+      </c>
+      <c r="E136" t="s">
+        <v>774</v>
+      </c>
+      <c r="F136" t="s">
+        <v>106</v>
       </c>
       <c r="G136">
         <v>30</v>
@@ -9116,7 +9409,7 @@
         <v>43287</v>
       </c>
       <c r="J136" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -9128,12 +9421,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B137" t="s">
-        <v>520</v>
+        <v>515</v>
+      </c>
+      <c r="D137" t="s">
+        <v>772</v>
+      </c>
+      <c r="E137" t="s">
+        <v>110</v>
+      </c>
+      <c r="F137" t="s">
+        <v>774</v>
       </c>
       <c r="G137">
         <v>30</v>
@@ -9142,7 +9444,7 @@
         <v>43287</v>
       </c>
       <c r="J137" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
@@ -9154,12 +9456,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B138" t="s">
-        <v>522</v>
+        <v>517</v>
+      </c>
+      <c r="D138" t="s">
+        <v>772</v>
+      </c>
+      <c r="E138" t="s">
+        <v>110</v>
+      </c>
+      <c r="F138" t="s">
+        <v>106</v>
       </c>
       <c r="G138">
         <v>30</v>
@@ -9168,7 +9479,7 @@
         <v>43287</v>
       </c>
       <c r="J138" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -9180,12 +9491,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B139" t="s">
-        <v>525</v>
+        <v>520</v>
+      </c>
+      <c r="D139" t="s">
+        <v>776</v>
+      </c>
+      <c r="E139" t="s">
+        <v>774</v>
+      </c>
+      <c r="F139" t="s">
+        <v>110</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -9194,7 +9514,7 @@
         <v>43287</v>
       </c>
       <c r="J139" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -9206,12 +9526,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B140" t="s">
-        <v>528</v>
+        <v>523</v>
+      </c>
+      <c r="D140" t="s">
+        <v>777</v>
+      </c>
+      <c r="E140" t="s">
+        <v>106</v>
+      </c>
+      <c r="F140" t="s">
+        <v>110</v>
       </c>
       <c r="G140">
         <v>30</v>
@@ -9220,7 +9549,7 @@
         <v>43287</v>
       </c>
       <c r="J140" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
@@ -9232,12 +9561,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>526</v>
+      </c>
+      <c r="D141" t="s">
+        <v>776</v>
+      </c>
+      <c r="E141" t="s">
+        <v>774</v>
+      </c>
+      <c r="F141" t="s">
+        <v>110</v>
       </c>
       <c r="G141">
         <v>30</v>
@@ -9246,7 +9584,7 @@
         <v>43287</v>
       </c>
       <c r="J141" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -9258,12 +9596,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B142" t="s">
-        <v>534</v>
+        <v>529</v>
+      </c>
+      <c r="D142" t="s">
+        <v>777</v>
+      </c>
+      <c r="E142" t="s">
+        <v>106</v>
+      </c>
+      <c r="F142" t="s">
+        <v>110</v>
       </c>
       <c r="G142">
         <v>30</v>
@@ -9272,7 +9619,7 @@
         <v>43287</v>
       </c>
       <c r="J142" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -9284,12 +9631,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B143" t="s">
-        <v>537</v>
+        <v>532</v>
+      </c>
+      <c r="D143" t="s">
+        <v>773</v>
+      </c>
+      <c r="E143" t="s">
+        <v>106</v>
+      </c>
+      <c r="F143" t="s">
+        <v>774</v>
       </c>
       <c r="G143">
         <v>30</v>
@@ -9298,7 +9654,7 @@
         <v>43290</v>
       </c>
       <c r="J143" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -9316,15 +9672,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B144" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C144" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D144" t="s">
+        <v>773</v>
+      </c>
+      <c r="E144" t="s">
+        <v>106</v>
+      </c>
+      <c r="F144" t="s">
+        <v>774</v>
       </c>
       <c r="G144">
         <v>22.7</v>
@@ -9333,7 +9698,7 @@
         <v>43290</v>
       </c>
       <c r="J144" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K144" t="b">
         <v>1</v>
@@ -9354,15 +9719,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B145" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C145" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D145" t="s">
+        <v>773</v>
+      </c>
+      <c r="E145" t="s">
+        <v>106</v>
+      </c>
+      <c r="F145" t="s">
+        <v>774</v>
       </c>
       <c r="G145">
         <v>37.4</v>
@@ -9371,7 +9745,7 @@
         <v>43290</v>
       </c>
       <c r="J145" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="K145" t="b">
         <v>1</v>
@@ -9392,15 +9766,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B146" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C146" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D146" t="s">
+        <v>773</v>
+      </c>
+      <c r="E146" t="s">
+        <v>106</v>
+      </c>
+      <c r="F146" t="s">
+        <v>774</v>
       </c>
       <c r="G146">
         <v>23.5</v>
@@ -9409,7 +9792,7 @@
         <v>43290</v>
       </c>
       <c r="J146" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="K146" t="b">
         <v>1</v>
@@ -9430,15 +9813,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B147" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C147" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D147" t="s">
+        <v>776</v>
+      </c>
+      <c r="E147" t="s">
+        <v>774</v>
+      </c>
+      <c r="F147" t="s">
+        <v>110</v>
       </c>
       <c r="G147">
         <v>44</v>
@@ -9447,7 +9839,7 @@
         <v>43290</v>
       </c>
       <c r="J147" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K147" t="b">
         <v>1</v>
@@ -9468,15 +9860,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B148" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C148" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D148" t="s">
+        <v>777</v>
+      </c>
+      <c r="E148" t="s">
+        <v>106</v>
+      </c>
+      <c r="F148" t="s">
+        <v>110</v>
       </c>
       <c r="G148">
         <v>32.799999999999997</v>
@@ -9485,7 +9886,7 @@
         <v>43290</v>
       </c>
       <c r="J148" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
@@ -9506,15 +9907,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B149" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C149" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D149" t="s">
+        <v>776</v>
+      </c>
+      <c r="E149" t="s">
+        <v>774</v>
+      </c>
+      <c r="F149" t="s">
+        <v>110</v>
       </c>
       <c r="G149">
         <v>20.8</v>
@@ -9523,7 +9933,7 @@
         <v>43290</v>
       </c>
       <c r="J149" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K149" t="b">
         <v>1</v>
@@ -9544,15 +9954,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B150" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C150" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="D150" t="s">
+        <v>777</v>
+      </c>
+      <c r="E150" t="s">
+        <v>106</v>
+      </c>
+      <c r="F150" t="s">
+        <v>110</v>
       </c>
       <c r="G150">
         <v>32</v>
@@ -9561,7 +9980,7 @@
         <v>43290</v>
       </c>
       <c r="J150" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K150" t="b">
         <v>1</v>
@@ -9582,19 +10001,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -9608,7 +10027,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -9622,7 +10041,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -9636,7 +10055,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -9648,70 +10067,70 @@
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H160" s="3"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="3:15">
+    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H161" s="3"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="3:15">
+    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H162" s="3"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="3:15">
+    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H163" s="3"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="3:15">
+    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H164" s="3"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="3:15">
+    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="3:15">
+    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H166" s="3"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="3:15">
+    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H167" s="3"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="3:15">
+    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H168" s="3"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="3:15">
+    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H169" s="3"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="3:15">
+    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H170" s="3"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="3:15">
+    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H171" s="3"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="3:15">
+    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H172" s="3"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="3:15">
+    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H173" s="3"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="3:15" ht="15.6" customHeight="1">
+    <row r="174" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -9725,7 +10144,7 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="3:15" ht="14.45" customHeight="1">
+    <row r="175" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -9739,7 +10158,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="3:15">
+    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -9753,7 +10172,7 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="177" spans="3:15">
+    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -9767,7 +10186,7 @@
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
     </row>
-    <row r="178" spans="3:15" ht="14.45" customHeight="1">
+    <row r="178" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -9781,7 +10200,7 @@
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
     </row>
-    <row r="179" spans="3:15">
+    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -9795,7 +10214,7 @@
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
     </row>
-    <row r="180" spans="3:15">
+    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -9809,7 +10228,7 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181" spans="3:15">
+    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
@@ -9822,7 +10241,7 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
     </row>
-    <row r="182" spans="3:15">
+    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -9834,7 +10253,7 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
     </row>
-    <row r="183" spans="3:15">
+    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -9846,54 +10265,54 @@
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
     </row>
-    <row r="184" spans="3:15">
+    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H184" s="3"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185" spans="3:15">
+    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H185" s="3"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186" spans="3:15">
+    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H186" s="3"/>
       <c r="O186" s="4"/>
     </row>
-    <row r="187" spans="3:15">
+    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H187" s="3"/>
       <c r="O187" s="4"/>
     </row>
-    <row r="188" spans="3:15">
+    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O188" s="4"/>
     </row>
-    <row r="189" spans="3:15">
+    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O189" s="4"/>
     </row>
-    <row r="190" spans="3:15">
+    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O190" s="4"/>
     </row>
-    <row r="191" spans="3:15">
+    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O191" s="4"/>
     </row>
-    <row r="192" spans="3:15">
+    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
       <c r="O192" s="4"/>
     </row>
-    <row r="193" spans="15:15">
+    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O193" s="4"/>
     </row>
-    <row r="194" spans="15:15">
+    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O194" s="4"/>
     </row>
-    <row r="195" spans="15:15">
+    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O195" s="4"/>
     </row>
-    <row r="196" spans="15:15">
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O196" s="4"/>
     </row>
-    <row r="197" spans="15:15">
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O197" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O197" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O197">
     <sortState ref="A2:O197">
       <sortCondition ref="I1:I197"/>
     </sortState>
@@ -10156,24 +10575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" filterMode="1"/>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
-      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10223,15 +10642,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E2" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B2,3),1)</f>
@@ -10245,7 +10664,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -10257,21 +10676,21 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E27" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
@@ -10285,7 +10704,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -10297,15 +10716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -10319,7 +10738,7 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -10331,21 +10750,21 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -10359,7 +10778,7 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -10371,21 +10790,21 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P5" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D6" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -10399,7 +10818,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10411,21 +10830,21 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -10439,7 +10858,7 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -10451,15 +10870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -10473,7 +10892,7 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10485,15 +10904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -10507,7 +10926,7 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -10519,15 +10938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -10541,7 +10960,7 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -10553,18 +10972,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -10581,7 +11000,7 @@
         <v>43217</v>
       </c>
       <c r="J11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -10596,18 +11015,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D12" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -10624,7 +11043,7 @@
         <v>43217</v>
       </c>
       <c r="J12" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -10639,18 +11058,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B13" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D13" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -10667,7 +11086,7 @@
         <v>43217</v>
       </c>
       <c r="J13" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -10682,18 +11101,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B14" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C14" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D14" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -10710,7 +11129,7 @@
         <v>43217</v>
       </c>
       <c r="J14" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -10725,18 +11144,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -10753,7 +11172,7 @@
         <v>43217</v>
       </c>
       <c r="J15" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -10768,18 +11187,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B16" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C16" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D16" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -10796,7 +11215,7 @@
         <v>43217</v>
       </c>
       <c r="J16" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -10811,18 +11230,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C17" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D17" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -10839,7 +11258,7 @@
         <v>43217</v>
       </c>
       <c r="J17" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -10854,18 +11273,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C18" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D18" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -10882,7 +11301,7 @@
         <v>43217</v>
       </c>
       <c r="J18" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -10897,18 +11316,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -10925,7 +11344,7 @@
         <v>43217</v>
       </c>
       <c r="J19" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -10940,18 +11359,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C20" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D20" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -10968,7 +11387,7 @@
         <v>43217</v>
       </c>
       <c r="J20" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -10983,18 +11402,18 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C21" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D21" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -11011,7 +11430,7 @@
         <v>43217</v>
       </c>
       <c r="J21" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -11026,18 +11445,18 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B22" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C22" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D22" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -11054,7 +11473,7 @@
         <v>43217</v>
       </c>
       <c r="J22" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -11069,18 +11488,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B23" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C23" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D23" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -11097,7 +11516,7 @@
         <v>43217</v>
       </c>
       <c r="J23" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -11112,18 +11531,18 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C24" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D24" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -11140,7 +11559,7 @@
         <v>43217</v>
       </c>
       <c r="J24" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -11155,18 +11574,18 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C25" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D25" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -11183,7 +11602,7 @@
         <v>43217</v>
       </c>
       <c r="J25" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -11198,18 +11617,18 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B26" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C26" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -11226,7 +11645,7 @@
         <v>43217</v>
       </c>
       <c r="J26" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -11241,18 +11660,18 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C27" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D27" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -11269,7 +11688,7 @@
         <v>43217</v>
       </c>
       <c r="J27" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -11284,18 +11703,18 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C28" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D28" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -11310,7 +11729,7 @@
         <v>43203</v>
       </c>
       <c r="J28" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -11322,15 +11741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C29" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E29" t="str">
         <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,3),1))</f>
@@ -11347,7 +11766,7 @@
         <v>43224</v>
       </c>
       <c r="J29" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -11362,15 +11781,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C30" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ref="E30:E42" si="2">"UNS"&amp;UPPER(LEFT(RIGHT(B30,3),1))</f>
@@ -11387,7 +11806,7 @@
         <v>43224</v>
       </c>
       <c r="J30" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -11402,15 +11821,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B31" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -11427,7 +11846,7 @@
         <v>43224</v>
       </c>
       <c r="J31" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -11442,15 +11861,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B32" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C32" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -11467,7 +11886,7 @@
         <v>43224</v>
       </c>
       <c r="J32" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -11482,15 +11901,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B33" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C33" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -11507,7 +11926,7 @@
         <v>43224</v>
       </c>
       <c r="J33" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -11522,15 +11941,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B34" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C34" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -11547,7 +11966,7 @@
         <v>43224</v>
       </c>
       <c r="J34" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -11562,15 +11981,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B35" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C35" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -11587,7 +12006,7 @@
         <v>43224</v>
       </c>
       <c r="J35" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -11602,15 +12021,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B36" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -11627,7 +12046,7 @@
         <v>43224</v>
       </c>
       <c r="J36" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -11642,15 +12061,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B37" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -11667,7 +12086,7 @@
         <v>43224</v>
       </c>
       <c r="J37" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -11682,15 +12101,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B38" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C38" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -11707,7 +12126,7 @@
         <v>43224</v>
       </c>
       <c r="J38" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -11722,15 +12141,15 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B39" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C39" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -11747,7 +12166,7 @@
         <v>43224</v>
       </c>
       <c r="J39" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -11762,15 +12181,15 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B40" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C40" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -11787,7 +12206,7 @@
         <v>43224</v>
       </c>
       <c r="J40" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -11802,15 +12221,15 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B41" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C41" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -11827,7 +12246,7 @@
         <v>43224</v>
       </c>
       <c r="J41" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -11842,15 +12261,15 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B42" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C42" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -11867,7 +12286,7 @@
         <v>43224</v>
       </c>
       <c r="J42" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -11882,15 +12301,15 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C43" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -11899,7 +12318,7 @@
         <v>43237</v>
       </c>
       <c r="J43" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -11914,21 +12333,21 @@
         <v>1173</v>
       </c>
       <c r="O43" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P43" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C44" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -11937,7 +12356,7 @@
         <v>43237</v>
       </c>
       <c r="J44" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -11952,21 +12371,21 @@
         <v>1164</v>
       </c>
       <c r="O44" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P44" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C45" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G45">
         <v>30</v>
@@ -11975,7 +12394,7 @@
         <v>43237</v>
       </c>
       <c r="J45" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -11990,21 +12409,21 @@
         <v>1164</v>
       </c>
       <c r="O45" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C46" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G46">
         <v>30</v>
@@ -12013,7 +12432,7 @@
         <v>43237</v>
       </c>
       <c r="J46" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -12028,21 +12447,21 @@
         <v>1165</v>
       </c>
       <c r="O46" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P46" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C47" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -12051,7 +12470,7 @@
         <v>43237</v>
       </c>
       <c r="J47" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -12066,21 +12485,21 @@
         <v>1164</v>
       </c>
       <c r="O47" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P47" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B48" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C48" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -12089,7 +12508,7 @@
         <v>43237</v>
       </c>
       <c r="J48" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -12104,15 +12523,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B49" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C49" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G49">
         <v>30</v>
@@ -12121,7 +12540,7 @@
         <v>43237</v>
       </c>
       <c r="J49" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -12136,15 +12555,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B50" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C50" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G50">
         <v>30</v>
@@ -12153,7 +12572,7 @@
         <v>43237</v>
       </c>
       <c r="J50" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -12168,15 +12587,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B51" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C51" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G51">
         <v>30</v>
@@ -12185,7 +12604,7 @@
         <v>43237</v>
       </c>
       <c r="J51" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -12200,15 +12619,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C52" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G52">
         <v>30</v>
@@ -12217,7 +12636,7 @@
         <v>43287</v>
       </c>
       <c r="J52" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -12232,21 +12651,21 @@
         <v>624</v>
       </c>
       <c r="O52" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C53" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -12255,7 +12674,7 @@
         <v>43287</v>
       </c>
       <c r="J53" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -12270,21 +12689,21 @@
         <v>959</v>
       </c>
       <c r="O53" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G54">
         <v>30</v>
@@ -12293,7 +12712,7 @@
         <v>43287</v>
       </c>
       <c r="J54" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -12308,21 +12727,21 @@
         <v>638</v>
       </c>
       <c r="O54" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C55" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G55">
         <v>30</v>
@@ -12331,7 +12750,7 @@
         <v>43287</v>
       </c>
       <c r="J55" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -12346,21 +12765,21 @@
         <v>1023</v>
       </c>
       <c r="O55" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G56">
         <v>20</v>
@@ -12369,7 +12788,7 @@
         <v>43287</v>
       </c>
       <c r="J56" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -12384,21 +12803,21 @@
         <v>1279</v>
       </c>
       <c r="O56" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C57" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G57">
         <v>30</v>
@@ -12407,7 +12826,7 @@
         <v>43287</v>
       </c>
       <c r="J57" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -12422,21 +12841,21 @@
         <v>653</v>
       </c>
       <c r="O57" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C58" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G58">
         <v>30</v>
@@ -12445,7 +12864,7 @@
         <v>43287</v>
       </c>
       <c r="J58" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -12460,21 +12879,21 @@
         <v>576</v>
       </c>
       <c r="O58" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C59" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -12483,7 +12902,7 @@
         <v>43287</v>
       </c>
       <c r="J59" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -12498,21 +12917,21 @@
         <v>1009</v>
       </c>
       <c r="O59" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C60" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -12521,7 +12940,7 @@
         <v>43287</v>
       </c>
       <c r="J60" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -12536,21 +12955,21 @@
         <v>1305</v>
       </c>
       <c r="O60" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D61" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E61" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B61,3),1)</f>
@@ -12567,7 +12986,7 @@
         <v>43014</v>
       </c>
       <c r="J61" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -12579,21 +12998,21 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P61" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D62" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E62" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B62,3),1)</f>
@@ -12610,7 +13029,7 @@
         <v>43014</v>
       </c>
       <c r="J62" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -12622,21 +13041,21 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P62" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C63" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ref="E63" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
@@ -12653,7 +13072,7 @@
         <v>43014</v>
       </c>
       <c r="J63" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -12668,21 +13087,21 @@
         <v>2924</v>
       </c>
       <c r="O63" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P63" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D64" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ref="E64:E75" si="6">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
@@ -12699,7 +13118,7 @@
         <v>43014</v>
       </c>
       <c r="J64" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -12711,21 +13130,21 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P64" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D65" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="6"/>
@@ -12742,7 +13161,7 @@
         <v>43014</v>
       </c>
       <c r="J65" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -12754,21 +13173,21 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P65" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D66" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="6"/>
@@ -12785,7 +13204,7 @@
         <v>43014</v>
       </c>
       <c r="J66" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -12797,21 +13216,21 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P66" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D67" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="6"/>
@@ -12828,7 +13247,7 @@
         <v>43014</v>
       </c>
       <c r="J67" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -12840,21 +13259,21 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P67" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D68" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="6"/>
@@ -12871,7 +13290,7 @@
         <v>43014</v>
       </c>
       <c r="J68" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -12883,21 +13302,21 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P68" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D69" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="6"/>
@@ -12914,7 +13333,7 @@
         <v>43014</v>
       </c>
       <c r="J69" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -12926,21 +13345,21 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P69" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D70" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="6"/>
@@ -12957,7 +13376,7 @@
         <v>43197</v>
       </c>
       <c r="J70" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -12969,21 +13388,21 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P70" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="D71" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="6"/>
@@ -13000,7 +13419,7 @@
         <v>43014</v>
       </c>
       <c r="J71" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -13012,21 +13431,21 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P71" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D72" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="6"/>
@@ -13043,7 +13462,7 @@
         <v>43014</v>
       </c>
       <c r="J72" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -13055,21 +13474,21 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P72" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D73" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="6"/>
@@ -13086,7 +13505,7 @@
         <v>43014</v>
       </c>
       <c r="J73" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -13098,21 +13517,21 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P73" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D74" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="6"/>
@@ -13129,7 +13548,7 @@
         <v>43014</v>
       </c>
       <c r="J74" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -13141,21 +13560,21 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P74" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D75" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="6"/>
@@ -13172,7 +13591,7 @@
         <v>43014</v>
       </c>
       <c r="J75" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -13184,21 +13603,21 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P75" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" t="str">
@@ -13216,7 +13635,7 @@
         <v>43290</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K76" s="4" t="b">
         <v>0</v>
@@ -13231,21 +13650,21 @@
         <v>438</v>
       </c>
       <c r="O76" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P76" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" t="str">
@@ -13263,7 +13682,7 @@
         <v>43290</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="K77" s="4" t="b">
         <v>0</v>
@@ -13278,21 +13697,21 @@
         <v>447</v>
       </c>
       <c r="O77" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P77" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" t="str">
@@ -13310,7 +13729,7 @@
         <v>43290</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K78" s="4" t="b">
         <v>0</v>
@@ -13325,21 +13744,21 @@
         <v>428</v>
       </c>
       <c r="O78" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P78" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" t="str">
@@ -13357,7 +13776,7 @@
         <v>43290</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="K79" s="4" t="b">
         <v>0</v>
@@ -13372,14 +13791,14 @@
         <v>437</v>
       </c>
       <c r="O79" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P79" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P79" xr:uid="{D35FAA43-417B-8645-9DC1-BF8E1921E7CC}">
+  <autoFilter ref="A1:P79">
     <filterColumn colId="14">
       <filters>
         <filter val="ASSGIB01"/>
@@ -13673,90 +14092,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -13765,17 +14184,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -13849,7 +14268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -13926,7 +14345,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -14003,9 +14422,9 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>33.17</v>
@@ -14080,7 +14499,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -14157,7 +14576,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -14234,9 +14653,9 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7">
         <v>33.65</v>
@@ -14257,7 +14676,7 @@
         <v>30.31</v>
       </c>
       <c r="H7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I7">
         <v>42.84</v>
@@ -14308,15 +14727,15 @@
         <v>42.06</v>
       </c>
       <c r="Y7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C8">
         <v>42.96</v>
@@ -14370,7 +14789,7 @@
         <v>47.56</v>
       </c>
       <c r="T8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="U8">
         <v>42.56</v>
@@ -14385,12 +14804,12 @@
         <v>49.82</v>
       </c>
       <c r="Y8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B9">
         <v>41.02</v>
@@ -14432,653 +14851,653 @@
         <v>47.84</v>
       </c>
       <c r="O9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="P9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Q9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="R9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="T9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="U9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="V9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="W9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="X9" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Y9" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G10" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H10">
         <v>9.25</v>
       </c>
       <c r="I10" t="s">
+        <v>761</v>
+      </c>
+      <c r="J10" t="s">
+        <v>761</v>
+      </c>
+      <c r="K10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L10" t="s">
+        <v>761</v>
+      </c>
+      <c r="M10" t="s">
+        <v>761</v>
+      </c>
+      <c r="N10" t="s">
+        <v>761</v>
+      </c>
+      <c r="O10" t="s">
+        <v>761</v>
+      </c>
+      <c r="P10" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>761</v>
+      </c>
+      <c r="R10" t="s">
+        <v>761</v>
+      </c>
+      <c r="S10" t="s">
+        <v>761</v>
+      </c>
+      <c r="T10" t="s">
+        <v>761</v>
+      </c>
+      <c r="U10" t="s">
+        <v>761</v>
+      </c>
+      <c r="V10" t="s">
+        <v>761</v>
+      </c>
+      <c r="W10" t="s">
+        <v>761</v>
+      </c>
+      <c r="X10" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C11" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E11" t="s">
+        <v>761</v>
+      </c>
+      <c r="F11" t="s">
+        <v>761</v>
+      </c>
+      <c r="G11" t="s">
+        <v>761</v>
+      </c>
+      <c r="H11" t="s">
+        <v>761</v>
+      </c>
+      <c r="I11" t="s">
+        <v>761</v>
+      </c>
+      <c r="J11" t="s">
+        <v>761</v>
+      </c>
+      <c r="K11" t="s">
+        <v>761</v>
+      </c>
+      <c r="L11" t="s">
+        <v>761</v>
+      </c>
+      <c r="M11" t="s">
+        <v>761</v>
+      </c>
+      <c r="N11" t="s">
+        <v>761</v>
+      </c>
+      <c r="O11" t="s">
+        <v>761</v>
+      </c>
+      <c r="P11" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>761</v>
+      </c>
+      <c r="R11" t="s">
+        <v>761</v>
+      </c>
+      <c r="S11" t="s">
+        <v>761</v>
+      </c>
+      <c r="T11" t="s">
+        <v>761</v>
+      </c>
+      <c r="U11" t="s">
+        <v>761</v>
+      </c>
+      <c r="V11" t="s">
+        <v>761</v>
+      </c>
+      <c r="W11" t="s">
+        <v>761</v>
+      </c>
+      <c r="X11" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D12" t="s">
+        <v>761</v>
+      </c>
+      <c r="E12" t="s">
+        <v>761</v>
+      </c>
+      <c r="F12" t="s">
+        <v>761</v>
+      </c>
+      <c r="G12" t="s">
+        <v>761</v>
+      </c>
+      <c r="H12" t="s">
+        <v>761</v>
+      </c>
+      <c r="I12" t="s">
+        <v>761</v>
+      </c>
+      <c r="J12" t="s">
+        <v>761</v>
+      </c>
+      <c r="K12" t="s">
+        <v>761</v>
+      </c>
+      <c r="L12" t="s">
+        <v>761</v>
+      </c>
+      <c r="M12" t="s">
+        <v>761</v>
+      </c>
+      <c r="N12" t="s">
+        <v>761</v>
+      </c>
+      <c r="O12" t="s">
+        <v>761</v>
+      </c>
+      <c r="P12" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>761</v>
+      </c>
+      <c r="R12" t="s">
+        <v>761</v>
+      </c>
+      <c r="S12" t="s">
+        <v>761</v>
+      </c>
+      <c r="T12" t="s">
+        <v>761</v>
+      </c>
+      <c r="U12" t="s">
+        <v>761</v>
+      </c>
+      <c r="V12" t="s">
+        <v>761</v>
+      </c>
+      <c r="W12" t="s">
+        <v>761</v>
+      </c>
+      <c r="X12" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>765</v>
+      </c>
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D13" t="s">
+        <v>761</v>
+      </c>
+      <c r="E13" t="s">
+        <v>761</v>
+      </c>
+      <c r="F13" t="s">
+        <v>761</v>
+      </c>
+      <c r="G13" t="s">
+        <v>761</v>
+      </c>
+      <c r="H13" t="s">
+        <v>761</v>
+      </c>
+      <c r="I13" t="s">
+        <v>761</v>
+      </c>
+      <c r="J13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K13" t="s">
+        <v>761</v>
+      </c>
+      <c r="L13" t="s">
+        <v>761</v>
+      </c>
+      <c r="M13" t="s">
+        <v>761</v>
+      </c>
+      <c r="N13" t="s">
+        <v>761</v>
+      </c>
+      <c r="O13" t="s">
+        <v>761</v>
+      </c>
+      <c r="P13" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>761</v>
+      </c>
+      <c r="R13" t="s">
+        <v>761</v>
+      </c>
+      <c r="S13" t="s">
+        <v>761</v>
+      </c>
+      <c r="T13" t="s">
+        <v>761</v>
+      </c>
+      <c r="U13" t="s">
+        <v>761</v>
+      </c>
+      <c r="V13" t="s">
+        <v>761</v>
+      </c>
+      <c r="W13" t="s">
+        <v>761</v>
+      </c>
+      <c r="X13" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>766</v>
       </c>
-      <c r="J10" t="s">
-        <v>766</v>
-      </c>
-      <c r="K10" t="s">
-        <v>766</v>
-      </c>
-      <c r="L10" t="s">
-        <v>766</v>
-      </c>
-      <c r="M10" t="s">
-        <v>766</v>
-      </c>
-      <c r="N10" t="s">
-        <v>766</v>
-      </c>
-      <c r="O10" t="s">
-        <v>766</v>
-      </c>
-      <c r="P10" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>766</v>
-      </c>
-      <c r="R10" t="s">
-        <v>766</v>
-      </c>
-      <c r="S10" t="s">
-        <v>766</v>
-      </c>
-      <c r="T10" t="s">
-        <v>766</v>
-      </c>
-      <c r="U10" t="s">
-        <v>766</v>
-      </c>
-      <c r="V10" t="s">
-        <v>766</v>
-      </c>
-      <c r="W10" t="s">
-        <v>766</v>
-      </c>
-      <c r="X10" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" t="s">
+        <v>761</v>
+      </c>
+      <c r="E14" t="s">
+        <v>761</v>
+      </c>
+      <c r="F14" t="s">
+        <v>761</v>
+      </c>
+      <c r="G14" t="s">
+        <v>761</v>
+      </c>
+      <c r="H14" t="s">
+        <v>761</v>
+      </c>
+      <c r="I14" t="s">
+        <v>761</v>
+      </c>
+      <c r="J14" t="s">
+        <v>761</v>
+      </c>
+      <c r="K14" t="s">
+        <v>761</v>
+      </c>
+      <c r="L14" t="s">
+        <v>761</v>
+      </c>
+      <c r="M14" t="s">
+        <v>761</v>
+      </c>
+      <c r="N14" t="s">
+        <v>761</v>
+      </c>
+      <c r="O14" t="s">
+        <v>761</v>
+      </c>
+      <c r="P14" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>761</v>
+      </c>
+      <c r="R14" t="s">
+        <v>761</v>
+      </c>
+      <c r="S14" t="s">
+        <v>761</v>
+      </c>
+      <c r="T14" t="s">
+        <v>761</v>
+      </c>
+      <c r="U14" t="s">
+        <v>761</v>
+      </c>
+      <c r="V14" t="s">
+        <v>761</v>
+      </c>
+      <c r="W14" t="s">
+        <v>761</v>
+      </c>
+      <c r="X14" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>767</v>
+      </c>
+      <c r="B15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C15" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" t="s">
+        <v>761</v>
+      </c>
+      <c r="F15" t="s">
+        <v>761</v>
+      </c>
+      <c r="G15" t="s">
+        <v>761</v>
+      </c>
+      <c r="H15" t="s">
+        <v>761</v>
+      </c>
+      <c r="I15" t="s">
+        <v>761</v>
+      </c>
+      <c r="J15" t="s">
+        <v>761</v>
+      </c>
+      <c r="K15" t="s">
+        <v>761</v>
+      </c>
+      <c r="L15" t="s">
+        <v>761</v>
+      </c>
+      <c r="M15" t="s">
+        <v>761</v>
+      </c>
+      <c r="N15" t="s">
+        <v>761</v>
+      </c>
+      <c r="O15" t="s">
+        <v>761</v>
+      </c>
+      <c r="P15" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>761</v>
+      </c>
+      <c r="R15" t="s">
+        <v>761</v>
+      </c>
+      <c r="S15" t="s">
+        <v>761</v>
+      </c>
+      <c r="T15" t="s">
+        <v>761</v>
+      </c>
+      <c r="U15" t="s">
+        <v>761</v>
+      </c>
+      <c r="V15" t="s">
+        <v>761</v>
+      </c>
+      <c r="W15" t="s">
+        <v>761</v>
+      </c>
+      <c r="X15" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>768</v>
       </c>
-      <c r="B11" t="s">
-        <v>766</v>
-      </c>
-      <c r="C11" t="s">
-        <v>766</v>
-      </c>
-      <c r="D11" t="s">
-        <v>766</v>
-      </c>
-      <c r="E11" t="s">
-        <v>766</v>
-      </c>
-      <c r="F11" t="s">
-        <v>766</v>
-      </c>
-      <c r="G11" t="s">
-        <v>766</v>
-      </c>
-      <c r="H11" t="s">
-        <v>766</v>
-      </c>
-      <c r="I11" t="s">
-        <v>766</v>
-      </c>
-      <c r="J11" t="s">
-        <v>766</v>
-      </c>
-      <c r="K11" t="s">
-        <v>766</v>
-      </c>
-      <c r="L11" t="s">
-        <v>766</v>
-      </c>
-      <c r="M11" t="s">
-        <v>766</v>
-      </c>
-      <c r="N11" t="s">
-        <v>766</v>
-      </c>
-      <c r="O11" t="s">
-        <v>766</v>
-      </c>
-      <c r="P11" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>766</v>
-      </c>
-      <c r="R11" t="s">
-        <v>766</v>
-      </c>
-      <c r="S11" t="s">
-        <v>766</v>
-      </c>
-      <c r="T11" t="s">
-        <v>766</v>
-      </c>
-      <c r="U11" t="s">
-        <v>766</v>
-      </c>
-      <c r="V11" t="s">
-        <v>766</v>
-      </c>
-      <c r="W11" t="s">
-        <v>766</v>
-      </c>
-      <c r="X11" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="s">
-        <v>769</v>
-      </c>
-      <c r="B12" t="s">
-        <v>766</v>
-      </c>
-      <c r="C12" t="s">
-        <v>766</v>
-      </c>
-      <c r="D12" t="s">
-        <v>766</v>
-      </c>
-      <c r="E12" t="s">
-        <v>766</v>
-      </c>
-      <c r="F12" t="s">
-        <v>766</v>
-      </c>
-      <c r="G12" t="s">
-        <v>766</v>
-      </c>
-      <c r="H12" t="s">
-        <v>766</v>
-      </c>
-      <c r="I12" t="s">
-        <v>766</v>
-      </c>
-      <c r="J12" t="s">
-        <v>766</v>
-      </c>
-      <c r="K12" t="s">
-        <v>766</v>
-      </c>
-      <c r="L12" t="s">
-        <v>766</v>
-      </c>
-      <c r="M12" t="s">
-        <v>766</v>
-      </c>
-      <c r="N12" t="s">
-        <v>766</v>
-      </c>
-      <c r="O12" t="s">
-        <v>766</v>
-      </c>
-      <c r="P12" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>766</v>
-      </c>
-      <c r="R12" t="s">
-        <v>766</v>
-      </c>
-      <c r="S12" t="s">
-        <v>766</v>
-      </c>
-      <c r="T12" t="s">
-        <v>766</v>
-      </c>
-      <c r="U12" t="s">
-        <v>766</v>
-      </c>
-      <c r="V12" t="s">
-        <v>766</v>
-      </c>
-      <c r="W12" t="s">
-        <v>766</v>
-      </c>
-      <c r="X12" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="s">
-        <v>770</v>
-      </c>
-      <c r="B13" t="s">
-        <v>766</v>
-      </c>
-      <c r="C13" t="s">
-        <v>766</v>
-      </c>
-      <c r="D13" t="s">
-        <v>766</v>
-      </c>
-      <c r="E13" t="s">
-        <v>766</v>
-      </c>
-      <c r="F13" t="s">
-        <v>766</v>
-      </c>
-      <c r="G13" t="s">
-        <v>766</v>
-      </c>
-      <c r="H13" t="s">
-        <v>766</v>
-      </c>
-      <c r="I13" t="s">
-        <v>766</v>
-      </c>
-      <c r="J13" t="s">
-        <v>766</v>
-      </c>
-      <c r="K13" t="s">
-        <v>766</v>
-      </c>
-      <c r="L13" t="s">
-        <v>766</v>
-      </c>
-      <c r="M13" t="s">
-        <v>766</v>
-      </c>
-      <c r="N13" t="s">
-        <v>766</v>
-      </c>
-      <c r="O13" t="s">
-        <v>766</v>
-      </c>
-      <c r="P13" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>766</v>
-      </c>
-      <c r="R13" t="s">
-        <v>766</v>
-      </c>
-      <c r="S13" t="s">
-        <v>766</v>
-      </c>
-      <c r="T13" t="s">
-        <v>766</v>
-      </c>
-      <c r="U13" t="s">
-        <v>766</v>
-      </c>
-      <c r="V13" t="s">
-        <v>766</v>
-      </c>
-      <c r="W13" t="s">
-        <v>766</v>
-      </c>
-      <c r="X13" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>771</v>
-      </c>
-      <c r="B14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C14" t="s">
-        <v>766</v>
-      </c>
-      <c r="D14" t="s">
-        <v>766</v>
-      </c>
-      <c r="E14" t="s">
-        <v>766</v>
-      </c>
-      <c r="F14" t="s">
-        <v>766</v>
-      </c>
-      <c r="G14" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" t="s">
-        <v>766</v>
-      </c>
-      <c r="I14" t="s">
-        <v>766</v>
-      </c>
-      <c r="J14" t="s">
-        <v>766</v>
-      </c>
-      <c r="K14" t="s">
-        <v>766</v>
-      </c>
-      <c r="L14" t="s">
-        <v>766</v>
-      </c>
-      <c r="M14" t="s">
-        <v>766</v>
-      </c>
-      <c r="N14" t="s">
-        <v>766</v>
-      </c>
-      <c r="O14" t="s">
-        <v>766</v>
-      </c>
-      <c r="P14" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>766</v>
-      </c>
-      <c r="R14" t="s">
-        <v>766</v>
-      </c>
-      <c r="S14" t="s">
-        <v>766</v>
-      </c>
-      <c r="T14" t="s">
-        <v>766</v>
-      </c>
-      <c r="U14" t="s">
-        <v>766</v>
-      </c>
-      <c r="V14" t="s">
-        <v>766</v>
-      </c>
-      <c r="W14" t="s">
-        <v>766</v>
-      </c>
-      <c r="X14" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>772</v>
-      </c>
-      <c r="B15" t="s">
-        <v>766</v>
-      </c>
-      <c r="C15" t="s">
-        <v>766</v>
-      </c>
-      <c r="D15" t="s">
-        <v>766</v>
-      </c>
-      <c r="E15" t="s">
-        <v>766</v>
-      </c>
-      <c r="F15" t="s">
-        <v>766</v>
-      </c>
-      <c r="G15" t="s">
-        <v>766</v>
-      </c>
-      <c r="H15" t="s">
-        <v>766</v>
-      </c>
-      <c r="I15" t="s">
-        <v>766</v>
-      </c>
-      <c r="J15" t="s">
-        <v>766</v>
-      </c>
-      <c r="K15" t="s">
-        <v>766</v>
-      </c>
-      <c r="L15" t="s">
-        <v>766</v>
-      </c>
-      <c r="M15" t="s">
-        <v>766</v>
-      </c>
-      <c r="N15" t="s">
-        <v>766</v>
-      </c>
-      <c r="O15" t="s">
-        <v>766</v>
-      </c>
-      <c r="P15" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>766</v>
-      </c>
-      <c r="R15" t="s">
-        <v>766</v>
-      </c>
-      <c r="S15" t="s">
-        <v>766</v>
-      </c>
-      <c r="T15" t="s">
-        <v>766</v>
-      </c>
-      <c r="U15" t="s">
-        <v>766</v>
-      </c>
-      <c r="V15" t="s">
-        <v>766</v>
-      </c>
-      <c r="W15" t="s">
-        <v>766</v>
-      </c>
-      <c r="X15" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>773</v>
-      </c>
       <c r="B16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="J16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="L16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="N16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="O16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="P16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Q16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="R16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="T16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="U16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="V16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="W16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="X16">
         <v>48.14</v>
       </c>
       <c r="Y16" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="F17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="H17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="J17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="L17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="N17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="O17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="P17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Q17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="R17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="T17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="U17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="V17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="W17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="X17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="Y17" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murraylab\OneDrive\python\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$197</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="819">
   <si>
     <t>well</t>
   </si>
@@ -396,9 +396,6 @@
     <t>g1sc2 part</t>
   </si>
   <si>
-    <t>gRNA</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
     <t>P9m Pr-OR1-OR2 (cI); grown at 30C</t>
   </si>
   <si>
+    <t>promoter</t>
+  </si>
+  <si>
     <t>GGAGTGCTGTTCCGCTGGGCATGCTGAGCTAACACCGTGCGTGTTGACAATTTTACCTCTGGCGGTGATAATGGTTGCAGCTACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
   </si>
   <si>
@@ -678,6 +678,9 @@
     <t>Carb Resistance</t>
   </si>
   <si>
+    <t>vector</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -1068,6 +1071,9 @@
     <t>AmpFG</t>
   </si>
   <si>
+    <t>ooPart1</t>
+  </si>
+  <si>
     <t>AAAGGTCTCACGCTTAATGGTTTCTTAGACGTCAGGTGGCACTTTTCGGGGAAATGTGCGCGGAACCCCTATTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTAAAGTTCTGCTATGTGGCGCGGTATTATCCCGTATTGACGCCGGGCAAGAGCAACTCGGTCGCCGCATACACTATTCTCAGAATGACTTGGTTGAGTACTCACCAGTCACAGAAAAGCATCTTACGGATGGCATGACAGTAAGAGAATTATGCAGTGCTGCCATAACCATGAGTGATAACACTGCGGCCAACTTACTTCTGACAACGATCGGAGGACCGAAGGAGCTAACCGCTTTTTTGCACAACATGGGGGATCATGTAACTCGCCTTGATCGTTGGGAACCGGAGCTGAATGAAGCCATACCAAACGACGAGCGTGACACCACGATGCCTGTAGCAATGGCAACAACGTTGCGCAAACTATTAACTGGCGAACTACTTACTCTAGCTTCCCGGCAACAATTAATAGACTGGATGGAGGCGGATAAAGTTGCAGGACCACTTCTGCGCTCGGCCCTTCCGGCTGGCTGGTTTATTGCTGATAAATCTGGAGCCGGTGAGCGTGGGTCGCGCGGTATCATTGCAGCACTGGGGCCAGATGGTAAGCCCTCCCGTATCGTAGTTATCTACACGACGGGGAGTCAGGCAACTATGGATGAACGAAATAGACAGATCGCTGAGATAGGTGCCTCACTGATTAAGCATTGGTAACTGTCAGACCAAGTTTACTCATATATACTTTAGATTGATTTAAAACTTCATTTTTAATTTAAAAGGATCTAGGTGAAGATCCTTTTTGATAATCTCATGACCAAAATCCCTTATGCCTGAGACCTTT</t>
   </si>
   <si>
@@ -1308,6 +1314,9 @@
     <t>gQimScar2AEfor</t>
   </si>
   <si>
+    <t>construct</t>
+  </si>
+  <si>
     <t>AAAGGTCTCAGGAGAATTCGCGGCCGCTTCTAGAGACTAGTGGAAGACATGGAGCTAACACCGTGCGTGTTGACTATTTTACCTCTGGCGGTGATAATGATGGAGTCCAGACACCGGCTTTCCCCAGACCGCTAAACTGAAAGTTTACTAATAATTTTGTTTAACTTTAAGAAGGAGATATACAATGATGGTGAGCAAGGGCGAGGCAGTGATCAAGGAGTTCATGCGGTTCAAGGTGCACATGGAGGGCTCCATGAACGGCCACGAGTTCGAGATCGAGGGCGAGGGCGAGGGCCGCCCCTACGAGGGCACCCAGACCGCCAAGCTGAAGGTGACCAAGGGTGGCCCCCTGCCCTTCTCCTGGGACATCCTGTCCCCTCAGTTCATGTACGGCTCCAGGGCCTTCACCAAGCACCCCGCCGACATCCCCGACTACTATAAGCAGTCCTTCCCCGAGGGCTTCAAGTGGGAGCGCGTGATGAACTTCGAGGACGGCGGCGCCGTGACCGTGACCCAGGACACCTCCCTGGAGGACGGCACCCTGATCTACAAGGTGAAGCTCCGCGGCACCAACTTCCCTCCTGACGGCCCCGTAATGCAGAAGAAAACAATGGGCTGGGAAGCGTCCACCGAGCGGTTGTACCCCGAGGACGGCGTGCTGAAGGGCGACATTAAGATGGCCCTGCGCCTGAAGGACGGCGGCCGCTACCTGGCGGACTTCAAGACCACCTACAAGGCCAAGAAGCCCGTGCAGATGCCCGGCGCCTACAACGTCGACCGCAAGTTGGACATCACCTCCCACAACGAGGACTACACCGTGGTGGAACAGTACGAACGCTCCGAGGGCCGCCACTCCACCGGCGGCATGGACGAGCTGTACAAGAGGTCTAACGCATGAGAAAGCCCCCGGAAGATCACCTTCCGGGGGCTTTTTTATTGCGCCCTTGAGAGCTTATGTCTTCTACTAGGTAGAGACCAAA</t>
   </si>
   <si>
@@ -1494,9 +1503,6 @@
     <t>Pveg</t>
   </si>
   <si>
-    <t>promoter</t>
-  </si>
-  <si>
     <t>CCGGTCTCAGGAGAATTTTGTCAAAATAATTTTATTGACAACGTCTTATTAACGTTGATATAATTTAAATTTTATTTGACAAAAATGGGCTCGTGTTGTACAATAAATGTTACTAGAGACCCC</t>
   </si>
   <si>
@@ -1701,7 +1707,121 @@
     <t>tactgtgcttatgtgaatggtgaaattgtggtaaggtttcacggaacacgggatctgaaactttctcgaatagcaggtagagaccctgcaggcttcctcgctcactgactcgctgcgctcggtcgttcggctgcggcgagcggtatcagctcactcaaaggcggtaatacggttatccacagaatcaggggataacgcaggaaagaacatgtgagcaaaaggccagcaaaaggccaggaaccgtaaaaaggccgcgttgctggcgtttttccacaggctccgcccccctgacgagcatcacaaaaatcgacgctcaagtcagaggtggcgaaacccgacaggactataaagataccaggcgtttccccctggaagctccctcgtgcgctctcctgttccgaccctgccgcttaccggatacctgtccgcctttctcccttcgggaagcgtggcgctttctcatagctcacgctgtaggtatctcagttcggtgtaggtcgttcgctccaagctgggctgtgtgcacgaaccccccgttcagcccgaccgctgcgccttatccggtaactatcgtcttgagtccaacccggtaagacacgacttatcgccactggcagcagccactggtaacaggattagcagagcgaggtatgtaggcggtgctacagagttcttgaagtggtggcctaactacggctacactagaagaacagtatttggtatctgcgctctgctgaagccagttaccttcggaaaaagagttggtagctcttgatccggcaaacaaaccaccgctggtagcggtggtttttttgtttgcaagcagcagattacgcgcagaaaaaaaggatctcaagaagatcctttgatcttttctacggggtctgacgctcagtggaacgaaaactcacgttaagggattttggtcatgagattatcaaaaaggatcttcacctagatccttttaaattaaaaatgaagttttaaatcaatctaaagtatatatgagtaaacttggtctgacagttaccaatgcttaatcagtgaggcacctatctcagcgatctgtctatttcgttcatccatagttgcctgactccccgtcgtgtagataactacgatacgggagggcttaccatctggccccagtgctgcaatgataccgcgcgacccacgctcaccggctccagatttatcagcaataaaccagccagccggaagggccgagcgcagaagtggtcctgcaactttatccgcctccatccagtctattaattgttgccgggaagctagagtaagtagttcgccagttaatagtttgcgcaacgttgttgccattgctacaggcatcgtggtgtcacgctcgtcgtttggtatggcttcattcagctccggttcccaacgatcaaggcgagttacatgatcccccatgttgtgcaaaaaagcggttagctccttcggtcctccgatcgttgtcagaagtaagttggccgcagtgttatcactcatggttatggcagcactgcataattctcttactgtcatgccatccgtaagatgcttttctgtgactggtgagtactcaaccaagtcattctgagaatagtgtatgcggcgaccgagttgctcttgcccggcgtcaatacgggataataccgcgccacatagcagaactttaaaagtgctcatcattggaaaacgttcttcggggcgaaaactctcaaggatcttaccgctgttgagatccagttcgatgtaacccactcgtgcacccaactgatcttcagcatcttttactttcaccagcgtttctgggtgagcaaaaacaggaaggcaaaatgccgcaaaaaagggaataagggcgacacggaaatgttgaatactcatactcttcctttttcaatattattgaagcatttatcagggttattgtctcatgagcggatacatatttgaatgtatttagaaaaataaacaaataggggttccgcgcacatttccccgaaaagtgccacctgacgtctaagaaaccattattatcatgacattaacctataaaaataggcgtatcacgaggcagaatttcagataaaaaaaatccttagctttcgctaaggatgatttctggaattcgcggccggtctca</t>
   </si>
   <si>
-    <t>f</t>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>IsceIprotein</t>
+  </si>
+  <si>
+    <t>from John</t>
+  </si>
+  <si>
+    <t>TTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAAATGCATCAAAAAAACCAGGTAATGAACCTGGGTCCGAACTCTAAACTGCTGAAAGAATACAAATCCCAGCTGATCGAACTGAACATCGAACAGTTCGAAGCAGGTATCGGTCTGATCCTGGGTGATGCTTACATCCGTTCTCGTGATGAAGGTAAAACCTACTGTATGCAGTTCGAGTGGAAAAACAAAGCATACATGGACCACGTATGTCTGCTGTACGATCAGTGGGTACTGTCCCCGCCGCACAAAAAAGAACGTGTTAACCACCTGGGTAACCTGGTAATCACCTGGGGCGCCCAGACTTTCAAACACCAAGCTTTCAACAAACTGGCTAACCTGTTCATCGTTAACAACAAAAAAACCATCCCGAACAACCTGGTTGAAAACTACCTGACCCCGATGTCTCTGGCATACTGGTTCATGGATGATGGTGGTAAATGGGATTACAACAAAAACTCTACCAACAAATCGATCGTACTGAACACCCAGTCTTTCACTTTCGAAGAAGTAGAATACCTGGTTAAGGGTCTGCGTAACAAATTCCAACTGAACTGTTACGTAAAAATCAACAAAAACAAACCGATCATCTACATCGATTCTATGTCTTACCTGATCTTCTACAACCTGATCAAACCGTACCTGATCCCGCAGATGATGTACAAACTGCCGAACACTATCTCCTCCGAAACTTTCCTGAAAGCAGCGAACGACGAAAATTACGCCCTTGCAGCGTAAAGGTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAG</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>IsceIsite</t>
+  </si>
+  <si>
+    <t>annealed oligos</t>
+  </si>
+  <si>
+    <t>CCGGTCTCAGGAGTAGGGATAACAGGGTAATAGGTTGAGACCCC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>CinRAM2</t>
+  </si>
+  <si>
+    <t>C71m CinR Adam Meyer</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>LacIAM2</t>
+  </si>
+  <si>
+    <t>C72m LacI Adam Meyer</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>LasRAM2</t>
+  </si>
+  <si>
+    <t>C73m LasR Adam Meyer</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>LuxRAM</t>
+  </si>
+  <si>
+    <t>C74m LuxR Adam Meyer</t>
+  </si>
+  <si>
+    <t>TTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAAATGAAAAACATAAATGCCGACGACACATACAGAATAATTAATAAAATTAAAGCTTTTAGAAGCAATAATGATATTAATCAATGCTTATCTGATATGACTAAAATGGTACATTGTGAATATTATTTACTCGCGATCATTTATCCTCATTCTATGGTTAAATCTGATATTTCAATCCTAGATAATTACCCTAAAAAATGGAGGCAATATTATGATGACGCTAATTTAATAAAATATGATCCTATAGTAGATTATTCTAACTCCAATCATTCACCAATTAATTGGAATATATTTGAAAACAATGCTGTAAATAAAAAATCTCCAAATGTAATTAAAGAAGCGAAAACATCAGGTCTTATCACTGGGTTTAGTTTCCCTATTCATATGGCTAACAATGGCTTCGGAATGCTTAGTTTTGCATATTCAGAAAAAGACAACTATATAGATAGTTTATTTTTACATGCGTGTATGAACATACCATTAATTGTTCCTTCTCTAGTTGATAATTATCGAAAAATAAATATAGCAAATAATAAATCAAACAACGATTTAACCAAAAGAGAAAAAGAATGTTTAGCGTGGGCATGCGAAGGAAAAAGCTCTTGGGATATTTCAAAAATATTAGGATGCAGTGAGCGTACTGTCACTTTCCATTTAACCAATGCGCAAATGAAACTCAATACAACAAACCGCTGCCAAAGTATTTCTAAAGCAATTTTAACAGGAGCAATTGATTGCCCATACTTTAAAAATTGAAGGTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTT</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>NahRAM2</t>
+  </si>
+  <si>
+    <t>C75m NahR Adam Meyer</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>pCinAM2</t>
+  </si>
+  <si>
+    <t>p57m</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>pLasAM</t>
+  </si>
+  <si>
+    <t>p58m</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>pLuxAM</t>
+  </si>
+  <si>
+    <t>p59m</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>pSalAM2</t>
+  </si>
+  <si>
+    <t>P60m</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>pTacAM</t>
+  </si>
+  <si>
+    <t>p61m</t>
   </si>
   <si>
     <t>ptmdcast2m3-4</t>
@@ -2292,6 +2412,21 @@
     <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactaactttcagtttagcggtctgttttagagctagctattcgagaaagtttcagatcccgtgttccgtgtagcaagttaaaataaggctagtccgttatcaacttaaaccttaccacaatttcaccattcacataagcacaagtggcaccgagtcggtgcttttttaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
   </si>
   <si>
+    <t>Lys1_1-4</t>
+  </si>
+  <si>
+    <t>placeholder seq</t>
+  </si>
+  <si>
+    <t>CATTACTCGCATCCATTCTCAGGCTGTCTCGTCTCGTCTCGGAGAACGATCGTTGGCTGAACTAGCAAATGAGATAGATTTCGGTGAACCCGGACCCTTGCTAGGCTCGAAGAATACTCAGGACGCACTGACCGAATTCGCATTAAGGAGGTACAATGGTACGCTGGACTTTGTGGGATACCCTCGCTTTCCTGCTCCTGTTGAGTTTATTGCTGCCGTCATTGCTTATTATGTTCATCCCGTCAACATTCAAACGGCCTGTCTCATCATGGAAGGCGCTGAATTTACGGAAAACATTATTAATGGCGTCGAGCGTCCGGTTAAAGCCGCTGAATTGTTCGCGTTTACCTTGCGTGTACGCGCAGGAAACACTGACGTTCTTACTGACGCAGAAGAAAACGTGCGTCAAAAATTACGTGCGGAAGGAGTAAAGGTCTAACGCATGAGAAAGCCCCCGGAAGATCACCTTCCGGGGGCTTTTTTATTGCGCCCTTGAGAGCTTGCACTGAAGGTCCTCAATCGCACTGGAAACATCAAGGTCGGGAGTTGACGGCTAGCTCAGTCCTAGGTACAGTGCTAGCTACTGGGCCCAAGTTCACTTAAAAAGGAGATCAACAATGAAAGCAATTTTCGTACTGAAACATCTTAATCATGCTAAGGAGGTTTTCTAATGGCCTTGGTTGACGGTTTTCTTGAGCTGGAACGCTCAAGTGGAAAATTGGAGTTGAGCGCCATCCTGCAGAAGATGGCGAGCGACCTCGGATTCTCGAAGATCCTGTTCGGCCTGTTGCCTAAGGACAGCCAGGACTACGAGAACGCCTTCATCGTCAGCAACTACCCGGCCGCCTGGCGCGAGCATTACGACCGAACTGGCTACGCGCGGGTCGACCCGACGGTCAGTCACTGTACCCAGAGCGTACTGCCGATTTTCTGGGAACCGCCCATCTACCAGACGCGAAAGCAGCACGAGTTCTTCGAGGAAGCCTTGGCCGCTGGCCTGGTGTATGGACTGACCATGCCGCTGCATGGTGCTCGCGGCGAACTCGGCGCGCTGAGCCTCAGCGTGGAAGCGGAAAACCGGGCCGAGGCCAACCGTTTCATGGAGTCGGTCCTGCCGACCCTGTGGATGCTCAAGGACTACGCACTGCAGAGCGGTGTCGGAATGGCCTTCGAACATCCGATCAGCAAACCGGTGGTTCTGACCAGCCGAGAGAAGGAAGTGTTACAGTGGTGCGCCATCGGCAAGACCAGCTGGGAGATATCGGTTATCTGCAACTGCTCGGAAGCCAATGTGAACTTCCATATGGGAAATATTCGGCGGAAGTTCGGTGTGACCTCCCGCCGCGTAGCGGCCATTATGGCCGTTAATTTGGGTCTTATTACTCTCTGAGGTCTGGATCCCGACTGGCGAGAGCCAGGTAACGAATGGATCCAACGCATGAGAAAGCCCCCGGAAGATCACCTTCCGGGGGCTTTTTTATTGCGCCCTTGAGAGCTGACCTCCTGCCAGCAATAGTAAGACAACACGCAAAGTC</t>
+  </si>
+  <si>
+    <t>Lys2_1-4</t>
+  </si>
+  <si>
+    <t>Lys3_1-4</t>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
@@ -2343,37 +2478,22 @@
     <t>P</t>
   </si>
   <si>
-    <t>attsite</t>
-  </si>
-  <si>
-    <t>minicircle</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>sc3</t>
-  </si>
-  <si>
-    <t>sc2</t>
-  </si>
-  <si>
-    <t>scaffold</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>construct</t>
+    <t>CACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAGGAGAACGATCGTTGGCTGAACTAGCAAATGAGATAGATTTCGGTGAACCCGGACCCTTGCTAGGCTCGAAGAATACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
+  </si>
+  <si>
+    <t>CACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAGGAGAACGATCGTTGGCTGGGGGCCTCGCTTGGGTTATTGCTGGTGCCCGGCCGGGCGCAATATTCATGTTGATGATTTATTATATATCGAGTGGTGTATTTATTTATATTGTTTGCTCCGTTACCGTTATTAACTACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCT</t>
+  </si>
+  <si>
+    <t>CACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAGGAGAACGATCGTTGGCTGTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGCTCACAATTTACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTC</t>
+  </si>
+  <si>
+    <t>CACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAGGAGAACGATCGTTGGCTGACCTGTAGGATCTTACAAGTTTACGCAAGAAAATGGTTTGTTACTTTCGAATAAATACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2396,7 +2516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2419,6 +2539,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB84"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2445,7 +2571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2465,6 +2591,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2749,10 +2876,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,6 +2889,7 @@
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2834,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3">
         <v>43215</v>
@@ -2886,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3">
         <v>43215</v>
@@ -2938,7 +3066,7 @@
         <v>21</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3">
         <v>43215</v>
@@ -2990,7 +3118,7 @@
         <v>28</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3">
         <v>43215</v>
@@ -3042,7 +3170,7 @@
         <v>33</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3">
         <v>43215</v>
@@ -3094,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3">
         <v>43215</v>
@@ -3146,7 +3274,7 @@
         <v>21</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>53</v>
@@ -3198,7 +3326,7 @@
         <v>47</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>43215</v>
@@ -3250,7 +3378,7 @@
         <v>52</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>43215</v>
@@ -3302,7 +3430,7 @@
         <v>21</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H11" s="3">
         <v>43215</v>
@@ -3354,7 +3482,7 @@
         <v>21</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>43215</v>
@@ -3406,7 +3534,7 @@
         <v>66</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H13" s="3">
         <v>43215</v>
@@ -3458,7 +3586,7 @@
         <v>71</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>43215</v>
@@ -3510,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>43215</v>
@@ -3562,7 +3690,7 @@
         <v>89</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16" s="3">
         <v>43215</v>
@@ -3614,7 +3742,7 @@
         <v>84</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>43215</v>
@@ -3666,7 +3794,7 @@
         <v>20</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>43215</v>
@@ -3718,7 +3846,7 @@
         <v>38</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3">
         <v>43215</v>
@@ -3770,7 +3898,7 @@
         <v>106</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>43215</v>
@@ -3822,7 +3950,7 @@
         <v>33</v>
       </c>
       <c r="G21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>43215</v>
@@ -3874,7 +4002,7 @@
         <v>106</v>
       </c>
       <c r="G22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>43215</v>
@@ -3926,7 +4054,7 @@
         <v>52</v>
       </c>
       <c r="G23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>43215</v>
@@ -3969,13 +4097,13 @@
         <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -3988,7 +4116,7 @@
         <v>6523</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -4012,22 +4140,22 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4040,7 +4168,7 @@
         <v>6524</v>
       </c>
       <c r="J25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -4064,22 +4192,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -4092,7 +4220,7 @@
         <v>6601</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -4116,22 +4244,22 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -4144,7 +4272,7 @@
         <v>6602</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -4168,22 +4296,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" t="s">
         <v>137</v>
       </c>
-      <c r="C28" t="s">
-        <v>138</v>
-      </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>775</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -4196,7 +4324,7 @@
         <v>6603</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -4220,19 +4348,19 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
-        <v>142</v>
-      </c>
       <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>775</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -4248,7 +4376,7 @@
         <v>6604</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -4272,16 +4400,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" t="s">
         <v>145</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>487</v>
       </c>
       <c r="E30" t="s">
         <v>21</v>
@@ -4333,7 +4461,7 @@
         <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
@@ -4593,7 +4721,7 @@
         <v>174</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -5113,13 +5241,13 @@
         <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G46">
         <v>30</v>
@@ -5132,7 +5260,7 @@
         <v>6701</v>
       </c>
       <c r="J46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -5156,22 +5284,22 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -5184,7 +5312,7 @@
         <v>6702</v>
       </c>
       <c r="J47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -5208,22 +5336,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -5236,7 +5364,7 @@
         <v>6703</v>
       </c>
       <c r="J48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -5260,19 +5388,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D49" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
@@ -5288,7 +5416,7 @@
         <v>6704</v>
       </c>
       <c r="J49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -5312,19 +5440,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D50" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
         <v>21</v>
@@ -5340,7 +5468,7 @@
         <v>6705</v>
       </c>
       <c r="J50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -5364,19 +5492,19 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D51" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -5392,7 +5520,7 @@
         <v>6706</v>
       </c>
       <c r="J51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -5416,19 +5544,19 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D52" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
         <v>21</v>
@@ -5444,7 +5572,7 @@
         <v>6707</v>
       </c>
       <c r="J52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -5468,19 +5596,19 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D53" t="s">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F53" t="s">
         <v>21</v>
@@ -5496,7 +5624,7 @@
         <v>6708</v>
       </c>
       <c r="J53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -5520,22 +5648,16 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D54" t="s">
         <v>161</v>
-      </c>
-      <c r="E54" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" t="s">
-        <v>110</v>
       </c>
       <c r="G54" s="8">
         <v>18.190000000000001</v>
@@ -5548,7 +5670,7 @@
         <v>6711</v>
       </c>
       <c r="J54" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -5568,22 +5690,16 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D55" t="s">
         <v>161</v>
-      </c>
-      <c r="E55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" s="8">
         <v>20.11</v>
@@ -5596,7 +5712,7 @@
         <v>6712</v>
       </c>
       <c r="J55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -5616,22 +5732,16 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
         <v>161</v>
-      </c>
-      <c r="E56" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" s="8">
         <v>20.73</v>
@@ -5644,7 +5754,7 @@
         <v>6713</v>
       </c>
       <c r="J56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -5664,22 +5774,16 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D57" t="s">
         <v>161</v>
-      </c>
-      <c r="E57" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" s="8">
         <v>25.48</v>
@@ -5692,7 +5796,7 @@
         <v>6714</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -5712,22 +5816,16 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
         <v>161</v>
-      </c>
-      <c r="E58" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" s="8">
         <v>24.18</v>
@@ -5740,7 +5838,7 @@
         <v>6715</v>
       </c>
       <c r="J58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -5760,22 +5858,16 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" s="8">
         <v>22.99</v>
@@ -5788,7 +5880,7 @@
         <v>6716</v>
       </c>
       <c r="J59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -5808,22 +5900,16 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D60" t="s">
         <v>161</v>
-      </c>
-      <c r="E60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" t="s">
-        <v>110</v>
       </c>
       <c r="G60" s="8">
         <v>25.24</v>
@@ -5836,7 +5922,7 @@
         <v>6717</v>
       </c>
       <c r="J60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
@@ -5856,22 +5942,16 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D61" t="s">
         <v>161</v>
-      </c>
-      <c r="E61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" t="s">
-        <v>110</v>
       </c>
       <c r="G61" s="8">
         <v>19.71</v>
@@ -5884,7 +5964,7 @@
         <v>6718</v>
       </c>
       <c r="J61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
@@ -5904,13 +5984,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D62" t="s">
         <v>161</v>
@@ -5932,7 +6012,7 @@
         <v>6719</v>
       </c>
       <c r="J62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
@@ -5956,13 +6036,13 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D63" t="s">
         <v>155</v>
@@ -5984,7 +6064,7 @@
         <v>6720</v>
       </c>
       <c r="J63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
@@ -6008,16 +6088,16 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D64" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -6036,7 +6116,7 @@
         <v>6721</v>
       </c>
       <c r="J64" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -6060,16 +6140,13 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B65" t="s">
-        <v>285</v>
-      </c>
-      <c r="D65" t="s">
-        <v>770</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F65" t="s">
         <v>106</v>
@@ -6085,7 +6162,7 @@
         <v>6722</v>
       </c>
       <c r="J65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -6109,16 +6186,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
-      </c>
-      <c r="D66" t="s">
-        <v>770</v>
+        <v>290</v>
       </c>
       <c r="E66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F66" t="s">
         <v>106</v>
@@ -6134,7 +6208,7 @@
         <v>6723</v>
       </c>
       <c r="J66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -6158,16 +6232,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" t="s">
-        <v>770</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F67" t="s">
         <v>106</v>
@@ -6183,7 +6254,7 @@
         <v>6724</v>
       </c>
       <c r="J67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -6207,16 +6278,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
-      </c>
-      <c r="D68" t="s">
-        <v>770</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
         <v>106</v>
@@ -6232,7 +6300,7 @@
         <v>6801</v>
       </c>
       <c r="J68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -6256,19 +6324,16 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" t="s">
-        <v>770</v>
+        <v>298</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G69">
         <v>50</v>
@@ -6281,7 +6346,7 @@
         <v>6802</v>
       </c>
       <c r="J69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -6305,19 +6370,16 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
-      </c>
-      <c r="D70" t="s">
-        <v>770</v>
+        <v>302</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G70">
         <v>50</v>
@@ -6330,7 +6392,7 @@
         <v>6803</v>
       </c>
       <c r="J70" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -6354,19 +6416,16 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>304</v>
-      </c>
-      <c r="D71" t="s">
-        <v>770</v>
+        <v>305</v>
       </c>
       <c r="E71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G71">
         <v>21.32</v>
@@ -6379,7 +6438,7 @@
         <v>6804</v>
       </c>
       <c r="J71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K71" t="b">
         <v>1</v>
@@ -6403,16 +6462,16 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D72" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
@@ -6431,7 +6490,7 @@
         <v>6805</v>
       </c>
       <c r="J72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
@@ -6455,19 +6514,16 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>312</v>
-      </c>
-      <c r="D73" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="E73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F73" t="s">
         <v>106</v>
@@ -6483,7 +6539,7 @@
         <v>6806</v>
       </c>
       <c r="J73" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -6507,19 +6563,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" t="s">
         <v>313</v>
       </c>
-      <c r="B74" t="s">
-        <v>314</v>
-      </c>
-      <c r="C74" t="s">
-        <v>312</v>
-      </c>
-      <c r="D74" t="s">
-        <v>770</v>
-      </c>
       <c r="E74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F74" t="s">
         <v>106</v>
@@ -6535,7 +6588,7 @@
         <v>6807</v>
       </c>
       <c r="J74" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -6559,19 +6612,16 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C75" t="s">
-        <v>312</v>
-      </c>
-      <c r="D75" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F75" t="s">
         <v>106</v>
@@ -6587,7 +6637,7 @@
         <v>6808</v>
       </c>
       <c r="J75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -6611,19 +6661,16 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B76" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="E76" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F76" t="s">
         <v>106</v>
@@ -6639,7 +6686,7 @@
         <v>6809</v>
       </c>
       <c r="J76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -6663,22 +6710,19 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
-      </c>
-      <c r="D77" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -6691,7 +6735,7 @@
         <v>6810</v>
       </c>
       <c r="J77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -6715,22 +6759,19 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C78" t="s">
-        <v>312</v>
-      </c>
-      <c r="D78" t="s">
-        <v>770</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -6743,7 +6784,7 @@
         <v>6811</v>
       </c>
       <c r="J78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -6767,19 +6808,16 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
-      </c>
-      <c r="D79" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F79" t="s">
         <v>38</v>
@@ -6795,7 +6833,7 @@
         <v>6812</v>
       </c>
       <c r="J79" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -6815,19 +6853,16 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C80" t="s">
-        <v>325</v>
-      </c>
-      <c r="D80" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F80" t="s">
         <v>38</v>
@@ -6843,7 +6878,7 @@
         <v>6813</v>
       </c>
       <c r="J80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -6863,19 +6898,16 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>325</v>
-      </c>
-      <c r="D81" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -6891,7 +6923,7 @@
         <v>6814</v>
       </c>
       <c r="J81" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -6911,19 +6943,16 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
-      </c>
-      <c r="D82" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -6939,7 +6968,7 @@
         <v>6815</v>
       </c>
       <c r="J82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -6959,19 +6988,16 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E83" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -6987,7 +7013,7 @@
         <v>6816</v>
       </c>
       <c r="J83" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -7007,19 +7033,16 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
-      </c>
-      <c r="D84" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" t="s">
         <v>38</v>
@@ -7035,7 +7058,7 @@
         <v>6817</v>
       </c>
       <c r="J84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -7055,19 +7078,16 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
-      </c>
-      <c r="D85" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
@@ -7083,7 +7103,7 @@
         <v>6818</v>
       </c>
       <c r="J85" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -7103,19 +7123,16 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
-      </c>
-      <c r="D86" t="s">
-        <v>771</v>
+        <v>326</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -7131,7 +7148,7 @@
         <v>6819</v>
       </c>
       <c r="J86" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -7151,7 +7168,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s">
         <v>209</v>
@@ -7191,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <f t="shared" ref="N87:N108" si="6">LEN(J87)</f>
+        <f t="shared" ref="N87:N150" si="6">LEN(J87)</f>
         <v>2129</v>
       </c>
       <c r="O87" t="s">
@@ -7203,22 +7220,22 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
         <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>772</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G88">
         <v>24</v>
@@ -7231,7 +7248,7 @@
         <v>6901</v>
       </c>
       <c r="J88" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -7255,22 +7272,19 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
-      </c>
-      <c r="D89" t="s">
-        <v>772</v>
+        <v>350</v>
       </c>
       <c r="E89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F89" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G89">
         <v>24</v>
@@ -7283,7 +7297,7 @@
         <v>6902</v>
       </c>
       <c r="J89" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -7307,22 +7321,22 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
-        <v>772</v>
+        <v>346</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G90">
         <v>24</v>
@@ -7335,7 +7349,7 @@
         <v>6903</v>
       </c>
       <c r="J90" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -7359,22 +7373,19 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
-      </c>
-      <c r="D91" t="s">
-        <v>772</v>
+        <v>357</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G91">
         <v>24</v>
@@ -7387,7 +7398,7 @@
         <v>6904</v>
       </c>
       <c r="J91" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -7411,22 +7422,19 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
-      </c>
-      <c r="D92" t="s">
-        <v>772</v>
+        <v>361</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G92">
         <v>24</v>
@@ -7439,7 +7447,7 @@
         <v>6905</v>
       </c>
       <c r="J92" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -7463,22 +7471,19 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C93" t="s">
-        <v>363</v>
-      </c>
-      <c r="D93" t="s">
-        <v>772</v>
+        <v>365</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -7491,7 +7496,7 @@
         <v>6906</v>
       </c>
       <c r="J93" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -7515,22 +7520,19 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
-      </c>
-      <c r="D94" t="s">
-        <v>772</v>
+        <v>369</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G94">
         <v>30</v>
@@ -7543,7 +7545,7 @@
         <v>6907</v>
       </c>
       <c r="J94" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -7567,22 +7569,19 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C95" t="s">
-        <v>359</v>
-      </c>
-      <c r="D95" t="s">
-        <v>772</v>
+        <v>361</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -7595,7 +7594,7 @@
         <v>6908</v>
       </c>
       <c r="J95" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -7619,22 +7618,19 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" t="s">
-        <v>772</v>
+        <v>365</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G96">
         <v>30</v>
@@ -7647,7 +7643,7 @@
         <v>6909</v>
       </c>
       <c r="J96" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -7671,22 +7667,19 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C97" t="s">
-        <v>367</v>
-      </c>
-      <c r="D97" t="s">
-        <v>772</v>
+        <v>369</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G97">
         <v>30</v>
@@ -7699,7 +7692,7 @@
         <v>6910</v>
       </c>
       <c r="J97" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -7723,16 +7716,13 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>380</v>
-      </c>
-      <c r="D98" t="s">
-        <v>770</v>
+        <v>382</v>
       </c>
       <c r="E98" t="s">
         <v>110</v>
@@ -7747,11 +7737,11 @@
         <v>43270</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:I121" si="7">VALUE(MID(A98,2,6))+CODE(A98)*100</f>
+        <f t="shared" ref="I98:I152" si="7">VALUE(MID(A98,2,6))+CODE(A98)*100</f>
         <v>6911</v>
       </c>
       <c r="J98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -7775,16 +7765,13 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C99" t="s">
-        <v>384</v>
-      </c>
-      <c r="D99" t="s">
-        <v>770</v>
+        <v>386</v>
       </c>
       <c r="E99" t="s">
         <v>106</v>
@@ -7803,7 +7790,7 @@
         <v>6912</v>
       </c>
       <c r="J99" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -7827,16 +7814,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>388</v>
-      </c>
-      <c r="D100" t="s">
-        <v>770</v>
+        <v>390</v>
       </c>
       <c r="E100" t="s">
         <v>106</v>
@@ -7855,7 +7839,7 @@
         <v>6913</v>
       </c>
       <c r="J100" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -7879,16 +7863,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" t="s">
-        <v>770</v>
+        <v>394</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>
@@ -7907,7 +7888,7 @@
         <v>6914</v>
       </c>
       <c r="J101" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -7931,16 +7912,16 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C102" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F102" t="s">
         <v>110</v>
@@ -7956,7 +7937,7 @@
         <v>6915</v>
       </c>
       <c r="J102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -7980,16 +7961,16 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C103" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F103" t="s">
         <v>110</v>
@@ -8005,7 +7986,7 @@
         <v>6916</v>
       </c>
       <c r="J103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -8029,19 +8010,19 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C104" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F104" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G104">
         <v>30</v>
@@ -8054,7 +8035,7 @@
         <v>6917</v>
       </c>
       <c r="J104" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -8078,19 +8059,19 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C105" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G105">
         <v>30</v>
@@ -8103,7 +8084,7 @@
         <v>6918</v>
       </c>
       <c r="J105" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -8127,19 +8108,19 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C106" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E106" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G106">
         <v>30</v>
@@ -8152,7 +8133,7 @@
         <v>6919</v>
       </c>
       <c r="J106" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -8176,16 +8157,16 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C107" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -8204,7 +8185,7 @@
         <v>6920</v>
       </c>
       <c r="J107" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -8228,16 +8209,16 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>420</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C108" t="s">
         <v>418</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C108" t="s">
-        <v>416</v>
-      </c>
       <c r="D108" t="s">
-        <v>487</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -8256,7 +8237,7 @@
         <v>6921</v>
       </c>
       <c r="J108" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -8280,10 +8261,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B109" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G109">
         <v>50</v>
@@ -8302,13 +8283,13 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B110" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D110" t="s">
-        <v>778</v>
+        <v>427</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
@@ -8327,7 +8308,7 @@
         <v>8801</v>
       </c>
       <c r="J110" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -8338,16 +8319,20 @@
       <c r="M110">
         <v>0</v>
       </c>
+      <c r="N110">
+        <f t="shared" si="6"/>
+        <v>980</v>
+      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B111" t="s">
+        <v>430</v>
+      </c>
+      <c r="D111" t="s">
         <v>427</v>
-      </c>
-      <c r="D111" t="s">
-        <v>778</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -8366,7 +8351,7 @@
         <v>8802</v>
       </c>
       <c r="J111" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
@@ -8377,16 +8362,20 @@
       <c r="M111">
         <v>0</v>
       </c>
+      <c r="N111">
+        <f t="shared" si="6"/>
+        <v>971</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B112" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>778</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
@@ -8405,7 +8394,7 @@
         <v>8803</v>
       </c>
       <c r="J112" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -8416,16 +8405,20 @@
       <c r="M112">
         <v>0</v>
       </c>
+      <c r="N112">
+        <f t="shared" si="6"/>
+        <v>971</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B113" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D113" t="s">
-        <v>778</v>
+        <v>427</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
@@ -8444,7 +8437,7 @@
         <v>8804</v>
       </c>
       <c r="J113" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -8455,16 +8448,20 @@
       <c r="M113">
         <v>0</v>
       </c>
+      <c r="N113">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B114" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D114" t="s">
-        <v>778</v>
+        <v>427</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
@@ -8483,7 +8480,7 @@
         <v>8805</v>
       </c>
       <c r="J114" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -8494,16 +8491,17 @@
       <c r="M114">
         <v>0</v>
       </c>
+      <c r="N114">
+        <f t="shared" si="6"/>
+        <v>971</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B115" t="s">
-        <v>439</v>
-      </c>
-      <c r="D115" t="s">
-        <v>778</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
@@ -8522,7 +8520,7 @@
         <v>8806</v>
       </c>
       <c r="J115" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -8533,16 +8531,17 @@
       <c r="M115">
         <v>0</v>
       </c>
+      <c r="N115">
+        <f t="shared" si="6"/>
+        <v>981</v>
+      </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B116" t="s">
-        <v>442</v>
-      </c>
-      <c r="D116" t="s">
-        <v>778</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
         <v>21</v>
@@ -8561,7 +8560,7 @@
         <v>8807</v>
       </c>
       <c r="J116" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K116" t="b">
         <v>1</v>
@@ -8572,18 +8571,20 @@
       <c r="M116">
         <v>0</v>
       </c>
+      <c r="N116">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B117" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C117" s="7"/>
-      <c r="D117" t="s">
-        <v>778</v>
-      </c>
+      <c r="D117" s="7"/>
       <c r="E117" t="s">
         <v>21</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>8808</v>
       </c>
       <c r="J117" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
@@ -8612,18 +8613,20 @@
       <c r="M117">
         <v>0</v>
       </c>
+      <c r="N117">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B118" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C118" s="7"/>
-      <c r="D118" t="s">
-        <v>778</v>
-      </c>
+      <c r="D118" s="7"/>
       <c r="E118" t="s">
         <v>21</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>8809</v>
       </c>
       <c r="J118" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K118" t="b">
         <v>1</v>
@@ -8652,18 +8655,20 @@
       <c r="M118">
         <v>0</v>
       </c>
+      <c r="N118">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B119" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C119" s="7"/>
-      <c r="D119" t="s">
-        <v>778</v>
-      </c>
+      <c r="D119" s="7"/>
       <c r="E119" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>8810</v>
       </c>
       <c r="J119" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K119" t="b">
         <v>1</v>
@@ -8692,16 +8697,20 @@
       <c r="M119">
         <v>0</v>
       </c>
+      <c r="N119">
+        <f t="shared" si="6"/>
+        <v>972</v>
+      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C120" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D120" t="s">
         <v>166</v>
@@ -8723,7 +8732,7 @@
         <v>8811</v>
       </c>
       <c r="J120" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K120" t="b">
         <v>1</v>
@@ -8735,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f>LEN(J120)</f>
+        <f t="shared" si="6"/>
         <v>2149</v>
       </c>
       <c r="O120" t="s">
@@ -8747,13 +8756,13 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D121" t="s">
         <v>166</v>
@@ -8775,7 +8784,7 @@
         <v>8812</v>
       </c>
       <c r="J121" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K121" t="b">
         <v>1</v>
@@ -8787,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <f>LEN(J121)</f>
+        <f t="shared" si="6"/>
         <v>2165</v>
       </c>
       <c r="O121" t="s">
@@ -8799,22 +8808,16 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B122" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C122" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D122" t="s">
-        <v>778</v>
-      </c>
-      <c r="E122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G122">
         <v>30</v>
@@ -8822,8 +8825,12 @@
       <c r="H122" s="3">
         <v>43284</v>
       </c>
+      <c r="I122">
+        <f t="shared" si="7"/>
+        <v>6922</v>
+      </c>
       <c r="J122" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -8833,6 +8840,10 @@
       </c>
       <c r="M122">
         <v>0</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="6"/>
+        <v>562</v>
       </c>
       <c r="O122" t="s">
         <v>23</v>
@@ -8843,22 +8854,16 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B123" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C123" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D123" t="s">
-        <v>778</v>
-      </c>
-      <c r="E123" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G123">
         <v>30</v>
@@ -8866,8 +8871,12 @@
       <c r="H123" s="3">
         <v>43284</v>
       </c>
+      <c r="I123">
+        <f t="shared" si="7"/>
+        <v>6923</v>
+      </c>
       <c r="J123" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -8877,6 +8886,10 @@
       </c>
       <c r="M123">
         <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="6"/>
+        <v>591</v>
       </c>
       <c r="O123" t="s">
         <v>23</v>
@@ -8887,22 +8900,16 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B124" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C124" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
-        <v>778</v>
-      </c>
-      <c r="E124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G124">
         <v>30</v>
@@ -8910,8 +8917,12 @@
       <c r="H124" s="3">
         <v>43284</v>
       </c>
+      <c r="I124">
+        <f t="shared" si="7"/>
+        <v>6924</v>
+      </c>
       <c r="J124" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -8921,6 +8932,10 @@
       </c>
       <c r="M124">
         <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="6"/>
+        <v>576</v>
       </c>
       <c r="O124" t="s">
         <v>23</v>
@@ -8931,22 +8946,16 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B125" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C125" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D125" t="s">
-        <v>778</v>
-      </c>
-      <c r="E125" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G125">
         <v>30</v>
@@ -8954,8 +8963,12 @@
       <c r="H125" s="3">
         <v>43284</v>
       </c>
+      <c r="I125">
+        <f t="shared" si="7"/>
+        <v>7001</v>
+      </c>
       <c r="J125" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -8965,6 +8978,10 @@
       </c>
       <c r="M125">
         <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="6"/>
+        <v>514</v>
       </c>
       <c r="O125" t="s">
         <v>23</v>
@@ -8975,22 +8992,16 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B126" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C126" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D126" t="s">
-        <v>778</v>
-      </c>
-      <c r="E126" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G126">
         <v>30</v>
@@ -8998,8 +9009,12 @@
       <c r="H126" s="3">
         <v>43284</v>
       </c>
+      <c r="I126">
+        <f t="shared" si="7"/>
+        <v>7002</v>
+      </c>
       <c r="J126" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -9009,6 +9024,10 @@
       </c>
       <c r="M126">
         <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="6"/>
+        <v>1217</v>
       </c>
       <c r="O126" t="s">
         <v>23</v>
@@ -9019,22 +9038,16 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B127" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C127" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D127" t="s">
-        <v>778</v>
-      </c>
-      <c r="E127" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G127">
         <v>30</v>
@@ -9042,8 +9055,12 @@
       <c r="H127" s="3">
         <v>43284</v>
       </c>
+      <c r="I127">
+        <f t="shared" si="7"/>
+        <v>7003</v>
+      </c>
       <c r="J127" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -9053,6 +9070,10 @@
       </c>
       <c r="M127">
         <v>0</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="6"/>
+        <v>961</v>
       </c>
       <c r="O127" t="s">
         <v>23</v>
@@ -9063,22 +9084,16 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B128" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C128" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D128" t="s">
-        <v>487</v>
-      </c>
-      <c r="E128" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G128">
         <v>30</v>
@@ -9086,8 +9101,12 @@
       <c r="H128" s="3">
         <v>43284</v>
       </c>
+      <c r="I128">
+        <f t="shared" si="7"/>
+        <v>7004</v>
+      </c>
       <c r="J128" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -9097,6 +9116,10 @@
       </c>
       <c r="M128">
         <v>0</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="6"/>
+        <v>123</v>
       </c>
       <c r="O128" t="s">
         <v>23</v>
@@ -9107,22 +9130,16 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B129" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C129" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D129" t="s">
-        <v>487</v>
-      </c>
-      <c r="E129" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G129">
         <v>30</v>
@@ -9130,8 +9147,12 @@
       <c r="H129" s="3">
         <v>43284</v>
       </c>
+      <c r="I129">
+        <f t="shared" si="7"/>
+        <v>7005</v>
+      </c>
       <c r="J129" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -9141,6 +9162,10 @@
       </c>
       <c r="M129">
         <v>0</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="6"/>
+        <v>132</v>
       </c>
       <c r="O129" t="s">
         <v>23</v>
@@ -9151,22 +9176,16 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B130" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C130" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D130" t="s">
-        <v>487</v>
-      </c>
-      <c r="E130" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G130">
         <v>30</v>
@@ -9174,8 +9193,12 @@
       <c r="H130" s="3">
         <v>43284</v>
       </c>
+      <c r="I130">
+        <f t="shared" si="7"/>
+        <v>7006</v>
+      </c>
       <c r="J130" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
@@ -9185,6 +9208,10 @@
       </c>
       <c r="M130">
         <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="6"/>
+        <v>147</v>
       </c>
       <c r="O130" t="s">
         <v>23</v>
@@ -9195,22 +9222,16 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B131" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C131" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D131" t="s">
-        <v>487</v>
-      </c>
-      <c r="E131" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="G131">
         <v>30</v>
@@ -9218,8 +9239,12 @@
       <c r="H131" s="3">
         <v>43284</v>
       </c>
+      <c r="I131">
+        <f t="shared" si="7"/>
+        <v>7007</v>
+      </c>
       <c r="J131" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
@@ -9229,6 +9254,10 @@
       </c>
       <c r="M131">
         <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="6"/>
+        <v>82</v>
       </c>
       <c r="O131" t="s">
         <v>23</v>
@@ -9239,31 +9268,29 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B132" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C132" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D132" t="s">
         <v>155</v>
       </c>
-      <c r="E132" t="s">
-        <v>106</v>
-      </c>
-      <c r="F132" t="s">
-        <v>156</v>
-      </c>
       <c r="G132">
         <v>30</v>
       </c>
       <c r="H132" s="3">
         <v>43284</v>
       </c>
+      <c r="I132">
+        <f t="shared" si="7"/>
+        <v>7008</v>
+      </c>
       <c r="J132" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -9273,6 +9300,10 @@
       </c>
       <c r="M132">
         <v>0</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="6"/>
+        <v>49</v>
       </c>
       <c r="O132" t="s">
         <v>23</v>
@@ -9283,19 +9314,10 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B133" t="s">
-        <v>503</v>
-      </c>
-      <c r="D133" t="s">
-        <v>773</v>
-      </c>
-      <c r="E133" t="s">
-        <v>106</v>
-      </c>
-      <c r="F133" t="s">
-        <v>774</v>
+        <v>505</v>
       </c>
       <c r="G133">
         <v>30</v>
@@ -9303,8 +9325,12 @@
       <c r="H133" s="3">
         <v>43287</v>
       </c>
+      <c r="I133">
+        <f t="shared" si="7"/>
+        <v>8813</v>
+      </c>
       <c r="J133" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -9314,23 +9340,18 @@
       </c>
       <c r="M133">
         <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="6"/>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B134" t="s">
-        <v>506</v>
-      </c>
-      <c r="D134" t="s">
-        <v>773</v>
-      </c>
-      <c r="E134" t="s">
-        <v>106</v>
-      </c>
-      <c r="F134" t="s">
-        <v>774</v>
+        <v>508</v>
       </c>
       <c r="G134">
         <v>30</v>
@@ -9338,8 +9359,12 @@
       <c r="H134" s="3">
         <v>43287</v>
       </c>
+      <c r="I134">
+        <f t="shared" si="7"/>
+        <v>8814</v>
+      </c>
       <c r="J134" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -9349,23 +9374,18 @@
       </c>
       <c r="M134">
         <v>0</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="6"/>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B135" t="s">
-        <v>509</v>
-      </c>
-      <c r="D135" t="s">
-        <v>773</v>
-      </c>
-      <c r="E135" t="s">
-        <v>106</v>
-      </c>
-      <c r="F135" t="s">
-        <v>774</v>
+        <v>511</v>
       </c>
       <c r="G135">
         <v>30</v>
@@ -9373,8 +9393,12 @@
       <c r="H135" s="3">
         <v>43287</v>
       </c>
+      <c r="I135">
+        <f t="shared" si="7"/>
+        <v>8815</v>
+      </c>
       <c r="J135" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -9384,23 +9408,18 @@
       </c>
       <c r="M135">
         <v>0</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="6"/>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B136" t="s">
-        <v>512</v>
-      </c>
-      <c r="D136" t="s">
-        <v>772</v>
-      </c>
-      <c r="E136" t="s">
-        <v>774</v>
-      </c>
-      <c r="F136" t="s">
-        <v>106</v>
+        <v>514</v>
       </c>
       <c r="G136">
         <v>30</v>
@@ -9408,8 +9427,12 @@
       <c r="H136" s="3">
         <v>43287</v>
       </c>
+      <c r="I136">
+        <f t="shared" si="7"/>
+        <v>8816</v>
+      </c>
       <c r="J136" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -9419,23 +9442,18 @@
       </c>
       <c r="M136">
         <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="6"/>
+        <v>2098</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B137" t="s">
-        <v>515</v>
-      </c>
-      <c r="D137" t="s">
-        <v>772</v>
-      </c>
-      <c r="E137" t="s">
-        <v>110</v>
-      </c>
-      <c r="F137" t="s">
-        <v>774</v>
+        <v>517</v>
       </c>
       <c r="G137">
         <v>30</v>
@@ -9443,8 +9461,12 @@
       <c r="H137" s="3">
         <v>43287</v>
       </c>
+      <c r="I137">
+        <f t="shared" si="7"/>
+        <v>8817</v>
+      </c>
       <c r="J137" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
@@ -9454,23 +9476,18 @@
       </c>
       <c r="M137">
         <v>0</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="6"/>
+        <v>2098</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B138" t="s">
-        <v>517</v>
-      </c>
-      <c r="D138" t="s">
-        <v>772</v>
-      </c>
-      <c r="E138" t="s">
-        <v>110</v>
-      </c>
-      <c r="F138" t="s">
-        <v>106</v>
+        <v>519</v>
       </c>
       <c r="G138">
         <v>30</v>
@@ -9478,8 +9495,12 @@
       <c r="H138" s="3">
         <v>43287</v>
       </c>
+      <c r="I138">
+        <f t="shared" si="7"/>
+        <v>8817</v>
+      </c>
       <c r="J138" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -9489,23 +9510,18 @@
       </c>
       <c r="M138">
         <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="6"/>
+        <v>2098</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B139" t="s">
-        <v>520</v>
-      </c>
-      <c r="D139" t="s">
-        <v>776</v>
-      </c>
-      <c r="E139" t="s">
-        <v>774</v>
-      </c>
-      <c r="F139" t="s">
-        <v>110</v>
+        <v>522</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -9513,8 +9529,12 @@
       <c r="H139" s="3">
         <v>43287</v>
       </c>
+      <c r="I139">
+        <f t="shared" si="7"/>
+        <v>8818</v>
+      </c>
       <c r="J139" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -9524,23 +9544,18 @@
       </c>
       <c r="M139">
         <v>0</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="6"/>
+        <v>174</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B140" t="s">
-        <v>523</v>
-      </c>
-      <c r="D140" t="s">
-        <v>777</v>
-      </c>
-      <c r="E140" t="s">
-        <v>106</v>
-      </c>
-      <c r="F140" t="s">
-        <v>110</v>
+        <v>525</v>
       </c>
       <c r="G140">
         <v>30</v>
@@ -9548,8 +9563,12 @@
       <c r="H140" s="3">
         <v>43287</v>
       </c>
+      <c r="I140">
+        <f t="shared" si="7"/>
+        <v>8819</v>
+      </c>
       <c r="J140" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
@@ -9559,23 +9578,18 @@
       </c>
       <c r="M140">
         <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="6"/>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B141" t="s">
-        <v>526</v>
-      </c>
-      <c r="D141" t="s">
-        <v>776</v>
-      </c>
-      <c r="E141" t="s">
-        <v>774</v>
-      </c>
-      <c r="F141" t="s">
-        <v>110</v>
+        <v>528</v>
       </c>
       <c r="G141">
         <v>30</v>
@@ -9583,8 +9597,12 @@
       <c r="H141" s="3">
         <v>43287</v>
       </c>
+      <c r="I141">
+        <f t="shared" si="7"/>
+        <v>8820</v>
+      </c>
       <c r="J141" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -9594,23 +9612,18 @@
       </c>
       <c r="M141">
         <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="6"/>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B142" t="s">
-        <v>529</v>
-      </c>
-      <c r="D142" t="s">
-        <v>777</v>
-      </c>
-      <c r="E142" t="s">
-        <v>106</v>
-      </c>
-      <c r="F142" t="s">
-        <v>110</v>
+        <v>531</v>
       </c>
       <c r="G142">
         <v>30</v>
@@ -9618,8 +9631,12 @@
       <c r="H142" s="3">
         <v>43287</v>
       </c>
+      <c r="I142">
+        <f t="shared" si="7"/>
+        <v>8821</v>
+      </c>
       <c r="J142" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -9629,23 +9646,21 @@
       </c>
       <c r="M142">
         <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B143" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D143" t="s">
-        <v>773</v>
-      </c>
-      <c r="E143" t="s">
-        <v>106</v>
-      </c>
-      <c r="F143" t="s">
-        <v>774</v>
+        <v>155</v>
       </c>
       <c r="G143">
         <v>30</v>
@@ -9653,8 +9668,12 @@
       <c r="H143" s="3">
         <v>43290</v>
       </c>
+      <c r="I143">
+        <f t="shared" si="7"/>
+        <v>7009</v>
+      </c>
       <c r="J143" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -9664,6 +9683,10 @@
       </c>
       <c r="M143">
         <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="O143" t="s">
         <v>23</v>
@@ -9674,22 +9697,16 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B144" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C144" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D144" t="s">
-        <v>773</v>
-      </c>
-      <c r="E144" t="s">
-        <v>106</v>
-      </c>
-      <c r="F144" t="s">
-        <v>774</v>
+        <v>155</v>
       </c>
       <c r="G144">
         <v>22.7</v>
@@ -9697,8 +9714,12 @@
       <c r="H144" s="3">
         <v>43290</v>
       </c>
+      <c r="I144">
+        <f t="shared" si="7"/>
+        <v>7010</v>
+      </c>
       <c r="J144" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K144" t="b">
         <v>1</v>
@@ -9710,6 +9731,7 @@
         <v>0</v>
       </c>
       <c r="N144">
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="O144" t="s">
@@ -9721,22 +9743,16 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>540</v>
+      </c>
+      <c r="B145" t="s">
+        <v>541</v>
+      </c>
+      <c r="C145" t="s">
         <v>538</v>
       </c>
-      <c r="B145" t="s">
-        <v>539</v>
-      </c>
-      <c r="C145" t="s">
-        <v>536</v>
-      </c>
       <c r="D145" t="s">
-        <v>773</v>
-      </c>
-      <c r="E145" t="s">
-        <v>106</v>
-      </c>
-      <c r="F145" t="s">
-        <v>774</v>
+        <v>155</v>
       </c>
       <c r="G145">
         <v>37.4</v>
@@ -9744,8 +9760,12 @@
       <c r="H145" s="3">
         <v>43290</v>
       </c>
+      <c r="I145">
+        <f t="shared" si="7"/>
+        <v>7011</v>
+      </c>
       <c r="J145" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K145" t="b">
         <v>1</v>
@@ -9757,6 +9777,7 @@
         <v>0</v>
       </c>
       <c r="N145">
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="O145" t="s">
@@ -9768,22 +9789,16 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B146" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C146" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D146" t="s">
-        <v>773</v>
-      </c>
-      <c r="E146" t="s">
-        <v>106</v>
-      </c>
-      <c r="F146" t="s">
-        <v>774</v>
+        <v>155</v>
       </c>
       <c r="G146">
         <v>23.5</v>
@@ -9791,8 +9806,12 @@
       <c r="H146" s="3">
         <v>43290</v>
       </c>
+      <c r="I146">
+        <f t="shared" si="7"/>
+        <v>7012</v>
+      </c>
       <c r="J146" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K146" t="b">
         <v>1</v>
@@ -9804,6 +9823,7 @@
         <v>0</v>
       </c>
       <c r="N146">
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="O146" t="s">
@@ -9815,22 +9835,16 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B147" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C147" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D147" t="s">
-        <v>776</v>
-      </c>
-      <c r="E147" t="s">
-        <v>774</v>
-      </c>
-      <c r="F147" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="G147">
         <v>44</v>
@@ -9838,8 +9852,12 @@
       <c r="H147" s="3">
         <v>43290</v>
       </c>
+      <c r="I147">
+        <f t="shared" si="7"/>
+        <v>7013</v>
+      </c>
       <c r="J147" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K147" t="b">
         <v>1</v>
@@ -9851,6 +9869,7 @@
         <v>0</v>
       </c>
       <c r="N147">
+        <f t="shared" si="6"/>
         <v>2222</v>
       </c>
       <c r="O147" t="s">
@@ -9862,22 +9881,13 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B148" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C148" t="s">
-        <v>536</v>
-      </c>
-      <c r="D148" t="s">
-        <v>777</v>
-      </c>
-      <c r="E148" t="s">
-        <v>106</v>
-      </c>
-      <c r="F148" t="s">
-        <v>110</v>
+        <v>538</v>
       </c>
       <c r="G148">
         <v>32.799999999999997</v>
@@ -9885,8 +9895,12 @@
       <c r="H148" s="3">
         <v>43290</v>
       </c>
+      <c r="I148">
+        <f t="shared" si="7"/>
+        <v>7014</v>
+      </c>
       <c r="J148" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K148" t="b">
         <v>1</v>
@@ -9898,6 +9912,7 @@
         <v>0</v>
       </c>
       <c r="N148">
+        <f t="shared" si="6"/>
         <v>2156</v>
       </c>
       <c r="O148" t="s">
@@ -9909,22 +9924,16 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B149" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C149" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D149" t="s">
-        <v>776</v>
-      </c>
-      <c r="E149" t="s">
-        <v>774</v>
-      </c>
-      <c r="F149" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="G149">
         <v>20.8</v>
@@ -9932,8 +9941,12 @@
       <c r="H149" s="3">
         <v>43290</v>
       </c>
+      <c r="I149">
+        <f t="shared" si="7"/>
+        <v>7015</v>
+      </c>
       <c r="J149" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K149" t="b">
         <v>1</v>
@@ -9945,6 +9958,7 @@
         <v>0</v>
       </c>
       <c r="N149">
+        <f t="shared" si="6"/>
         <v>2212</v>
       </c>
       <c r="O149" t="s">
@@ -9956,22 +9970,13 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B150" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C150" t="s">
-        <v>536</v>
-      </c>
-      <c r="D150" t="s">
-        <v>777</v>
-      </c>
-      <c r="E150" t="s">
-        <v>106</v>
-      </c>
-      <c r="F150" t="s">
-        <v>110</v>
+        <v>538</v>
       </c>
       <c r="G150">
         <v>32</v>
@@ -9979,8 +9984,12 @@
       <c r="H150" s="3">
         <v>43290</v>
       </c>
+      <c r="I150">
+        <f t="shared" si="7"/>
+        <v>7016</v>
+      </c>
       <c r="J150" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K150" t="b">
         <v>1</v>
@@ -9992,6 +10001,7 @@
         <v>0</v>
       </c>
       <c r="N150">
+        <f t="shared" si="6"/>
         <v>2146</v>
       </c>
       <c r="O150" t="s">
@@ -10002,135 +10012,637 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H151" s="3"/>
+      <c r="A151" t="s">
+        <v>558</v>
+      </c>
+      <c r="B151" t="s">
+        <v>559</v>
+      </c>
+      <c r="C151" t="s">
+        <v>560</v>
+      </c>
+      <c r="D151" t="s">
+        <v>161</v>
+      </c>
+      <c r="E151" t="s">
+        <v>156</v>
+      </c>
+      <c r="F151" t="s">
+        <v>110</v>
+      </c>
+      <c r="G151">
+        <v>30</v>
+      </c>
+      <c r="H151" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="7"/>
+        <v>7017</v>
+      </c>
+      <c r="J151" t="s">
+        <v>561</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" ref="N151" si="8">LEN(J151)</f>
+        <v>2840</v>
+      </c>
+      <c r="O151" t="s">
+        <v>23</v>
+      </c>
+      <c r="P151" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H152" s="3"/>
+      <c r="A152" t="s">
+        <v>562</v>
+      </c>
+      <c r="B152" t="s">
+        <v>563</v>
+      </c>
+      <c r="C152" t="s">
+        <v>564</v>
+      </c>
+      <c r="D152" t="s">
+        <v>427</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>110</v>
+      </c>
+      <c r="G152">
+        <v>30</v>
+      </c>
+      <c r="H152" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="7"/>
+        <v>7018</v>
+      </c>
+      <c r="J152" t="s">
+        <v>565</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>23</v>
+      </c>
+      <c r="P152" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H153" s="3"/>
+      <c r="A153" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G153" s="11">
+        <v>30</v>
+      </c>
+      <c r="H153" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I153">
+        <f t="shared" ref="I153:I161" si="9">VALUE(MID(A153,2,6))+CODE(A153)*100</f>
+        <v>7101</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K153" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="4">
+        <v>2824</v>
+      </c>
+      <c r="O153" t="s">
+        <v>23</v>
+      </c>
+      <c r="P153" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H154" s="3"/>
+      <c r="A154" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G154" s="11">
+        <v>30</v>
+      </c>
+      <c r="H154" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="9"/>
+        <v>7102</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K154" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" s="4">
+        <v>0</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="4">
+        <v>2860</v>
+      </c>
+      <c r="O154" t="s">
+        <v>23</v>
+      </c>
+      <c r="P154" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="5"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
-      <c r="O155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G155" s="11">
+        <v>30</v>
+      </c>
+      <c r="H155" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="9"/>
+        <v>7103</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K155" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="4">
+        <v>3007</v>
+      </c>
+      <c r="O155" t="s">
+        <v>23</v>
+      </c>
+      <c r="P155" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="5"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
-      <c r="O156" s="4"/>
+      <c r="A156" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G156" s="11">
+        <v>30</v>
+      </c>
+      <c r="H156" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="9"/>
+        <v>7104</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="4">
+        <v>3187</v>
+      </c>
+      <c r="O156" t="s">
+        <v>23</v>
+      </c>
+      <c r="P156" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="5"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
+      <c r="A157" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G157" s="11">
+        <v>30</v>
+      </c>
+      <c r="H157" s="5">
+        <v>43188</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="9"/>
+        <v>7105</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="K157" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="4">
+        <v>2858</v>
+      </c>
+      <c r="O157" t="s">
+        <v>23</v>
+      </c>
+      <c r="P157" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="5"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-      <c r="N158" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="O158" s="4"/>
+      <c r="A158" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B158" t="s">
+        <v>586</v>
+      </c>
+      <c r="C158" t="s">
+        <v>587</v>
+      </c>
+      <c r="D158" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" t="s">
+        <v>106</v>
+      </c>
+      <c r="G158">
+        <v>30</v>
+      </c>
+      <c r="H158" s="3">
+        <v>43299</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="9"/>
+        <v>7106</v>
+      </c>
+      <c r="J158" t="s">
+        <v>815</v>
+      </c>
+      <c r="K158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>23</v>
+      </c>
+      <c r="P158" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H159" s="3"/>
+      <c r="A159" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B159" t="s">
+        <v>583</v>
+      </c>
+      <c r="C159" t="s">
+        <v>584</v>
+      </c>
+      <c r="D159" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>106</v>
+      </c>
+      <c r="G159">
+        <v>30</v>
+      </c>
+      <c r="H159" s="3">
+        <v>43299</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="9"/>
+        <v>7107</v>
+      </c>
+      <c r="J159" t="s">
+        <v>151</v>
+      </c>
+      <c r="K159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>23</v>
+      </c>
+      <c r="P159" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H160" s="3"/>
-      <c r="O160" s="4"/>
-    </row>
-    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H161" s="3"/>
-      <c r="O161" s="4"/>
-    </row>
-    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H162" s="3"/>
-      <c r="O162" s="4"/>
-    </row>
-    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H163" s="3"/>
-      <c r="O163" s="4"/>
-    </row>
-    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H164" s="3"/>
-      <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B160" t="s">
+        <v>592</v>
+      </c>
+      <c r="C160" t="s">
+        <v>593</v>
+      </c>
+      <c r="D160" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="s">
+        <v>106</v>
+      </c>
+      <c r="G160">
+        <v>30</v>
+      </c>
+      <c r="H160" s="3">
+        <v>43299</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="9"/>
+        <v>7108</v>
+      </c>
+      <c r="J160" t="s">
+        <v>816</v>
+      </c>
+      <c r="K160" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0</v>
+      </c>
+      <c r="O160" t="s">
+        <v>23</v>
+      </c>
+      <c r="P160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B161" t="s">
+        <v>595</v>
+      </c>
+      <c r="C161" t="s">
+        <v>596</v>
+      </c>
+      <c r="D161" t="s">
+        <v>146</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="s">
+        <v>106</v>
+      </c>
+      <c r="G161">
+        <v>30</v>
+      </c>
+      <c r="H161" s="3">
+        <v>43299</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="9"/>
+        <v>7109</v>
+      </c>
+      <c r="J161" t="s">
+        <v>817</v>
+      </c>
+      <c r="K161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0</v>
+      </c>
+      <c r="M161" s="4">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>23</v>
+      </c>
+      <c r="P161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B162" t="s">
+        <v>589</v>
+      </c>
+      <c r="C162" t="s">
+        <v>590</v>
+      </c>
+      <c r="D162" t="s">
+        <v>146</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="s">
+        <v>106</v>
+      </c>
+      <c r="G162">
+        <v>30</v>
+      </c>
+      <c r="H162" s="3">
+        <v>43299</v>
+      </c>
+      <c r="I162">
+        <f t="shared" ref="I162" si="10">VALUE(MID(A162,2,6))+CODE(A162)*100</f>
+        <v>7110</v>
+      </c>
+      <c r="J162" t="s">
+        <v>818</v>
+      </c>
+      <c r="K162" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>23</v>
+      </c>
+      <c r="P162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H166" s="3"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H167" s="3"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H168" s="3"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H169" s="3"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H170" s="3"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H171" s="3"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H172" s="3"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H173" s="3"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -10144,7 +10656,7 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -10158,7 +10670,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -10317,8 +10829,8 @@
       <sortCondition ref="I1:I197"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="G1:G46 G55:G72 G78:G84 G113 G95:G101 G122:G137 G139:G1048576">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="G55:G72 G78:G84 G113 G95:G101 G122:G137 G1:G46 G165:G1048576 G139:G162">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
@@ -10330,7 +10842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G54">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10342,7 +10854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10354,7 +10866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10366,7 +10878,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10378,7 +10890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10390,7 +10902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10402,6 +10914,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:G91 G93">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94 G92">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G102">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10413,19 +10949,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 G94">
-    <cfRule type="colorScale" priority="200">
+  <conditionalFormatting sqref="G103:G107">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G102">
+  <conditionalFormatting sqref="G108:G110">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G112">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10437,7 +10985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:G107">
+  <conditionalFormatting sqref="G114:G120">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10449,43 +10997,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G110">
+  <conditionalFormatting sqref="G121">
     <cfRule type="colorScale" priority="10">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G112">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="O3:O132">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G120">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
+  <conditionalFormatting sqref="O143">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10497,8 +11033,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O132">
+  <conditionalFormatting sqref="G138">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O138">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10509,7 +11057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O143">
+  <conditionalFormatting sqref="O144:O150">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10521,31 +11069,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O133:O137 O139:O142 O1:O2 P1 O151:O1048576">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G138">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O138">
+  <conditionalFormatting sqref="O151">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10557,7 +11081,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O144:O150">
+  <conditionalFormatting sqref="O152">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O165:O1048576 O133:O137 O139:O142 O1:O2 P1">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O153:O162">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10576,13 +11124,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" filterMode="1"/>
-  <dimension ref="A1:P79"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10590,6 +11138,7 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -10647,10 +11196,10 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="E2" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B2,3),1)</f>
@@ -10664,7 +11213,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -10676,21 +11225,21 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E27" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
@@ -10704,7 +11253,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -10721,10 +11270,10 @@
         <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="D4" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -10738,7 +11287,7 @@
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -10750,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P4" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -10761,10 +11310,10 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -10778,7 +11327,7 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -10790,10 +11339,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P5" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -10801,10 +11350,10 @@
         <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -10818,7 +11367,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10830,21 +11379,21 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -10858,7 +11407,7 @@
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -10870,15 +11419,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="D8" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -10892,7 +11441,7 @@
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10904,15 +11453,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
       <c r="D9" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -10926,7 +11475,7 @@
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -10938,15 +11487,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -10960,7 +11509,7 @@
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -10972,18 +11521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="C11" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D11" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -11000,7 +11549,7 @@
         <v>43217</v>
       </c>
       <c r="J11" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -11015,18 +11564,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="C12" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D12" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -11043,7 +11592,7 @@
         <v>43217</v>
       </c>
       <c r="J12" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -11058,18 +11607,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="C13" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D13" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -11086,7 +11635,7 @@
         <v>43217</v>
       </c>
       <c r="J13" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -11101,18 +11650,18 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="B14" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="C14" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D14" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -11129,7 +11678,7 @@
         <v>43217</v>
       </c>
       <c r="J14" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -11144,18 +11693,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="B15" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="C15" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D15" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -11172,7 +11721,7 @@
         <v>43217</v>
       </c>
       <c r="J15" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -11187,18 +11736,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
       <c r="C16" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D16" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -11215,7 +11764,7 @@
         <v>43217</v>
       </c>
       <c r="J16" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -11230,18 +11779,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="B17" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="C17" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D17" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -11258,7 +11807,7 @@
         <v>43217</v>
       </c>
       <c r="J17" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -11273,18 +11822,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="B18" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="C18" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D18" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -11301,7 +11850,7 @@
         <v>43217</v>
       </c>
       <c r="J18" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -11316,18 +11865,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="C19" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D19" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -11344,7 +11893,7 @@
         <v>43217</v>
       </c>
       <c r="J19" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -11359,18 +11908,18 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="B20" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="C20" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D20" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -11387,7 +11936,7 @@
         <v>43217</v>
       </c>
       <c r="J20" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -11402,18 +11951,18 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="C21" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D21" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -11430,7 +11979,7 @@
         <v>43217</v>
       </c>
       <c r="J21" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -11445,18 +11994,18 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="B22" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="C22" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D22" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -11473,7 +12022,7 @@
         <v>43217</v>
       </c>
       <c r="J22" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -11488,18 +12037,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="B23" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="C23" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D23" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -11516,7 +12065,7 @@
         <v>43217</v>
       </c>
       <c r="J23" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -11531,18 +12080,18 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>665</v>
+      </c>
+      <c r="B24" t="s">
+        <v>666</v>
+      </c>
+      <c r="C24" t="s">
         <v>625</v>
       </c>
-      <c r="B24" t="s">
-        <v>626</v>
-      </c>
-      <c r="C24" t="s">
-        <v>585</v>
-      </c>
       <c r="D24" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -11559,7 +12108,7 @@
         <v>43217</v>
       </c>
       <c r="J24" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -11574,18 +12123,18 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="B25" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="C25" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D25" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -11602,7 +12151,7 @@
         <v>43217</v>
       </c>
       <c r="J25" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -11617,18 +12166,18 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="B26" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="C26" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D26" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -11645,7 +12194,7 @@
         <v>43217</v>
       </c>
       <c r="J26" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -11660,18 +12209,18 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="B27" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="C27" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D27" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -11688,7 +12237,7 @@
         <v>43217</v>
       </c>
       <c r="J27" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -11703,18 +12252,18 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="B28" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="C28" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="D28" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="E28" t="s">
         <v>66</v>
@@ -11729,7 +12278,7 @@
         <v>43203</v>
       </c>
       <c r="J28" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -11741,15 +12290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="C29" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E29" t="str">
         <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,3),1))</f>
@@ -11766,7 +12315,7 @@
         <v>43224</v>
       </c>
       <c r="J29" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -11781,15 +12330,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="C30" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ref="E30:E42" si="2">"UNS"&amp;UPPER(LEFT(RIGHT(B30,3),1))</f>
@@ -11806,7 +12355,7 @@
         <v>43224</v>
       </c>
       <c r="J30" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -11821,15 +12370,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="B31" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="C31" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
@@ -11846,7 +12395,7 @@
         <v>43224</v>
       </c>
       <c r="J31" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -11861,15 +12410,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="B32" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="C32" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
@@ -11886,7 +12435,7 @@
         <v>43224</v>
       </c>
       <c r="J32" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -11901,15 +12450,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B33" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="C33" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
@@ -11926,7 +12475,7 @@
         <v>43224</v>
       </c>
       <c r="J33" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -11941,15 +12490,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="B34" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="C34" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
@@ -11966,7 +12515,7 @@
         <v>43224</v>
       </c>
       <c r="J34" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -11981,15 +12530,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="B35" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="C35" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
@@ -12006,7 +12555,7 @@
         <v>43224</v>
       </c>
       <c r="J35" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -12021,15 +12570,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="B36" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="C36" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
@@ -12046,7 +12595,7 @@
         <v>43224</v>
       </c>
       <c r="J36" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -12061,15 +12610,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="B37" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="C37" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
@@ -12086,7 +12635,7 @@
         <v>43224</v>
       </c>
       <c r="J37" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -12101,15 +12650,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="B38" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="C38" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
@@ -12126,7 +12675,7 @@
         <v>43224</v>
       </c>
       <c r="J38" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -12141,15 +12690,15 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="B39" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="C39" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
@@ -12166,7 +12715,7 @@
         <v>43224</v>
       </c>
       <c r="J39" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -12181,15 +12730,15 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="B40" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -12206,7 +12755,7 @@
         <v>43224</v>
       </c>
       <c r="J40" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -12221,15 +12770,15 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="B41" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="C41" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
@@ -12246,7 +12795,7 @@
         <v>43224</v>
       </c>
       <c r="J41" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -12261,15 +12810,15 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="B42" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="C42" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
@@ -12286,7 +12835,7 @@
         <v>43224</v>
       </c>
       <c r="J42" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -12306,10 +12855,10 @@
         <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="C43" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -12318,7 +12867,7 @@
         <v>43237</v>
       </c>
       <c r="J43" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -12333,10 +12882,10 @@
         <v>1173</v>
       </c>
       <c r="O43" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P43" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -12344,10 +12893,10 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="C44" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G44">
         <v>30</v>
@@ -12356,7 +12905,7 @@
         <v>43237</v>
       </c>
       <c r="J44" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -12371,10 +12920,10 @@
         <v>1164</v>
       </c>
       <c r="O44" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P44" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -12382,10 +12931,10 @@
         <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="C45" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G45">
         <v>30</v>
@@ -12394,7 +12943,7 @@
         <v>43237</v>
       </c>
       <c r="J45" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -12409,10 +12958,10 @@
         <v>1164</v>
       </c>
       <c r="O45" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P45" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -12420,10 +12969,10 @@
         <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="C46" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G46">
         <v>30</v>
@@ -12432,7 +12981,7 @@
         <v>43237</v>
       </c>
       <c r="J46" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -12447,21 +12996,21 @@
         <v>1165</v>
       </c>
       <c r="O46" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P46" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="C47" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -12470,7 +13019,7 @@
         <v>43237</v>
       </c>
       <c r="J47" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -12485,21 +13034,21 @@
         <v>1164</v>
       </c>
       <c r="O47" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P47" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="B48" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="C48" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G48">
         <v>30</v>
@@ -12508,7 +13057,7 @@
         <v>43237</v>
       </c>
       <c r="J48" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -12523,15 +13072,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>734</v>
+      </c>
+      <c r="B49" t="s">
         <v>694</v>
       </c>
-      <c r="B49" t="s">
-        <v>654</v>
-      </c>
       <c r="C49" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G49">
         <v>30</v>
@@ -12540,7 +13089,7 @@
         <v>43237</v>
       </c>
       <c r="J49" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -12555,15 +13104,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="B50" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="C50" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G50">
         <v>30</v>
@@ -12572,7 +13121,7 @@
         <v>43237</v>
       </c>
       <c r="J50" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -12587,15 +13136,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="B51" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="C51" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G51">
         <v>30</v>
@@ -12604,7 +13153,7 @@
         <v>43237</v>
       </c>
       <c r="J51" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -12619,15 +13168,15 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="C52" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G52">
         <v>30</v>
@@ -12636,7 +13185,7 @@
         <v>43287</v>
       </c>
       <c r="J52" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -12651,21 +13200,21 @@
         <v>624</v>
       </c>
       <c r="O52" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="C53" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G53">
         <v>30</v>
@@ -12674,7 +13223,7 @@
         <v>43287</v>
       </c>
       <c r="J53" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -12689,21 +13238,21 @@
         <v>959</v>
       </c>
       <c r="O53" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="C54" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G54">
         <v>30</v>
@@ -12712,7 +13261,7 @@
         <v>43287</v>
       </c>
       <c r="J54" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -12727,21 +13276,21 @@
         <v>638</v>
       </c>
       <c r="O54" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>704</v>
+        <v>744</v>
       </c>
       <c r="C55" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G55">
         <v>30</v>
@@ -12750,7 +13299,7 @@
         <v>43287</v>
       </c>
       <c r="J55" t="s">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -12765,21 +13314,21 @@
         <v>1023</v>
       </c>
       <c r="O55" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="C56" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G56">
         <v>20</v>
@@ -12788,7 +13337,7 @@
         <v>43287</v>
       </c>
       <c r="J56" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -12803,21 +13352,21 @@
         <v>1279</v>
       </c>
       <c r="O56" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="C57" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G57">
         <v>30</v>
@@ -12826,7 +13375,7 @@
         <v>43287</v>
       </c>
       <c r="J57" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -12841,21 +13390,21 @@
         <v>653</v>
       </c>
       <c r="O57" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P57" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="C58" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G58">
         <v>30</v>
@@ -12864,7 +13413,7 @@
         <v>43287</v>
       </c>
       <c r="J58" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -12879,21 +13428,21 @@
         <v>576</v>
       </c>
       <c r="O58" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="C59" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -12902,7 +13451,7 @@
         <v>43287</v>
       </c>
       <c r="J59" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -12917,21 +13466,21 @@
         <v>1009</v>
       </c>
       <c r="O59" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="C60" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -12940,7 +13489,7 @@
         <v>43287</v>
       </c>
       <c r="J60" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -12955,7 +13504,7 @@
         <v>1305</v>
       </c>
       <c r="O60" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
@@ -12966,10 +13515,10 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="D61" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E61" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B61,3),1)</f>
@@ -12986,7 +13535,7 @@
         <v>43014</v>
       </c>
       <c r="J61" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -12997,11 +13546,15 @@
       <c r="M61">
         <v>0</v>
       </c>
+      <c r="N61">
+        <f>LEN(J61)</f>
+        <v>2124</v>
+      </c>
       <c r="O61" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P61" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -13009,10 +13562,10 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="D62" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E62" t="str">
         <f>"UNS"&amp;LEFT(RIGHT(B62,3),1)</f>
@@ -13029,7 +13582,7 @@
         <v>43014</v>
       </c>
       <c r="J62" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -13040,11 +13593,15 @@
       <c r="M62">
         <v>0</v>
       </c>
+      <c r="N62">
+        <f t="shared" ref="N62:N75" si="4">LEN(J62)</f>
+        <v>1874</v>
+      </c>
       <c r="O62" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P62" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -13052,17 +13609,17 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="C63" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
+        <f t="shared" ref="E63" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
         <v>UNSX</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" ref="F63" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
+        <f t="shared" ref="F63" si="6">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
         <v>UNS1</v>
       </c>
       <c r="G63">
@@ -13072,7 +13629,7 @@
         <v>43014</v>
       </c>
       <c r="J63" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -13084,13 +13641,14 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>2924</v>
+        <f t="shared" si="4"/>
+        <v>1874</v>
       </c>
       <c r="O63" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P63" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -13098,17 +13656,17 @@
         <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="D64" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ref="E64:E75" si="6">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
+        <f t="shared" ref="E64:E75" si="7">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
         <v>UNSX</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" ref="F64:F75" si="7">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
+        <f t="shared" ref="F64:F75" si="8">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
         <v>UNS1</v>
       </c>
       <c r="G64">
@@ -13118,7 +13676,7 @@
         <v>43014</v>
       </c>
       <c r="J64" t="s">
-        <v>722</v>
+        <v>762</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -13129,11 +13687,15 @@
       <c r="M64">
         <v>0</v>
       </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>2929</v>
+      </c>
       <c r="O64" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P64" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -13141,17 +13703,17 @@
         <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="D65" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G65">
@@ -13161,7 +13723,7 @@
         <v>43014</v>
       </c>
       <c r="J65" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -13172,11 +13734,15 @@
       <c r="M65">
         <v>0</v>
       </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>2929</v>
+      </c>
       <c r="O65" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P65" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -13184,17 +13750,17 @@
         <v>44</v>
       </c>
       <c r="B66" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="D66" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G66">
@@ -13204,7 +13770,7 @@
         <v>43014</v>
       </c>
       <c r="J66" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -13215,11 +13781,15 @@
       <c r="M66">
         <v>0</v>
       </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>2060</v>
+      </c>
       <c r="O66" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P66" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -13227,17 +13797,17 @@
         <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="D67" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G67">
@@ -13247,7 +13817,7 @@
         <v>43014</v>
       </c>
       <c r="J67" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -13258,11 +13828,15 @@
       <c r="M67">
         <v>0</v>
       </c>
+      <c r="N67">
+        <f t="shared" si="4"/>
+        <v>1810</v>
+      </c>
       <c r="O67" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P67" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -13270,17 +13844,17 @@
         <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="D68" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G68">
@@ -13290,7 +13864,7 @@
         <v>43014</v>
       </c>
       <c r="J68" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -13301,11 +13875,15 @@
       <c r="M68">
         <v>0</v>
       </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>1810</v>
+      </c>
       <c r="O68" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P68" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -13313,17 +13891,17 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="D69" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G69">
@@ -13333,7 +13911,7 @@
         <v>43014</v>
       </c>
       <c r="J69" t="s">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -13344,11 +13922,15 @@
       <c r="M69">
         <v>0</v>
       </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>2865</v>
+      </c>
       <c r="O69" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P69" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -13356,17 +13938,17 @@
         <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>733</v>
+        <v>773</v>
       </c>
       <c r="D70" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G70">
@@ -13376,7 +13958,7 @@
         <v>43197</v>
       </c>
       <c r="J70" t="s">
-        <v>734</v>
+        <v>774</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -13387,11 +13969,15 @@
       <c r="M70">
         <v>0</v>
       </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>2865</v>
+      </c>
       <c r="O70" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P70" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -13399,17 +13985,17 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>735</v>
+        <v>775</v>
       </c>
       <c r="D71" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G71">
@@ -13419,7 +14005,7 @@
         <v>43014</v>
       </c>
       <c r="J71" t="s">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -13430,11 +14016,15 @@
       <c r="M71">
         <v>0</v>
       </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>2119</v>
+      </c>
       <c r="O71" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P71" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -13442,17 +14032,17 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="D72" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G72">
@@ -13462,7 +14052,7 @@
         <v>43014</v>
       </c>
       <c r="J72" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -13473,11 +14063,15 @@
       <c r="M72">
         <v>0</v>
       </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>1869</v>
+      </c>
       <c r="O72" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P72" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -13485,17 +14079,17 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="D73" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G73">
@@ -13505,7 +14099,7 @@
         <v>43014</v>
       </c>
       <c r="J73" t="s">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -13516,11 +14110,15 @@
       <c r="M73">
         <v>0</v>
       </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>1869</v>
+      </c>
       <c r="O73" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P73" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -13528,17 +14126,17 @@
         <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="D74" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G74">
@@ -13548,7 +14146,7 @@
         <v>43014</v>
       </c>
       <c r="J74" t="s">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -13559,11 +14157,15 @@
       <c r="M74">
         <v>0</v>
       </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>2924</v>
+      </c>
       <c r="O74" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P74" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -13571,17 +14173,17 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>743</v>
+        <v>783</v>
       </c>
       <c r="D75" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>UNSX</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>UNS1</v>
       </c>
       <c r="G75">
@@ -13591,7 +14193,7 @@
         <v>43014</v>
       </c>
       <c r="J75" t="s">
-        <v>744</v>
+        <v>784</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -13602,30 +14204,34 @@
       <c r="M75">
         <v>0</v>
       </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>2924</v>
+      </c>
       <c r="O75" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P75" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D76" s="11"/>
+        <v>785</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D76" s="12"/>
       <c r="E76" t="str">
-        <f t="shared" ref="E76:E79" si="8">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
+        <f t="shared" ref="E76:E79" si="9">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
         <v>UNS5</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" ref="F76:F79" si="9">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
+        <f t="shared" ref="F76:F79" si="10">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
         <v>UNSX</v>
       </c>
       <c r="G76" s="4">
@@ -13635,7 +14241,7 @@
         <v>43290</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="K76" s="4" t="b">
         <v>0</v>
@@ -13650,76 +14256,76 @@
         <v>438</v>
       </c>
       <c r="O76" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P76" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D77" s="11"/>
+        <v>787</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D77" s="12"/>
       <c r="E77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UNS4</v>
       </c>
       <c r="F77" t="str">
+        <f t="shared" si="10"/>
+        <v>UNS5</v>
+      </c>
+      <c r="G77" s="4">
+        <v>30</v>
+      </c>
+      <c r="H77" s="5">
+        <v>43290</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="K77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4">
+        <v>447</v>
+      </c>
+      <c r="O77" t="s">
+        <v>600</v>
+      </c>
+      <c r="P77" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" t="str">
         <f t="shared" si="9"/>
         <v>UNS5</v>
       </c>
-      <c r="G77" s="4">
-        <v>30</v>
-      </c>
-      <c r="H77" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="K77" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="4">
-        <v>447</v>
-      </c>
-      <c r="O77" t="s">
-        <v>560</v>
-      </c>
-      <c r="P77" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS5</v>
-      </c>
       <c r="F78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UNSX</v>
       </c>
       <c r="G78" s="4">
@@ -13729,7 +14335,7 @@
         <v>43290</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K78" s="4" t="b">
         <v>0</v>
@@ -13744,29 +14350,29 @@
         <v>428</v>
       </c>
       <c r="O78" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P78" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="D79" s="11"/>
+        <v>791</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D79" s="12"/>
       <c r="E79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>UNS4</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>UNS5</v>
       </c>
       <c r="G79" s="4">
@@ -13776,7 +14382,7 @@
         <v>43290</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="K79" s="4" t="b">
         <v>0</v>
@@ -13791,20 +14397,143 @@
         <v>437</v>
       </c>
       <c r="O79" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="P79" t="s">
-        <v>561</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
+        <v>793</v>
+      </c>
+      <c r="C80" t="s">
+        <v>794</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ref="E80:E82" si="11">"UNS"&amp;LEFT(RIGHT(B80,3),1)</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" ref="F80:F82" si="12">"UNS"&amp;RIGHT(RIGHT(B80,3),1)</f>
+        <v>UNS4</v>
+      </c>
+      <c r="G80" s="4">
+        <v>30</v>
+      </c>
+      <c r="H80" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J80" t="s">
+        <v>795</v>
+      </c>
+      <c r="K80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="4">
+        <v>0</v>
+      </c>
+      <c r="M80" s="4">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>600</v>
+      </c>
+      <c r="P80" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C81" t="s">
+        <v>794</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="12"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G81" s="4">
+        <v>30</v>
+      </c>
+      <c r="H81" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J81" t="s">
+        <v>795</v>
+      </c>
+      <c r="K81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4">
+        <v>0</v>
+      </c>
+      <c r="M81" s="4">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>600</v>
+      </c>
+      <c r="P81" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C82" t="s">
+        <v>794</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="12"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G82" s="4">
+        <v>30</v>
+      </c>
+      <c r="H82" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J82" t="s">
+        <v>795</v>
+      </c>
+      <c r="K82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>600</v>
+      </c>
+      <c r="P82" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P79">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="ASSGIB01"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P82"/>
   <mergeCells count="4">
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
@@ -13812,6 +14541,30 @@
     <mergeCell ref="C79:D79"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:P1">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O64:O75 O3 O61:O62 O48:O51 O7:O42">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61:O75">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -13823,7 +14576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64:O75 O3 O61:O62 O48:O51 O7:O42">
+  <conditionalFormatting sqref="O47">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -13835,7 +14588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:O75">
+  <conditionalFormatting sqref="O47">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13847,7 +14600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O46">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -13859,7 +14612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O46">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13871,7 +14624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O45">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13883,7 +14636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O45">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13895,7 +14648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O44">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13907,7 +14660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O44">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13919,7 +14672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O43">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13931,7 +14684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O43">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13943,7 +14696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -13955,7 +14708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13967,7 +14720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13979,7 +14732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13991,7 +14744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -14003,7 +14756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14015,7 +14768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14027,7 +14780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14039,7 +14792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O76:O79">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14051,7 +14804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O76:O79">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14063,7 +14816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O80:O82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14075,7 +14828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O80:O82">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14103,79 +14856,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="B1" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="C1" t="s">
-        <v>755</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>801</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>801</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>758</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -14655,7 +15408,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B7">
         <v>33.65</v>
@@ -14676,7 +15429,7 @@
         <v>30.31</v>
       </c>
       <c r="H7" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I7">
         <v>42.84</v>
@@ -14727,15 +15480,15 @@
         <v>42.06</v>
       </c>
       <c r="Y7" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C8">
         <v>42.96</v>
@@ -14789,7 +15542,7 @@
         <v>47.56</v>
       </c>
       <c r="T8" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U8">
         <v>42.56</v>
@@ -14804,12 +15557,12 @@
         <v>49.82</v>
       </c>
       <c r="Y8" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="B9">
         <v>41.02</v>
@@ -14851,653 +15604,653 @@
         <v>47.84</v>
       </c>
       <c r="O9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y9" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H10">
         <v>9.25</v>
       </c>
       <c r="I10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y10" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>808</v>
       </c>
       <c r="B11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y11" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>764</v>
+        <v>809</v>
       </c>
       <c r="B12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y12" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="B13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y13" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>766</v>
+        <v>811</v>
       </c>
       <c r="B14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y14" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>767</v>
+        <v>812</v>
       </c>
       <c r="B15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y15" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="B16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X16">
         <v>48.14</v>
       </c>
       <c r="Y16" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>814</v>
       </c>
       <c r="B17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="C17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="E17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="F17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="G17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="H17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="I17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="J17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="K17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="L17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="M17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="N17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="O17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="P17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Q17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="R17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="S17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="T17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="U17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="V17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="W17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="X17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="Y17" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murraylab\OneDrive\python\partslist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
     <sheet name="Gibson" sheetId="5" r:id="rId2"/>
-    <sheet name="Protocols" sheetId="11" r:id="rId3"/>
-    <sheet name="survey" sheetId="7" r:id="rId4"/>
+    <sheet name="placeholder" sheetId="12" r:id="rId3"/>
+    <sheet name="Protocols" sheetId="11" r:id="rId4"/>
+    <sheet name="survey" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="820">
   <si>
     <t>well</t>
   </si>
@@ -2488,12 +2489,15 @@
   </si>
   <si>
     <t>CACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCAGGAGAACGATCGTTGGCTGACCTGTAGGATCTTACAAGTTTACGCAAGAAAATGGTTTGTTACTTTCGAATAAATACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
+  </si>
+  <si>
+    <t>trigger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2874,12 +2878,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M160" sqref="M160"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2972,7 @@
         <v>43215</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="0">VALUE(MID(A2,2,6))+CODE(A2)*100</f>
+        <f>VALUE(MID(A2,2,6))+CODE(A2)*100</f>
         <v>6501</v>
       </c>
       <c r="J2" t="s">
@@ -2984,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="1">LEN(J2)</f>
+        <f>LEN(J2)</f>
         <v>53</v>
       </c>
       <c r="O2" t="s">
@@ -3020,7 +3024,7 @@
         <v>43215</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A3,2,6))+CODE(A3)*100</f>
         <v>6502</v>
       </c>
       <c r="J3" t="s">
@@ -3036,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f>LEN(J3)</f>
         <v>53</v>
       </c>
       <c r="O3" t="s">
@@ -3072,7 +3076,7 @@
         <v>43215</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A4,2,6))+CODE(A4)*100</f>
         <v>6503</v>
       </c>
       <c r="J4" t="s">
@@ -3088,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f>LEN(J4)</f>
         <v>53</v>
       </c>
       <c r="O4" t="s">
@@ -3124,7 +3128,7 @@
         <v>43215</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A5,2,6))+CODE(A5)*100</f>
         <v>6504</v>
       </c>
       <c r="J5" t="s">
@@ -3140,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f>LEN(J5)</f>
         <v>53</v>
       </c>
       <c r="O5" t="s">
@@ -3176,7 +3180,7 @@
         <v>43215</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A6,2,6))+CODE(A6)*100</f>
         <v>6505</v>
       </c>
       <c r="J6" t="s">
@@ -3192,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f>LEN(J6)</f>
         <v>53</v>
       </c>
       <c r="O6" t="s">
@@ -3228,7 +3232,7 @@
         <v>43215</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A7,2,6))+CODE(A7)*100</f>
         <v>6506</v>
       </c>
       <c r="J7" t="s">
@@ -3244,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f>LEN(J7)</f>
         <v>53</v>
       </c>
       <c r="O7" t="s">
@@ -3280,7 +3284,7 @@
         <v>53</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A8,2,6))+CODE(A8)*100</f>
         <v>6507</v>
       </c>
       <c r="J8" t="s">
@@ -3296,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f>LEN(J8)</f>
         <v>53</v>
       </c>
       <c r="O8" t="s">
@@ -3332,7 +3336,7 @@
         <v>43215</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A9,2,6))+CODE(A9)*100</f>
         <v>6508</v>
       </c>
       <c r="J9" t="s">
@@ -3348,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f>LEN(J9)</f>
         <v>53</v>
       </c>
       <c r="O9" t="s">
@@ -3384,7 +3388,7 @@
         <v>43215</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A10,2,6))+CODE(A10)*100</f>
         <v>6509</v>
       </c>
       <c r="J10" t="s">
@@ -3400,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f>LEN(J10)</f>
         <v>53</v>
       </c>
       <c r="O10" t="s">
@@ -3436,7 +3440,7 @@
         <v>43215</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A11,2,6))+CODE(A11)*100</f>
         <v>6510</v>
       </c>
       <c r="J11" t="s">
@@ -3452,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f>LEN(J11)</f>
         <v>53</v>
       </c>
       <c r="O11" t="s">
@@ -3488,7 +3492,7 @@
         <v>43215</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A12,2,6))+CODE(A12)*100</f>
         <v>6511</v>
       </c>
       <c r="J12" t="s">
@@ -3504,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f>LEN(J12)</f>
         <v>53</v>
       </c>
       <c r="O12" t="s">
@@ -3540,7 +3544,7 @@
         <v>43215</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A13,2,6))+CODE(A13)*100</f>
         <v>6512</v>
       </c>
       <c r="J13" t="s">
@@ -3556,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f>LEN(J13)</f>
         <v>53</v>
       </c>
       <c r="O13" t="s">
@@ -3592,7 +3596,7 @@
         <v>43215</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A14,2,6))+CODE(A14)*100</f>
         <v>6513</v>
       </c>
       <c r="J14" t="s">
@@ -3608,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f>LEN(J14)</f>
         <v>53</v>
       </c>
       <c r="O14" t="s">
@@ -3644,7 +3648,7 @@
         <v>43215</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A15,2,6))+CODE(A15)*100</f>
         <v>6514</v>
       </c>
       <c r="J15" t="s">
@@ -3660,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f>LEN(J15)</f>
         <v>53</v>
       </c>
       <c r="O15" t="s">
@@ -3696,7 +3700,7 @@
         <v>43215</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A16,2,6))+CODE(A16)*100</f>
         <v>6515</v>
       </c>
       <c r="J16" t="s">
@@ -3712,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f>LEN(J16)</f>
         <v>53</v>
       </c>
       <c r="O16" t="s">
@@ -3748,7 +3752,7 @@
         <v>43215</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A17,2,6))+CODE(A17)*100</f>
         <v>6516</v>
       </c>
       <c r="J17" t="s">
@@ -3764,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f>LEN(J17)</f>
         <v>53</v>
       </c>
       <c r="O17" t="s">
@@ -3800,7 +3804,7 @@
         <v>43215</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A18,2,6))+CODE(A18)*100</f>
         <v>6517</v>
       </c>
       <c r="J18" t="s">
@@ -3816,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f>LEN(J18)</f>
         <v>53</v>
       </c>
       <c r="O18" t="s">
@@ -3852,7 +3856,7 @@
         <v>43215</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A19,2,6))+CODE(A19)*100</f>
         <v>6518</v>
       </c>
       <c r="J19" t="s">
@@ -3868,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f>LEN(J19)</f>
         <v>53</v>
       </c>
       <c r="O19" t="s">
@@ -3904,7 +3908,7 @@
         <v>43215</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A20,2,6))+CODE(A20)*100</f>
         <v>6519</v>
       </c>
       <c r="J20" t="s">
@@ -3920,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f>LEN(J20)</f>
         <v>53</v>
       </c>
       <c r="O20" t="s">
@@ -3956,7 +3960,7 @@
         <v>43215</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A21,2,6))+CODE(A21)*100</f>
         <v>6520</v>
       </c>
       <c r="J21" t="s">
@@ -3972,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f>LEN(J21)</f>
         <v>53</v>
       </c>
       <c r="O21" t="s">
@@ -4008,7 +4012,7 @@
         <v>43215</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A22,2,6))+CODE(A22)*100</f>
         <v>6521</v>
       </c>
       <c r="J22" t="s">
@@ -4024,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f>LEN(J22)</f>
         <v>53</v>
       </c>
       <c r="O22" t="s">
@@ -4060,7 +4064,7 @@
         <v>43215</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A23,2,6))+CODE(A23)*100</f>
         <v>6522</v>
       </c>
       <c r="J23" t="s">
@@ -4076,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f>LEN(J23)</f>
         <v>53</v>
       </c>
       <c r="O23" t="s">
@@ -4112,7 +4116,7 @@
         <v>43215</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A24,2,6))+CODE(A24)*100</f>
         <v>6523</v>
       </c>
       <c r="J24" t="s">
@@ -4128,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f>LEN(J24)</f>
         <v>2127</v>
       </c>
       <c r="O24" t="s">
@@ -4164,7 +4168,7 @@
         <v>43215</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A25,2,6))+CODE(A25)*100</f>
         <v>6524</v>
       </c>
       <c r="J25" t="s">
@@ -4180,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f>LEN(J25)</f>
         <v>2127</v>
       </c>
       <c r="O25" t="s">
@@ -4216,7 +4220,7 @@
         <v>43215</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A26,2,6))+CODE(A26)*100</f>
         <v>6601</v>
       </c>
       <c r="J26" t="s">
@@ -4232,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f>LEN(J26)</f>
         <v>2127</v>
       </c>
       <c r="O26" t="s">
@@ -4268,7 +4272,7 @@
         <v>43215</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A27,2,6))+CODE(A27)*100</f>
         <v>6602</v>
       </c>
       <c r="J27" t="s">
@@ -4284,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f>LEN(J27)</f>
         <v>2127</v>
       </c>
       <c r="O27" t="s">
@@ -4320,7 +4324,7 @@
         <v>43215</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A28,2,6))+CODE(A28)*100</f>
         <v>6603</v>
       </c>
       <c r="J28" t="s">
@@ -4336,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f>LEN(J28)</f>
         <v>2127</v>
       </c>
       <c r="O28" t="s">
@@ -4372,7 +4376,7 @@
         <v>43215</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A29,2,6))+CODE(A29)*100</f>
         <v>6604</v>
       </c>
       <c r="J29" t="s">
@@ -4388,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f>LEN(J29)</f>
         <v>2127</v>
       </c>
       <c r="O29" t="s">
@@ -4424,7 +4428,7 @@
         <v>43215</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A30,2,6))+CODE(A30)*100</f>
         <v>6605</v>
       </c>
       <c r="J30" t="s">
@@ -4440,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f>LEN(J30)</f>
         <v>2185</v>
       </c>
       <c r="O30" t="s">
@@ -4476,7 +4480,7 @@
         <v>43215</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A31,2,6))+CODE(A31)*100</f>
         <v>6606</v>
       </c>
       <c r="J31" t="s">
@@ -4492,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f>LEN(J31)</f>
         <v>2349</v>
       </c>
       <c r="O31" t="s">
@@ -4528,7 +4532,7 @@
         <v>43215</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A32,2,6))+CODE(A32)*100</f>
         <v>6607</v>
       </c>
       <c r="J32" t="s">
@@ -4544,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f>LEN(J32)</f>
         <v>2135</v>
       </c>
       <c r="O32" t="s">
@@ -4580,7 +4584,7 @@
         <v>43215</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f>VALUE(MID(A33,2,6))+CODE(A33)*100</f>
         <v>6608</v>
       </c>
       <c r="J33" t="s">
@@ -4596,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f>LEN(J33)</f>
         <v>2825</v>
       </c>
       <c r="O33" t="s">
@@ -4632,7 +4636,7 @@
         <v>43215</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I65" si="2">VALUE(MID(A34,2,6))+CODE(A34)*100</f>
+        <f>VALUE(MID(A34,2,6))+CODE(A34)*100</f>
         <v>6609</v>
       </c>
       <c r="J34" t="s">
@@ -4648,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N53" si="3">LEN(J34)</f>
+        <f>LEN(J34)</f>
         <v>2171</v>
       </c>
       <c r="O34" t="s">
@@ -4684,7 +4688,7 @@
         <v>43215</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A35,2,6))+CODE(A35)*100</f>
         <v>6610</v>
       </c>
       <c r="J35" t="s">
@@ -4700,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="3"/>
+        <f>LEN(J35)</f>
         <v>2237</v>
       </c>
       <c r="O35" t="s">
@@ -4736,7 +4740,7 @@
         <v>43215</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A36,2,6))+CODE(A36)*100</f>
         <v>6611</v>
       </c>
       <c r="J36" t="s">
@@ -4752,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="3"/>
+        <f>LEN(J36)</f>
         <v>2238</v>
       </c>
       <c r="O36" t="s">
@@ -4788,7 +4792,7 @@
         <v>43215</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A37,2,6))+CODE(A37)*100</f>
         <v>6612</v>
       </c>
       <c r="J37" t="s">
@@ -4804,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="3"/>
+        <f>LEN(J37)</f>
         <v>2155</v>
       </c>
       <c r="O37" t="s">
@@ -4840,7 +4844,7 @@
         <v>43215</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A38,2,6))+CODE(A38)*100</f>
         <v>6613</v>
       </c>
       <c r="J38" t="s">
@@ -4856,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="3"/>
+        <f>LEN(J38)</f>
         <v>2170</v>
       </c>
       <c r="O38" t="s">
@@ -4892,7 +4896,7 @@
         <v>43215</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A39,2,6))+CODE(A39)*100</f>
         <v>6614</v>
       </c>
       <c r="J39" t="s">
@@ -4908,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="3"/>
+        <f>LEN(J39)</f>
         <v>2166</v>
       </c>
       <c r="O39" t="s">
@@ -4944,7 +4948,7 @@
         <v>43215</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A40,2,6))+CODE(A40)*100</f>
         <v>6615</v>
       </c>
       <c r="J40" t="s">
@@ -4960,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="3"/>
+        <f>LEN(J40)</f>
         <v>2166</v>
       </c>
       <c r="O40" t="s">
@@ -4996,7 +5000,7 @@
         <v>43215</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A41,2,6))+CODE(A41)*100</f>
         <v>6616</v>
       </c>
       <c r="J41" t="s">
@@ -5012,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="3"/>
+        <f>LEN(J41)</f>
         <v>2159</v>
       </c>
       <c r="O41" t="s">
@@ -5048,7 +5052,7 @@
         <v>43215</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A42,2,6))+CODE(A42)*100</f>
         <v>6617</v>
       </c>
       <c r="J42" t="s">
@@ -5064,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="3"/>
+        <f>LEN(J42)</f>
         <v>2789</v>
       </c>
       <c r="O42" t="s">
@@ -5100,7 +5104,7 @@
         <v>43215</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A43,2,6))+CODE(A43)*100</f>
         <v>6618</v>
       </c>
       <c r="J43" t="s">
@@ -5116,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f>LEN(J43)</f>
         <v>2130</v>
       </c>
       <c r="O43" t="s">
@@ -5152,7 +5156,7 @@
         <v>43215</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A44,2,6))+CODE(A44)*100</f>
         <v>6619</v>
       </c>
       <c r="J44" t="s">
@@ -5168,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="3"/>
+        <f>LEN(J44)</f>
         <v>2128</v>
       </c>
       <c r="O44" t="s">
@@ -5204,7 +5208,7 @@
         <v>43215</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A45,2,6))+CODE(A45)*100</f>
         <v>6620</v>
       </c>
       <c r="J45" t="s">
@@ -5220,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="3"/>
+        <f>LEN(J45)</f>
         <v>2129</v>
       </c>
       <c r="O45" t="s">
@@ -5256,7 +5260,7 @@
         <v>43222</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A46,2,6))+CODE(A46)*100</f>
         <v>6701</v>
       </c>
       <c r="J46" t="s">
@@ -5272,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="3"/>
+        <f>LEN(J46)</f>
         <v>1151</v>
       </c>
       <c r="O46" t="s">
@@ -5308,7 +5312,7 @@
         <v>43222</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A47,2,6))+CODE(A47)*100</f>
         <v>6702</v>
       </c>
       <c r="J47" t="s">
@@ -5324,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="3"/>
+        <f>LEN(J47)</f>
         <v>1087</v>
       </c>
       <c r="O47" t="s">
@@ -5360,7 +5364,7 @@
         <v>43222</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A48,2,6))+CODE(A48)*100</f>
         <v>6703</v>
       </c>
       <c r="J48" t="s">
@@ -5376,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="3"/>
+        <f>LEN(J48)</f>
         <v>1146</v>
       </c>
       <c r="O48" t="s">
@@ -5412,7 +5416,7 @@
         <v>43222</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A49,2,6))+CODE(A49)*100</f>
         <v>6704</v>
       </c>
       <c r="J49" t="s">
@@ -5428,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="3"/>
+        <f>LEN(J49)</f>
         <v>937</v>
       </c>
       <c r="O49" t="s">
@@ -5464,7 +5468,7 @@
         <v>43222</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A50,2,6))+CODE(A50)*100</f>
         <v>6705</v>
       </c>
       <c r="J50" t="s">
@@ -5480,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="3"/>
+        <f>LEN(J50)</f>
         <v>687</v>
       </c>
       <c r="O50" t="s">
@@ -5516,7 +5520,7 @@
         <v>43222</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A51,2,6))+CODE(A51)*100</f>
         <v>6706</v>
       </c>
       <c r="J51" t="s">
@@ -5532,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
+        <f>LEN(J51)</f>
         <v>1742</v>
       </c>
       <c r="O51" t="s">
@@ -5568,7 +5572,7 @@
         <v>43222</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A52,2,6))+CODE(A52)*100</f>
         <v>6707</v>
       </c>
       <c r="J52" t="s">
@@ -5584,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="3"/>
+        <f>LEN(J52)</f>
         <v>687</v>
       </c>
       <c r="O52" t="s">
@@ -5620,7 +5624,7 @@
         <v>43222</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A53,2,6))+CODE(A53)*100</f>
         <v>6708</v>
       </c>
       <c r="J53" t="s">
@@ -5636,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="3"/>
+        <f>LEN(J53)</f>
         <v>1742</v>
       </c>
       <c r="O53" t="s">
@@ -5666,7 +5670,7 @@
         <v>43224</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A54,2,6))+CODE(A54)*100</f>
         <v>6711</v>
       </c>
       <c r="J54" t="s">
@@ -5708,7 +5712,7 @@
         <v>43224</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A55,2,6))+CODE(A55)*100</f>
         <v>6712</v>
       </c>
       <c r="J55" t="s">
@@ -5750,7 +5754,7 @@
         <v>43224</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A56,2,6))+CODE(A56)*100</f>
         <v>6713</v>
       </c>
       <c r="J56" t="s">
@@ -5792,7 +5796,7 @@
         <v>43224</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A57,2,6))+CODE(A57)*100</f>
         <v>6714</v>
       </c>
       <c r="J57" t="s">
@@ -5834,7 +5838,7 @@
         <v>43224</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A58,2,6))+CODE(A58)*100</f>
         <v>6715</v>
       </c>
       <c r="J58" t="s">
@@ -5876,7 +5880,7 @@
         <v>43224</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A59,2,6))+CODE(A59)*100</f>
         <v>6716</v>
       </c>
       <c r="J59" t="s">
@@ -5918,7 +5922,7 @@
         <v>43224</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A60,2,6))+CODE(A60)*100</f>
         <v>6717</v>
       </c>
       <c r="J60" t="s">
@@ -5960,7 +5964,7 @@
         <v>43224</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A61,2,6))+CODE(A61)*100</f>
         <v>6718</v>
       </c>
       <c r="J61" t="s">
@@ -6008,7 +6012,7 @@
         <v>43242</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A62,2,6))+CODE(A62)*100</f>
         <v>6719</v>
       </c>
       <c r="J62" t="s">
@@ -6024,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N78" si="4">LEN(J62)</f>
+        <f>LEN(J62)</f>
         <v>3611</v>
       </c>
       <c r="O62" t="s">
@@ -6060,7 +6064,7 @@
         <v>43242</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A63,2,6))+CODE(A63)*100</f>
         <v>6720</v>
       </c>
       <c r="J63" t="s">
@@ -6076,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f>LEN(J63)</f>
         <v>2196</v>
       </c>
       <c r="O63" t="s">
@@ -6112,7 +6116,7 @@
         <v>43242</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A64,2,6))+CODE(A64)*100</f>
         <v>6721</v>
       </c>
       <c r="J64" t="s">
@@ -6128,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f>LEN(J64)</f>
         <v>2143</v>
       </c>
       <c r="O64" t="s">
@@ -6158,7 +6162,7 @@
         <v>43242</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f>VALUE(MID(A65,2,6))+CODE(A65)*100</f>
         <v>6722</v>
       </c>
       <c r="J65" t="s">
@@ -6174,7 +6178,7 @@
         <v>-4</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f>LEN(J65)</f>
         <v>46</v>
       </c>
       <c r="O65" t="s">
@@ -6204,7 +6208,7 @@
         <v>43242</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="5">VALUE(MID(A66,2,6))+CODE(A66)*100</f>
+        <f>VALUE(MID(A66,2,6))+CODE(A66)*100</f>
         <v>6723</v>
       </c>
       <c r="J66" t="s">
@@ -6220,7 +6224,7 @@
         <v>-4</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f>LEN(J66)</f>
         <v>46</v>
       </c>
       <c r="O66" t="s">
@@ -6250,7 +6254,7 @@
         <v>43242</v>
       </c>
       <c r="I67">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A67,2,6))+CODE(A67)*100</f>
         <v>6724</v>
       </c>
       <c r="J67" t="s">
@@ -6266,7 +6270,7 @@
         <v>-4</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
+        <f>LEN(J67)</f>
         <v>51</v>
       </c>
       <c r="O67" t="s">
@@ -6296,7 +6300,7 @@
         <v>43242</v>
       </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A68,2,6))+CODE(A68)*100</f>
         <v>6801</v>
       </c>
       <c r="J68" t="s">
@@ -6312,7 +6316,7 @@
         <v>-4</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
+        <f>LEN(J68)</f>
         <v>51</v>
       </c>
       <c r="O68" t="s">
@@ -6342,7 +6346,7 @@
         <v>43242</v>
       </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A69,2,6))+CODE(A69)*100</f>
         <v>6802</v>
       </c>
       <c r="J69" t="s">
@@ -6358,7 +6362,7 @@
         <v>-4</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f>LEN(J69)</f>
         <v>55</v>
       </c>
       <c r="O69" t="s">
@@ -6388,7 +6392,7 @@
         <v>43242</v>
       </c>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A70,2,6))+CODE(A70)*100</f>
         <v>6803</v>
       </c>
       <c r="J70" t="s">
@@ -6404,7 +6408,7 @@
         <v>-4</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f>LEN(J70)</f>
         <v>55</v>
       </c>
       <c r="O70" t="s">
@@ -6434,7 +6438,7 @@
         <v>43242</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A71,2,6))+CODE(A71)*100</f>
         <v>6804</v>
       </c>
       <c r="J71" t="s">
@@ -6450,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f>LEN(J71)</f>
         <v>2355</v>
       </c>
       <c r="O71" t="s">
@@ -6486,7 +6490,7 @@
         <v>43242</v>
       </c>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A72,2,6))+CODE(A72)*100</f>
         <v>6805</v>
       </c>
       <c r="J72" t="s">
@@ -6502,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f>LEN(J72)</f>
         <v>2239</v>
       </c>
       <c r="O72" t="s">
@@ -6535,7 +6539,7 @@
         <v>43244</v>
       </c>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A73,2,6))+CODE(A73)*100</f>
         <v>6806</v>
       </c>
       <c r="J73" t="s">
@@ -6551,7 +6555,7 @@
         <v>-4</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f>LEN(J73)</f>
         <v>46</v>
       </c>
       <c r="O73" t="s">
@@ -6584,7 +6588,7 @@
         <v>43244</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A74,2,6))+CODE(A74)*100</f>
         <v>6807</v>
       </c>
       <c r="J74" t="s">
@@ -6600,7 +6604,7 @@
         <v>-4</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f>LEN(J74)</f>
         <v>46</v>
       </c>
       <c r="O74" t="s">
@@ -6633,7 +6637,7 @@
         <v>43244</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A75,2,6))+CODE(A75)*100</f>
         <v>6808</v>
       </c>
       <c r="J75" t="s">
@@ -6649,7 +6653,7 @@
         <v>-4</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f>LEN(J75)</f>
         <v>51</v>
       </c>
       <c r="O75" t="s">
@@ -6682,7 +6686,7 @@
         <v>43244</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A76,2,6))+CODE(A76)*100</f>
         <v>6809</v>
       </c>
       <c r="J76" t="s">
@@ -6698,7 +6702,7 @@
         <v>-4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f>LEN(J76)</f>
         <v>51</v>
       </c>
       <c r="O76" t="s">
@@ -6731,7 +6735,7 @@
         <v>43244</v>
       </c>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A77,2,6))+CODE(A77)*100</f>
         <v>6810</v>
       </c>
       <c r="J77" t="s">
@@ -6747,7 +6751,7 @@
         <v>-4</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
+        <f>LEN(J77)</f>
         <v>55</v>
       </c>
       <c r="O77" t="s">
@@ -6780,7 +6784,7 @@
         <v>43244</v>
       </c>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A78,2,6))+CODE(A78)*100</f>
         <v>6811</v>
       </c>
       <c r="J78" t="s">
@@ -6796,7 +6800,7 @@
         <v>-4</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f>LEN(J78)</f>
         <v>55</v>
       </c>
       <c r="O78" t="s">
@@ -6829,7 +6833,7 @@
         <v>43274</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A79,2,6))+CODE(A79)*100</f>
         <v>6812</v>
       </c>
       <c r="J79" t="s">
@@ -6874,7 +6878,7 @@
         <v>43274</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A80,2,6))+CODE(A80)*100</f>
         <v>6813</v>
       </c>
       <c r="J80" t="s">
@@ -6919,7 +6923,7 @@
         <v>43274</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A81,2,6))+CODE(A81)*100</f>
         <v>6814</v>
       </c>
       <c r="J81" t="s">
@@ -6964,7 +6968,7 @@
         <v>43274</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A82,2,6))+CODE(A82)*100</f>
         <v>6815</v>
       </c>
       <c r="J82" t="s">
@@ -7009,7 +7013,7 @@
         <v>43274</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A83,2,6))+CODE(A83)*100</f>
         <v>6816</v>
       </c>
       <c r="J83" t="s">
@@ -7054,7 +7058,7 @@
         <v>43274</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A84,2,6))+CODE(A84)*100</f>
         <v>6817</v>
       </c>
       <c r="J84" t="s">
@@ -7099,7 +7103,7 @@
         <v>43274</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A85,2,6))+CODE(A85)*100</f>
         <v>6818</v>
       </c>
       <c r="J85" t="s">
@@ -7144,7 +7148,7 @@
         <v>43274</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A86,2,6))+CODE(A86)*100</f>
         <v>6819</v>
       </c>
       <c r="J86" t="s">
@@ -7192,7 +7196,7 @@
         <v>43283</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A87,2,6))+CODE(A87)*100</f>
         <v>6820</v>
       </c>
       <c r="J87" t="s">
@@ -7208,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <f t="shared" ref="N87:N150" si="6">LEN(J87)</f>
+        <f>LEN(J87)</f>
         <v>2129</v>
       </c>
       <c r="O87" t="s">
@@ -7244,7 +7248,7 @@
         <v>43270</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A88,2,6))+CODE(A88)*100</f>
         <v>6901</v>
       </c>
       <c r="J88" t="s">
@@ -7260,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <f t="shared" si="6"/>
+        <f>LEN(J88)</f>
         <v>1151</v>
       </c>
       <c r="O88" t="s">
@@ -7293,7 +7297,7 @@
         <v>43270</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A89,2,6))+CODE(A89)*100</f>
         <v>6902</v>
       </c>
       <c r="J89" t="s">
@@ -7309,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <f t="shared" si="6"/>
+        <f>LEN(J89)</f>
         <v>1012</v>
       </c>
       <c r="O89" t="s">
@@ -7345,7 +7349,7 @@
         <v>43270</v>
       </c>
       <c r="I90">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A90,2,6))+CODE(A90)*100</f>
         <v>6903</v>
       </c>
       <c r="J90" t="s">
@@ -7361,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <f t="shared" si="6"/>
+        <f>LEN(J90)</f>
         <v>1146</v>
       </c>
       <c r="O90" t="s">
@@ -7394,7 +7398,7 @@
         <v>43270</v>
       </c>
       <c r="I91">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A91,2,6))+CODE(A91)*100</f>
         <v>6904</v>
       </c>
       <c r="J91" t="s">
@@ -7410,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <f t="shared" si="6"/>
+        <f>LEN(J91)</f>
         <v>1008</v>
       </c>
       <c r="O91" t="s">
@@ -7443,7 +7447,7 @@
         <v>43270</v>
       </c>
       <c r="I92">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A92,2,6))+CODE(A92)*100</f>
         <v>6905</v>
       </c>
       <c r="J92" t="s">
@@ -7459,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="6"/>
+        <f>LEN(J92)</f>
         <v>687</v>
       </c>
       <c r="O92" t="s">
@@ -7492,7 +7496,7 @@
         <v>43270</v>
       </c>
       <c r="I93">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A93,2,6))+CODE(A93)*100</f>
         <v>6906</v>
       </c>
       <c r="J93" t="s">
@@ -7508,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <f t="shared" si="6"/>
+        <f>LEN(J93)</f>
         <v>616</v>
       </c>
       <c r="O93" t="s">
@@ -7541,7 +7545,7 @@
         <v>43270</v>
       </c>
       <c r="I94">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A94,2,6))+CODE(A94)*100</f>
         <v>6907</v>
       </c>
       <c r="J94" t="s">
@@ -7557,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <f t="shared" si="6"/>
+        <f>LEN(J94)</f>
         <v>469</v>
       </c>
       <c r="O94" t="s">
@@ -7590,7 +7594,7 @@
         <v>43270</v>
       </c>
       <c r="I95">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A95,2,6))+CODE(A95)*100</f>
         <v>6908</v>
       </c>
       <c r="J95" t="s">
@@ -7606,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <f t="shared" si="6"/>
+        <f>LEN(J95)</f>
         <v>624</v>
       </c>
       <c r="O95" t="s">
@@ -7639,7 +7643,7 @@
         <v>43270</v>
       </c>
       <c r="I96">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A96,2,6))+CODE(A96)*100</f>
         <v>6909</v>
       </c>
       <c r="J96" t="s">
@@ -7655,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <f t="shared" si="6"/>
+        <f>LEN(J96)</f>
         <v>586</v>
       </c>
       <c r="O96" t="s">
@@ -7688,7 +7692,7 @@
         <v>43270</v>
       </c>
       <c r="I97">
-        <f t="shared" si="5"/>
+        <f>VALUE(MID(A97,2,6))+CODE(A97)*100</f>
         <v>6910</v>
       </c>
       <c r="J97" t="s">
@@ -7704,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <f t="shared" si="6"/>
+        <f>LEN(J97)</f>
         <v>444</v>
       </c>
       <c r="O97" t="s">
@@ -7737,7 +7741,7 @@
         <v>43270</v>
       </c>
       <c r="I98">
-        <f t="shared" ref="I98:I152" si="7">VALUE(MID(A98,2,6))+CODE(A98)*100</f>
+        <f>VALUE(MID(A98,2,6))+CODE(A98)*100</f>
         <v>6911</v>
       </c>
       <c r="J98" t="s">
@@ -7753,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <f t="shared" si="6"/>
+        <f>LEN(J98)</f>
         <v>66</v>
       </c>
       <c r="O98" t="s">
@@ -7786,7 +7790,7 @@
         <v>43270</v>
       </c>
       <c r="I99">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A99,2,6))+CODE(A99)*100</f>
         <v>6912</v>
       </c>
       <c r="J99" t="s">
@@ -7802,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="6"/>
+        <f>LEN(J99)</f>
         <v>83</v>
       </c>
       <c r="O99" t="s">
@@ -7835,7 +7839,7 @@
         <v>43270</v>
       </c>
       <c r="I100">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A100,2,6))+CODE(A100)*100</f>
         <v>6913</v>
       </c>
       <c r="J100" t="s">
@@ -7851,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <f t="shared" si="6"/>
+        <f>LEN(J100)</f>
         <v>83</v>
       </c>
       <c r="O100" t="s">
@@ -7884,7 +7888,7 @@
         <v>43270</v>
       </c>
       <c r="I101">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A101,2,6))+CODE(A101)*100</f>
         <v>6914</v>
       </c>
       <c r="J101" t="s">
@@ -7900,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
+        <f>LEN(J101)</f>
         <v>83</v>
       </c>
       <c r="O101" t="s">
@@ -7933,7 +7937,7 @@
         <v>43270</v>
       </c>
       <c r="I102">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A102,2,6))+CODE(A102)*100</f>
         <v>6915</v>
       </c>
       <c r="J102" t="s">
@@ -7949,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <f t="shared" si="6"/>
+        <f>LEN(J102)</f>
         <v>66</v>
       </c>
       <c r="O102" t="s">
@@ -7982,7 +7986,7 @@
         <v>43270</v>
       </c>
       <c r="I103">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A103,2,6))+CODE(A103)*100</f>
         <v>6916</v>
       </c>
       <c r="J103" t="s">
@@ -7998,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <f t="shared" si="6"/>
+        <f>LEN(J103)</f>
         <v>66</v>
       </c>
       <c r="O103" t="s">
@@ -8031,7 +8035,7 @@
         <v>43270</v>
       </c>
       <c r="I104">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A104,2,6))+CODE(A104)*100</f>
         <v>6917</v>
       </c>
       <c r="J104" t="s">
@@ -8047,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="6"/>
+        <f>LEN(J104)</f>
         <v>2355</v>
       </c>
       <c r="O104" t="s">
@@ -8080,7 +8084,7 @@
         <v>43270</v>
       </c>
       <c r="I105">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A105,2,6))+CODE(A105)*100</f>
         <v>6918</v>
       </c>
       <c r="J105" t="s">
@@ -8096,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <f t="shared" si="6"/>
+        <f>LEN(J105)</f>
         <v>2355</v>
       </c>
       <c r="O105" t="s">
@@ -8129,7 +8133,7 @@
         <v>43270</v>
       </c>
       <c r="I106">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A106,2,6))+CODE(A106)*100</f>
         <v>6919</v>
       </c>
       <c r="J106" t="s">
@@ -8145,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <f t="shared" si="6"/>
+        <f>LEN(J106)</f>
         <v>2355</v>
       </c>
       <c r="O106" t="s">
@@ -8181,7 +8185,7 @@
         <v>43270</v>
       </c>
       <c r="I107">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A107,2,6))+CODE(A107)*100</f>
         <v>6920</v>
       </c>
       <c r="J107" t="s">
@@ -8197,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <f t="shared" si="6"/>
+        <f>LEN(J107)</f>
         <v>61</v>
       </c>
       <c r="O107" t="s">
@@ -8233,7 +8237,7 @@
         <v>43270</v>
       </c>
       <c r="I108">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A108,2,6))+CODE(A108)*100</f>
         <v>6921</v>
       </c>
       <c r="J108" t="s">
@@ -8249,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <f t="shared" si="6"/>
+        <f>LEN(J108)</f>
         <v>62</v>
       </c>
       <c r="O108" t="s">
@@ -8271,7 +8275,7 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109">
-        <f t="shared" si="7"/>
+        <f>VALUE(MID(A109,2,6))+CODE(A109)*100</f>
         <v>8023</v>
       </c>
       <c r="O109" t="s">
@@ -8283,35 +8287,32 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>465</v>
+      </c>
+      <c r="C110" t="s">
+        <v>466</v>
       </c>
       <c r="D110" t="s">
         <v>427</v>
       </c>
-      <c r="E110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" t="s">
-        <v>38</v>
-      </c>
       <c r="G110">
         <v>30</v>
       </c>
       <c r="H110" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I110">
-        <f t="shared" si="7"/>
-        <v>8801</v>
+        <f>VALUE(MID(A110,2,6))+CODE(A110)*100</f>
+        <v>6922</v>
       </c>
       <c r="J110" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="K110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -8320,41 +8321,44 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f t="shared" si="6"/>
-        <v>980</v>
+        <f>LEN(J110)</f>
+        <v>562</v>
+      </c>
+      <c r="O110" t="s">
+        <v>23</v>
+      </c>
+      <c r="P110" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="B111" t="s">
-        <v>430</v>
+        <v>469</v>
+      </c>
+      <c r="C111" t="s">
+        <v>470</v>
       </c>
       <c r="D111" t="s">
         <v>427</v>
       </c>
-      <c r="E111" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" t="s">
-        <v>38</v>
-      </c>
       <c r="G111">
         <v>30</v>
       </c>
       <c r="H111" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I111">
-        <f t="shared" si="7"/>
-        <v>8802</v>
+        <f>VALUE(MID(A111,2,6))+CODE(A111)*100</f>
+        <v>6923</v>
       </c>
       <c r="J111" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="K111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -8363,41 +8367,44 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f t="shared" si="6"/>
-        <v>971</v>
+        <f>LEN(J111)</f>
+        <v>591</v>
+      </c>
+      <c r="O111" t="s">
+        <v>23</v>
+      </c>
+      <c r="P111" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="B112" t="s">
-        <v>433</v>
+        <v>473</v>
+      </c>
+      <c r="C112" t="s">
+        <v>474</v>
       </c>
       <c r="D112" t="s">
         <v>427</v>
       </c>
-      <c r="E112" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" t="s">
-        <v>38</v>
-      </c>
       <c r="G112">
         <v>30</v>
       </c>
       <c r="H112" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I112">
-        <f t="shared" si="7"/>
-        <v>8803</v>
+        <f>VALUE(MID(A112,2,6))+CODE(A112)*100</f>
+        <v>6924</v>
       </c>
       <c r="J112" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="K112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -8406,41 +8413,44 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <f t="shared" si="6"/>
-        <v>971</v>
+        <f>LEN(J112)</f>
+        <v>576</v>
+      </c>
+      <c r="O112" t="s">
+        <v>23</v>
+      </c>
+      <c r="P112" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>477</v>
+      </c>
+      <c r="C113" t="s">
+        <v>478</v>
       </c>
       <c r="D113" t="s">
         <v>427</v>
       </c>
-      <c r="E113" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" t="s">
-        <v>38</v>
-      </c>
       <c r="G113">
         <v>30</v>
       </c>
       <c r="H113" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I113">
-        <f t="shared" si="7"/>
-        <v>8804</v>
+        <f>VALUE(MID(A113,2,6))+CODE(A113)*100</f>
+        <v>7001</v>
       </c>
       <c r="J113" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="K113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -8449,41 +8459,44 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <f t="shared" si="6"/>
-        <v>972</v>
+        <f>LEN(J113)</f>
+        <v>514</v>
+      </c>
+      <c r="O113" t="s">
+        <v>23</v>
+      </c>
+      <c r="P113" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="B114" t="s">
-        <v>439</v>
+        <v>481</v>
+      </c>
+      <c r="C114" t="s">
+        <v>482</v>
       </c>
       <c r="D114" t="s">
         <v>427</v>
       </c>
-      <c r="E114" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" t="s">
-        <v>38</v>
-      </c>
       <c r="G114">
         <v>30</v>
       </c>
       <c r="H114" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I114">
-        <f t="shared" si="7"/>
-        <v>8805</v>
+        <f>VALUE(MID(A114,2,6))+CODE(A114)*100</f>
+        <v>7002</v>
       </c>
       <c r="J114" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="K114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -8492,38 +8505,44 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <f t="shared" si="6"/>
-        <v>971</v>
+        <f>LEN(J114)</f>
+        <v>1217</v>
+      </c>
+      <c r="O114" t="s">
+        <v>23</v>
+      </c>
+      <c r="P114" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B115" t="s">
-        <v>442</v>
-      </c>
-      <c r="E115" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" t="s">
-        <v>38</v>
+        <v>485</v>
+      </c>
+      <c r="C115" t="s">
+        <v>486</v>
+      </c>
+      <c r="D115" t="s">
+        <v>427</v>
       </c>
       <c r="G115">
         <v>30</v>
       </c>
       <c r="H115" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I115">
-        <f t="shared" si="7"/>
-        <v>8806</v>
+        <f>VALUE(MID(A115,2,6))+CODE(A115)*100</f>
+        <v>7003</v>
       </c>
       <c r="J115" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="K115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -8532,38 +8551,44 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="6"/>
-        <v>981</v>
+        <f>LEN(J115)</f>
+        <v>961</v>
+      </c>
+      <c r="O115" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
-      </c>
-      <c r="E116" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" t="s">
-        <v>38</v>
+        <v>489</v>
+      </c>
+      <c r="C116" t="s">
+        <v>489</v>
+      </c>
+      <c r="D116" t="s">
+        <v>146</v>
       </c>
       <c r="G116">
         <v>30</v>
       </c>
       <c r="H116" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I116">
-        <f t="shared" si="7"/>
-        <v>8807</v>
+        <f>VALUE(MID(A116,2,6))+CODE(A116)*100</f>
+        <v>7004</v>
       </c>
       <c r="J116" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="K116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -8572,40 +8597,44 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <f t="shared" si="6"/>
-        <v>972</v>
+        <f>LEN(J116)</f>
+        <v>123</v>
+      </c>
+      <c r="O116" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="B117" t="s">
-        <v>448</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" t="s">
-        <v>38</v>
+        <v>492</v>
+      </c>
+      <c r="C117" t="s">
+        <v>492</v>
+      </c>
+      <c r="D117" t="s">
+        <v>146</v>
       </c>
       <c r="G117">
         <v>30</v>
       </c>
       <c r="H117" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I117">
-        <f t="shared" si="7"/>
-        <v>8808</v>
+        <f>VALUE(MID(A117,2,6))+CODE(A117)*100</f>
+        <v>7005</v>
       </c>
       <c r="J117" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="K117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -8614,40 +8643,44 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <f t="shared" si="6"/>
-        <v>972</v>
+        <f>LEN(J117)</f>
+        <v>132</v>
+      </c>
+      <c r="O117" t="s">
+        <v>23</v>
+      </c>
+      <c r="P117" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="B118" t="s">
-        <v>451</v>
-      </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
+        <v>495</v>
+      </c>
+      <c r="C118" t="s">
+        <v>495</v>
+      </c>
+      <c r="D118" t="s">
+        <v>146</v>
       </c>
       <c r="G118">
         <v>30</v>
       </c>
       <c r="H118" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I118">
-        <f t="shared" si="7"/>
-        <v>8809</v>
+        <f>VALUE(MID(A118,2,6))+CODE(A118)*100</f>
+        <v>7006</v>
       </c>
       <c r="J118" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="K118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -8656,40 +8689,44 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <f t="shared" si="6"/>
-        <v>972</v>
+        <f>LEN(J118)</f>
+        <v>147</v>
+      </c>
+      <c r="O118" t="s">
+        <v>23</v>
+      </c>
+      <c r="P118" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
+        <v>498</v>
+      </c>
+      <c r="C119" t="s">
+        <v>498</v>
+      </c>
+      <c r="D119" t="s">
+        <v>146</v>
       </c>
       <c r="G119">
         <v>30</v>
       </c>
       <c r="H119" s="3">
-        <v>43202</v>
+        <v>43284</v>
       </c>
       <c r="I119">
-        <f t="shared" si="7"/>
-        <v>8810</v>
+        <f>VALUE(MID(A119,2,6))+CODE(A119)*100</f>
+        <v>7007</v>
       </c>
       <c r="J119" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="K119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -8698,44 +8735,44 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f t="shared" si="6"/>
-        <v>972</v>
+        <f>LEN(J119)</f>
+        <v>82</v>
+      </c>
+      <c r="O119" t="s">
+        <v>23</v>
+      </c>
+      <c r="P119" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="B120" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="C120" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" t="s">
-        <v>110</v>
-      </c>
-      <c r="F120" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="G120">
         <v>30</v>
       </c>
       <c r="H120" s="3">
-        <v>43242</v>
+        <v>43284</v>
       </c>
       <c r="I120">
-        <f t="shared" si="7"/>
-        <v>8811</v>
+        <f>VALUE(MID(A120,2,6))+CODE(A120)*100</f>
+        <v>7008</v>
       </c>
       <c r="J120" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="K120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -8744,8 +8781,8 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f t="shared" si="6"/>
-        <v>2149</v>
+        <f>LEN(J120)</f>
+        <v>49</v>
       </c>
       <c r="O120" t="s">
         <v>23</v>
@@ -8756,38 +8793,29 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s">
-        <v>461</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>462</v>
+        <v>534</v>
       </c>
       <c r="D121" t="s">
-        <v>166</v>
-      </c>
-      <c r="E121" t="s">
-        <v>110</v>
-      </c>
-      <c r="F121" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="G121">
         <v>30</v>
       </c>
       <c r="H121" s="3">
-        <v>43242</v>
+        <v>43290</v>
       </c>
       <c r="I121">
-        <f t="shared" si="7"/>
-        <v>8812</v>
+        <f>VALUE(MID(A121,2,6))+CODE(A121)*100</f>
+        <v>7009</v>
       </c>
       <c r="J121" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="K121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -8796,8 +8824,8 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <f t="shared" si="6"/>
-        <v>2165</v>
+        <f>LEN(J121)</f>
+        <v>50</v>
       </c>
       <c r="O121" t="s">
         <v>23</v>
@@ -8808,32 +8836,32 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="C122" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="G122">
-        <v>30</v>
+        <v>22.7</v>
       </c>
       <c r="H122" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I122">
-        <f t="shared" si="7"/>
-        <v>6922</v>
+        <f>VALUE(MID(A122,2,6))+CODE(A122)*100</f>
+        <v>7010</v>
       </c>
       <c r="J122" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="K122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -8842,8 +8870,8 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <f t="shared" si="6"/>
-        <v>562</v>
+        <f>LEN(J122)</f>
+        <v>2100</v>
       </c>
       <c r="O122" t="s">
         <v>23</v>
@@ -8854,32 +8882,32 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="C123" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="D123" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="G123">
-        <v>30</v>
+        <v>37.4</v>
       </c>
       <c r="H123" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I123">
-        <f t="shared" si="7"/>
-        <v>6923</v>
+        <f>VALUE(MID(A123,2,6))+CODE(A123)*100</f>
+        <v>7011</v>
       </c>
       <c r="J123" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="K123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -8888,8 +8916,8 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <f t="shared" si="6"/>
-        <v>591</v>
+        <f>LEN(J123)</f>
+        <v>2100</v>
       </c>
       <c r="O123" t="s">
         <v>23</v>
@@ -8900,32 +8928,32 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="B124" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="C124" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D124" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="G124">
-        <v>30</v>
+        <v>23.5</v>
       </c>
       <c r="H124" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I124">
-        <f t="shared" si="7"/>
-        <v>6924</v>
+        <f>VALUE(MID(A124,2,6))+CODE(A124)*100</f>
+        <v>7012</v>
       </c>
       <c r="J124" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="K124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -8934,8 +8962,8 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <f t="shared" si="6"/>
-        <v>576</v>
+        <f>LEN(J124)</f>
+        <v>2100</v>
       </c>
       <c r="O124" t="s">
         <v>23</v>
@@ -8946,32 +8974,32 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="B125" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="C125" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D125" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="G125">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H125" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I125">
-        <f t="shared" si="7"/>
-        <v>7001</v>
+        <f>VALUE(MID(A125,2,6))+CODE(A125)*100</f>
+        <v>7013</v>
       </c>
       <c r="J125" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="K125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -8980,8 +9008,8 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <f t="shared" si="6"/>
-        <v>514</v>
+        <f>LEN(J125)</f>
+        <v>2222</v>
       </c>
       <c r="O125" t="s">
         <v>23</v>
@@ -8992,32 +9020,32 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="B126" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="C126" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="D126" t="s">
-        <v>427</v>
+        <v>819</v>
       </c>
       <c r="G126">
-        <v>30</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H126" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I126">
-        <f t="shared" si="7"/>
-        <v>7002</v>
+        <f>VALUE(MID(A126,2,6))+CODE(A126)*100</f>
+        <v>7014</v>
       </c>
       <c r="J126" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="K126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -9026,8 +9054,8 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f t="shared" si="6"/>
-        <v>1217</v>
+        <f>LEN(J126)</f>
+        <v>2156</v>
       </c>
       <c r="O126" t="s">
         <v>23</v>
@@ -9038,32 +9066,32 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="B127" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="C127" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="D127" t="s">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="G127">
-        <v>30</v>
+        <v>20.8</v>
       </c>
       <c r="H127" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I127">
-        <f t="shared" si="7"/>
-        <v>7003</v>
+        <f>VALUE(MID(A127,2,6))+CODE(A127)*100</f>
+        <v>7015</v>
       </c>
       <c r="J127" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="K127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -9072,8 +9100,8 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <f t="shared" si="6"/>
-        <v>961</v>
+        <f>LEN(J127)</f>
+        <v>2212</v>
       </c>
       <c r="O127" t="s">
         <v>23</v>
@@ -9084,32 +9112,32 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="B128" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="C128" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>819</v>
       </c>
       <c r="G128">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H128" s="3">
-        <v>43284</v>
+        <v>43290</v>
       </c>
       <c r="I128">
-        <f t="shared" si="7"/>
-        <v>7004</v>
+        <f>VALUE(MID(A128,2,6))+CODE(A128)*100</f>
+        <v>7016</v>
       </c>
       <c r="J128" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="K128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -9118,8 +9146,8 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <f t="shared" si="6"/>
-        <v>123</v>
+        <f>LEN(J128)</f>
+        <v>2146</v>
       </c>
       <c r="O128" t="s">
         <v>23</v>
@@ -9130,32 +9158,38 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="B129" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="C129" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>161</v>
+      </c>
+      <c r="E129" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" t="s">
+        <v>110</v>
       </c>
       <c r="G129">
         <v>30</v>
       </c>
       <c r="H129" s="3">
-        <v>43284</v>
+        <v>43298</v>
       </c>
       <c r="I129">
-        <f t="shared" si="7"/>
-        <v>7005</v>
+        <f>VALUE(MID(A129,2,6))+CODE(A129)*100</f>
+        <v>7017</v>
       </c>
       <c r="J129" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="K129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -9164,8 +9198,8 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" si="6"/>
-        <v>132</v>
+        <f t="shared" ref="N129" si="0">LEN(J129)</f>
+        <v>2840</v>
       </c>
       <c r="O129" t="s">
         <v>23</v>
@@ -9176,29 +9210,35 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="B130" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="C130" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="D130" t="s">
-        <v>146</v>
+        <v>427</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" t="s">
+        <v>110</v>
       </c>
       <c r="G130">
         <v>30</v>
       </c>
       <c r="H130" s="3">
-        <v>43284</v>
+        <v>43298</v>
       </c>
       <c r="I130">
-        <f t="shared" si="7"/>
-        <v>7006</v>
+        <f>VALUE(MID(A130,2,6))+CODE(A130)*100</f>
+        <v>7018</v>
       </c>
       <c r="J130" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
@@ -9208,10 +9248,6 @@
       </c>
       <c r="M130">
         <v>0</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="6"/>
-        <v>147</v>
       </c>
       <c r="O130" t="s">
         <v>23</v>
@@ -9221,43 +9257,48 @@
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>497</v>
-      </c>
-      <c r="B131" t="s">
-        <v>498</v>
-      </c>
-      <c r="C131" t="s">
-        <v>498</v>
-      </c>
-      <c r="D131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G131">
-        <v>30</v>
-      </c>
-      <c r="H131" s="3">
-        <v>43284</v>
+      <c r="A131" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G131" s="11">
+        <v>30</v>
+      </c>
+      <c r="H131" s="5">
+        <v>43188</v>
       </c>
       <c r="I131">
-        <f t="shared" si="7"/>
-        <v>7007</v>
-      </c>
-      <c r="J131" t="s">
-        <v>499</v>
-      </c>
-      <c r="K131" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" ref="I131:I139" si="1">VALUE(MID(A131,2,6))+CODE(A131)*100</f>
+        <v>7101</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="4">
+        <v>0</v>
+      </c>
+      <c r="M131" s="4">
+        <v>0</v>
+      </c>
+      <c r="N131" s="4">
+        <v>2824</v>
       </c>
       <c r="O131" t="s">
         <v>23</v>
@@ -9267,43 +9308,48 @@
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>500</v>
-      </c>
-      <c r="B132" t="s">
-        <v>501</v>
-      </c>
-      <c r="C132" t="s">
-        <v>502</v>
-      </c>
-      <c r="D132" t="s">
-        <v>155</v>
-      </c>
-      <c r="G132">
-        <v>30</v>
-      </c>
-      <c r="H132" s="3">
-        <v>43284</v>
+      <c r="A132" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G132" s="11">
+        <v>30</v>
+      </c>
+      <c r="H132" s="5">
+        <v>43188</v>
       </c>
       <c r="I132">
-        <f t="shared" si="7"/>
-        <v>7008</v>
-      </c>
-      <c r="J132" t="s">
-        <v>503</v>
-      </c>
-      <c r="K132" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-      <c r="N132">
-        <f t="shared" si="6"/>
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>7102</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4">
+        <v>0</v>
+      </c>
+      <c r="M132" s="4">
+        <v>0</v>
+      </c>
+      <c r="N132" s="4">
+        <v>2860</v>
       </c>
       <c r="O132" t="s">
         <v>23</v>
@@ -9313,1523 +9359,622 @@
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>504</v>
-      </c>
-      <c r="B133" t="s">
-        <v>505</v>
-      </c>
-      <c r="G133">
-        <v>30</v>
-      </c>
-      <c r="H133" s="3">
-        <v>43287</v>
+      <c r="A133" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G133" s="11">
+        <v>30</v>
+      </c>
+      <c r="H133" s="5">
+        <v>43188</v>
       </c>
       <c r="I133">
-        <f t="shared" si="7"/>
-        <v>8813</v>
-      </c>
-      <c r="J133" t="s">
-        <v>506</v>
-      </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>7103</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0</v>
+      </c>
+      <c r="M133" s="4">
+        <v>0</v>
+      </c>
+      <c r="N133" s="4">
+        <v>3007</v>
+      </c>
+      <c r="O133" t="s">
+        <v>23</v>
+      </c>
+      <c r="P133" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>507</v>
-      </c>
-      <c r="B134" t="s">
-        <v>508</v>
-      </c>
-      <c r="G134">
-        <v>30</v>
-      </c>
-      <c r="H134" s="3">
-        <v>43287</v>
+      <c r="A134" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G134" s="11">
+        <v>30</v>
+      </c>
+      <c r="H134" s="5">
+        <v>43188</v>
       </c>
       <c r="I134">
-        <f t="shared" si="7"/>
-        <v>8814</v>
-      </c>
-      <c r="J134" t="s">
-        <v>509</v>
-      </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>7104</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0</v>
+      </c>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4">
+        <v>3187</v>
+      </c>
+      <c r="O134" t="s">
+        <v>23</v>
+      </c>
+      <c r="P134" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>510</v>
-      </c>
-      <c r="B135" t="s">
-        <v>511</v>
-      </c>
-      <c r="G135">
-        <v>30</v>
-      </c>
-      <c r="H135" s="3">
-        <v>43287</v>
+      <c r="A135" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G135" s="11">
+        <v>30</v>
+      </c>
+      <c r="H135" s="5">
+        <v>43188</v>
       </c>
       <c r="I135">
-        <f t="shared" si="7"/>
-        <v>8815</v>
-      </c>
-      <c r="J135" t="s">
-        <v>512</v>
-      </c>
-      <c r="K135" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>7105</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="K135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>2858</v>
+      </c>
+      <c r="O135" t="s">
+        <v>23</v>
+      </c>
+      <c r="P135" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>513</v>
+      <c r="A136" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="B136" t="s">
-        <v>514</v>
+        <v>586</v>
+      </c>
+      <c r="C136" t="s">
+        <v>587</v>
+      </c>
+      <c r="D136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" t="s">
+        <v>106</v>
       </c>
       <c r="G136">
         <v>30</v>
       </c>
       <c r="H136" s="3">
-        <v>43287</v>
+        <v>43299</v>
       </c>
       <c r="I136">
-        <f t="shared" si="7"/>
-        <v>8816</v>
+        <f t="shared" si="1"/>
+        <v>7106</v>
       </c>
       <c r="J136" t="s">
-        <v>515</v>
-      </c>
-      <c r="K136" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="6"/>
-        <v>2098</v>
+        <v>815</v>
+      </c>
+      <c r="K136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>23</v>
+      </c>
+      <c r="P136" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>516</v>
+      <c r="A137" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="B137" t="s">
-        <v>517</v>
+        <v>583</v>
+      </c>
+      <c r="C137" t="s">
+        <v>584</v>
+      </c>
+      <c r="D137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>106</v>
       </c>
       <c r="G137">
         <v>30</v>
       </c>
       <c r="H137" s="3">
-        <v>43287</v>
+        <v>43299</v>
       </c>
       <c r="I137">
-        <f t="shared" si="7"/>
-        <v>8817</v>
+        <f t="shared" si="1"/>
+        <v>7107</v>
       </c>
       <c r="J137" t="s">
-        <v>518</v>
-      </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="6"/>
-        <v>2098</v>
+        <v>151</v>
+      </c>
+      <c r="K137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>23</v>
+      </c>
+      <c r="P137" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>516</v>
+      <c r="A138" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="B138" t="s">
-        <v>519</v>
+        <v>592</v>
+      </c>
+      <c r="C138" t="s">
+        <v>593</v>
+      </c>
+      <c r="D138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" t="s">
+        <v>106</v>
       </c>
       <c r="G138">
         <v>30</v>
       </c>
       <c r="H138" s="3">
-        <v>43287</v>
+        <v>43299</v>
       </c>
       <c r="I138">
-        <f t="shared" si="7"/>
-        <v>8817</v>
+        <f t="shared" si="1"/>
+        <v>7108</v>
       </c>
       <c r="J138" t="s">
-        <v>520</v>
-      </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="6"/>
-        <v>2098</v>
+        <v>816</v>
+      </c>
+      <c r="K138" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>23</v>
+      </c>
+      <c r="P138" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>521</v>
+      <c r="A139" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="B139" t="s">
-        <v>522</v>
+        <v>595</v>
+      </c>
+      <c r="C139" t="s">
+        <v>596</v>
+      </c>
+      <c r="D139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>106</v>
       </c>
       <c r="G139">
         <v>30</v>
       </c>
       <c r="H139" s="3">
-        <v>43287</v>
+        <v>43299</v>
       </c>
       <c r="I139">
-        <f t="shared" si="7"/>
-        <v>8818</v>
+        <f t="shared" si="1"/>
+        <v>7109</v>
       </c>
       <c r="J139" t="s">
-        <v>523</v>
-      </c>
-      <c r="K139" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="6"/>
-        <v>174</v>
+        <v>817</v>
+      </c>
+      <c r="K139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
+      <c r="O139" t="s">
+        <v>23</v>
+      </c>
+      <c r="P139" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>524</v>
+      <c r="A140" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="B140" t="s">
-        <v>525</v>
+        <v>589</v>
+      </c>
+      <c r="C140" t="s">
+        <v>590</v>
+      </c>
+      <c r="D140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>106</v>
       </c>
       <c r="G140">
         <v>30</v>
       </c>
       <c r="H140" s="3">
-        <v>43287</v>
+        <v>43299</v>
       </c>
       <c r="I140">
-        <f t="shared" si="7"/>
-        <v>8819</v>
+        <f t="shared" ref="I140" si="2">VALUE(MID(A140,2,6))+CODE(A140)*100</f>
+        <v>7110</v>
       </c>
       <c r="J140" t="s">
-        <v>526</v>
-      </c>
-      <c r="K140" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="6"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>527</v>
-      </c>
-      <c r="B141" t="s">
-        <v>528</v>
-      </c>
-      <c r="G141">
-        <v>30</v>
-      </c>
-      <c r="H141" s="3">
-        <v>43287</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="7"/>
-        <v>8820</v>
-      </c>
-      <c r="J141" t="s">
-        <v>529</v>
-      </c>
-      <c r="K141" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="6"/>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>530</v>
-      </c>
-      <c r="B142" t="s">
-        <v>531</v>
-      </c>
-      <c r="G142">
-        <v>30</v>
-      </c>
-      <c r="H142" s="3">
-        <v>43287</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="7"/>
-        <v>8821</v>
-      </c>
-      <c r="J142" t="s">
-        <v>532</v>
-      </c>
-      <c r="K142" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <v>818</v>
+      </c>
+      <c r="K140" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>23</v>
+      </c>
+      <c r="P140" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>533</v>
-      </c>
-      <c r="B143" t="s">
-        <v>534</v>
-      </c>
-      <c r="D143" t="s">
-        <v>155</v>
-      </c>
-      <c r="G143">
-        <v>30</v>
-      </c>
-      <c r="H143" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="7"/>
-        <v>7009</v>
-      </c>
-      <c r="J143" t="s">
-        <v>535</v>
-      </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="O143" t="s">
-        <v>23</v>
-      </c>
-      <c r="P143" t="s">
-        <v>24</v>
-      </c>
+      <c r="H143" s="3"/>
+      <c r="O143" s="4"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>536</v>
-      </c>
-      <c r="B144" t="s">
-        <v>537</v>
-      </c>
-      <c r="C144" t="s">
-        <v>538</v>
-      </c>
-      <c r="D144" t="s">
-        <v>155</v>
-      </c>
-      <c r="G144">
-        <v>22.7</v>
-      </c>
-      <c r="H144" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="7"/>
-        <v>7010</v>
-      </c>
-      <c r="J144" t="s">
-        <v>539</v>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
-      <c r="O144" t="s">
-        <v>23</v>
-      </c>
-      <c r="P144" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>540</v>
-      </c>
-      <c r="B145" t="s">
-        <v>541</v>
-      </c>
-      <c r="C145" t="s">
-        <v>538</v>
-      </c>
-      <c r="D145" t="s">
-        <v>155</v>
-      </c>
-      <c r="G145">
-        <v>37.4</v>
-      </c>
-      <c r="H145" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="7"/>
-        <v>7011</v>
-      </c>
-      <c r="J145" t="s">
-        <v>542</v>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
-      <c r="O145" t="s">
-        <v>23</v>
-      </c>
-      <c r="P145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>543</v>
-      </c>
-      <c r="B146" t="s">
-        <v>544</v>
-      </c>
-      <c r="C146" t="s">
-        <v>538</v>
-      </c>
-      <c r="D146" t="s">
-        <v>155</v>
-      </c>
-      <c r="G146">
-        <v>23.5</v>
-      </c>
-      <c r="H146" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="7"/>
-        <v>7012</v>
-      </c>
-      <c r="J146" t="s">
-        <v>545</v>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
-      <c r="O146" t="s">
-        <v>23</v>
-      </c>
-      <c r="P146" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>546</v>
-      </c>
-      <c r="B147" t="s">
-        <v>547</v>
-      </c>
-      <c r="C147" t="s">
-        <v>538</v>
-      </c>
-      <c r="D147" t="s">
-        <v>161</v>
-      </c>
-      <c r="G147">
-        <v>44</v>
-      </c>
-      <c r="H147" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I147">
-        <f t="shared" si="7"/>
-        <v>7013</v>
-      </c>
-      <c r="J147" t="s">
-        <v>548</v>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <f t="shared" si="6"/>
-        <v>2222</v>
-      </c>
-      <c r="O147" t="s">
-        <v>23</v>
-      </c>
-      <c r="P147" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>549</v>
-      </c>
-      <c r="B148" t="s">
-        <v>550</v>
-      </c>
-      <c r="C148" t="s">
-        <v>538</v>
-      </c>
-      <c r="G148">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="H148" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I148">
-        <f t="shared" si="7"/>
-        <v>7014</v>
-      </c>
-      <c r="J148" t="s">
-        <v>551</v>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <f t="shared" si="6"/>
-        <v>2156</v>
-      </c>
-      <c r="O148" t="s">
-        <v>23</v>
-      </c>
-      <c r="P148" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>552</v>
-      </c>
-      <c r="B149" t="s">
-        <v>553</v>
-      </c>
-      <c r="C149" t="s">
-        <v>538</v>
-      </c>
-      <c r="D149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149">
-        <v>20.8</v>
-      </c>
-      <c r="H149" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I149">
-        <f t="shared" si="7"/>
-        <v>7015</v>
-      </c>
-      <c r="J149" t="s">
-        <v>554</v>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <f t="shared" si="6"/>
-        <v>2212</v>
-      </c>
-      <c r="O149" t="s">
-        <v>23</v>
-      </c>
-      <c r="P149" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>555</v>
-      </c>
-      <c r="B150" t="s">
-        <v>556</v>
-      </c>
-      <c r="C150" t="s">
-        <v>538</v>
-      </c>
-      <c r="G150">
-        <v>32</v>
-      </c>
-      <c r="H150" s="3">
-        <v>43290</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="7"/>
-        <v>7016</v>
-      </c>
-      <c r="J150" t="s">
-        <v>557</v>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <f t="shared" si="6"/>
-        <v>2146</v>
-      </c>
-      <c r="O150" t="s">
-        <v>23</v>
-      </c>
-      <c r="P150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>558</v>
-      </c>
-      <c r="B151" t="s">
-        <v>559</v>
-      </c>
-      <c r="C151" t="s">
-        <v>560</v>
-      </c>
-      <c r="D151" t="s">
-        <v>161</v>
-      </c>
-      <c r="E151" t="s">
-        <v>156</v>
-      </c>
-      <c r="F151" t="s">
-        <v>110</v>
-      </c>
-      <c r="G151">
-        <v>30</v>
-      </c>
-      <c r="H151" s="3">
-        <v>43298</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="7"/>
-        <v>7017</v>
-      </c>
-      <c r="J151" t="s">
-        <v>561</v>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <f t="shared" ref="N151" si="8">LEN(J151)</f>
-        <v>2840</v>
-      </c>
-      <c r="O151" t="s">
-        <v>23</v>
-      </c>
-      <c r="P151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>562</v>
-      </c>
-      <c r="B152" t="s">
-        <v>563</v>
-      </c>
-      <c r="C152" t="s">
-        <v>564</v>
-      </c>
-      <c r="D152" t="s">
-        <v>427</v>
-      </c>
-      <c r="E152" t="s">
-        <v>21</v>
-      </c>
-      <c r="F152" t="s">
-        <v>110</v>
-      </c>
-      <c r="G152">
-        <v>30</v>
-      </c>
-      <c r="H152" s="3">
-        <v>43298</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="7"/>
-        <v>7018</v>
-      </c>
-      <c r="J152" t="s">
-        <v>565</v>
-      </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="O152" t="s">
-        <v>23</v>
-      </c>
-      <c r="P152" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G153" s="11">
-        <v>30</v>
-      </c>
-      <c r="H153" s="5">
-        <v>43188</v>
-      </c>
-      <c r="I153">
-        <f t="shared" ref="I153:I161" si="9">VALUE(MID(A153,2,6))+CODE(A153)*100</f>
-        <v>7101</v>
-      </c>
-      <c r="J153" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="K153" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" s="4">
-        <v>0</v>
-      </c>
-      <c r="M153" s="4">
-        <v>0</v>
-      </c>
-      <c r="N153" s="4">
-        <v>2824</v>
-      </c>
-      <c r="O153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G154" s="11">
-        <v>30</v>
-      </c>
-      <c r="H154" s="5">
-        <v>43188</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="9"/>
-        <v>7102</v>
-      </c>
-      <c r="J154" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K154" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" s="4">
-        <v>0</v>
-      </c>
-      <c r="M154" s="4">
-        <v>0</v>
-      </c>
-      <c r="N154" s="4">
-        <v>2860</v>
-      </c>
-      <c r="O154" t="s">
-        <v>23</v>
-      </c>
-      <c r="P154" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G155" s="11">
-        <v>30</v>
-      </c>
-      <c r="H155" s="5">
-        <v>43188</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="9"/>
-        <v>7103</v>
-      </c>
-      <c r="J155" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="K155" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" s="4">
-        <v>0</v>
-      </c>
-      <c r="M155" s="4">
-        <v>0</v>
-      </c>
-      <c r="N155" s="4">
-        <v>3007</v>
-      </c>
-      <c r="O155" t="s">
-        <v>23</v>
-      </c>
-      <c r="P155" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G156" s="11">
-        <v>30</v>
-      </c>
-      <c r="H156" s="5">
-        <v>43188</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="9"/>
-        <v>7104</v>
-      </c>
-      <c r="J156" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K156" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" s="4">
-        <v>0</v>
-      </c>
-      <c r="M156" s="4">
-        <v>0</v>
-      </c>
-      <c r="N156" s="4">
-        <v>3187</v>
-      </c>
-      <c r="O156" t="s">
-        <v>23</v>
-      </c>
-      <c r="P156" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G157" s="11">
-        <v>30</v>
-      </c>
-      <c r="H157" s="5">
-        <v>43188</v>
-      </c>
-      <c r="I157">
-        <f t="shared" si="9"/>
-        <v>7105</v>
-      </c>
-      <c r="J157" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="K157" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" s="4">
-        <v>0</v>
-      </c>
-      <c r="M157" s="4">
-        <v>0</v>
-      </c>
-      <c r="N157" s="4">
-        <v>2858</v>
-      </c>
-      <c r="O157" t="s">
-        <v>23</v>
-      </c>
-      <c r="P157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="B158" t="s">
-        <v>586</v>
-      </c>
-      <c r="C158" t="s">
-        <v>587</v>
-      </c>
-      <c r="D158" t="s">
-        <v>146</v>
-      </c>
-      <c r="E158" t="s">
-        <v>21</v>
-      </c>
-      <c r="F158" t="s">
-        <v>106</v>
-      </c>
-      <c r="G158">
-        <v>30</v>
-      </c>
-      <c r="H158" s="3">
-        <v>43299</v>
-      </c>
-      <c r="I158">
-        <f t="shared" si="9"/>
-        <v>7106</v>
-      </c>
-      <c r="J158" t="s">
-        <v>815</v>
-      </c>
-      <c r="K158" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" s="4">
-        <v>0</v>
-      </c>
-      <c r="M158" s="4">
-        <v>0</v>
-      </c>
-      <c r="O158" t="s">
-        <v>23</v>
-      </c>
-      <c r="P158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B159" t="s">
-        <v>583</v>
-      </c>
-      <c r="C159" t="s">
-        <v>584</v>
-      </c>
-      <c r="D159" t="s">
-        <v>146</v>
-      </c>
-      <c r="E159" t="s">
-        <v>21</v>
-      </c>
-      <c r="F159" t="s">
-        <v>106</v>
-      </c>
-      <c r="G159">
-        <v>30</v>
-      </c>
-      <c r="H159" s="3">
-        <v>43299</v>
-      </c>
-      <c r="I159">
-        <f t="shared" si="9"/>
-        <v>7107</v>
-      </c>
-      <c r="J159" t="s">
-        <v>151</v>
-      </c>
-      <c r="K159" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" s="4">
-        <v>0</v>
-      </c>
-      <c r="M159" s="4">
-        <v>0</v>
-      </c>
-      <c r="O159" t="s">
-        <v>23</v>
-      </c>
-      <c r="P159" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B160" t="s">
-        <v>592</v>
-      </c>
-      <c r="C160" t="s">
-        <v>593</v>
-      </c>
-      <c r="D160" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" t="s">
-        <v>21</v>
-      </c>
-      <c r="F160" t="s">
-        <v>106</v>
-      </c>
-      <c r="G160">
-        <v>30</v>
-      </c>
-      <c r="H160" s="3">
-        <v>43299</v>
-      </c>
-      <c r="I160">
-        <f t="shared" si="9"/>
-        <v>7108</v>
-      </c>
-      <c r="J160" t="s">
-        <v>816</v>
-      </c>
-      <c r="K160" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" s="4">
-        <v>0</v>
-      </c>
-      <c r="M160" s="4">
-        <v>0</v>
-      </c>
-      <c r="O160" t="s">
-        <v>23</v>
-      </c>
-      <c r="P160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B161" t="s">
-        <v>595</v>
-      </c>
-      <c r="C161" t="s">
-        <v>596</v>
-      </c>
-      <c r="D161" t="s">
-        <v>146</v>
-      </c>
-      <c r="E161" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" t="s">
-        <v>106</v>
-      </c>
-      <c r="G161">
-        <v>30</v>
-      </c>
-      <c r="H161" s="3">
-        <v>43299</v>
-      </c>
-      <c r="I161">
-        <f t="shared" si="9"/>
-        <v>7109</v>
-      </c>
-      <c r="J161" t="s">
-        <v>817</v>
-      </c>
-      <c r="K161" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" s="4">
-        <v>0</v>
-      </c>
-      <c r="M161" s="4">
-        <v>0</v>
-      </c>
-      <c r="O161" t="s">
-        <v>23</v>
-      </c>
-      <c r="P161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="B162" t="s">
-        <v>589</v>
-      </c>
-      <c r="C162" t="s">
-        <v>590</v>
-      </c>
-      <c r="D162" t="s">
-        <v>146</v>
-      </c>
-      <c r="E162" t="s">
-        <v>21</v>
-      </c>
-      <c r="F162" t="s">
-        <v>106</v>
-      </c>
-      <c r="G162">
-        <v>30</v>
-      </c>
-      <c r="H162" s="3">
-        <v>43299</v>
-      </c>
-      <c r="I162">
-        <f t="shared" ref="I162" si="10">VALUE(MID(A162,2,6))+CODE(A162)*100</f>
-        <v>7110</v>
-      </c>
-      <c r="J162" t="s">
-        <v>818</v>
-      </c>
-      <c r="K162" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" s="4">
-        <v>0</v>
-      </c>
-      <c r="M162" s="4">
-        <v>0</v>
-      </c>
-      <c r="O162" t="s">
-        <v>23</v>
-      </c>
-      <c r="P162" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H144" s="3"/>
+      <c r="O144" s="4"/>
+    </row>
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H145" s="3"/>
+      <c r="O145" s="4"/>
+    </row>
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H146" s="3"/>
+      <c r="O146" s="4"/>
+    </row>
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H147" s="3"/>
+      <c r="O147" s="4"/>
+    </row>
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H148" s="3"/>
+      <c r="O148" s="4"/>
+    </row>
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H149" s="3"/>
+      <c r="O149" s="4"/>
+    </row>
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H150" s="3"/>
+      <c r="O150" s="4"/>
+    </row>
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="H151" s="3"/>
+      <c r="O151" s="4"/>
+    </row>
+    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="5"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+    </row>
+    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="5"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+    </row>
+    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="5"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+    </row>
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="5"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+    </row>
+    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="5"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="5"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+    </row>
+    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="5"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+    </row>
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="5"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+    </row>
+    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="3"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+    </row>
+    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="3"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+    </row>
+    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H162" s="3"/>
+      <c r="O162" s="4"/>
+    </row>
+    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H163" s="3"/>
+      <c r="O163" s="4"/>
+    </row>
+    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H164" s="3"/>
+      <c r="O164" s="4"/>
+    </row>
+    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H166" s="3"/>
+    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H167" s="3"/>
+    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H168" s="3"/>
+    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H169" s="3"/>
+    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H170" s="3"/>
+    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H171" s="3"/>
+    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H172" s="3"/>
+    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H173" s="3"/>
+    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="5"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
+    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="5"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
+    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="5"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-    </row>
-    <row r="177" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="5"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-      <c r="M177" s="4"/>
-      <c r="N177" s="4"/>
-      <c r="O177" s="4"/>
-    </row>
-    <row r="178" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="5"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-    </row>
-    <row r="179" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="5"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-      <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
-      <c r="O179" s="4"/>
-    </row>
-    <row r="180" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="5"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-      <c r="M180" s="4"/>
-      <c r="N180" s="4"/>
-      <c r="O180" s="4"/>
-    </row>
-    <row r="181" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="5"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-    </row>
-    <row r="182" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="3"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="3"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H184" s="3"/>
-      <c r="O184" s="4"/>
-    </row>
-    <row r="185" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H185" s="3"/>
-      <c r="O185" s="4"/>
-    </row>
-    <row r="186" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H186" s="3"/>
-      <c r="O186" s="4"/>
-    </row>
-    <row r="187" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="H187" s="3"/>
-      <c r="O187" s="4"/>
-    </row>
-    <row r="188" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O188" s="4"/>
-    </row>
-    <row r="189" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O191" s="4"/>
-    </row>
-    <row r="192" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="O192" s="4"/>
-    </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O193" s="4"/>
-    </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O194" s="4"/>
-    </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O195" s="4"/>
-    </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O196" s="4"/>
-    </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O197" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O197">
+  <autoFilter ref="A1:O175">
     <sortState ref="A2:O197">
       <sortCondition ref="I1:I197"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="G55:G72 G78:G84 G113 G95:G101 G122:G137 G1:G46 G165:G1048576 G139:G162">
+  <conditionalFormatting sqref="G55:G72 G78:G84 G95:G101 G1:G46 G143:G1048576 G110:G140">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10925,7 +10070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94 G92">
+  <conditionalFormatting sqref="G92 G94">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -10961,7 +10106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G110">
+  <conditionalFormatting sqref="G108:G109">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10973,43 +10118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111:G112">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G120">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G121">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O132">
+  <conditionalFormatting sqref="O3:O120">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11021,7 +10130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O143">
+  <conditionalFormatting sqref="O121">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -11033,31 +10142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G138">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O138">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O144:O150">
+  <conditionalFormatting sqref="O122:O128">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11069,7 +10154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O151">
+  <conditionalFormatting sqref="O129">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11081,7 +10166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O152">
+  <conditionalFormatting sqref="O130">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11093,7 +10178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O165:O1048576 O133:O137 O139:O142 O1:O2 P1">
+  <conditionalFormatting sqref="O143:O1048576 O1:O2 P1">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -11105,7 +10190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O153:O162">
+  <conditionalFormatting sqref="O131:O140">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14846,6 +13931,1080 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I2">
+        <f>VALUE(MID(A2,2,6))+CODE(A2)*100</f>
+        <v>8801</v>
+      </c>
+      <c r="J2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>LEN(J2)</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I3">
+        <f>VALUE(MID(A3,2,6))+CODE(A3)*100</f>
+        <v>8802</v>
+      </c>
+      <c r="J3" t="s">
+        <v>431</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>LEN(J3)</f>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I4">
+        <f>VALUE(MID(A4,2,6))+CODE(A4)*100</f>
+        <v>8803</v>
+      </c>
+      <c r="J4" t="s">
+        <v>434</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>LEN(J4)</f>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I5">
+        <f>VALUE(MID(A5,2,6))+CODE(A5)*100</f>
+        <v>8804</v>
+      </c>
+      <c r="J5" t="s">
+        <v>437</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>LEN(J5)</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I6">
+        <f>VALUE(MID(A6,2,6))+CODE(A6)*100</f>
+        <v>8805</v>
+      </c>
+      <c r="J6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>LEN(J6)</f>
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I7">
+        <f>VALUE(MID(A7,2,6))+CODE(A7)*100</f>
+        <v>8806</v>
+      </c>
+      <c r="J7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>LEN(J7)</f>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I8">
+        <f>VALUE(MID(A8,2,6))+CODE(A8)*100</f>
+        <v>8807</v>
+      </c>
+      <c r="J8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>LEN(J8)</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I9">
+        <f>VALUE(MID(A9,2,6))+CODE(A9)*100</f>
+        <v>8808</v>
+      </c>
+      <c r="J9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>LEN(J9)</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I10">
+        <f>VALUE(MID(A10,2,6))+CODE(A10)*100</f>
+        <v>8809</v>
+      </c>
+      <c r="J10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>LEN(J10)</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43202</v>
+      </c>
+      <c r="I11">
+        <f>VALUE(MID(A11,2,6))+CODE(A11)*100</f>
+        <v>8810</v>
+      </c>
+      <c r="J11" t="s">
+        <v>455</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>LEN(J11)</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43242</v>
+      </c>
+      <c r="I12">
+        <f>VALUE(MID(A12,2,6))+CODE(A12)*100</f>
+        <v>8811</v>
+      </c>
+      <c r="J12" t="s">
+        <v>459</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>LEN(J12)</f>
+        <v>2149</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43242</v>
+      </c>
+      <c r="I13">
+        <f>VALUE(MID(A13,2,6))+CODE(A13)*100</f>
+        <v>8812</v>
+      </c>
+      <c r="J13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>LEN(J13)</f>
+        <v>2165</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" t="s">
+        <v>505</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I14">
+        <f>VALUE(MID(A14,2,6))+CODE(A14)*100</f>
+        <v>8813</v>
+      </c>
+      <c r="J14" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>LEN(J14)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I15">
+        <f>VALUE(MID(A15,2,6))+CODE(A15)*100</f>
+        <v>8814</v>
+      </c>
+      <c r="J15" t="s">
+        <v>509</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>LEN(J15)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I16">
+        <f>VALUE(MID(A16,2,6))+CODE(A16)*100</f>
+        <v>8815</v>
+      </c>
+      <c r="J16" t="s">
+        <v>512</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>LEN(J16)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I17">
+        <f>VALUE(MID(A17,2,6))+CODE(A17)*100</f>
+        <v>8816</v>
+      </c>
+      <c r="J17" t="s">
+        <v>515</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>LEN(J17)</f>
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I18">
+        <f>VALUE(MID(A18,2,6))+CODE(A18)*100</f>
+        <v>8817</v>
+      </c>
+      <c r="J18" t="s">
+        <v>518</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>LEN(J18)</f>
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B19" t="s">
+        <v>519</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I19">
+        <f>VALUE(MID(A19,2,6))+CODE(A19)*100</f>
+        <v>8817</v>
+      </c>
+      <c r="J19" t="s">
+        <v>520</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>LEN(J19)</f>
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I20">
+        <f>VALUE(MID(A20,2,6))+CODE(A20)*100</f>
+        <v>8818</v>
+      </c>
+      <c r="J20" t="s">
+        <v>523</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>LEN(J20)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I21">
+        <f>VALUE(MID(A21,2,6))+CODE(A21)*100</f>
+        <v>8819</v>
+      </c>
+      <c r="J21" t="s">
+        <v>526</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>LEN(J21)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>527</v>
+      </c>
+      <c r="B22" t="s">
+        <v>528</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I22">
+        <f>VALUE(MID(A22,2,6))+CODE(A22)*100</f>
+        <v>8820</v>
+      </c>
+      <c r="J22" t="s">
+        <v>529</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>LEN(J22)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" t="s">
+        <v>531</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" s="3">
+        <v>43287</v>
+      </c>
+      <c r="I23">
+        <f>VALUE(MID(A23,2,6))+CODE(A23)*100</f>
+        <v>8821</v>
+      </c>
+      <c r="J23" t="s">
+        <v>532</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>LEN(J23)</f>
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G18 G20:G23">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O18 O20:O23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:P1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14936,7 +15095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y17"/>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -2881,9 +2881,9 @@
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,7 +2972,7 @@
         <v>43215</v>
       </c>
       <c r="I2">
-        <f>VALUE(MID(A2,2,6))+CODE(A2)*100</f>
+        <f t="shared" ref="I2:I33" si="0">VALUE(MID(A2,2,6))+CODE(A2)*100</f>
         <v>6501</v>
       </c>
       <c r="J2" t="s">
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>LEN(J2)</f>
+        <f t="shared" ref="N2:N33" si="1">LEN(J2)</f>
         <v>53</v>
       </c>
       <c r="O2" t="s">
@@ -3024,7 +3024,7 @@
         <v>43215</v>
       </c>
       <c r="I3">
-        <f>VALUE(MID(A3,2,6))+CODE(A3)*100</f>
+        <f t="shared" si="0"/>
         <v>6502</v>
       </c>
       <c r="J3" t="s">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>LEN(J3)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O3" t="s">
@@ -3076,7 +3076,7 @@
         <v>43215</v>
       </c>
       <c r="I4">
-        <f>VALUE(MID(A4,2,6))+CODE(A4)*100</f>
+        <f t="shared" si="0"/>
         <v>6503</v>
       </c>
       <c r="J4" t="s">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>LEN(J4)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O4" t="s">
@@ -3128,7 +3128,7 @@
         <v>43215</v>
       </c>
       <c r="I5">
-        <f>VALUE(MID(A5,2,6))+CODE(A5)*100</f>
+        <f t="shared" si="0"/>
         <v>6504</v>
       </c>
       <c r="J5" t="s">
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f>LEN(J5)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O5" t="s">
@@ -3180,7 +3180,7 @@
         <v>43215</v>
       </c>
       <c r="I6">
-        <f>VALUE(MID(A6,2,6))+CODE(A6)*100</f>
+        <f t="shared" si="0"/>
         <v>6505</v>
       </c>
       <c r="J6" t="s">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>LEN(J6)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O6" t="s">
@@ -3232,7 +3232,7 @@
         <v>43215</v>
       </c>
       <c r="I7">
-        <f>VALUE(MID(A7,2,6))+CODE(A7)*100</f>
+        <f t="shared" si="0"/>
         <v>6506</v>
       </c>
       <c r="J7" t="s">
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>LEN(J7)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O7" t="s">
@@ -3284,7 +3284,7 @@
         <v>53</v>
       </c>
       <c r="I8">
-        <f>VALUE(MID(A8,2,6))+CODE(A8)*100</f>
+        <f t="shared" si="0"/>
         <v>6507</v>
       </c>
       <c r="J8" t="s">
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>LEN(J8)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O8" t="s">
@@ -3336,7 +3336,7 @@
         <v>43215</v>
       </c>
       <c r="I9">
-        <f>VALUE(MID(A9,2,6))+CODE(A9)*100</f>
+        <f t="shared" si="0"/>
         <v>6508</v>
       </c>
       <c r="J9" t="s">
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f>LEN(J9)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O9" t="s">
@@ -3388,7 +3388,7 @@
         <v>43215</v>
       </c>
       <c r="I10">
-        <f>VALUE(MID(A10,2,6))+CODE(A10)*100</f>
+        <f t="shared" si="0"/>
         <v>6509</v>
       </c>
       <c r="J10" t="s">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>LEN(J10)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O10" t="s">
@@ -3440,7 +3440,7 @@
         <v>43215</v>
       </c>
       <c r="I11">
-        <f>VALUE(MID(A11,2,6))+CODE(A11)*100</f>
+        <f t="shared" si="0"/>
         <v>6510</v>
       </c>
       <c r="J11" t="s">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f>LEN(J11)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O11" t="s">
@@ -3492,7 +3492,7 @@
         <v>43215</v>
       </c>
       <c r="I12">
-        <f>VALUE(MID(A12,2,6))+CODE(A12)*100</f>
+        <f t="shared" si="0"/>
         <v>6511</v>
       </c>
       <c r="J12" t="s">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f>LEN(J12)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O12" t="s">
@@ -3544,7 +3544,7 @@
         <v>43215</v>
       </c>
       <c r="I13">
-        <f>VALUE(MID(A13,2,6))+CODE(A13)*100</f>
+        <f t="shared" si="0"/>
         <v>6512</v>
       </c>
       <c r="J13" t="s">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>LEN(J13)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O13" t="s">
@@ -3596,7 +3596,7 @@
         <v>43215</v>
       </c>
       <c r="I14">
-        <f>VALUE(MID(A14,2,6))+CODE(A14)*100</f>
+        <f t="shared" si="0"/>
         <v>6513</v>
       </c>
       <c r="J14" t="s">
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>LEN(J14)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O14" t="s">
@@ -3648,7 +3648,7 @@
         <v>43215</v>
       </c>
       <c r="I15">
-        <f>VALUE(MID(A15,2,6))+CODE(A15)*100</f>
+        <f t="shared" si="0"/>
         <v>6514</v>
       </c>
       <c r="J15" t="s">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f>LEN(J15)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O15" t="s">
@@ -3700,7 +3700,7 @@
         <v>43215</v>
       </c>
       <c r="I16">
-        <f>VALUE(MID(A16,2,6))+CODE(A16)*100</f>
+        <f t="shared" si="0"/>
         <v>6515</v>
       </c>
       <c r="J16" t="s">
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>LEN(J16)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O16" t="s">
@@ -3752,7 +3752,7 @@
         <v>43215</v>
       </c>
       <c r="I17">
-        <f>VALUE(MID(A17,2,6))+CODE(A17)*100</f>
+        <f t="shared" si="0"/>
         <v>6516</v>
       </c>
       <c r="J17" t="s">
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>LEN(J17)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O17" t="s">
@@ -3804,7 +3804,7 @@
         <v>43215</v>
       </c>
       <c r="I18">
-        <f>VALUE(MID(A18,2,6))+CODE(A18)*100</f>
+        <f t="shared" si="0"/>
         <v>6517</v>
       </c>
       <c r="J18" t="s">
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>LEN(J18)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O18" t="s">
@@ -3856,7 +3856,7 @@
         <v>43215</v>
       </c>
       <c r="I19">
-        <f>VALUE(MID(A19,2,6))+CODE(A19)*100</f>
+        <f t="shared" si="0"/>
         <v>6518</v>
       </c>
       <c r="J19" t="s">
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>LEN(J19)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O19" t="s">
@@ -3908,7 +3908,7 @@
         <v>43215</v>
       </c>
       <c r="I20">
-        <f>VALUE(MID(A20,2,6))+CODE(A20)*100</f>
+        <f t="shared" si="0"/>
         <v>6519</v>
       </c>
       <c r="J20" t="s">
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f>LEN(J20)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O20" t="s">
@@ -3960,7 +3960,7 @@
         <v>43215</v>
       </c>
       <c r="I21">
-        <f>VALUE(MID(A21,2,6))+CODE(A21)*100</f>
+        <f t="shared" si="0"/>
         <v>6520</v>
       </c>
       <c r="J21" t="s">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f>LEN(J21)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O21" t="s">
@@ -4012,7 +4012,7 @@
         <v>43215</v>
       </c>
       <c r="I22">
-        <f>VALUE(MID(A22,2,6))+CODE(A22)*100</f>
+        <f t="shared" si="0"/>
         <v>6521</v>
       </c>
       <c r="J22" t="s">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f>LEN(J22)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O22" t="s">
@@ -4064,7 +4064,7 @@
         <v>43215</v>
       </c>
       <c r="I23">
-        <f>VALUE(MID(A23,2,6))+CODE(A23)*100</f>
+        <f t="shared" si="0"/>
         <v>6522</v>
       </c>
       <c r="J23" t="s">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f>LEN(J23)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="O23" t="s">
@@ -4116,7 +4116,7 @@
         <v>43215</v>
       </c>
       <c r="I24">
-        <f>VALUE(MID(A24,2,6))+CODE(A24)*100</f>
+        <f t="shared" si="0"/>
         <v>6523</v>
       </c>
       <c r="J24" t="s">
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>LEN(J24)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O24" t="s">
@@ -4168,7 +4168,7 @@
         <v>43215</v>
       </c>
       <c r="I25">
-        <f>VALUE(MID(A25,2,6))+CODE(A25)*100</f>
+        <f t="shared" si="0"/>
         <v>6524</v>
       </c>
       <c r="J25" t="s">
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f>LEN(J25)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O25" t="s">
@@ -4220,7 +4220,7 @@
         <v>43215</v>
       </c>
       <c r="I26">
-        <f>VALUE(MID(A26,2,6))+CODE(A26)*100</f>
+        <f t="shared" si="0"/>
         <v>6601</v>
       </c>
       <c r="J26" t="s">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f>LEN(J26)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O26" t="s">
@@ -4272,7 +4272,7 @@
         <v>43215</v>
       </c>
       <c r="I27">
-        <f>VALUE(MID(A27,2,6))+CODE(A27)*100</f>
+        <f t="shared" si="0"/>
         <v>6602</v>
       </c>
       <c r="J27" t="s">
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f>LEN(J27)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O27" t="s">
@@ -4324,7 +4324,7 @@
         <v>43215</v>
       </c>
       <c r="I28">
-        <f>VALUE(MID(A28,2,6))+CODE(A28)*100</f>
+        <f t="shared" si="0"/>
         <v>6603</v>
       </c>
       <c r="J28" t="s">
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f>LEN(J28)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O28" t="s">
@@ -4376,7 +4376,7 @@
         <v>43215</v>
       </c>
       <c r="I29">
-        <f>VALUE(MID(A29,2,6))+CODE(A29)*100</f>
+        <f t="shared" si="0"/>
         <v>6604</v>
       </c>
       <c r="J29" t="s">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f>LEN(J29)</f>
+        <f t="shared" si="1"/>
         <v>2127</v>
       </c>
       <c r="O29" t="s">
@@ -4428,7 +4428,7 @@
         <v>43215</v>
       </c>
       <c r="I30">
-        <f>VALUE(MID(A30,2,6))+CODE(A30)*100</f>
+        <f t="shared" si="0"/>
         <v>6605</v>
       </c>
       <c r="J30" t="s">
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f>LEN(J30)</f>
+        <f t="shared" si="1"/>
         <v>2185</v>
       </c>
       <c r="O30" t="s">
@@ -4480,7 +4480,7 @@
         <v>43215</v>
       </c>
       <c r="I31">
-        <f>VALUE(MID(A31,2,6))+CODE(A31)*100</f>
+        <f t="shared" si="0"/>
         <v>6606</v>
       </c>
       <c r="J31" t="s">
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f>LEN(J31)</f>
+        <f t="shared" si="1"/>
         <v>2349</v>
       </c>
       <c r="O31" t="s">
@@ -4532,7 +4532,7 @@
         <v>43215</v>
       </c>
       <c r="I32">
-        <f>VALUE(MID(A32,2,6))+CODE(A32)*100</f>
+        <f t="shared" si="0"/>
         <v>6607</v>
       </c>
       <c r="J32" t="s">
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f>LEN(J32)</f>
+        <f t="shared" si="1"/>
         <v>2135</v>
       </c>
       <c r="O32" t="s">
@@ -4584,7 +4584,7 @@
         <v>43215</v>
       </c>
       <c r="I33">
-        <f>VALUE(MID(A33,2,6))+CODE(A33)*100</f>
+        <f t="shared" si="0"/>
         <v>6608</v>
       </c>
       <c r="J33" t="s">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f>LEN(J33)</f>
+        <f t="shared" si="1"/>
         <v>2825</v>
       </c>
       <c r="O33" t="s">
@@ -4636,7 +4636,7 @@
         <v>43215</v>
       </c>
       <c r="I34">
-        <f>VALUE(MID(A34,2,6))+CODE(A34)*100</f>
+        <f t="shared" ref="I34:I65" si="2">VALUE(MID(A34,2,6))+CODE(A34)*100</f>
         <v>6609</v>
       </c>
       <c r="J34" t="s">
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f>LEN(J34)</f>
+        <f t="shared" ref="N34:N53" si="3">LEN(J34)</f>
         <v>2171</v>
       </c>
       <c r="O34" t="s">
@@ -4688,7 +4688,7 @@
         <v>43215</v>
       </c>
       <c r="I35">
-        <f>VALUE(MID(A35,2,6))+CODE(A35)*100</f>
+        <f t="shared" si="2"/>
         <v>6610</v>
       </c>
       <c r="J35" t="s">
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f>LEN(J35)</f>
+        <f t="shared" si="3"/>
         <v>2237</v>
       </c>
       <c r="O35" t="s">
@@ -4740,7 +4740,7 @@
         <v>43215</v>
       </c>
       <c r="I36">
-        <f>VALUE(MID(A36,2,6))+CODE(A36)*100</f>
+        <f t="shared" si="2"/>
         <v>6611</v>
       </c>
       <c r="J36" t="s">
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f>LEN(J36)</f>
+        <f t="shared" si="3"/>
         <v>2238</v>
       </c>
       <c r="O36" t="s">
@@ -4792,7 +4792,7 @@
         <v>43215</v>
       </c>
       <c r="I37">
-        <f>VALUE(MID(A37,2,6))+CODE(A37)*100</f>
+        <f t="shared" si="2"/>
         <v>6612</v>
       </c>
       <c r="J37" t="s">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f>LEN(J37)</f>
+        <f t="shared" si="3"/>
         <v>2155</v>
       </c>
       <c r="O37" t="s">
@@ -4844,7 +4844,7 @@
         <v>43215</v>
       </c>
       <c r="I38">
-        <f>VALUE(MID(A38,2,6))+CODE(A38)*100</f>
+        <f t="shared" si="2"/>
         <v>6613</v>
       </c>
       <c r="J38" t="s">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f>LEN(J38)</f>
+        <f t="shared" si="3"/>
         <v>2170</v>
       </c>
       <c r="O38" t="s">
@@ -4896,7 +4896,7 @@
         <v>43215</v>
       </c>
       <c r="I39">
-        <f>VALUE(MID(A39,2,6))+CODE(A39)*100</f>
+        <f t="shared" si="2"/>
         <v>6614</v>
       </c>
       <c r="J39" t="s">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>LEN(J39)</f>
+        <f t="shared" si="3"/>
         <v>2166</v>
       </c>
       <c r="O39" t="s">
@@ -4948,7 +4948,7 @@
         <v>43215</v>
       </c>
       <c r="I40">
-        <f>VALUE(MID(A40,2,6))+CODE(A40)*100</f>
+        <f t="shared" si="2"/>
         <v>6615</v>
       </c>
       <c r="J40" t="s">
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>LEN(J40)</f>
+        <f t="shared" si="3"/>
         <v>2166</v>
       </c>
       <c r="O40" t="s">
@@ -5000,7 +5000,7 @@
         <v>43215</v>
       </c>
       <c r="I41">
-        <f>VALUE(MID(A41,2,6))+CODE(A41)*100</f>
+        <f t="shared" si="2"/>
         <v>6616</v>
       </c>
       <c r="J41" t="s">
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f>LEN(J41)</f>
+        <f t="shared" si="3"/>
         <v>2159</v>
       </c>
       <c r="O41" t="s">
@@ -5052,7 +5052,7 @@
         <v>43215</v>
       </c>
       <c r="I42">
-        <f>VALUE(MID(A42,2,6))+CODE(A42)*100</f>
+        <f t="shared" si="2"/>
         <v>6617</v>
       </c>
       <c r="J42" t="s">
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f>LEN(J42)</f>
+        <f t="shared" si="3"/>
         <v>2789</v>
       </c>
       <c r="O42" t="s">
@@ -5104,7 +5104,7 @@
         <v>43215</v>
       </c>
       <c r="I43">
-        <f>VALUE(MID(A43,2,6))+CODE(A43)*100</f>
+        <f t="shared" si="2"/>
         <v>6618</v>
       </c>
       <c r="J43" t="s">
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f>LEN(J43)</f>
+        <f t="shared" si="3"/>
         <v>2130</v>
       </c>
       <c r="O43" t="s">
@@ -5156,7 +5156,7 @@
         <v>43215</v>
       </c>
       <c r="I44">
-        <f>VALUE(MID(A44,2,6))+CODE(A44)*100</f>
+        <f t="shared" si="2"/>
         <v>6619</v>
       </c>
       <c r="J44" t="s">
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f>LEN(J44)</f>
+        <f t="shared" si="3"/>
         <v>2128</v>
       </c>
       <c r="O44" t="s">
@@ -5208,7 +5208,7 @@
         <v>43215</v>
       </c>
       <c r="I45">
-        <f>VALUE(MID(A45,2,6))+CODE(A45)*100</f>
+        <f t="shared" si="2"/>
         <v>6620</v>
       </c>
       <c r="J45" t="s">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f>LEN(J45)</f>
+        <f t="shared" si="3"/>
         <v>2129</v>
       </c>
       <c r="O45" t="s">
@@ -5260,7 +5260,7 @@
         <v>43222</v>
       </c>
       <c r="I46">
-        <f>VALUE(MID(A46,2,6))+CODE(A46)*100</f>
+        <f t="shared" si="2"/>
         <v>6701</v>
       </c>
       <c r="J46" t="s">
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f>LEN(J46)</f>
+        <f t="shared" si="3"/>
         <v>1151</v>
       </c>
       <c r="O46" t="s">
@@ -5312,7 +5312,7 @@
         <v>43222</v>
       </c>
       <c r="I47">
-        <f>VALUE(MID(A47,2,6))+CODE(A47)*100</f>
+        <f t="shared" si="2"/>
         <v>6702</v>
       </c>
       <c r="J47" t="s">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f>LEN(J47)</f>
+        <f t="shared" si="3"/>
         <v>1087</v>
       </c>
       <c r="O47" t="s">
@@ -5364,7 +5364,7 @@
         <v>43222</v>
       </c>
       <c r="I48">
-        <f>VALUE(MID(A48,2,6))+CODE(A48)*100</f>
+        <f t="shared" si="2"/>
         <v>6703</v>
       </c>
       <c r="J48" t="s">
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f>LEN(J48)</f>
+        <f t="shared" si="3"/>
         <v>1146</v>
       </c>
       <c r="O48" t="s">
@@ -5416,7 +5416,7 @@
         <v>43222</v>
       </c>
       <c r="I49">
-        <f>VALUE(MID(A49,2,6))+CODE(A49)*100</f>
+        <f t="shared" si="2"/>
         <v>6704</v>
       </c>
       <c r="J49" t="s">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f>LEN(J49)</f>
+        <f t="shared" si="3"/>
         <v>937</v>
       </c>
       <c r="O49" t="s">
@@ -5468,7 +5468,7 @@
         <v>43222</v>
       </c>
       <c r="I50">
-        <f>VALUE(MID(A50,2,6))+CODE(A50)*100</f>
+        <f t="shared" si="2"/>
         <v>6705</v>
       </c>
       <c r="J50" t="s">
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f>LEN(J50)</f>
+        <f t="shared" si="3"/>
         <v>687</v>
       </c>
       <c r="O50" t="s">
@@ -5520,7 +5520,7 @@
         <v>43222</v>
       </c>
       <c r="I51">
-        <f>VALUE(MID(A51,2,6))+CODE(A51)*100</f>
+        <f t="shared" si="2"/>
         <v>6706</v>
       </c>
       <c r="J51" t="s">
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f>LEN(J51)</f>
+        <f t="shared" si="3"/>
         <v>1742</v>
       </c>
       <c r="O51" t="s">
@@ -5572,7 +5572,7 @@
         <v>43222</v>
       </c>
       <c r="I52">
-        <f>VALUE(MID(A52,2,6))+CODE(A52)*100</f>
+        <f t="shared" si="2"/>
         <v>6707</v>
       </c>
       <c r="J52" t="s">
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f>LEN(J52)</f>
+        <f t="shared" si="3"/>
         <v>687</v>
       </c>
       <c r="O52" t="s">
@@ -5624,7 +5624,7 @@
         <v>43222</v>
       </c>
       <c r="I53">
-        <f>VALUE(MID(A53,2,6))+CODE(A53)*100</f>
+        <f t="shared" si="2"/>
         <v>6708</v>
       </c>
       <c r="J53" t="s">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f>LEN(J53)</f>
+        <f t="shared" si="3"/>
         <v>1742</v>
       </c>
       <c r="O53" t="s">
@@ -5661,7 +5661,7 @@
         <v>248</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G54" s="8">
         <v>18.190000000000001</v>
@@ -5670,7 +5670,7 @@
         <v>43224</v>
       </c>
       <c r="I54">
-        <f>VALUE(MID(A54,2,6))+CODE(A54)*100</f>
+        <f t="shared" si="2"/>
         <v>6711</v>
       </c>
       <c r="J54" t="s">
@@ -5712,7 +5712,7 @@
         <v>43224</v>
       </c>
       <c r="I55">
-        <f>VALUE(MID(A55,2,6))+CODE(A55)*100</f>
+        <f t="shared" si="2"/>
         <v>6712</v>
       </c>
       <c r="J55" t="s">
@@ -5754,7 +5754,7 @@
         <v>43224</v>
       </c>
       <c r="I56">
-        <f>VALUE(MID(A56,2,6))+CODE(A56)*100</f>
+        <f t="shared" si="2"/>
         <v>6713</v>
       </c>
       <c r="J56" t="s">
@@ -5796,7 +5796,7 @@
         <v>43224</v>
       </c>
       <c r="I57">
-        <f>VALUE(MID(A57,2,6))+CODE(A57)*100</f>
+        <f t="shared" si="2"/>
         <v>6714</v>
       </c>
       <c r="J57" t="s">
@@ -5838,7 +5838,7 @@
         <v>43224</v>
       </c>
       <c r="I58">
-        <f>VALUE(MID(A58,2,6))+CODE(A58)*100</f>
+        <f t="shared" si="2"/>
         <v>6715</v>
       </c>
       <c r="J58" t="s">
@@ -5880,7 +5880,7 @@
         <v>43224</v>
       </c>
       <c r="I59">
-        <f>VALUE(MID(A59,2,6))+CODE(A59)*100</f>
+        <f t="shared" si="2"/>
         <v>6716</v>
       </c>
       <c r="J59" t="s">
@@ -5922,7 +5922,7 @@
         <v>43224</v>
       </c>
       <c r="I60">
-        <f>VALUE(MID(A60,2,6))+CODE(A60)*100</f>
+        <f t="shared" si="2"/>
         <v>6717</v>
       </c>
       <c r="J60" t="s">
@@ -5964,7 +5964,7 @@
         <v>43224</v>
       </c>
       <c r="I61">
-        <f>VALUE(MID(A61,2,6))+CODE(A61)*100</f>
+        <f t="shared" si="2"/>
         <v>6718</v>
       </c>
       <c r="J61" t="s">
@@ -6012,7 +6012,7 @@
         <v>43242</v>
       </c>
       <c r="I62">
-        <f>VALUE(MID(A62,2,6))+CODE(A62)*100</f>
+        <f t="shared" si="2"/>
         <v>6719</v>
       </c>
       <c r="J62" t="s">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f>LEN(J62)</f>
+        <f t="shared" ref="N62:N78" si="4">LEN(J62)</f>
         <v>3611</v>
       </c>
       <c r="O62" t="s">
@@ -6064,7 +6064,7 @@
         <v>43242</v>
       </c>
       <c r="I63">
-        <f>VALUE(MID(A63,2,6))+CODE(A63)*100</f>
+        <f t="shared" si="2"/>
         <v>6720</v>
       </c>
       <c r="J63" t="s">
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f>LEN(J63)</f>
+        <f t="shared" si="4"/>
         <v>2196</v>
       </c>
       <c r="O63" t="s">
@@ -6116,7 +6116,7 @@
         <v>43242</v>
       </c>
       <c r="I64">
-        <f>VALUE(MID(A64,2,6))+CODE(A64)*100</f>
+        <f t="shared" si="2"/>
         <v>6721</v>
       </c>
       <c r="J64" t="s">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f>LEN(J64)</f>
+        <f t="shared" si="4"/>
         <v>2143</v>
       </c>
       <c r="O64" t="s">
@@ -6162,7 +6162,7 @@
         <v>43242</v>
       </c>
       <c r="I65">
-        <f>VALUE(MID(A65,2,6))+CODE(A65)*100</f>
+        <f t="shared" si="2"/>
         <v>6722</v>
       </c>
       <c r="J65" t="s">
@@ -6178,7 +6178,7 @@
         <v>-4</v>
       </c>
       <c r="N65">
-        <f>LEN(J65)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="O65" t="s">
@@ -6208,7 +6208,7 @@
         <v>43242</v>
       </c>
       <c r="I66">
-        <f>VALUE(MID(A66,2,6))+CODE(A66)*100</f>
+        <f t="shared" ref="I66:I97" si="5">VALUE(MID(A66,2,6))+CODE(A66)*100</f>
         <v>6723</v>
       </c>
       <c r="J66" t="s">
@@ -6224,7 +6224,7 @@
         <v>-4</v>
       </c>
       <c r="N66">
-        <f>LEN(J66)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="O66" t="s">
@@ -6254,7 +6254,7 @@
         <v>43242</v>
       </c>
       <c r="I67">
-        <f>VALUE(MID(A67,2,6))+CODE(A67)*100</f>
+        <f t="shared" si="5"/>
         <v>6724</v>
       </c>
       <c r="J67" t="s">
@@ -6270,7 +6270,7 @@
         <v>-4</v>
       </c>
       <c r="N67">
-        <f>LEN(J67)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="O67" t="s">
@@ -6300,7 +6300,7 @@
         <v>43242</v>
       </c>
       <c r="I68">
-        <f>VALUE(MID(A68,2,6))+CODE(A68)*100</f>
+        <f t="shared" si="5"/>
         <v>6801</v>
       </c>
       <c r="J68" t="s">
@@ -6316,7 +6316,7 @@
         <v>-4</v>
       </c>
       <c r="N68">
-        <f>LEN(J68)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="O68" t="s">
@@ -6346,7 +6346,7 @@
         <v>43242</v>
       </c>
       <c r="I69">
-        <f>VALUE(MID(A69,2,6))+CODE(A69)*100</f>
+        <f t="shared" si="5"/>
         <v>6802</v>
       </c>
       <c r="J69" t="s">
@@ -6362,7 +6362,7 @@
         <v>-4</v>
       </c>
       <c r="N69">
-        <f>LEN(J69)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="O69" t="s">
@@ -6392,7 +6392,7 @@
         <v>43242</v>
       </c>
       <c r="I70">
-        <f>VALUE(MID(A70,2,6))+CODE(A70)*100</f>
+        <f t="shared" si="5"/>
         <v>6803</v>
       </c>
       <c r="J70" t="s">
@@ -6408,7 +6408,7 @@
         <v>-4</v>
       </c>
       <c r="N70">
-        <f>LEN(J70)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="O70" t="s">
@@ -6438,7 +6438,7 @@
         <v>43242</v>
       </c>
       <c r="I71">
-        <f>VALUE(MID(A71,2,6))+CODE(A71)*100</f>
+        <f t="shared" si="5"/>
         <v>6804</v>
       </c>
       <c r="J71" t="s">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f>LEN(J71)</f>
+        <f t="shared" si="4"/>
         <v>2355</v>
       </c>
       <c r="O71" t="s">
@@ -6490,7 +6490,7 @@
         <v>43242</v>
       </c>
       <c r="I72">
-        <f>VALUE(MID(A72,2,6))+CODE(A72)*100</f>
+        <f t="shared" si="5"/>
         <v>6805</v>
       </c>
       <c r="J72" t="s">
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f>LEN(J72)</f>
+        <f t="shared" si="4"/>
         <v>2239</v>
       </c>
       <c r="O72" t="s">
@@ -6539,7 +6539,7 @@
         <v>43244</v>
       </c>
       <c r="I73">
-        <f>VALUE(MID(A73,2,6))+CODE(A73)*100</f>
+        <f t="shared" si="5"/>
         <v>6806</v>
       </c>
       <c r="J73" t="s">
@@ -6555,7 +6555,7 @@
         <v>-4</v>
       </c>
       <c r="N73">
-        <f>LEN(J73)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="O73" t="s">
@@ -6588,7 +6588,7 @@
         <v>43244</v>
       </c>
       <c r="I74">
-        <f>VALUE(MID(A74,2,6))+CODE(A74)*100</f>
+        <f t="shared" si="5"/>
         <v>6807</v>
       </c>
       <c r="J74" t="s">
@@ -6604,7 +6604,7 @@
         <v>-4</v>
       </c>
       <c r="N74">
-        <f>LEN(J74)</f>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="O74" t="s">
@@ -6637,7 +6637,7 @@
         <v>43244</v>
       </c>
       <c r="I75">
-        <f>VALUE(MID(A75,2,6))+CODE(A75)*100</f>
+        <f t="shared" si="5"/>
         <v>6808</v>
       </c>
       <c r="J75" t="s">
@@ -6653,7 +6653,7 @@
         <v>-4</v>
       </c>
       <c r="N75">
-        <f>LEN(J75)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="O75" t="s">
@@ -6686,7 +6686,7 @@
         <v>43244</v>
       </c>
       <c r="I76">
-        <f>VALUE(MID(A76,2,6))+CODE(A76)*100</f>
+        <f t="shared" si="5"/>
         <v>6809</v>
       </c>
       <c r="J76" t="s">
@@ -6702,7 +6702,7 @@
         <v>-4</v>
       </c>
       <c r="N76">
-        <f>LEN(J76)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="O76" t="s">
@@ -6735,7 +6735,7 @@
         <v>43244</v>
       </c>
       <c r="I77">
-        <f>VALUE(MID(A77,2,6))+CODE(A77)*100</f>
+        <f t="shared" si="5"/>
         <v>6810</v>
       </c>
       <c r="J77" t="s">
@@ -6751,7 +6751,7 @@
         <v>-4</v>
       </c>
       <c r="N77">
-        <f>LEN(J77)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="O77" t="s">
@@ -6784,7 +6784,7 @@
         <v>43244</v>
       </c>
       <c r="I78">
-        <f>VALUE(MID(A78,2,6))+CODE(A78)*100</f>
+        <f t="shared" si="5"/>
         <v>6811</v>
       </c>
       <c r="J78" t="s">
@@ -6800,7 +6800,7 @@
         <v>-4</v>
       </c>
       <c r="N78">
-        <f>LEN(J78)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="O78" t="s">
@@ -6833,7 +6833,7 @@
         <v>43274</v>
       </c>
       <c r="I79">
-        <f>VALUE(MID(A79,2,6))+CODE(A79)*100</f>
+        <f t="shared" si="5"/>
         <v>6812</v>
       </c>
       <c r="J79" t="s">
@@ -6878,7 +6878,7 @@
         <v>43274</v>
       </c>
       <c r="I80">
-        <f>VALUE(MID(A80,2,6))+CODE(A80)*100</f>
+        <f t="shared" si="5"/>
         <v>6813</v>
       </c>
       <c r="J80" t="s">
@@ -6923,7 +6923,7 @@
         <v>43274</v>
       </c>
       <c r="I81">
-        <f>VALUE(MID(A81,2,6))+CODE(A81)*100</f>
+        <f t="shared" si="5"/>
         <v>6814</v>
       </c>
       <c r="J81" t="s">
@@ -6968,7 +6968,7 @@
         <v>43274</v>
       </c>
       <c r="I82">
-        <f>VALUE(MID(A82,2,6))+CODE(A82)*100</f>
+        <f t="shared" si="5"/>
         <v>6815</v>
       </c>
       <c r="J82" t="s">
@@ -7013,7 +7013,7 @@
         <v>43274</v>
       </c>
       <c r="I83">
-        <f>VALUE(MID(A83,2,6))+CODE(A83)*100</f>
+        <f t="shared" si="5"/>
         <v>6816</v>
       </c>
       <c r="J83" t="s">
@@ -7058,7 +7058,7 @@
         <v>43274</v>
       </c>
       <c r="I84">
-        <f>VALUE(MID(A84,2,6))+CODE(A84)*100</f>
+        <f t="shared" si="5"/>
         <v>6817</v>
       </c>
       <c r="J84" t="s">
@@ -7103,7 +7103,7 @@
         <v>43274</v>
       </c>
       <c r="I85">
-        <f>VALUE(MID(A85,2,6))+CODE(A85)*100</f>
+        <f t="shared" si="5"/>
         <v>6818</v>
       </c>
       <c r="J85" t="s">
@@ -7148,7 +7148,7 @@
         <v>43274</v>
       </c>
       <c r="I86">
-        <f>VALUE(MID(A86,2,6))+CODE(A86)*100</f>
+        <f t="shared" si="5"/>
         <v>6819</v>
       </c>
       <c r="J86" t="s">
@@ -7196,7 +7196,7 @@
         <v>43283</v>
       </c>
       <c r="I87">
-        <f>VALUE(MID(A87,2,6))+CODE(A87)*100</f>
+        <f t="shared" si="5"/>
         <v>6820</v>
       </c>
       <c r="J87" t="s">
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <f>LEN(J87)</f>
+        <f t="shared" ref="N87:N108" si="6">LEN(J87)</f>
         <v>2129</v>
       </c>
       <c r="O87" t="s">
@@ -7248,7 +7248,7 @@
         <v>43270</v>
       </c>
       <c r="I88">
-        <f>VALUE(MID(A88,2,6))+CODE(A88)*100</f>
+        <f t="shared" si="5"/>
         <v>6901</v>
       </c>
       <c r="J88" t="s">
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <f>LEN(J88)</f>
+        <f t="shared" si="6"/>
         <v>1151</v>
       </c>
       <c r="O88" t="s">
@@ -7297,7 +7297,7 @@
         <v>43270</v>
       </c>
       <c r="I89">
-        <f>VALUE(MID(A89,2,6))+CODE(A89)*100</f>
+        <f t="shared" si="5"/>
         <v>6902</v>
       </c>
       <c r="J89" t="s">
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <f>LEN(J89)</f>
+        <f t="shared" si="6"/>
         <v>1012</v>
       </c>
       <c r="O89" t="s">
@@ -7349,7 +7349,7 @@
         <v>43270</v>
       </c>
       <c r="I90">
-        <f>VALUE(MID(A90,2,6))+CODE(A90)*100</f>
+        <f t="shared" si="5"/>
         <v>6903</v>
       </c>
       <c r="J90" t="s">
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <f>LEN(J90)</f>
+        <f t="shared" si="6"/>
         <v>1146</v>
       </c>
       <c r="O90" t="s">
@@ -7398,7 +7398,7 @@
         <v>43270</v>
       </c>
       <c r="I91">
-        <f>VALUE(MID(A91,2,6))+CODE(A91)*100</f>
+        <f t="shared" si="5"/>
         <v>6904</v>
       </c>
       <c r="J91" t="s">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <f>LEN(J91)</f>
+        <f t="shared" si="6"/>
         <v>1008</v>
       </c>
       <c r="O91" t="s">
@@ -7447,7 +7447,7 @@
         <v>43270</v>
       </c>
       <c r="I92">
-        <f>VALUE(MID(A92,2,6))+CODE(A92)*100</f>
+        <f t="shared" si="5"/>
         <v>6905</v>
       </c>
       <c r="J92" t="s">
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <f>LEN(J92)</f>
+        <f t="shared" si="6"/>
         <v>687</v>
       </c>
       <c r="O92" t="s">
@@ -7496,7 +7496,7 @@
         <v>43270</v>
       </c>
       <c r="I93">
-        <f>VALUE(MID(A93,2,6))+CODE(A93)*100</f>
+        <f t="shared" si="5"/>
         <v>6906</v>
       </c>
       <c r="J93" t="s">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <f>LEN(J93)</f>
+        <f t="shared" si="6"/>
         <v>616</v>
       </c>
       <c r="O93" t="s">
@@ -7545,7 +7545,7 @@
         <v>43270</v>
       </c>
       <c r="I94">
-        <f>VALUE(MID(A94,2,6))+CODE(A94)*100</f>
+        <f t="shared" si="5"/>
         <v>6907</v>
       </c>
       <c r="J94" t="s">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <f>LEN(J94)</f>
+        <f t="shared" si="6"/>
         <v>469</v>
       </c>
       <c r="O94" t="s">
@@ -7594,7 +7594,7 @@
         <v>43270</v>
       </c>
       <c r="I95">
-        <f>VALUE(MID(A95,2,6))+CODE(A95)*100</f>
+        <f t="shared" si="5"/>
         <v>6908</v>
       </c>
       <c r="J95" t="s">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <f>LEN(J95)</f>
+        <f t="shared" si="6"/>
         <v>624</v>
       </c>
       <c r="O95" t="s">
@@ -7643,7 +7643,7 @@
         <v>43270</v>
       </c>
       <c r="I96">
-        <f>VALUE(MID(A96,2,6))+CODE(A96)*100</f>
+        <f t="shared" si="5"/>
         <v>6909</v>
       </c>
       <c r="J96" t="s">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <f>LEN(J96)</f>
+        <f t="shared" si="6"/>
         <v>586</v>
       </c>
       <c r="O96" t="s">
@@ -7692,7 +7692,7 @@
         <v>43270</v>
       </c>
       <c r="I97">
-        <f>VALUE(MID(A97,2,6))+CODE(A97)*100</f>
+        <f t="shared" si="5"/>
         <v>6910</v>
       </c>
       <c r="J97" t="s">
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <f>LEN(J97)</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="O97" t="s">
@@ -7741,7 +7741,7 @@
         <v>43270</v>
       </c>
       <c r="I98">
-        <f>VALUE(MID(A98,2,6))+CODE(A98)*100</f>
+        <f t="shared" ref="I98:I130" si="7">VALUE(MID(A98,2,6))+CODE(A98)*100</f>
         <v>6911</v>
       </c>
       <c r="J98" t="s">
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <f>LEN(J98)</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="O98" t="s">
@@ -7790,7 +7790,7 @@
         <v>43270</v>
       </c>
       <c r="I99">
-        <f>VALUE(MID(A99,2,6))+CODE(A99)*100</f>
+        <f t="shared" si="7"/>
         <v>6912</v>
       </c>
       <c r="J99" t="s">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f>LEN(J99)</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="O99" t="s">
@@ -7839,7 +7839,7 @@
         <v>43270</v>
       </c>
       <c r="I100">
-        <f>VALUE(MID(A100,2,6))+CODE(A100)*100</f>
+        <f t="shared" si="7"/>
         <v>6913</v>
       </c>
       <c r="J100" t="s">
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <f>LEN(J100)</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="O100" t="s">
@@ -7888,7 +7888,7 @@
         <v>43270</v>
       </c>
       <c r="I101">
-        <f>VALUE(MID(A101,2,6))+CODE(A101)*100</f>
+        <f t="shared" si="7"/>
         <v>6914</v>
       </c>
       <c r="J101" t="s">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <f>LEN(J101)</f>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="O101" t="s">
@@ -7937,7 +7937,7 @@
         <v>43270</v>
       </c>
       <c r="I102">
-        <f>VALUE(MID(A102,2,6))+CODE(A102)*100</f>
+        <f t="shared" si="7"/>
         <v>6915</v>
       </c>
       <c r="J102" t="s">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <f>LEN(J102)</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="O102" t="s">
@@ -7986,7 +7986,7 @@
         <v>43270</v>
       </c>
       <c r="I103">
-        <f>VALUE(MID(A103,2,6))+CODE(A103)*100</f>
+        <f t="shared" si="7"/>
         <v>6916</v>
       </c>
       <c r="J103" t="s">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <f>LEN(J103)</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="O103" t="s">
@@ -8035,7 +8035,7 @@
         <v>43270</v>
       </c>
       <c r="I104">
-        <f>VALUE(MID(A104,2,6))+CODE(A104)*100</f>
+        <f t="shared" si="7"/>
         <v>6917</v>
       </c>
       <c r="J104" t="s">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f>LEN(J104)</f>
+        <f t="shared" si="6"/>
         <v>2355</v>
       </c>
       <c r="O104" t="s">
@@ -8084,7 +8084,7 @@
         <v>43270</v>
       </c>
       <c r="I105">
-        <f>VALUE(MID(A105,2,6))+CODE(A105)*100</f>
+        <f t="shared" si="7"/>
         <v>6918</v>
       </c>
       <c r="J105" t="s">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <f>LEN(J105)</f>
+        <f t="shared" si="6"/>
         <v>2355</v>
       </c>
       <c r="O105" t="s">
@@ -8133,7 +8133,7 @@
         <v>43270</v>
       </c>
       <c r="I106">
-        <f>VALUE(MID(A106,2,6))+CODE(A106)*100</f>
+        <f t="shared" si="7"/>
         <v>6919</v>
       </c>
       <c r="J106" t="s">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <f>LEN(J106)</f>
+        <f t="shared" si="6"/>
         <v>2355</v>
       </c>
       <c r="O106" t="s">
@@ -8185,7 +8185,7 @@
         <v>43270</v>
       </c>
       <c r="I107">
-        <f>VALUE(MID(A107,2,6))+CODE(A107)*100</f>
+        <f t="shared" si="7"/>
         <v>6920</v>
       </c>
       <c r="J107" t="s">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <f>LEN(J107)</f>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="O107" t="s">
@@ -8237,7 +8237,7 @@
         <v>43270</v>
       </c>
       <c r="I108">
-        <f>VALUE(MID(A108,2,6))+CODE(A108)*100</f>
+        <f t="shared" si="7"/>
         <v>6921</v>
       </c>
       <c r="J108" t="s">
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <f>LEN(J108)</f>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="O108" t="s">
@@ -8275,7 +8275,7 @@
       </c>
       <c r="H109" s="3"/>
       <c r="I109">
-        <f>VALUE(MID(A109,2,6))+CODE(A109)*100</f>
+        <f t="shared" si="7"/>
         <v>8023</v>
       </c>
       <c r="O109" t="s">
@@ -8305,7 +8305,7 @@
         <v>43284</v>
       </c>
       <c r="I110">
-        <f>VALUE(MID(A110,2,6))+CODE(A110)*100</f>
+        <f t="shared" si="7"/>
         <v>6922</v>
       </c>
       <c r="J110" t="s">
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f>LEN(J110)</f>
+        <f t="shared" ref="N110:N128" si="8">LEN(J110)</f>
         <v>562</v>
       </c>
       <c r="O110" t="s">
@@ -8351,7 +8351,7 @@
         <v>43284</v>
       </c>
       <c r="I111">
-        <f>VALUE(MID(A111,2,6))+CODE(A111)*100</f>
+        <f t="shared" si="7"/>
         <v>6923</v>
       </c>
       <c r="J111" t="s">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f>LEN(J111)</f>
+        <f t="shared" si="8"/>
         <v>591</v>
       </c>
       <c r="O111" t="s">
@@ -8397,7 +8397,7 @@
         <v>43284</v>
       </c>
       <c r="I112">
-        <f>VALUE(MID(A112,2,6))+CODE(A112)*100</f>
+        <f t="shared" si="7"/>
         <v>6924</v>
       </c>
       <c r="J112" t="s">
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <f>LEN(J112)</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="O112" t="s">
@@ -8443,7 +8443,7 @@
         <v>43284</v>
       </c>
       <c r="I113">
-        <f>VALUE(MID(A113,2,6))+CODE(A113)*100</f>
+        <f t="shared" si="7"/>
         <v>7001</v>
       </c>
       <c r="J113" t="s">
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <f>LEN(J113)</f>
+        <f t="shared" si="8"/>
         <v>514</v>
       </c>
       <c r="O113" t="s">
@@ -8489,7 +8489,7 @@
         <v>43284</v>
       </c>
       <c r="I114">
-        <f>VALUE(MID(A114,2,6))+CODE(A114)*100</f>
+        <f t="shared" si="7"/>
         <v>7002</v>
       </c>
       <c r="J114" t="s">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <f>LEN(J114)</f>
+        <f t="shared" si="8"/>
         <v>1217</v>
       </c>
       <c r="O114" t="s">
@@ -8535,7 +8535,7 @@
         <v>43284</v>
       </c>
       <c r="I115">
-        <f>VALUE(MID(A115,2,6))+CODE(A115)*100</f>
+        <f t="shared" si="7"/>
         <v>7003</v>
       </c>
       <c r="J115" t="s">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f>LEN(J115)</f>
+        <f t="shared" si="8"/>
         <v>961</v>
       </c>
       <c r="O115" t="s">
@@ -8581,7 +8581,7 @@
         <v>43284</v>
       </c>
       <c r="I116">
-        <f>VALUE(MID(A116,2,6))+CODE(A116)*100</f>
+        <f t="shared" si="7"/>
         <v>7004</v>
       </c>
       <c r="J116" t="s">
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <f>LEN(J116)</f>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="O116" t="s">
@@ -8627,7 +8627,7 @@
         <v>43284</v>
       </c>
       <c r="I117">
-        <f>VALUE(MID(A117,2,6))+CODE(A117)*100</f>
+        <f t="shared" si="7"/>
         <v>7005</v>
       </c>
       <c r="J117" t="s">
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <f>LEN(J117)</f>
+        <f t="shared" si="8"/>
         <v>132</v>
       </c>
       <c r="O117" t="s">
@@ -8673,7 +8673,7 @@
         <v>43284</v>
       </c>
       <c r="I118">
-        <f>VALUE(MID(A118,2,6))+CODE(A118)*100</f>
+        <f t="shared" si="7"/>
         <v>7006</v>
       </c>
       <c r="J118" t="s">
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <f>LEN(J118)</f>
+        <f t="shared" si="8"/>
         <v>147</v>
       </c>
       <c r="O118" t="s">
@@ -8719,7 +8719,7 @@
         <v>43284</v>
       </c>
       <c r="I119">
-        <f>VALUE(MID(A119,2,6))+CODE(A119)*100</f>
+        <f t="shared" si="7"/>
         <v>7007</v>
       </c>
       <c r="J119" t="s">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f>LEN(J119)</f>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="O119" t="s">
@@ -8765,7 +8765,7 @@
         <v>43284</v>
       </c>
       <c r="I120">
-        <f>VALUE(MID(A120,2,6))+CODE(A120)*100</f>
+        <f t="shared" si="7"/>
         <v>7008</v>
       </c>
       <c r="J120" t="s">
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f>LEN(J120)</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="O120" t="s">
@@ -8808,7 +8808,7 @@
         <v>43290</v>
       </c>
       <c r="I121">
-        <f>VALUE(MID(A121,2,6))+CODE(A121)*100</f>
+        <f t="shared" si="7"/>
         <v>7009</v>
       </c>
       <c r="J121" t="s">
@@ -8824,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <f>LEN(J121)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="O121" t="s">
@@ -8854,7 +8854,7 @@
         <v>43290</v>
       </c>
       <c r="I122">
-        <f>VALUE(MID(A122,2,6))+CODE(A122)*100</f>
+        <f t="shared" si="7"/>
         <v>7010</v>
       </c>
       <c r="J122" t="s">
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <f>LEN(J122)</f>
+        <f t="shared" si="8"/>
         <v>2100</v>
       </c>
       <c r="O122" t="s">
@@ -8900,7 +8900,7 @@
         <v>43290</v>
       </c>
       <c r="I123">
-        <f>VALUE(MID(A123,2,6))+CODE(A123)*100</f>
+        <f t="shared" si="7"/>
         <v>7011</v>
       </c>
       <c r="J123" t="s">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <f>LEN(J123)</f>
+        <f t="shared" si="8"/>
         <v>2100</v>
       </c>
       <c r="O123" t="s">
@@ -8946,7 +8946,7 @@
         <v>43290</v>
       </c>
       <c r="I124">
-        <f>VALUE(MID(A124,2,6))+CODE(A124)*100</f>
+        <f t="shared" si="7"/>
         <v>7012</v>
       </c>
       <c r="J124" t="s">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <f>LEN(J124)</f>
+        <f t="shared" si="8"/>
         <v>2100</v>
       </c>
       <c r="O124" t="s">
@@ -8992,7 +8992,7 @@
         <v>43290</v>
       </c>
       <c r="I125">
-        <f>VALUE(MID(A125,2,6))+CODE(A125)*100</f>
+        <f t="shared" si="7"/>
         <v>7013</v>
       </c>
       <c r="J125" t="s">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <f>LEN(J125)</f>
+        <f t="shared" si="8"/>
         <v>2222</v>
       </c>
       <c r="O125" t="s">
@@ -9038,7 +9038,7 @@
         <v>43290</v>
       </c>
       <c r="I126">
-        <f>VALUE(MID(A126,2,6))+CODE(A126)*100</f>
+        <f t="shared" si="7"/>
         <v>7014</v>
       </c>
       <c r="J126" t="s">
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f>LEN(J126)</f>
+        <f t="shared" si="8"/>
         <v>2156</v>
       </c>
       <c r="O126" t="s">
@@ -9084,7 +9084,7 @@
         <v>43290</v>
       </c>
       <c r="I127">
-        <f>VALUE(MID(A127,2,6))+CODE(A127)*100</f>
+        <f t="shared" si="7"/>
         <v>7015</v>
       </c>
       <c r="J127" t="s">
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <f>LEN(J127)</f>
+        <f t="shared" si="8"/>
         <v>2212</v>
       </c>
       <c r="O127" t="s">
@@ -9130,7 +9130,7 @@
         <v>43290</v>
       </c>
       <c r="I128">
-        <f>VALUE(MID(A128,2,6))+CODE(A128)*100</f>
+        <f t="shared" si="7"/>
         <v>7016</v>
       </c>
       <c r="J128" t="s">
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <f>LEN(J128)</f>
+        <f t="shared" si="8"/>
         <v>2146</v>
       </c>
       <c r="O128" t="s">
@@ -9182,7 +9182,7 @@
         <v>43298</v>
       </c>
       <c r="I129">
-        <f>VALUE(MID(A129,2,6))+CODE(A129)*100</f>
+        <f t="shared" si="7"/>
         <v>7017</v>
       </c>
       <c r="J129" t="s">
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" ref="N129" si="0">LEN(J129)</f>
+        <f t="shared" ref="N129" si="9">LEN(J129)</f>
         <v>2840</v>
       </c>
       <c r="O129" t="s">
@@ -9234,7 +9234,7 @@
         <v>43298</v>
       </c>
       <c r="I130">
-        <f>VALUE(MID(A130,2,6))+CODE(A130)*100</f>
+        <f t="shared" si="7"/>
         <v>7018</v>
       </c>
       <c r="J130" t="s">
@@ -9282,7 +9282,7 @@
         <v>43188</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I139" si="1">VALUE(MID(A131,2,6))+CODE(A131)*100</f>
+        <f t="shared" ref="I131:I139" si="10">VALUE(MID(A131,2,6))+CODE(A131)*100</f>
         <v>7101</v>
       </c>
       <c r="J131" s="4" t="s">
@@ -9333,7 +9333,7 @@
         <v>43188</v>
       </c>
       <c r="I132">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7102</v>
       </c>
       <c r="J132" s="4" t="s">
@@ -9384,7 +9384,7 @@
         <v>43188</v>
       </c>
       <c r="I133">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7103</v>
       </c>
       <c r="J133" s="4" t="s">
@@ -9435,7 +9435,7 @@
         <v>43188</v>
       </c>
       <c r="I134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7104</v>
       </c>
       <c r="J134" s="4" t="s">
@@ -9486,7 +9486,7 @@
         <v>43188</v>
       </c>
       <c r="I135">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7105</v>
       </c>
       <c r="J135" s="4" t="s">
@@ -9537,7 +9537,7 @@
         <v>43299</v>
       </c>
       <c r="I136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7106</v>
       </c>
       <c r="J136" t="s">
@@ -9585,7 +9585,7 @@
         <v>43299</v>
       </c>
       <c r="I137">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7107</v>
       </c>
       <c r="J137" t="s">
@@ -9633,7 +9633,7 @@
         <v>43299</v>
       </c>
       <c r="I138">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7108</v>
       </c>
       <c r="J138" t="s">
@@ -9681,7 +9681,7 @@
         <v>43299</v>
       </c>
       <c r="I139">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7109</v>
       </c>
       <c r="J139" t="s">
@@ -9729,7 +9729,7 @@
         <v>43299</v>
       </c>
       <c r="I140">
-        <f t="shared" ref="I140" si="2">VALUE(MID(A140,2,6))+CODE(A140)*100</f>
+        <f t="shared" ref="I140" si="11">VALUE(MID(A140,2,6))+CODE(A140)*100</f>
         <v>7110</v>
       </c>
       <c r="J140" t="s">
@@ -10070,7 +10070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 G94">
+  <conditionalFormatting sqref="G94 G92">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -14012,7 +14012,7 @@
         <v>43202</v>
       </c>
       <c r="I2">
-        <f>VALUE(MID(A2,2,6))+CODE(A2)*100</f>
+        <f t="shared" ref="I2:I23" si="0">VALUE(MID(A2,2,6))+CODE(A2)*100</f>
         <v>8801</v>
       </c>
       <c r="J2" t="s">
@@ -14028,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>LEN(J2)</f>
+        <f t="shared" ref="N2:N23" si="1">LEN(J2)</f>
         <v>980</v>
       </c>
     </row>
@@ -14055,7 +14055,7 @@
         <v>43202</v>
       </c>
       <c r="I3">
-        <f>VALUE(MID(A3,2,6))+CODE(A3)*100</f>
+        <f t="shared" si="0"/>
         <v>8802</v>
       </c>
       <c r="J3" t="s">
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>LEN(J3)</f>
+        <f t="shared" si="1"/>
         <v>971</v>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
         <v>43202</v>
       </c>
       <c r="I4">
-        <f>VALUE(MID(A4,2,6))+CODE(A4)*100</f>
+        <f t="shared" si="0"/>
         <v>8803</v>
       </c>
       <c r="J4" t="s">
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>LEN(J4)</f>
+        <f t="shared" si="1"/>
         <v>971</v>
       </c>
     </row>
@@ -14141,7 +14141,7 @@
         <v>43202</v>
       </c>
       <c r="I5">
-        <f>VALUE(MID(A5,2,6))+CODE(A5)*100</f>
+        <f t="shared" si="0"/>
         <v>8804</v>
       </c>
       <c r="J5" t="s">
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f>LEN(J5)</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
@@ -14184,7 +14184,7 @@
         <v>43202</v>
       </c>
       <c r="I6">
-        <f>VALUE(MID(A6,2,6))+CODE(A6)*100</f>
+        <f t="shared" si="0"/>
         <v>8805</v>
       </c>
       <c r="J6" t="s">
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>LEN(J6)</f>
+        <f t="shared" si="1"/>
         <v>971</v>
       </c>
     </row>
@@ -14224,7 +14224,7 @@
         <v>43202</v>
       </c>
       <c r="I7">
-        <f>VALUE(MID(A7,2,6))+CODE(A7)*100</f>
+        <f t="shared" si="0"/>
         <v>8806</v>
       </c>
       <c r="J7" t="s">
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>LEN(J7)</f>
+        <f t="shared" si="1"/>
         <v>981</v>
       </c>
     </row>
@@ -14264,7 +14264,7 @@
         <v>43202</v>
       </c>
       <c r="I8">
-        <f>VALUE(MID(A8,2,6))+CODE(A8)*100</f>
+        <f t="shared" si="0"/>
         <v>8807</v>
       </c>
       <c r="J8" t="s">
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>LEN(J8)</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
@@ -14306,7 +14306,7 @@
         <v>43202</v>
       </c>
       <c r="I9">
-        <f>VALUE(MID(A9,2,6))+CODE(A9)*100</f>
+        <f t="shared" si="0"/>
         <v>8808</v>
       </c>
       <c r="J9" t="s">
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f>LEN(J9)</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
         <v>43202</v>
       </c>
       <c r="I10">
-        <f>VALUE(MID(A10,2,6))+CODE(A10)*100</f>
+        <f t="shared" si="0"/>
         <v>8809</v>
       </c>
       <c r="J10" t="s">
@@ -14364,7 +14364,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>LEN(J10)</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
@@ -14390,7 +14390,7 @@
         <v>43202</v>
       </c>
       <c r="I11">
-        <f>VALUE(MID(A11,2,6))+CODE(A11)*100</f>
+        <f t="shared" si="0"/>
         <v>8810</v>
       </c>
       <c r="J11" t="s">
@@ -14406,7 +14406,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f>LEN(J11)</f>
+        <f t="shared" si="1"/>
         <v>972</v>
       </c>
     </row>
@@ -14436,7 +14436,7 @@
         <v>43242</v>
       </c>
       <c r="I12">
-        <f>VALUE(MID(A12,2,6))+CODE(A12)*100</f>
+        <f t="shared" si="0"/>
         <v>8811</v>
       </c>
       <c r="J12" t="s">
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f>LEN(J12)</f>
+        <f t="shared" si="1"/>
         <v>2149</v>
       </c>
       <c r="O12" t="s">
@@ -14488,7 +14488,7 @@
         <v>43242</v>
       </c>
       <c r="I13">
-        <f>VALUE(MID(A13,2,6))+CODE(A13)*100</f>
+        <f t="shared" si="0"/>
         <v>8812</v>
       </c>
       <c r="J13" t="s">
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>LEN(J13)</f>
+        <f t="shared" si="1"/>
         <v>2165</v>
       </c>
       <c r="O13" t="s">
@@ -14528,7 +14528,7 @@
         <v>43287</v>
       </c>
       <c r="I14">
-        <f>VALUE(MID(A14,2,6))+CODE(A14)*100</f>
+        <f t="shared" si="0"/>
         <v>8813</v>
       </c>
       <c r="J14" t="s">
@@ -14544,7 +14544,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>LEN(J14)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -14562,7 +14562,7 @@
         <v>43287</v>
       </c>
       <c r="I15">
-        <f>VALUE(MID(A15,2,6))+CODE(A15)*100</f>
+        <f t="shared" si="0"/>
         <v>8814</v>
       </c>
       <c r="J15" t="s">
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f>LEN(J15)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
         <v>43287</v>
       </c>
       <c r="I16">
-        <f>VALUE(MID(A16,2,6))+CODE(A16)*100</f>
+        <f t="shared" si="0"/>
         <v>8815</v>
       </c>
       <c r="J16" t="s">
@@ -14612,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>LEN(J16)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -14630,7 +14630,7 @@
         <v>43287</v>
       </c>
       <c r="I17">
-        <f>VALUE(MID(A17,2,6))+CODE(A17)*100</f>
+        <f t="shared" si="0"/>
         <v>8816</v>
       </c>
       <c r="J17" t="s">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>LEN(J17)</f>
+        <f t="shared" si="1"/>
         <v>2098</v>
       </c>
     </row>
@@ -14664,7 +14664,7 @@
         <v>43287</v>
       </c>
       <c r="I18">
-        <f>VALUE(MID(A18,2,6))+CODE(A18)*100</f>
+        <f t="shared" si="0"/>
         <v>8817</v>
       </c>
       <c r="J18" t="s">
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>LEN(J18)</f>
+        <f t="shared" si="1"/>
         <v>2098</v>
       </c>
     </row>
@@ -14698,7 +14698,7 @@
         <v>43287</v>
       </c>
       <c r="I19">
-        <f>VALUE(MID(A19,2,6))+CODE(A19)*100</f>
+        <f t="shared" si="0"/>
         <v>8817</v>
       </c>
       <c r="J19" t="s">
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>LEN(J19)</f>
+        <f t="shared" si="1"/>
         <v>2098</v>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
         <v>43287</v>
       </c>
       <c r="I20">
-        <f>VALUE(MID(A20,2,6))+CODE(A20)*100</f>
+        <f t="shared" si="0"/>
         <v>8818</v>
       </c>
       <c r="J20" t="s">
@@ -14748,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f>LEN(J20)</f>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
     </row>
@@ -14766,7 +14766,7 @@
         <v>43287</v>
       </c>
       <c r="I21">
-        <f>VALUE(MID(A21,2,6))+CODE(A21)*100</f>
+        <f t="shared" si="0"/>
         <v>8819</v>
       </c>
       <c r="J21" t="s">
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f>LEN(J21)</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
@@ -14800,7 +14800,7 @@
         <v>43287</v>
       </c>
       <c r="I22">
-        <f>VALUE(MID(A22,2,6))+CODE(A22)*100</f>
+        <f t="shared" si="0"/>
         <v>8820</v>
       </c>
       <c r="J22" t="s">
@@ -14816,7 +14816,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f>LEN(J22)</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
@@ -14834,7 +14834,7 @@
         <v>43287</v>
       </c>
       <c r="I23">
-        <f>VALUE(MID(A23,2,6))+CODE(A23)*100</f>
+        <f t="shared" si="0"/>
         <v>8821</v>
       </c>
       <c r="J23" t="s">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f>LEN(J23)</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10702"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_EC8063478EBF936FFD54A2F8C57FAD2ACB3C7DE7" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{861006ED-365E-464F-8C79-344CAE70A10C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179020"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="828">
   <si>
     <t>well</t>
   </si>
@@ -2492,13 +2493,37 @@
   </si>
   <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>PtetCIDAR</t>
+  </si>
+  <si>
+    <t>Ptet from cidar library</t>
+  </si>
+  <si>
+    <t>sc3</t>
+  </si>
+  <si>
+    <t>sc2</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>GGAGTCCCTATCAGTGATAGAGATTGACATCCCTATCAGTGATAGAGATACTGAGCACTACTAGAGACCTACTAGTAGCGGCCGCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGCTTCTAGAGACTAGTGGGTCTCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECK120033736 (164.6x), short attachment </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2518,6 +2543,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2575,7 +2606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2596,7 +2627,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,27 +2909,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="J122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="R135" sqref="R135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.484375" customWidth="1"/>
+    <col min="3" max="3" width="39.14453125" customWidth="1"/>
+    <col min="4" max="4" width="9.953125" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.203125" customWidth="1"/>
+    <col min="10" max="10" width="36.58984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +3031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3050,7 +3083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3102,7 +3135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3206,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3258,7 +3291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3310,7 +3343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3362,7 +3395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3414,7 +3447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3466,7 +3499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3518,7 +3551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3570,7 +3603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3622,7 +3655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3674,7 +3707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3726,7 +3759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3778,7 +3811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3830,7 +3863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3882,7 +3915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3934,7 +3967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -3986,7 +4019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4038,7 +4071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4090,7 +4123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -4107,7 +4140,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -4142,7 +4175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4159,7 +4192,7 @@
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4194,7 +4227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4211,7 +4244,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -4246,7 +4279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4263,7 +4296,7 @@
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -4298,7 +4331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4315,7 +4348,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -4350,7 +4383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4364,7 +4397,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>823</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -4402,7 +4435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4454,7 +4487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -4506,7 +4539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -4558,7 +4591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4610,7 +4643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -4662,7 +4695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -4714,7 +4747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -4766,7 +4799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -4818,7 +4851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4870,7 +4903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -4922,7 +4955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -4974,7 +5007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -5026,7 +5059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -5078,7 +5111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5130,7 +5163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -5182,7 +5215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -5286,7 +5319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -5338,7 +5371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -5390,7 +5423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -5442,7 +5475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -5494,7 +5527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -5546,7 +5579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -5598,7 +5631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -5650,7 +5683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -5662,6 +5695,12 @@
       </c>
       <c r="D54" t="s">
         <v>146</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
       </c>
       <c r="G54" s="8">
         <v>18.190000000000001</v>
@@ -5692,7 +5731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -5704,6 +5743,12 @@
       </c>
       <c r="D55" t="s">
         <v>161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
       </c>
       <c r="G55" s="8">
         <v>20.11</v>
@@ -5734,7 +5779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5746,6 +5791,12 @@
       </c>
       <c r="D56" t="s">
         <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="s">
+        <v>110</v>
       </c>
       <c r="G56" s="8">
         <v>20.73</v>
@@ -5776,7 +5827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -5788,6 +5839,12 @@
       </c>
       <c r="D57" t="s">
         <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s">
+        <v>110</v>
       </c>
       <c r="G57" s="8">
         <v>25.48</v>
@@ -5818,7 +5875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -5830,6 +5887,12 @@
       </c>
       <c r="D58" t="s">
         <v>161</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
       </c>
       <c r="G58" s="8">
         <v>24.18</v>
@@ -5860,7 +5923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -5872,6 +5935,12 @@
       </c>
       <c r="D59" t="s">
         <v>161</v>
+      </c>
+      <c r="E59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" t="s">
+        <v>110</v>
       </c>
       <c r="G59" s="8">
         <v>22.99</v>
@@ -5902,7 +5971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -5914,6 +5983,12 @@
       </c>
       <c r="D60" t="s">
         <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>110</v>
       </c>
       <c r="G60" s="8">
         <v>25.24</v>
@@ -5944,7 +6019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -5956,6 +6031,12 @@
       </c>
       <c r="D61" t="s">
         <v>161</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
       </c>
       <c r="G61" s="8">
         <v>19.71</v>
@@ -5986,7 +6067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -6038,7 +6119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -6090,7 +6171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -6142,7 +6223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -6188,7 +6269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -6234,7 +6315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -6280,7 +6361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -6326,7 +6407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -6372,7 +6453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -6418,7 +6499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -6464,7 +6545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6516,7 +6597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -6565,7 +6646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -6614,7 +6695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -6663,7 +6744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -6712,7 +6793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -6761,7 +6842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>322</v>
       </c>
@@ -6810,7 +6891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -6855,7 +6936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -6900,7 +6981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -6945,7 +7026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>333</v>
       </c>
@@ -6990,7 +7071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -7035,7 +7116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>337</v>
       </c>
@@ -7080,7 +7161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -7125,7 +7206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -7170,7 +7251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -7222,7 +7303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -7274,7 +7355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>348</v>
       </c>
@@ -7323,7 +7404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>352</v>
       </c>
@@ -7375,7 +7456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -7424,7 +7505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -7473,7 +7554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>363</v>
       </c>
@@ -7522,7 +7603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -7571,7 +7652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -7620,7 +7701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>374</v>
       </c>
@@ -7669,7 +7750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>377</v>
       </c>
@@ -7718,7 +7799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -7767,7 +7848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -7816,7 +7897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -7865,7 +7946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -7914,7 +7995,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -7963,7 +8044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8012,7 +8093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8061,7 +8142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8110,7 +8191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>412</v>
       </c>
@@ -8159,7 +8240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>416</v>
       </c>
@@ -8211,7 +8292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -8263,7 +8344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -8285,7 +8366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>464</v>
       </c>
@@ -8297,6 +8378,12 @@
       </c>
       <c r="D110" t="s">
         <v>427</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" t="s">
+        <v>38</v>
       </c>
       <c r="G110">
         <v>30</v>
@@ -8321,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f t="shared" ref="N110:N128" si="8">LEN(J110)</f>
+        <f t="shared" ref="N110:N142" si="8">LEN(J110)</f>
         <v>562</v>
       </c>
       <c r="O110" t="s">
@@ -8331,7 +8418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -8343,6 +8430,12 @@
       </c>
       <c r="D111" t="s">
         <v>427</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
       </c>
       <c r="G111">
         <v>30</v>
@@ -8377,7 +8470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>472</v>
       </c>
@@ -8389,6 +8482,12 @@
       </c>
       <c r="D112" t="s">
         <v>427</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" t="s">
+        <v>38</v>
       </c>
       <c r="G112">
         <v>30</v>
@@ -8423,7 +8522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>476</v>
       </c>
@@ -8435,6 +8534,12 @@
       </c>
       <c r="D113" t="s">
         <v>427</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
       </c>
       <c r="G113">
         <v>30</v>
@@ -8469,7 +8574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>480</v>
       </c>
@@ -8481,6 +8586,12 @@
       </c>
       <c r="D114" t="s">
         <v>427</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
+        <v>38</v>
       </c>
       <c r="G114">
         <v>30</v>
@@ -8515,7 +8626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -8527,6 +8638,12 @@
       </c>
       <c r="D115" t="s">
         <v>427</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>38</v>
       </c>
       <c r="G115">
         <v>30</v>
@@ -8561,7 +8678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -8573,6 +8690,12 @@
       </c>
       <c r="D116" t="s">
         <v>146</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" t="s">
+        <v>106</v>
       </c>
       <c r="G116">
         <v>30</v>
@@ -8607,7 +8730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -8619,6 +8742,12 @@
       </c>
       <c r="D117" t="s">
         <v>146</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>106</v>
       </c>
       <c r="G117">
         <v>30</v>
@@ -8653,7 +8782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>494</v>
       </c>
@@ -8665,6 +8794,12 @@
       </c>
       <c r="D118" t="s">
         <v>146</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" t="s">
+        <v>106</v>
       </c>
       <c r="G118">
         <v>30</v>
@@ -8699,7 +8834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -8711,6 +8846,12 @@
       </c>
       <c r="D119" t="s">
         <v>146</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>106</v>
       </c>
       <c r="G119">
         <v>30</v>
@@ -8745,7 +8886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>500</v>
       </c>
@@ -8757,6 +8898,12 @@
       </c>
       <c r="D120" t="s">
         <v>155</v>
+      </c>
+      <c r="E120" t="s">
+        <v>106</v>
+      </c>
+      <c r="F120" t="s">
+        <v>156</v>
       </c>
       <c r="G120">
         <v>30</v>
@@ -8791,7 +8938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>533</v>
       </c>
@@ -8800,6 +8947,12 @@
       </c>
       <c r="D121" t="s">
         <v>155</v>
+      </c>
+      <c r="E121" t="s">
+        <v>106</v>
+      </c>
+      <c r="F121" t="s">
+        <v>822</v>
       </c>
       <c r="G121">
         <v>30</v>
@@ -8834,7 +8987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>536</v>
       </c>
@@ -8846,6 +8999,12 @@
       </c>
       <c r="D122" t="s">
         <v>155</v>
+      </c>
+      <c r="E122" t="s">
+        <v>106</v>
+      </c>
+      <c r="F122" t="s">
+        <v>822</v>
       </c>
       <c r="G122">
         <v>22.7</v>
@@ -8880,7 +9039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>540</v>
       </c>
@@ -8892,6 +9051,12 @@
       </c>
       <c r="D123" t="s">
         <v>155</v>
+      </c>
+      <c r="E123" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" t="s">
+        <v>822</v>
       </c>
       <c r="G123">
         <v>37.4</v>
@@ -8926,7 +9091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>543</v>
       </c>
@@ -8938,6 +9103,12 @@
       </c>
       <c r="D124" t="s">
         <v>155</v>
+      </c>
+      <c r="E124" t="s">
+        <v>106</v>
+      </c>
+      <c r="F124" t="s">
+        <v>822</v>
       </c>
       <c r="G124">
         <v>23.5</v>
@@ -8972,7 +9143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>546</v>
       </c>
@@ -8984,6 +9155,12 @@
       </c>
       <c r="D125" t="s">
         <v>161</v>
+      </c>
+      <c r="E125" t="s">
+        <v>822</v>
+      </c>
+      <c r="F125" t="s">
+        <v>110</v>
       </c>
       <c r="G125">
         <v>44</v>
@@ -9018,7 +9195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>549</v>
       </c>
@@ -9030,6 +9207,12 @@
       </c>
       <c r="D126" t="s">
         <v>819</v>
+      </c>
+      <c r="E126" t="s">
+        <v>106</v>
+      </c>
+      <c r="F126" t="s">
+        <v>110</v>
       </c>
       <c r="G126">
         <v>32.799999999999997</v>
@@ -9064,7 +9247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>552</v>
       </c>
@@ -9076,6 +9259,12 @@
       </c>
       <c r="D127" t="s">
         <v>161</v>
+      </c>
+      <c r="E127" t="s">
+        <v>822</v>
+      </c>
+      <c r="F127" t="s">
+        <v>110</v>
       </c>
       <c r="G127">
         <v>20.8</v>
@@ -9110,7 +9299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>555</v>
       </c>
@@ -9122,6 +9311,12 @@
       </c>
       <c r="D128" t="s">
         <v>819</v>
+      </c>
+      <c r="E128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F128" t="s">
+        <v>110</v>
       </c>
       <c r="G128">
         <v>32</v>
@@ -9156,7 +9351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>558</v>
       </c>
@@ -9198,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <f t="shared" ref="N129" si="9">LEN(J129)</f>
+        <f t="shared" si="8"/>
         <v>2840</v>
       </c>
       <c r="O129" t="s">
@@ -9208,7 +9403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>562</v>
       </c>
@@ -9249,6 +9444,10 @@
       <c r="M130">
         <v>0</v>
       </c>
+      <c r="N130">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
       <c r="O130" t="s">
         <v>23</v>
       </c>
@@ -9256,7 +9455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>566</v>
       </c>
@@ -9282,7 +9481,7 @@
         <v>43188</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I139" si="10">VALUE(MID(A131,2,6))+CODE(A131)*100</f>
+        <f t="shared" ref="I131:I139" si="9">VALUE(MID(A131,2,6))+CODE(A131)*100</f>
         <v>7101</v>
       </c>
       <c r="J131" s="4" t="s">
@@ -9297,7 +9496,8 @@
       <c r="M131" s="4">
         <v>0</v>
       </c>
-      <c r="N131" s="4">
+      <c r="N131">
+        <f t="shared" si="8"/>
         <v>2824</v>
       </c>
       <c r="O131" t="s">
@@ -9307,7 +9507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>569</v>
       </c>
@@ -9333,7 +9533,7 @@
         <v>43188</v>
       </c>
       <c r="I132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7102</v>
       </c>
       <c r="J132" s="4" t="s">
@@ -9348,7 +9548,8 @@
       <c r="M132" s="4">
         <v>0</v>
       </c>
-      <c r="N132" s="4">
+      <c r="N132">
+        <f t="shared" si="8"/>
         <v>2860</v>
       </c>
       <c r="O132" t="s">
@@ -9358,7 +9559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>572</v>
       </c>
@@ -9384,7 +9585,7 @@
         <v>43188</v>
       </c>
       <c r="I133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7103</v>
       </c>
       <c r="J133" s="4" t="s">
@@ -9399,7 +9600,8 @@
       <c r="M133" s="4">
         <v>0</v>
       </c>
-      <c r="N133" s="4">
+      <c r="N133">
+        <f t="shared" si="8"/>
         <v>3007</v>
       </c>
       <c r="O133" t="s">
@@ -9409,7 +9611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>575</v>
       </c>
@@ -9435,7 +9637,7 @@
         <v>43188</v>
       </c>
       <c r="I134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7104</v>
       </c>
       <c r="J134" s="4" t="s">
@@ -9450,7 +9652,8 @@
       <c r="M134" s="4">
         <v>0</v>
       </c>
-      <c r="N134" s="4">
+      <c r="N134">
+        <f t="shared" si="8"/>
         <v>3187</v>
       </c>
       <c r="O134" t="s">
@@ -9460,7 +9663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>579</v>
       </c>
@@ -9486,7 +9689,7 @@
         <v>43188</v>
       </c>
       <c r="I135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7105</v>
       </c>
       <c r="J135" s="4" t="s">
@@ -9501,7 +9704,8 @@
       <c r="M135" s="4">
         <v>0</v>
       </c>
-      <c r="N135" s="4">
+      <c r="N135">
+        <f t="shared" si="8"/>
         <v>2858</v>
       </c>
       <c r="O135" t="s">
@@ -9511,7 +9715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>582</v>
       </c>
@@ -9537,7 +9741,7 @@
         <v>43299</v>
       </c>
       <c r="I136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7106</v>
       </c>
       <c r="J136" t="s">
@@ -9552,6 +9756,10 @@
       <c r="M136" s="4">
         <v>0</v>
       </c>
+      <c r="N136">
+        <f t="shared" si="8"/>
+        <v>2349</v>
+      </c>
       <c r="O136" t="s">
         <v>23</v>
       </c>
@@ -9559,7 +9767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>585</v>
       </c>
@@ -9585,7 +9793,7 @@
         <v>43299</v>
       </c>
       <c r="I137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7107</v>
       </c>
       <c r="J137" t="s">
@@ -9600,6 +9808,10 @@
       <c r="M137" s="4">
         <v>0</v>
       </c>
+      <c r="N137">
+        <f t="shared" si="8"/>
+        <v>2349</v>
+      </c>
       <c r="O137" t="s">
         <v>23</v>
       </c>
@@ -9607,7 +9819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>588</v>
       </c>
@@ -9633,7 +9845,7 @@
         <v>43299</v>
       </c>
       <c r="I138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7108</v>
       </c>
       <c r="J138" t="s">
@@ -9648,6 +9860,10 @@
       <c r="M138" s="4">
         <v>0</v>
       </c>
+      <c r="N138">
+        <f t="shared" si="8"/>
+        <v>2349</v>
+      </c>
       <c r="O138" t="s">
         <v>23</v>
       </c>
@@ -9655,7 +9871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>591</v>
       </c>
@@ -9681,7 +9897,7 @@
         <v>43299</v>
       </c>
       <c r="I139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7109</v>
       </c>
       <c r="J139" t="s">
@@ -9696,6 +9912,10 @@
       <c r="M139" s="4">
         <v>0</v>
       </c>
+      <c r="N139">
+        <f t="shared" si="8"/>
+        <v>2349</v>
+      </c>
       <c r="O139" t="s">
         <v>23</v>
       </c>
@@ -9703,7 +9923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>594</v>
       </c>
@@ -9729,7 +9949,7 @@
         <v>43299</v>
       </c>
       <c r="I140">
-        <f t="shared" ref="I140" si="11">VALUE(MID(A140,2,6))+CODE(A140)*100</f>
+        <f t="shared" ref="I140" si="10">VALUE(MID(A140,2,6))+CODE(A140)*100</f>
         <v>7110</v>
       </c>
       <c r="J140" t="s">
@@ -9744,6 +9964,10 @@
       <c r="M140" s="4">
         <v>0</v>
       </c>
+      <c r="N140">
+        <f t="shared" si="8"/>
+        <v>2349</v>
+      </c>
       <c r="O140" t="s">
         <v>23</v>
       </c>
@@ -9751,43 +9975,142 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>824</v>
+      </c>
+      <c r="B141" t="s">
+        <v>820</v>
+      </c>
+      <c r="C141" t="s">
+        <v>821</v>
+      </c>
+      <c r="D141" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>106</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141" s="3">
+        <v>43301</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="K141" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="8"/>
+        <v>2162</v>
+      </c>
+      <c r="O141" t="s">
+        <v>23</v>
+      </c>
+      <c r="P141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>825</v>
+      </c>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" s="12">
+        <v>30</v>
+      </c>
+      <c r="H142" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I142" s="12">
+        <v>7103</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K142" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" s="12">
+        <v>0</v>
+      </c>
+      <c r="M142" s="12">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="8"/>
+        <v>2171</v>
+      </c>
+      <c r="O142" t="s">
+        <v>23</v>
+      </c>
+      <c r="P142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H143" s="3"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H144" s="3"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H145" s="3"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H146" s="3"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H147" s="3"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H148" s="3"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H149" s="3"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H150" s="3"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H151" s="3"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -9801,7 +10124,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -9815,7 +10138,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -9829,7 +10152,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -9843,7 +10166,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -9857,7 +10180,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -9871,7 +10194,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -9885,7 +10208,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -9898,7 +10221,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -9910,7 +10233,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -9922,60 +10245,60 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H162" s="3"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H163" s="3"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H164" s="3"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O175" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O175">
+  <autoFilter ref="A1:O175" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:O197">
       <sortCondition ref="I1:I197"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G55:G72 G78:G84 G95:G101 G1:G46 G143:G1048576 G110:G140">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
@@ -9987,6 +10310,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G54">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -9998,7 +10333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
+  <conditionalFormatting sqref="G74">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -10010,7 +10345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
+  <conditionalFormatting sqref="G75">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -10022,7 +10357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75">
+  <conditionalFormatting sqref="G77">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -10034,7 +10369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
+  <conditionalFormatting sqref="G85">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -10046,20 +10381,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G86:G91 G93">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
@@ -10070,8 +10393,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94 G92">
-    <cfRule type="colorScale" priority="203">
+  <conditionalFormatting sqref="G92 G94">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10083,6 +10406,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G103:G107">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108:G109">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -10094,32 +10441,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G103:G107">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G109">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O3:O120">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10131,7 +10454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10143,6 +10466,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O122:O128">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O129">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O130">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10154,7 +10501,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O129">
+  <conditionalFormatting sqref="O143:O1048576 O1:O2 P1">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O131:O140">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10166,7 +10525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O130">
+  <conditionalFormatting sqref="O141">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -10178,19 +10537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O143:O1048576 O1:O2 P1">
-    <cfRule type="colorScale" priority="230">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O131:O140">
+  <conditionalFormatting sqref="O142">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -10208,25 +10555,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.2578125" customWidth="1"/>
+    <col min="3" max="3" width="9.14453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.4375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10276,7 +10623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -10316,7 +10663,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -10350,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -10390,7 +10737,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -10430,7 +10777,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -10470,7 +10817,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -10504,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>453</v>
       </c>
@@ -10538,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -10572,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>620</v>
       </c>
@@ -10606,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>623</v>
       </c>
@@ -10649,7 +10996,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -10692,7 +11039,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -10735,7 +11082,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>634</v>
       </c>
@@ -10778,7 +11125,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>637</v>
       </c>
@@ -10821,7 +11168,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>640</v>
       </c>
@@ -10864,7 +11211,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -10907,7 +11254,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>646</v>
       </c>
@@ -10950,7 +11297,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>649</v>
       </c>
@@ -10993,7 +11340,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -11036,7 +11383,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>656</v>
       </c>
@@ -11079,7 +11426,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>659</v>
       </c>
@@ -11122,7 +11469,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -11165,7 +11512,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>665</v>
       </c>
@@ -11208,7 +11555,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>668</v>
       </c>
@@ -11251,7 +11598,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>671</v>
       </c>
@@ -11294,7 +11641,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>674</v>
       </c>
@@ -11337,7 +11684,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>677</v>
       </c>
@@ -11375,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>681</v>
       </c>
@@ -11415,7 +11762,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>684</v>
       </c>
@@ -11455,7 +11802,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>687</v>
       </c>
@@ -11495,7 +11842,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>690</v>
       </c>
@@ -11535,7 +11882,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>693</v>
       </c>
@@ -11575,7 +11922,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>696</v>
       </c>
@@ -11615,7 +11962,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>699</v>
       </c>
@@ -11655,7 +12002,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>702</v>
       </c>
@@ -11695,7 +12042,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -11735,7 +12082,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -11775,7 +12122,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>711</v>
       </c>
@@ -11815,7 +12162,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -11855,7 +12202,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>717</v>
       </c>
@@ -11895,7 +12242,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>720</v>
       </c>
@@ -11935,7 +12282,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -11973,7 +12320,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -12011,7 +12358,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -12049,7 +12396,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -12087,7 +12434,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -12125,7 +12472,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>733</v>
       </c>
@@ -12157,7 +12504,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>734</v>
       </c>
@@ -12189,7 +12536,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>735</v>
       </c>
@@ -12221,7 +12568,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>736</v>
       </c>
@@ -12253,7 +12600,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -12291,7 +12638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -12329,7 +12676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -12367,7 +12714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -12405,7 +12752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -12443,7 +12790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -12481,7 +12828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -12519,7 +12866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -12557,7 +12904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -12595,7 +12942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -12642,7 +12989,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -12689,7 +13036,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -12736,7 +13083,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -12783,7 +13130,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -12830,7 +13177,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -12877,7 +13224,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -12924,7 +13271,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -12971,7 +13318,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -13018,7 +13365,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -13065,7 +13412,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -13112,7 +13459,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -13159,7 +13506,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -13206,7 +13553,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -13253,7 +13600,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -13300,17 +13647,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="13"/>
       <c r="E76" t="str">
         <f t="shared" ref="E76:E79" si="9">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
         <v>UNS5</v>
@@ -13347,17 +13694,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="13"/>
       <c r="E77" t="str">
         <f t="shared" si="9"/>
         <v>UNS4</v>
@@ -13394,17 +13741,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="13"/>
       <c r="E78" t="str">
         <f t="shared" si="9"/>
         <v>UNS5</v>
@@ -13441,17 +13788,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="13"/>
       <c r="E79" t="str">
         <f t="shared" si="9"/>
         <v>UNS4</v>
@@ -13488,7 +13835,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>143</v>
       </c>
@@ -13531,7 +13878,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -13574,7 +13921,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>152</v>
       </c>
@@ -13618,7 +13965,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P82"/>
+  <autoFilter ref="A1:P82" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
@@ -13930,16 +14277,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13989,7 +14336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -14032,7 +14379,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -14075,7 +14422,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -14118,7 +14465,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -14161,7 +14508,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -14204,7 +14551,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14244,7 +14591,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -14284,7 +14631,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -14326,7 +14673,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -14368,7 +14715,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>453</v>
       </c>
@@ -14410,7 +14757,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -14462,7 +14809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -14514,7 +14861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -14548,7 +14895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>507</v>
       </c>
@@ -14582,7 +14929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -14616,7 +14963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>513</v>
       </c>
@@ -14650,7 +14997,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>516</v>
       </c>
@@ -14684,7 +15031,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -14718,7 +15065,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -14752,7 +15099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -14786,7 +15133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>527</v>
       </c>
@@ -14820,7 +15167,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -15004,16 +15351,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>798</v>
       </c>
@@ -15024,7 +15371,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>801</v>
       </c>
@@ -15035,7 +15382,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>801</v>
       </c>
@@ -15046,7 +15393,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -15057,7 +15404,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>805</v>
       </c>
@@ -15068,7 +15415,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>804</v>
       </c>
@@ -15079,7 +15426,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>805</v>
       </c>
@@ -15096,17 +15443,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -15180,7 +15527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -15257,7 +15604,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -15334,7 +15681,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -15411,7 +15758,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -15488,7 +15835,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -15565,7 +15912,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -15642,7 +15989,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -15719,7 +16066,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>807</v>
       </c>
@@ -15796,7 +16143,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -15873,7 +16220,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>808</v>
       </c>
@@ -15950,7 +16297,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>809</v>
       </c>
@@ -16027,7 +16374,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>810</v>
       </c>
@@ -16104,7 +16451,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>811</v>
       </c>
@@ -16181,7 +16528,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>812</v>
       </c>
@@ -16258,7 +16605,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>813</v>
       </c>
@@ -16335,7 +16682,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>814</v>
       </c>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\makeMocloAssy\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_EC8063478EBF936FFD54A2F8C57FAD2ACB3C7DE7" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{861006ED-365E-464F-8C79-344CAE70A10C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="830">
   <si>
     <t>well</t>
   </si>
@@ -2517,12 +2516,18 @@
   </si>
   <si>
     <t xml:space="preserve">ECK120033736 (164.6x), short attachment </t>
+  </si>
+  <si>
+    <t>strongWeissRBS2</t>
+  </si>
+  <si>
+    <t>T2m2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2628,8 +2633,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2909,27 +2914,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="J122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="R135" sqref="R135"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.484375" customWidth="1"/>
-    <col min="3" max="3" width="39.14453125" customWidth="1"/>
-    <col min="4" max="4" width="9.953125" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.203125" customWidth="1"/>
-    <col min="10" max="10" width="36.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3291,7 +3296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3343,7 +3348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3395,7 +3400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3551,7 +3556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3603,7 +3608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3655,7 +3660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4071,7 +4076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4435,7 +4440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4487,7 +4492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4643,7 +4648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -4695,7 +4700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -5527,7 +5532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -5579,7 +5584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -5683,7 +5688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -5731,7 +5736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -5875,7 +5880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -5923,7 +5928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -6019,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -6119,7 +6124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -6269,7 +6274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -6453,7 +6458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -6499,7 +6504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -6646,7 +6651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -6695,7 +6700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -6744,7 +6749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -6793,7 +6798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>322</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -6981,7 +6986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>333</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -7116,7 +7121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>337</v>
       </c>
@@ -7161,7 +7166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -7206,7 +7211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -7251,12 +7256,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>828</v>
       </c>
       <c r="C87" t="s">
         <v>210</v>
@@ -7303,7 +7308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -7355,7 +7360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>348</v>
       </c>
@@ -7404,7 +7409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>352</v>
       </c>
@@ -7456,7 +7461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -7554,7 +7559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>363</v>
       </c>
@@ -7603,7 +7608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -7652,7 +7657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>374</v>
       </c>
@@ -7750,7 +7755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>377</v>
       </c>
@@ -7799,7 +7804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -7848,7 +7853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -7897,7 +7902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -8044,7 +8049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8142,7 +8147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8191,7 +8196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>412</v>
       </c>
@@ -8240,7 +8245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>416</v>
       </c>
@@ -8292,7 +8297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -8366,7 +8371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>464</v>
       </c>
@@ -8418,7 +8423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -8470,7 +8475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>472</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>476</v>
       </c>
@@ -8574,7 +8579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>480</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -8782,7 +8787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>494</v>
       </c>
@@ -8834,7 +8839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -8886,7 +8891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>500</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>533</v>
       </c>
@@ -8987,7 +8992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>536</v>
       </c>
@@ -9039,7 +9044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>540</v>
       </c>
@@ -9091,7 +9096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>543</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>546</v>
       </c>
@@ -9195,7 +9200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>549</v>
       </c>
@@ -9247,7 +9252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>552</v>
       </c>
@@ -9299,7 +9304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>555</v>
       </c>
@@ -9351,7 +9356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>558</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>562</v>
       </c>
@@ -9455,7 +9460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>566</v>
       </c>
@@ -9507,7 +9512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>569</v>
       </c>
@@ -9559,7 +9564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>572</v>
       </c>
@@ -9611,7 +9616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>575</v>
       </c>
@@ -9663,7 +9668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>579</v>
       </c>
@@ -9715,7 +9720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>582</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>585</v>
       </c>
@@ -9819,7 +9824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>588</v>
       </c>
@@ -9871,7 +9876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>591</v>
       </c>
@@ -9923,7 +9928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>594</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>824</v>
       </c>
@@ -10023,12 +10028,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>825</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>829</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>827</v>
@@ -10051,7 +10056,7 @@
       <c r="I142" s="12">
         <v>7103</v>
       </c>
-      <c r="J142" s="14" t="s">
+      <c r="J142" s="13" t="s">
         <v>167</v>
       </c>
       <c r="K142" s="12" t="b">
@@ -10074,43 +10079,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H143" s="3"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H144" s="3"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H145" s="3"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H146" s="3"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H147" s="3"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H148" s="3"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H149" s="3"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H150" s="3"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H151" s="3"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -10124,7 +10129,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -10138,7 +10143,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -10152,7 +10157,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -10166,7 +10171,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -10180,7 +10185,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -10194,7 +10199,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -10208,7 +10213,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10221,7 +10226,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10233,7 +10238,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -10245,54 +10250,54 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H162" s="3"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H163" s="3"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H164" s="3"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O175" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O175" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O175">
     <sortState ref="A2:O197">
       <sortCondition ref="I1:I197"/>
     </sortState>
@@ -10393,7 +10398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 G94">
+  <conditionalFormatting sqref="G94 G92">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10555,25 +10560,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.2578125" customWidth="1"/>
-    <col min="3" max="3" width="9.14453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -10663,7 +10668,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -10697,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -10737,7 +10742,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -10777,7 +10782,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -10817,7 +10822,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -10851,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>453</v>
       </c>
@@ -10885,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -10919,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>620</v>
       </c>
@@ -10953,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>623</v>
       </c>
@@ -10996,7 +11001,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -11039,7 +11044,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -11082,7 +11087,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>634</v>
       </c>
@@ -11125,7 +11130,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>637</v>
       </c>
@@ -11168,7 +11173,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>640</v>
       </c>
@@ -11211,7 +11216,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>646</v>
       </c>
@@ -11297,7 +11302,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>649</v>
       </c>
@@ -11340,7 +11345,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -11383,7 +11388,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>656</v>
       </c>
@@ -11426,7 +11431,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>659</v>
       </c>
@@ -11469,7 +11474,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -11512,7 +11517,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>665</v>
       </c>
@@ -11555,7 +11560,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>668</v>
       </c>
@@ -11598,7 +11603,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>671</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>674</v>
       </c>
@@ -11684,7 +11689,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>677</v>
       </c>
@@ -11722,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>681</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>684</v>
       </c>
@@ -11802,7 +11807,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>687</v>
       </c>
@@ -11842,7 +11847,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>690</v>
       </c>
@@ -11882,7 +11887,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>693</v>
       </c>
@@ -11922,7 +11927,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>696</v>
       </c>
@@ -11962,7 +11967,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>699</v>
       </c>
@@ -12002,7 +12007,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>702</v>
       </c>
@@ -12042,7 +12047,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -12082,7 +12087,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -12122,7 +12127,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>711</v>
       </c>
@@ -12162,7 +12167,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -12202,7 +12207,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>717</v>
       </c>
@@ -12242,7 +12247,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>720</v>
       </c>
@@ -12282,7 +12287,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -12320,7 +12325,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -12358,7 +12363,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -12396,7 +12401,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -12434,7 +12439,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -12472,7 +12477,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>733</v>
       </c>
@@ -12504,7 +12509,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>734</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>735</v>
       </c>
@@ -12568,7 +12573,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>736</v>
       </c>
@@ -12600,7 +12605,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -12638,7 +12643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -12676,7 +12681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -12714,7 +12719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -12752,7 +12757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -12790,7 +12795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -12828,7 +12833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -12866,7 +12871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -12904,7 +12909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -12942,7 +12947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -12989,7 +12994,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -13036,7 +13041,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -13083,7 +13088,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -13130,7 +13135,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -13177,7 +13182,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -13224,7 +13229,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -13271,7 +13276,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -13365,7 +13370,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -13412,7 +13417,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -13459,7 +13464,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -13506,7 +13511,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -13553,7 +13558,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -13600,7 +13605,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -13647,17 +13652,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="14"/>
       <c r="E76" t="str">
         <f t="shared" ref="E76:E79" si="9">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
         <v>UNS5</v>
@@ -13694,17 +13699,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="D77" s="13"/>
+      <c r="D77" s="14"/>
       <c r="E77" t="str">
         <f t="shared" si="9"/>
         <v>UNS4</v>
@@ -13741,17 +13746,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="D78" s="13"/>
+      <c r="D78" s="14"/>
       <c r="E78" t="str">
         <f t="shared" si="9"/>
         <v>UNS5</v>
@@ -13788,17 +13793,17 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="D79" s="13"/>
+      <c r="D79" s="14"/>
       <c r="E79" t="str">
         <f t="shared" si="9"/>
         <v>UNS4</v>
@@ -13835,7 +13840,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>143</v>
       </c>
@@ -13878,7 +13883,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -13921,7 +13926,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>152</v>
       </c>
@@ -13965,7 +13970,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P82" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P82"/>
   <mergeCells count="4">
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="C77:D77"/>
@@ -14277,16 +14282,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14336,7 +14341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -14379,7 +14384,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -14422,7 +14427,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -14465,7 +14470,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -14508,7 +14513,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -14551,7 +14556,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14591,7 +14596,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -14631,7 +14636,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -14673,7 +14678,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -14715,7 +14720,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>453</v>
       </c>
@@ -14757,7 +14762,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -14809,7 +14814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -14861,7 +14866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -14895,7 +14900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>507</v>
       </c>
@@ -14929,7 +14934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -14963,7 +14968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>513</v>
       </c>
@@ -14997,7 +15002,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>516</v>
       </c>
@@ -15031,7 +15036,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -15065,7 +15070,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -15099,7 +15104,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -15133,7 +15138,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>527</v>
       </c>
@@ -15167,7 +15172,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -15351,16 +15356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>798</v>
       </c>
@@ -15371,7 +15376,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>801</v>
       </c>
@@ -15382,7 +15387,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>801</v>
       </c>
@@ -15393,7 +15398,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -15404,7 +15409,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>805</v>
       </c>
@@ -15415,7 +15420,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>804</v>
       </c>
@@ -15426,7 +15431,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>805</v>
       </c>
@@ -15443,17 +15448,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -15604,7 +15609,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -15681,7 +15686,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -15758,7 +15763,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -15835,7 +15840,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -15912,7 +15917,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -15989,7 +15994,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -16066,7 +16071,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>807</v>
       </c>
@@ -16143,7 +16148,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -16220,7 +16225,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>808</v>
       </c>
@@ -16297,7 +16302,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>809</v>
       </c>
@@ -16374,7 +16379,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>810</v>
       </c>
@@ -16451,7 +16456,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>811</v>
       </c>
@@ -16528,7 +16533,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>812</v>
       </c>
@@ -16605,7 +16610,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>813</v>
       </c>
@@ -16682,7 +16687,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>814</v>
       </c>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\makeMocloAssy\partslist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjukul99/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22125" windowHeight="1260" tabRatio="799"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -22,9 +22,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="854">
   <si>
     <t>well</t>
   </si>
@@ -2522,6 +2528,78 @@
   </si>
   <si>
     <t>T2m2</t>
+  </si>
+  <si>
+    <t>iscei_med_4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactagagtcacacaggaaagtactaaatgcatcaaaaaaaccaggtaatgaacctgggtccgaactctaaactgctgaaagaatacaaatcccagctgatcgaactgaacatcgaacagttcgaagcaggtatcggtctgatcctgggtgatgcttacatccgttctcgtgatgaaggtaaaacctactgtatgcagttcgagtggaaaaacaaagcatacatggaccacgtatgtctgctgtacgatcagtgggtactgtccccgccgcacaaaaaagaacgtgttaaccacctgggtaacctggtaatcacctggggcgcccagactttcaaacaccaagctttcaacaaactggctaacctgttcatcgttaacaacaaaaaaaccatcccgaacaacctggttgaaaactacctgaccccgatgtctctggcatactggttcatggatgatggtggtaaatgggattacaacaaaaactctaccaacaaatcgatcgtactgaacacccagtctttcactttcgaagaagtagaatacctggttaagggtctgcgtaacaaattccaactgaactgttacgtaaaaatcaacaaaaacaaaccgatcatctacatcgattctatgtcttacctgatcttctacaacctgatcaaaccgtacctgatcccgcagatgatgtacaaactgccgaacactatctcctccgaaactttcctgaaagcagcgaacgacgaaaattacgcccttgcagcgtaaaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>NahR_5-X</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtacggtcggtaccaaagacgaacaataagacgctgaaaagcgtcttttttcgttttggtcccggcttccaggatacatagattaccacaactccgagcccttccacc</t>
+  </si>
+  <si>
+    <t>amyE3_5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagatgatatccgtttaggctgggcggtgatagcttctcgttcaggcagtacgcctcttttcttttccagacctgagggaggcggaaatggtgtgaggttcccggggaaaagccaaataggcgatcgcgggagtgctttatttgaagatcaggctatcactgcggtcaatagatttcacaatgtgatggctggacagcctgaggaactctcgaacccgaatggaaacaaccagatatttatgaatcagcgcggctcacatggcgttgtgctggcaaatgcaggttcatcctctgtctctatcaatacggcaacaaaattgcctgatggcaggtatgacaataaagctggagcgggttcatttcaagtgaacgatggtaaactgacaggcacgatcaatgccaggtctgtagctgtgctttatcctgatgatattgcaaaagcgcctcatgttttccttgagaattacaaaacaggtgtaacacattctttcaatgatcaactgacgattaccttgcgtgcagatgcgaatacaacaaaagccgtttatcaaatcaataatggaccagagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>rrnO3_5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagacagtggtaggagagcgttctaagggctgtgaagccagaccggaaggactggtggagcgcttagaagtgagaatgccggtatgagtagcgaaagaggggtgagaatcccctccaccgaatgcctaaggtttcctgaggaaggctcgtccgctcagggttagtcgggacctaagccgaggccgaaaggcgtaggcgatggacaacaggttgatattcctgtaccacctcctcaccatttgagcaatggggggacgcaggaggatagggtaagcgcggtattggatatccgcgtccaagcagttaggctgggaaataggcaaatccgtttcccataaggctgagctgtgatggcgagcgaaatatagtagcgaagttcctgattccacactgccaagaaaagcctctagcgaggtgagaggtgcccgtaccgcaaaccgacacaggtaggcgaggagagaatcctaaggtgatcgagagaactctcgttagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>P43_GFP_3-4</t>
+  </si>
+  <si>
+    <t>Pveg_GFP_3-4</t>
+  </si>
+  <si>
+    <t>gcactgaaggtcctcaatcgcactggaaacatcaaggtcgggagaattttgtcaaaataattttattgacaacgtcttattaacgttgatataatttaaattttatttgacaaaaatgggctcgtgttgtacaataaatgttactatattaagaggaggagaactactaatgcgtaaaggcgaagagctgttcactggtgtcgtccctattctggtggaactggatggtgatgtcaacggtcataagttttccgtgcgtggcgagggtgaaggtgacgcaactaatggtaaactgacgctgaagttcatctgtactactggtaaactgccggtaccttggccgactctggtaacgacgctgacttatggtgttcagtgctttgctcgttatccggaccatatgaagcagcatgacttcttcaagtccgccatgccggaaggctatgtgcaggaacgcacgatttcctttaaggatgacggcacgtacaaaacgcgtgcggaagtgaaatttgaaggcgataccctggtaaaccgcattgagctgaaaggcattgactttaaagaagatggcaatatcctgggccataagctggaatacaattttaacagccacaatgtttacatcaccgccgataaacaaaaaaatggcattaaagcgaattttaaaattcgccacaacgtggaggatggcagcgtgcagctggctgatcactaccagcaaaacactccaatcggtgatggtcctgttctgctgccagacaatcactatctgagcacgcaaagcgttctgtctaaagatccgaacgagaaacgcgatcatatggttctgctggagttcgtaaccgcagcgggcatcacgcatggtatggatgaactgtacaaatgatgaaggtctaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcccttgagagcttctgacctcctgccagcaatagtaagacaacacgcaaagtc</t>
+  </si>
+  <si>
+    <t>Pspac_GFP_3-4</t>
+  </si>
+  <si>
+    <t>gcactgaaggtcctcaatcgcactggaaacatcaaggtcgggagagaacaacctctgctaaaattcctgaaaaattttgcaaaaagttgttgactttatctacaaggtgtggcataatgtgtggaattgtgagcgctcacaattaagctttactatattaagaggaggagaactactaatgcgtaaaggcgaagagctgttcactggtgtcgtccctattctggtggaactggatggtgatgtcaacggtcataagttttccgtgcgtggcgagggtgaaggtgacgcaactaatggtaaactgacgctgaagttcatctgtactactggtaaactgccggtaccttggccgactctggtaacgacgctgacttatggtgttcagtgctttgctcgttatccggaccatatgaagcagcatgacttcttcaagtccgccatgccggaaggctatgtgcaggaacgcacgatttcctttaaggatgacggcacgtacaaaacgcgtgcggaagtgaaatttgaaggcgataccctggtaaaccgcattgagctgaaaggcattgactttaaagaagatggcaatatcctgggccataagctggaatacaattttaacagccacaatgtttacatcaccgccgataaacaaaaaaatggcattaaagcgaattttaaaattcgccacaacgtggaggatggcagcgtgcagctggctgatcactaccagcaaaacactccaatcggtgatggtcctgttctgctgccagacaatcactatctgagcacgcaaagcgttctgtctaaagatccgaacgagaaacgcgatcatatggttctgctggagttcgtaaccgcagcgggcatcacgcatggtatggatgaactgtacaaatgatgaaggtctaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcccttgagagcttctgacctcctgccagcaatagtaagacaacacgcaaagtc</t>
+  </si>
+  <si>
+    <t>PliaG_GFP_3-4</t>
+  </si>
+  <si>
+    <t>gcactgaaggtcctcaatcgcactggaaacatcaaggtcgggagcaaaaatcagaccagacaaaagcggcaaatgaataagcggaacggggaaggatttgcggtcaagtccttcccttccgcacgtatcaattcgcaagcttttcctttataatagaatgaatgatactatattaagaggaggagaactactaatgcgtaaaggcgaagagctgttcactggtgtcgtccctattctggtggaactggatggtgatgtcaacggtcataagttttccgtgcgtggcgagggtgaaggtgacgcaactaatggtaaactgacgctgaagttcatctgtactactggtaaactgccggtaccttggccgactctggtaacgacgctgacttatggtgttcagtgctttgctcgttatccggaccatatgaagcagcatgacttcttcaagtccgccatgccggaaggctatgtgcaggaacgcacgatttcctttaaggatgacggcacgtacaaaacgcgtgcggaagtgaaatttgaaggcgataccctggtaaaccgcattgagctgaaaggcattgactttaaagaagatggcaatatcctgggccataagctggaatacaattttaacagccacaatgtttacatcaccgccgataaacaaaaaaatggcattaaagcgaattttaaaattcgccacaacgtggaggatggcagcgtgcagctggctgatcactaccagcaaaacactccaatcggtgatggtcctgttctgctgccagacaatcactatctgagcacgcaaagcgttctgtctaaagatccgaacgagaaacgcgatcatatggttctgctggagttcgtaaccgcagcgggcatcacgcatggtatggatgaactgtacaaatgatgaaggtctaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcccttgagagcttctgacctcctgccagcaatagtaagacaacacgcaaagtc</t>
+  </si>
+  <si>
+    <t>iscei_site_6-X</t>
+  </si>
+  <si>
+    <t>ctcgttcgctgccacctaagaatactctacggtcacatacggagtagggataacagggtaataggttctcggtaccaaattccagaaaagagacgctttcgagcgtcttttttcgttttggtccgcttccaggatacatagattaccacaactccgagcccttccacc</t>
+  </si>
+  <si>
+    <t>iscei_weak_4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactagagtcacacaggactactaaatgcatcaaaaaaaccaggtaatgaacctgggtccgaactctaaactgctgaaagaatacaaatcccagctgatcgaactgaacatcgaacagttcgaagcaggtatcggtctgatcctgggtgatgcttacatccgttctcgtgatgaaggtaaaacctactgtatgcagttcgagtggaaaaacaaagcatacatggaccacgtatgtctgctgtacgatcagtgggtactgtccccgccgcacaaaaaagaacgtgttaaccacctgggtaacctggtaatcacctggggcgcccagactttcaaacaccaagctttcaacaaactggctaacctgttcatcgttaacaacaaaaaaaccatcccgaacaacctggttgaaaactacctgaccccgatgtctctggcatactggttcatggatgatggtggtaaatgggattacaacaaaaactctaccaacaaatcgatcgtactgaacacccagtctttcactttcgaagaagtagaatacctggttaagggtctgcgtaacaaattccaactgaactgttacgtaaaaatcaacaaaaacaaaccgatcatctacatcgattctatgtcttacctgatcttctacaacctgatcaaaccgtacctgatcccgcagatgatgtacaaactgccgaacactatctcctccgaaactttcctgaaagcagcgaacgacgaaaattacgcccttgcagcgtaaaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>iscei_strong_4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactagagaaagaggagaaatactaaatgcatcaaaaaaaccaggtaatgaacctgggtccgaactctaaactgctgaaagaatacaaatcccagctgatcgaactgaacatcgaacagttcgaagcaggtatcggtctgatcctgggtgatgcttacatccgttctcgtgatgaaggtaaaacctactgtatgcagttcgagtggaaaaacaaagcatacatggaccacgtatgtctgctgtacgatcagtgggtactgtccccgccgcacaaaaaagaacgtgttaaccacctgggtaacctggtaatcacctggggcgcccagactttcaaacaccaagctttcaacaaactggctaacctgttcatcgttaacaacaaaaaaaccatcccgaacaacctggttgaaaactacctgaccccgatgtctctggcatactggttcatggatgatggtggtaaatgggattacaacaaaaactctaccaacaaatcgatcgtactgaacacccagtctttcactttcgaagaagtagaatacctggttaagggtctgcgtaacaaattccaactgaactgttacgtaaaaatcaacaaaaacaaaccgatcatctacatcgattctatgtcttacctgatcttctacaacctgatcaaaccgtacctgatcccgcagatgatgtacaaactgccgaacactatctcctccgaaactttcctgaaagcagcgaacgacgaaaattacgcccttgcagcgtaaaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>cas9_part</t>
+  </si>
+  <si>
+    <t>cas9_BB</t>
+  </si>
+  <si>
+    <t>lys2_PCR_prod</t>
   </si>
 </sst>
 </file>
@@ -2915,26 +2993,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3036,7 +3114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3088,7 +3166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3140,7 +3218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3192,7 +3270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3244,7 +3322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3296,7 +3374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3348,7 +3426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3400,7 +3478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3452,7 +3530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3504,7 +3582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3556,7 +3634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3608,7 +3686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3660,7 +3738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3712,7 +3790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3764,7 +3842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3816,7 +3894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3868,7 +3946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3920,7 +3998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3972,7 +4050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -4024,7 +4102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4076,7 +4154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4128,7 +4206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -4180,7 +4258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4232,7 +4310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4284,7 +4362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4336,7 +4414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4388,7 +4466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4440,7 +4518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4492,7 +4570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -4544,7 +4622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -4596,7 +4674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4648,7 +4726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -4700,7 +4778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -4752,7 +4830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -4804,7 +4882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -4856,7 +4934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4908,7 +4986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -4960,7 +5038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5012,7 +5090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -5064,7 +5142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -5116,7 +5194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5168,7 +5246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -5220,7 +5298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -5272,7 +5350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -5324,7 +5402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -5376,7 +5454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -5428,7 +5506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -5480,7 +5558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -5532,7 +5610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -5584,7 +5662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -5636,7 +5714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -5688,7 +5766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -5736,7 +5814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -5784,7 +5862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5832,7 +5910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -5880,7 +5958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -5928,7 +6006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -5976,7 +6054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -6024,7 +6102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -6072,7 +6150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -6124,7 +6202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -6176,7 +6254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -6228,7 +6306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -6274,7 +6352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -6320,7 +6398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -6366,7 +6444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -6412,7 +6490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -6458,7 +6536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -6504,7 +6582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -6550,7 +6628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6602,7 +6680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -6651,7 +6729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -6700,7 +6778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -6749,7 +6827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -6798,7 +6876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -6847,7 +6925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>322</v>
       </c>
@@ -6896,7 +6974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -6941,7 +7019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -6986,7 +7064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -7031,7 +7109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>333</v>
       </c>
@@ -7076,7 +7154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -7121,7 +7199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>337</v>
       </c>
@@ -7166,7 +7244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -7211,7 +7289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -7256,7 +7334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -7308,7 +7386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -7360,7 +7438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>348</v>
       </c>
@@ -7409,7 +7487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>352</v>
       </c>
@@ -7461,7 +7539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -7510,7 +7588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -7559,7 +7637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>363</v>
       </c>
@@ -7608,7 +7686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -7657,7 +7735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -7706,7 +7784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>374</v>
       </c>
@@ -7755,7 +7833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>377</v>
       </c>
@@ -7804,7 +7882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -7853,7 +7931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -7902,7 +7980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -7951,7 +8029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -8000,7 +8078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -8049,7 +8127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8098,7 +8176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8147,7 +8225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8196,7 +8274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>412</v>
       </c>
@@ -8245,7 +8323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>416</v>
       </c>
@@ -8297,7 +8375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -8349,7 +8427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -8371,7 +8449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>464</v>
       </c>
@@ -8423,7 +8501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -8475,7 +8553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>472</v>
       </c>
@@ -8527,7 +8605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>476</v>
       </c>
@@ -8579,7 +8657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>480</v>
       </c>
@@ -8631,7 +8709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -8683,7 +8761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -8735,7 +8813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -8787,7 +8865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>494</v>
       </c>
@@ -8839,7 +8917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -8891,7 +8969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>500</v>
       </c>
@@ -8943,7 +9021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>533</v>
       </c>
@@ -8992,7 +9070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>536</v>
       </c>
@@ -9044,7 +9122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>540</v>
       </c>
@@ -9096,7 +9174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>543</v>
       </c>
@@ -9148,7 +9226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>546</v>
       </c>
@@ -9200,7 +9278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>549</v>
       </c>
@@ -9252,7 +9330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>552</v>
       </c>
@@ -9304,7 +9382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>555</v>
       </c>
@@ -9356,7 +9434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>558</v>
       </c>
@@ -9408,7 +9486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>562</v>
       </c>
@@ -9460,7 +9538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>566</v>
       </c>
@@ -9512,7 +9590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>569</v>
       </c>
@@ -9564,7 +9642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>572</v>
       </c>
@@ -9616,7 +9694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>575</v>
       </c>
@@ -9668,7 +9746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>579</v>
       </c>
@@ -9720,7 +9798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>582</v>
       </c>
@@ -9772,7 +9850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>585</v>
       </c>
@@ -9824,7 +9902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>588</v>
       </c>
@@ -9876,7 +9954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>591</v>
       </c>
@@ -9928,7 +10006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>594</v>
       </c>
@@ -9980,7 +10058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>824</v>
       </c>
@@ -10028,7 +10106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>825</v>
       </c>
@@ -10079,43 +10157,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H143" s="3"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H144" s="3"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H145" s="3"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H146" s="3"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H147" s="3"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H148" s="3"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H149" s="3"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H150" s="3"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
       <c r="H151" s="3"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -10129,7 +10207,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -10143,7 +10221,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -10157,7 +10235,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -10171,7 +10249,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -10185,7 +10263,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -10199,7 +10277,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -10213,7 +10291,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10226,7 +10304,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10238,7 +10316,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -10250,50 +10328,50 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H162" s="3"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H163" s="3"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H164" s="3"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O175" s="4"/>
     </row>
   </sheetData>
@@ -10398,7 +10476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94 G92">
+  <conditionalFormatting sqref="G92 G94">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10561,24 +10639,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:P82"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10628,7 +10706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -10668,7 +10746,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -10702,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -10742,7 +10820,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -10782,7 +10860,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -10822,7 +10900,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -10856,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>453</v>
       </c>
@@ -10890,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -10924,7 +11002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>620</v>
       </c>
@@ -10958,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>623</v>
       </c>
@@ -11001,7 +11079,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -11044,7 +11122,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -11087,7 +11165,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>634</v>
       </c>
@@ -11130,7 +11208,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>637</v>
       </c>
@@ -11173,7 +11251,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>640</v>
       </c>
@@ -11216,7 +11294,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -11259,7 +11337,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>646</v>
       </c>
@@ -11302,7 +11380,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>649</v>
       </c>
@@ -11345,7 +11423,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -11388,7 +11466,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>656</v>
       </c>
@@ -11431,7 +11509,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>659</v>
       </c>
@@ -11474,7 +11552,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -11517,7 +11595,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>665</v>
       </c>
@@ -11560,7 +11638,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>668</v>
       </c>
@@ -11603,7 +11681,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>671</v>
       </c>
@@ -11646,7 +11724,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>674</v>
       </c>
@@ -11689,7 +11767,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>677</v>
       </c>
@@ -11727,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>681</v>
       </c>
@@ -11767,7 +11845,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>684</v>
       </c>
@@ -11807,7 +11885,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>687</v>
       </c>
@@ -11847,7 +11925,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>690</v>
       </c>
@@ -11887,7 +11965,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>693</v>
       </c>
@@ -11927,7 +12005,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>696</v>
       </c>
@@ -11967,7 +12045,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>699</v>
       </c>
@@ -12007,7 +12085,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>702</v>
       </c>
@@ -12047,7 +12125,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -12087,7 +12165,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -12127,7 +12205,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>711</v>
       </c>
@@ -12167,7 +12245,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -12207,7 +12285,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>717</v>
       </c>
@@ -12247,7 +12325,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>720</v>
       </c>
@@ -12287,7 +12365,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -12325,7 +12403,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -12363,7 +12441,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -12401,7 +12479,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -12439,7 +12517,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -12477,7 +12555,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>733</v>
       </c>
@@ -12509,7 +12587,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>734</v>
       </c>
@@ -12541,7 +12619,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>735</v>
       </c>
@@ -12573,7 +12651,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>736</v>
       </c>
@@ -12605,7 +12683,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -12643,7 +12721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -12681,7 +12759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -12719,7 +12797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -12757,7 +12835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -12795,7 +12873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -12833,7 +12911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -12871,7 +12949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -12909,7 +12987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -12947,7 +13025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -12994,7 +13072,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -13041,7 +13119,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -13088,7 +13166,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -13135,7 +13213,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -13182,7 +13260,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -13229,7 +13307,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -13276,7 +13354,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -13323,7 +13401,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -13370,7 +13448,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -13417,7 +13495,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -13464,7 +13542,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -13511,7 +13589,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -13558,7 +13636,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -13605,7 +13683,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -13652,7 +13730,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>127</v>
       </c>
@@ -13699,7 +13777,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
@@ -13746,7 +13824,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
@@ -13793,7 +13871,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>139</v>
       </c>
@@ -13840,7 +13918,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>143</v>
       </c>
@@ -13883,7 +13961,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -13926,7 +14004,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>152</v>
       </c>
@@ -13966,6 +14044,604 @@
         <v>600</v>
       </c>
       <c r="P82" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>830</v>
+      </c>
+      <c r="C83" t="s">
+        <v>625</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83">
+        <v>30</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1032</v>
+      </c>
+      <c r="O83" t="s">
+        <v>739</v>
+      </c>
+      <c r="P83" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
+        <v>832</v>
+      </c>
+      <c r="C84" t="s">
+        <v>625</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+      <c r="H84" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1117</v>
+      </c>
+      <c r="O84" t="s">
+        <v>739</v>
+      </c>
+      <c r="P84" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>834</v>
+      </c>
+      <c r="C85" t="s">
+        <v>625</v>
+      </c>
+      <c r="E85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85">
+        <v>30</v>
+      </c>
+      <c r="H85" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>653</v>
+      </c>
+      <c r="O85" t="s">
+        <v>739</v>
+      </c>
+      <c r="P85" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>836</v>
+      </c>
+      <c r="C86" t="s">
+        <v>625</v>
+      </c>
+      <c r="E86" t="s">
+        <v>71</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>576</v>
+      </c>
+      <c r="O86" t="s">
+        <v>739</v>
+      </c>
+      <c r="P86" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>838</v>
+      </c>
+      <c r="C87" t="s">
+        <v>625</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>52</v>
+      </c>
+      <c r="G87">
+        <v>30</v>
+      </c>
+      <c r="H87" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>959</v>
+      </c>
+      <c r="O87" t="s">
+        <v>739</v>
+      </c>
+      <c r="P87" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>839</v>
+      </c>
+      <c r="C88" t="s">
+        <v>625</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
+      <c r="H88" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1000</v>
+      </c>
+      <c r="O88" t="s">
+        <v>739</v>
+      </c>
+      <c r="P88" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>841</v>
+      </c>
+      <c r="C89" t="s">
+        <v>625</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
+      <c r="H89" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1009</v>
+      </c>
+      <c r="O89" t="s">
+        <v>739</v>
+      </c>
+      <c r="P89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>843</v>
+      </c>
+      <c r="C90" t="s">
+        <v>625</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>52</v>
+      </c>
+      <c r="G90">
+        <v>30</v>
+      </c>
+      <c r="H90" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1024</v>
+      </c>
+      <c r="O90" t="s">
+        <v>739</v>
+      </c>
+      <c r="P90" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>845</v>
+      </c>
+      <c r="C91" t="s">
+        <v>625</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J91" t="s">
+        <v>846</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>168</v>
+      </c>
+      <c r="O91" t="s">
+        <v>739</v>
+      </c>
+      <c r="P91" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>847</v>
+      </c>
+      <c r="C92" t="s">
+        <v>625</v>
+      </c>
+      <c r="E92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
+      <c r="H92" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1030</v>
+      </c>
+      <c r="O92" t="s">
+        <v>739</v>
+      </c>
+      <c r="P92" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93" t="s">
+        <v>849</v>
+      </c>
+      <c r="C93" t="s">
+        <v>625</v>
+      </c>
+      <c r="E93" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93">
+        <v>30</v>
+      </c>
+      <c r="H93" s="3">
+        <v>43298</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1031</v>
+      </c>
+      <c r="O93" t="s">
+        <v>739</v>
+      </c>
+      <c r="P93" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94">
+        <v>13.62</v>
+      </c>
+      <c r="H94" s="3">
+        <v>43304</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>4000</v>
+      </c>
+      <c r="O94" t="s">
+        <v>739</v>
+      </c>
+      <c r="P94" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>852</v>
+      </c>
+      <c r="E95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95">
+        <v>27.18</v>
+      </c>
+      <c r="H95" s="3">
+        <v>43304</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1750</v>
+      </c>
+      <c r="O95" t="s">
+        <v>739</v>
+      </c>
+      <c r="P95" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>853</v>
+      </c>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96">
+        <v>30</v>
+      </c>
+      <c r="H96" s="3">
+        <v>43304</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>1300</v>
+      </c>
+      <c r="O96" t="s">
+        <v>739</v>
+      </c>
+      <c r="P96" t="s">
         <v>601</v>
       </c>
     </row>
@@ -14289,9 +14965,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14341,7 +15017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -14384,7 +15060,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -14427,7 +15103,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -14470,7 +15146,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -14513,7 +15189,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -14556,7 +15232,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -14596,7 +15272,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -14636,7 +15312,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -14678,7 +15354,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -14720,7 +15396,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>453</v>
       </c>
@@ -14762,7 +15438,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -14814,7 +15490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -14866,7 +15542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -14900,7 +15576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>507</v>
       </c>
@@ -14934,7 +15610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -14968,7 +15644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>513</v>
       </c>
@@ -15002,7 +15678,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>516</v>
       </c>
@@ -15036,7 +15712,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -15070,7 +15746,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -15104,7 +15780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -15138,7 +15814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>527</v>
       </c>
@@ -15172,7 +15848,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -15363,9 +16039,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>798</v>
       </c>
@@ -15376,7 +16052,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>801</v>
       </c>
@@ -15387,7 +16063,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>801</v>
       </c>
@@ -15398,7 +16074,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -15409,7 +16085,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>805</v>
       </c>
@@ -15420,7 +16096,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>804</v>
       </c>
@@ -15431,7 +16107,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>805</v>
       </c>
@@ -15449,16 +16125,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -15532,7 +16208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -15609,7 +16285,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -15686,7 +16362,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -15763,7 +16439,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -15840,7 +16516,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -15917,7 +16593,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -15994,7 +16670,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -16071,7 +16747,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>807</v>
       </c>
@@ -16148,7 +16824,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -16225,7 +16901,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>808</v>
       </c>
@@ -16302,7 +16978,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>809</v>
       </c>
@@ -16379,7 +17055,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>810</v>
       </c>
@@ -16456,7 +17132,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>811</v>
       </c>
@@ -16533,7 +17209,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>812</v>
       </c>
@@ -16610,7 +17286,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>813</v>
       </c>
@@ -16687,7 +17363,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>814</v>
       </c>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjukul99/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Documents\GitHub\makeMocloAssy\partslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
+    <workbookView xWindow="555" yWindow="465" windowWidth="27615" windowHeight="16545" tabRatio="799" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -22,23 +22,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="856">
   <si>
     <t>well</t>
   </si>
@@ -2600,6 +2597,12 @@
   </si>
   <si>
     <t>lys2_PCR_prod</t>
+  </si>
+  <si>
+    <t>ATTCGCGGCCGGTCTCAAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTAAGGTTGAGACCTGCAGGCTTCCTCGCTCA</t>
+  </si>
+  <si>
+    <t>GGAGGTGACTAAGGTTGAGACCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGGTCTCAAATGGATAAGAAATACTCAATAG</t>
   </si>
 </sst>
 </file>
@@ -2993,7 +2996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3002,17 +3005,17 @@
       <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" customWidth="1"/>
-    <col min="10" max="10" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3374,7 +3377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>172</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>192</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>200</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>218</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>222</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>226</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>230</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>234</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>238</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>242</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>246</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>250</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>258</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>261</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>270</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>277</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -6306,7 +6309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>289</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>295</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -6536,7 +6539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>301</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>307</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>314</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>316</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>320</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>322</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>324</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>329</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -7109,7 +7112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>333</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -7199,7 +7202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>337</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>343</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>344</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>348</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>352</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>359</v>
       </c>
@@ -7637,7 +7640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>363</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>371</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>374</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>377</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>388</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -8078,7 +8081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>396</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>400</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>404</v>
       </c>
@@ -8225,7 +8228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>412</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>416</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>423</v>
       </c>
@@ -8449,7 +8452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>464</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>468</v>
       </c>
@@ -8553,7 +8556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>472</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>476</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>480</v>
       </c>
@@ -8709,7 +8712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>488</v>
       </c>
@@ -8813,7 +8816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -8865,7 +8868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>494</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>497</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>500</v>
       </c>
@@ -9021,7 +9024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>533</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>536</v>
       </c>
@@ -9122,7 +9125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>540</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>543</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>546</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>549</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>552</v>
       </c>
@@ -9382,7 +9385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>555</v>
       </c>
@@ -9434,7 +9437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>558</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>562</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>566</v>
       </c>
@@ -9590,7 +9593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>569</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>572</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>575</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>579</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>582</v>
       </c>
@@ -9850,7 +9853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>585</v>
       </c>
@@ -9902,7 +9905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>588</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>591</v>
       </c>
@@ -10006,7 +10009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>594</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>824</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>825</v>
       </c>
@@ -10157,43 +10160,43 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H143" s="3"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H144" s="3"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H145" s="3"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H146" s="3"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H147" s="3"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H148" s="3"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H149" s="3"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H150" s="3"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H151" s="3"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="3:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -10207,7 +10210,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="3:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -10221,7 +10224,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -10235,7 +10238,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -10249,7 +10252,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="3:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -10263,7 +10266,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -10277,7 +10280,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -10291,7 +10294,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
@@ -10304,7 +10307,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -10316,7 +10319,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -10328,50 +10331,50 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H162" s="3"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H163" s="3"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H164" s="3"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H165" s="3"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
       <c r="O175" s="4"/>
     </row>
   </sheetData>
@@ -10476,7 +10479,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 G94">
+  <conditionalFormatting sqref="G94 G92">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10639,24 +10642,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10706,7 +10709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -10746,7 +10749,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -10860,7 +10863,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>450</v>
       </c>
@@ -10934,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>453</v>
       </c>
@@ -10968,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>456</v>
       </c>
@@ -11002,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>620</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>623</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>628</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>634</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>637</v>
       </c>
@@ -11251,7 +11254,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>640</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>646</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>649</v>
       </c>
@@ -11423,7 +11426,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>652</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>656</v>
       </c>
@@ -11509,7 +11512,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>659</v>
       </c>
@@ -11552,7 +11555,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>662</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>665</v>
       </c>
@@ -11638,7 +11641,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>668</v>
       </c>
@@ -11681,7 +11684,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>671</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>674</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>677</v>
       </c>
@@ -11805,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>681</v>
       </c>
@@ -11845,7 +11848,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>684</v>
       </c>
@@ -11885,7 +11888,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>687</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>690</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>693</v>
       </c>
@@ -12005,7 +12008,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>696</v>
       </c>
@@ -12045,7 +12048,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>699</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>702</v>
       </c>
@@ -12125,7 +12128,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>705</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>708</v>
       </c>
@@ -12205,7 +12208,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>711</v>
       </c>
@@ -12245,7 +12248,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -12285,7 +12288,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>717</v>
       </c>
@@ -12325,7 +12328,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>720</v>
       </c>
@@ -12365,7 +12368,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -12375,6 +12378,14 @@
       <c r="C43" t="s">
         <v>625</v>
       </c>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43:E60" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B43,3),1))</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ref="F43:F60" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B43,1),1))</f>
+        <v>UNS3</v>
+      </c>
       <c r="G43">
         <v>30</v>
       </c>
@@ -12403,7 +12414,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -12413,6 +12424,14 @@
       <c r="C44" t="s">
         <v>625</v>
       </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G44">
         <v>30</v>
       </c>
@@ -12441,7 +12460,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -12451,6 +12470,14 @@
       <c r="C45" t="s">
         <v>625</v>
       </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G45">
         <v>30</v>
       </c>
@@ -12479,7 +12506,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -12489,6 +12516,14 @@
       <c r="C46" t="s">
         <v>625</v>
       </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G46">
         <v>30</v>
       </c>
@@ -12517,7 +12552,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -12527,6 +12562,14 @@
       <c r="C47" t="s">
         <v>625</v>
       </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G47">
         <v>30</v>
       </c>
@@ -12555,7 +12598,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>733</v>
       </c>
@@ -12565,6 +12608,14 @@
       <c r="C48" t="s">
         <v>625</v>
       </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
+      </c>
       <c r="G48">
         <v>30</v>
       </c>
@@ -12587,7 +12638,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>734</v>
       </c>
@@ -12597,6 +12648,14 @@
       <c r="C49" t="s">
         <v>625</v>
       </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
+      </c>
       <c r="G49">
         <v>30</v>
       </c>
@@ -12619,7 +12678,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>735</v>
       </c>
@@ -12629,6 +12688,14 @@
       <c r="C50" t="s">
         <v>625</v>
       </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
+      </c>
       <c r="G50">
         <v>30</v>
       </c>
@@ -12651,7 +12718,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>736</v>
       </c>
@@ -12661,6 +12728,14 @@
       <c r="C51" t="s">
         <v>625</v>
       </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
+      </c>
       <c r="G51">
         <v>30</v>
       </c>
@@ -12683,7 +12758,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -12693,6 +12768,14 @@
       <c r="C52" t="s">
         <v>625</v>
       </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G52">
         <v>30</v>
       </c>
@@ -12721,7 +12804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -12731,6 +12814,14 @@
       <c r="C53" t="s">
         <v>625</v>
       </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
+      </c>
       <c r="G53">
         <v>30</v>
       </c>
@@ -12759,7 +12850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -12769,6 +12860,14 @@
       <c r="C54" t="s">
         <v>625</v>
       </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
+      </c>
       <c r="G54">
         <v>30</v>
       </c>
@@ -12797,7 +12896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -12807,6 +12906,14 @@
       <c r="C55" t="s">
         <v>625</v>
       </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
+      </c>
       <c r="G55">
         <v>30</v>
       </c>
@@ -12835,7 +12942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -12845,6 +12952,14 @@
       <c r="C56" t="s">
         <v>625</v>
       </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
+      </c>
       <c r="G56">
         <v>20</v>
       </c>
@@ -12873,7 +12988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -12883,6 +12998,14 @@
       <c r="C57" t="s">
         <v>625</v>
       </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
+      </c>
       <c r="G57">
         <v>30</v>
       </c>
@@ -12911,7 +13034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -12921,6 +13044,14 @@
       <c r="C58" t="s">
         <v>625</v>
       </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
+      </c>
       <c r="G58">
         <v>30</v>
       </c>
@@ -12949,7 +13080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -12959,6 +13090,14 @@
       <c r="C59" t="s">
         <v>625</v>
       </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS6</v>
+      </c>
       <c r="G59">
         <v>30</v>
       </c>
@@ -12987,7 +13126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -12997,6 +13136,14 @@
       <c r="C60" t="s">
         <v>625</v>
       </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>UNS6</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
+      </c>
       <c r="G60">
         <v>30</v>
       </c>
@@ -13025,7 +13172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -13072,7 +13219,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -13109,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N75" si="4">LEN(J62)</f>
+        <f t="shared" ref="N62:N75" si="6">LEN(J62)</f>
         <v>1874</v>
       </c>
       <c r="O62" t="s">
@@ -13119,7 +13266,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -13130,11 +13277,11 @@
         <v>625</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
+        <f t="shared" ref="E63" si="7">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
         <v>UNSX</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" ref="F63" si="6">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
+        <f t="shared" ref="F63" si="8">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
         <v>UNS1</v>
       </c>
       <c r="G63">
@@ -13156,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1874</v>
       </c>
       <c r="O63" t="s">
@@ -13166,7 +13313,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -13177,11 +13324,11 @@
         <v>614</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ref="E64:E75" si="7">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
+        <f t="shared" ref="E64:E75" si="9">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
         <v>UNSX</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" ref="F64:F75" si="8">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
+        <f t="shared" ref="F64:F75" si="10">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
         <v>UNS1</v>
       </c>
       <c r="G64">
@@ -13203,7 +13350,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2929</v>
       </c>
       <c r="O64" t="s">
@@ -13213,7 +13360,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>40</v>
       </c>
@@ -13224,11 +13371,11 @@
         <v>614</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G65">
@@ -13250,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2929</v>
       </c>
       <c r="O65" t="s">
@@ -13260,7 +13407,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -13271,11 +13418,11 @@
         <v>614</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G66">
@@ -13297,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2060</v>
       </c>
       <c r="O66" t="s">
@@ -13307,7 +13454,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -13318,11 +13465,11 @@
         <v>614</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G67">
@@ -13344,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1810</v>
       </c>
       <c r="O67" t="s">
@@ -13354,7 +13501,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -13365,11 +13512,11 @@
         <v>614</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G68">
@@ -13391,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1810</v>
       </c>
       <c r="O68" t="s">
@@ -13401,7 +13548,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -13412,11 +13559,11 @@
         <v>614</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G69">
@@ -13438,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2865</v>
       </c>
       <c r="O69" t="s">
@@ -13448,7 +13595,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -13459,11 +13606,11 @@
         <v>614</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G70">
@@ -13485,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2865</v>
       </c>
       <c r="O70" t="s">
@@ -13495,7 +13642,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -13506,11 +13653,11 @@
         <v>614</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G71">
@@ -13532,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2119</v>
       </c>
       <c r="O71" t="s">
@@ -13542,7 +13689,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -13553,11 +13700,11 @@
         <v>614</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G72">
@@ -13579,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1869</v>
       </c>
       <c r="O72" t="s">
@@ -13589,7 +13736,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -13600,11 +13747,11 @@
         <v>614</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G73">
@@ -13626,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1869</v>
       </c>
       <c r="O73" t="s">
@@ -13636,7 +13783,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -13647,11 +13794,11 @@
         <v>614</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G74">
@@ -13673,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2924</v>
       </c>
       <c r="O74" t="s">
@@ -13683,7 +13830,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -13694,11 +13841,11 @@
         <v>614</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>UNSX</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>UNS1</v>
       </c>
       <c r="G75">
@@ -13720,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2924</v>
       </c>
       <c r="O75" t="s">
@@ -13730,7 +13877,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>127</v>
       </c>
@@ -13742,11 +13889,11 @@
       </c>
       <c r="D76" s="14"/>
       <c r="E76" t="str">
-        <f t="shared" ref="E76:E79" si="9">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
+        <f t="shared" ref="E76:E79" si="11">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
         <v>UNS5</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" ref="F76:F79" si="10">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
+        <f t="shared" ref="F76:F79" si="12">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
         <v>UNSX</v>
       </c>
       <c r="G76" s="4">
@@ -13777,7 +13924,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>131</v>
       </c>
@@ -13789,11 +13936,11 @@
       </c>
       <c r="D77" s="14"/>
       <c r="E77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>UNS4</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>UNS5</v>
       </c>
       <c r="G77" s="4">
@@ -13824,7 +13971,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
@@ -13836,11 +13983,11 @@
       </c>
       <c r="D78" s="14"/>
       <c r="E78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>UNS5</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>UNSX</v>
       </c>
       <c r="G78" s="4">
@@ -13871,7 +14018,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>139</v>
       </c>
@@ -13883,11 +14030,11 @@
       </c>
       <c r="D79" s="14"/>
       <c r="E79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>UNS4</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>UNS5</v>
       </c>
       <c r="G79" s="4">
@@ -13918,7 +14065,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>143</v>
       </c>
@@ -13929,11 +14076,11 @@
         <v>794</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" ref="E80:E82" si="11">"UNS"&amp;LEFT(RIGHT(B80,3),1)</f>
+        <f t="shared" ref="E80:E82" si="13">"UNS"&amp;LEFT(RIGHT(B80,3),1)</f>
         <v>UNS1</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" ref="F80:F82" si="12">"UNS"&amp;RIGHT(RIGHT(B80,3),1)</f>
+        <f t="shared" ref="F80:F82" si="14">"UNS"&amp;RIGHT(RIGHT(B80,3),1)</f>
         <v>UNS4</v>
       </c>
       <c r="G80" s="4">
@@ -13961,7 +14108,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>148</v>
       </c>
@@ -13972,11 +14119,11 @@
         <v>794</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>UNS1</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>UNS4</v>
       </c>
       <c r="G81" s="4">
@@ -14004,7 +14151,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>152</v>
       </c>
@@ -14015,11 +14162,11 @@
         <v>794</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>UNS1</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>UNS4</v>
       </c>
       <c r="G82" s="4">
@@ -14047,7 +14194,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -14091,7 +14238,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>68</v>
       </c>
@@ -14135,7 +14282,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -14179,7 +14326,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -14223,7 +14370,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -14267,7 +14414,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -14311,7 +14458,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -14355,7 +14502,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -14399,7 +14546,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -14443,7 +14590,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -14487,7 +14634,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -14531,25 +14678,22 @@
         <v>601</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>112</v>
       </c>
       <c r="B94" t="s">
         <v>851</v>
       </c>
-      <c r="E94" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" t="s">
-        <v>110</v>
-      </c>
       <c r="G94">
         <v>13.62</v>
       </c>
       <c r="H94" s="3">
         <v>43304</v>
       </c>
+      <c r="J94" t="s">
+        <v>854</v>
+      </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
@@ -14569,25 +14713,22 @@
         <v>601</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>115</v>
       </c>
       <c r="B95" t="s">
         <v>852</v>
       </c>
-      <c r="E95" t="s">
-        <v>110</v>
-      </c>
-      <c r="F95" t="s">
-        <v>156</v>
-      </c>
       <c r="G95">
         <v>27.18</v>
       </c>
       <c r="H95" s="3">
         <v>43304</v>
       </c>
+      <c r="J95" t="s">
+        <v>855</v>
+      </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
@@ -14607,7 +14748,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -14625,6 +14766,9 @@
       </c>
       <c r="H96" s="3">
         <v>43304</v>
+      </c>
+      <c r="J96" t="s">
+        <v>795</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -14965,9 +15109,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15017,7 +15161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -15060,7 +15204,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>429</v>
       </c>
@@ -15103,7 +15247,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -15146,7 +15290,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -15189,7 +15333,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>438</v>
       </c>
@@ -15232,7 +15376,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>441</v>
       </c>
@@ -15272,7 +15416,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -15312,7 +15456,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>447</v>
       </c>
@@ -15354,7 +15498,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>450</v>
       </c>
@@ -15396,7 +15540,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>453</v>
       </c>
@@ -15438,7 +15582,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -15490,7 +15634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>460</v>
       </c>
@@ -15542,7 +15686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -15576,7 +15720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>507</v>
       </c>
@@ -15610,7 +15754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>510</v>
       </c>
@@ -15644,7 +15788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>513</v>
       </c>
@@ -15678,7 +15822,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>516</v>
       </c>
@@ -15712,7 +15856,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>516</v>
       </c>
@@ -15746,7 +15890,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>521</v>
       </c>
@@ -15780,7 +15924,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -15814,7 +15958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>527</v>
       </c>
@@ -15848,7 +15992,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -16039,9 +16183,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>798</v>
       </c>
@@ -16052,7 +16196,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>801</v>
       </c>
@@ -16063,7 +16207,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>801</v>
       </c>
@@ -16074,7 +16218,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -16085,7 +16229,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>805</v>
       </c>
@@ -16096,7 +16240,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>804</v>
       </c>
@@ -16107,7 +16251,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>805</v>
       </c>
@@ -16125,16 +16269,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -16208,7 +16352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -16285,7 +16429,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -16362,7 +16506,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -16439,7 +16583,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -16516,7 +16660,7 @@
         <v>32.369999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -16593,7 +16737,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -16670,7 +16814,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -16747,7 +16891,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>807</v>
       </c>
@@ -16824,7 +16968,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -16901,7 +17045,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>808</v>
       </c>
@@ -16978,7 +17122,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>809</v>
       </c>
@@ -17055,7 +17199,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>810</v>
       </c>
@@ -17132,7 +17276,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>811</v>
       </c>
@@ -17209,7 +17353,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>812</v>
       </c>
@@ -17286,7 +17430,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>813</v>
       </c>
@@ -17363,7 +17507,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>814</v>
       </c>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -19,10 +19,10 @@
     <sheet name="survey" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="882">
   <si>
     <t>well</t>
   </si>
@@ -1840,9 +1840,6 @@
     <t>ASSGIB01</t>
   </si>
   <si>
-    <t>384LDV_Plus_AQ_BP</t>
-  </si>
-  <si>
     <t>LasdcasT2m3-4</t>
   </si>
   <si>
@@ -2603,6 +2600,87 @@
   </si>
   <si>
     <t>GGAGGTGACTAAGGTTGAGACCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGGTCTCAAATGGATAAGAAATACTCAATAG</t>
+  </si>
+  <si>
+    <t>NT1DE5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>NT18m5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>NT19m4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>CT1DE5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>CT18m5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>CT19m4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>S22bxT17m1-3</t>
+  </si>
+  <si>
+    <t>cattactcgcatccattctcaggctgtctcgtctcgtctcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactgggcccaagttcacttaaaaaggagatcaacaatgaaagcaattttcgtactgaaacatcttaatcatgcctaggaagttttctaatgaatggtgagagccctggtagtcatccgcctgtcccgcgtcaccgatgctacgacttcaccggagcgtcagctggagtcttgccagcagctctgcgcccagcgcggctgggacgtcgtcggggtagcggaggatctggacgtctccggggcggtcgatccgttcgaccggaagcgcagaccgaacctggcccggtggctagcgttcgaggagcaaccgtttgacgtgatcgtggcgtaccgggtagatcggttgacccgatcgatccggcatcttcagcagctggtccactgggccgaggaccacaagaagctggtcgtctccgcgaccgaagcgcacttcgatacgacgacgccgtttgcggcggtcgtcatcgcgcttatgggaacggtggcgcagatggaattagaagcgatcaaagagcggaaccgttcggctgcgcatttcaatatccgcgccgggaaataccgaggatccctgccgccgtggggatacctgcctacgcgcgtggacggggagtggcggctggtgccggaccctgtgcagcgagagcgcatcctcgaggtgtatcaccgcgtcgtcgacaaccacgagccgctgcatctggtggcccacgacctgaaccggcgtggtgtcctgtcgccgaaggactacttcgcgcagctgcaaggccgcgagccgcagggccgggagtggtcggctaccgcgctgaagcgatcgatgatctccgaggcgatgctcgggtacgcgactctgaacggtaagaccgtccgagacgacgacggagccccgctggtgcgggctgagccgatcctgacccgtgagcagctggaggcgctgcgcgccgagctcgtgaagacctcccgggcgaagcccgcggtgtctaccccgtcgctgctgctgcgggtgttgttctgcgcggtgtgcggggagcccgcgtacaagttcgccgggggaggacgtaagcacccgcgctaccgctgccgctcgatggggttcccgaagcactgcgggaacggcacggtggcgatggccgagtgggacgcgttctgcgaggagcaggtactggatctgctcggggacgcggagcgtctggagaaagtctgggtagcgggctcggactccgcggtcgaactcgcggaggtgaacgcggagctggtggacctgacgtcgctgatcggctccccggcctaccgggcgggctctccgcagcgagaagcactggatgcccgtattgcggcgctggccgcgcggcaagaggagctggagggcctggaggctcgcccgtctggctgggagtggcgcgagtccgggcagcggttcggggactggtggcgggagcaggacaccgcggcaaagaacacctggcttcggtcgatgaacgttcggctgacgttcgacgtccgcggcgggctgactcgcacgatcgacttcggggatcttcaggagtacgagcagcatctcaggctcggcagcgtggtcgaacggctacacaccgggatgtcgtaaaggttctcggtaccaaattccagaaaagagacgctttcgagcgtcttttttcgttttggtccgcttgcactgaaggtcctcaatcgcactggaaacatcaaggtcg</t>
+  </si>
+  <si>
+    <t>SwbxT17m1-3</t>
+  </si>
+  <si>
+    <t>cattactcgcatccattctcaggctgtctcgtctcgtctcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactagagtcacacaggactactaaatggtgagagccctggtagtcatccgcctgtcccgcgtcaccgatgctacgacttcaccggagcgtcagctggagtcttgccagcagctctgcgcccagcgcggctgggacgtcgtcggggtagcggaggatctggacgtctccggggcggtcgatccgttcgaccggaagcgcagaccgaacctggcccggtggctagcgttcgaggagcaaccgtttgacgtgatcgtggcgtaccgggtagatcggttgacccgatcgatccggcatcttcagcagctggtccactgggccgaggaccacaagaagctggtcgtctccgcgaccgaagcgcacttcgatacgacgacgccgtttgcggcggtcgtcatcgcgcttatgggaacggtggcgcagatggaattagaagcgatcaaagagcggaaccgttcggctgcgcatttcaatatccgcgccgggaaataccgaggatccctgccgccgtggggatacctgcctacgcgcgtggacggggagtggcggctggtgccggaccctgtgcagcgagagcgcatcctcgaggtgtatcaccgcgtcgtcgacaaccacgagccgctgcatctggtggcccacgacctgaaccggcgtggtgtcctgtcgccgaaggactacttcgcgcagctgcaaggccgcgagccgcagggccgggagtggtcggctaccgcgctgaagcgatcgatgatctccgaggcgatgctcgggtacgcgactctgaacggtaagaccgtccgagacgacgacggagccccgctggtgcgggctgagccgatcctgacccgtgagcagctggaggcgctgcgcgccgagctcgtgaagacctcccgggcgaagcccgcggtgtctaccccgtcgctgctgctgcgggtgttgttctgcgcggtgtgcggggagcccgcgtacaagttcgccgggggaggacgtaagcacccgcgctaccgctgccgctcgatggggttcccgaagcactgcgggaacggcacggtggcgatggccgagtgggacgcgttctgcgaggagcaggtactggatctgctcggggacgcggagcgtctggagaaagtctgggtagcgggctcggactccgcggtcgaactcgcggaggtgaacgcggagctggtggacctgacgtcgctgatcggctccccggcctaccgggcgggctctccgcagcgagaagcactggatgcccgtattgcggcgctggccgcgcggcaagaggagctggagggcctggaggctcgcccgtctggctgggagtggcgcgagtccgggcagcggttcggggactggtggcgggagcaggacaccgcggcaaagaacacctggcttcggtcgatgaacgttcggctgacgttcgacgtccgcggcgggctgactcgcacgatcgacttcggggatcttcaggagtacgagcagcatctcaggctcggcagcgtggtcgaacggctacacaccgggatgtcgtaaaggttctcggtaccaaattccagaaaagagacgctttcgagcgtcttttttcgttttggtccgcttgcactgaaggtcctcaatcgcactggaaacatcaaggtcg</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttccaggatacatagattaccacaactccgagcccttccacc</t>
+  </si>
+  <si>
+    <t>CT19m8-5</t>
+  </si>
+  <si>
+    <t>cctcgtctcaaccaaagcaatcaacccatcaaccacctggggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>Bg14-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaacccattgttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>Bg24-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaacctagtgttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>Bg34-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaaccaatggttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>NT18m5-X</t>
+  </si>
+  <si>
+    <t>384LDV_Plus_AQ_GP</t>
   </si>
 </sst>
 </file>
@@ -4226,7 +4304,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -4278,7 +4356,7 @@
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4330,7 +4408,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -4382,7 +4460,7 @@
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -4434,7 +4512,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -4483,7 +4561,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -7342,7 +7420,7 @@
         <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C87" t="s">
         <v>210</v>
@@ -9038,7 +9116,7 @@
         <v>106</v>
       </c>
       <c r="F121" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G121">
         <v>30</v>
@@ -9090,7 +9168,7 @@
         <v>106</v>
       </c>
       <c r="F122" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G122">
         <v>22.7</v>
@@ -9142,7 +9220,7 @@
         <v>106</v>
       </c>
       <c r="F123" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G123">
         <v>37.4</v>
@@ -9194,7 +9272,7 @@
         <v>106</v>
       </c>
       <c r="F124" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G124">
         <v>23.5</v>
@@ -9243,7 +9321,7 @@
         <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F125" t="s">
         <v>110</v>
@@ -9292,7 +9370,7 @@
         <v>538</v>
       </c>
       <c r="D126" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E126" t="s">
         <v>106</v>
@@ -9347,7 +9425,7 @@
         <v>161</v>
       </c>
       <c r="E127" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F127" t="s">
         <v>110</v>
@@ -9396,7 +9474,7 @@
         <v>538</v>
       </c>
       <c r="D128" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E128" t="s">
         <v>106</v>
@@ -9831,7 +9909,7 @@
         <v>7106</v>
       </c>
       <c r="J136" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K136" s="4" t="b">
         <v>1</v>
@@ -9935,7 +10013,7 @@
         <v>7108</v>
       </c>
       <c r="J138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K138" s="4" t="b">
         <v>1</v>
@@ -9987,7 +10065,7 @@
         <v>7109</v>
       </c>
       <c r="J139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K139" s="4" t="b">
         <v>1</v>
@@ -10039,7 +10117,7 @@
         <v>7110</v>
       </c>
       <c r="J140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K140" s="4" t="b">
         <v>1</v>
@@ -10063,13 +10141,13 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B141" t="s">
+        <v>819</v>
+      </c>
+      <c r="C141" t="s">
         <v>820</v>
-      </c>
-      <c r="C141" t="s">
-        <v>821</v>
       </c>
       <c r="D141" t="s">
         <v>146</v>
@@ -10087,7 +10165,7 @@
         <v>43301</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K141" s="4" t="b">
         <v>1</v>
@@ -10111,13 +10189,13 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B142" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>166</v>
@@ -10479,7 +10557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94 G92">
+  <conditionalFormatting sqref="G92 G94">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10643,20 +10721,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -10730,6 +10809,10 @@
       <c r="G2">
         <v>30</v>
       </c>
+      <c r="I2">
+        <f>CODE(LEFT(A2,1))*100+MID(A2,2,10)</f>
+        <v>6516</v>
+      </c>
       <c r="J2" t="s">
         <v>599</v>
       </c>
@@ -10742,36 +10825,44 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2">
+        <f>LEN(J2)</f>
+        <v>4342</v>
+      </c>
       <c r="O2" t="s">
         <v>600</v>
       </c>
       <c r="P2" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E27" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
+        <f t="shared" ref="E3:E5" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="1">"UNS"&amp;RIGHT(RIGHT(B3,3),1)</f>
         <v>UNS3</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F27" si="1">"UNS"&amp;RIGHT(RIGHT(B3,3),1)</f>
-        <v>UNS4</v>
-      </c>
       <c r="G3">
         <v>30</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">CODE(LEFT(A3,1))*100+MID(A3,2,10)</f>
+        <v>6517</v>
+      </c>
       <c r="J3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -10781,31 +10872,45 @@
       </c>
       <c r="M3">
         <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="3">LEN(J3)</f>
+        <v>1948</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>UNS1</v>
+        <v>UNS5</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>UNS3</v>
+        <v>UNS6</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>6518</v>
+      </c>
       <c r="J4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -10815,37 +10920,45 @@
       </c>
       <c r="M4">
         <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1096</v>
       </c>
       <c r="O4" t="s">
         <v>600</v>
       </c>
       <c r="P4" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>UNS5</v>
+        <v>UNS4</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>UNS6</v>
+        <v>UNS5</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>6519</v>
+      </c>
       <c r="J5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -10855,37 +10968,48 @@
       </c>
       <c r="M5">
         <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1014</v>
       </c>
       <c r="O5" t="s">
         <v>600</v>
       </c>
       <c r="P5" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" t="s">
-        <v>611</v>
+        <v>722</v>
+      </c>
+      <c r="C6" t="s">
+        <v>624</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS4</v>
+        <f t="shared" ref="E6:E19" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B6,3),1))</f>
+        <v>UNS1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS5</v>
+        <f t="shared" ref="F6:F19" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B6,1),1))</f>
+        <v>UNS3</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
+      <c r="H6" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>6520</v>
+      </c>
       <c r="J6" t="s">
-        <v>612</v>
+        <v>723</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10895,37 +11019,48 @@
       </c>
       <c r="M6">
         <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1173</v>
       </c>
       <c r="O6" t="s">
         <v>600</v>
       </c>
       <c r="P6" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D7" t="s">
-        <v>614</v>
+        <v>724</v>
+      </c>
+      <c r="C7" t="s">
+        <v>624</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
+      <c r="H7" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>6521</v>
+      </c>
       <c r="J7" t="s">
-        <v>615</v>
+        <v>725</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -10935,31 +11070,48 @@
       </c>
       <c r="M7">
         <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P7" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D8" t="s">
-        <v>614</v>
+        <v>726</v>
+      </c>
+      <c r="C8" t="s">
+        <v>624</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
+      <c r="H8" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>6522</v>
+      </c>
       <c r="J8" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10969,31 +11121,48 @@
       </c>
       <c r="M8">
         <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>600</v>
+      </c>
+      <c r="P8" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D9" t="s">
-        <v>614</v>
+        <v>728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
+      <c r="H9" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>6523</v>
+      </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>729</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -11003,31 +11172,48 @@
       </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
+      <c r="O9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P9" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>621</v>
-      </c>
-      <c r="D10" t="s">
-        <v>614</v>
+        <v>730</v>
+      </c>
+      <c r="C10" t="s">
+        <v>624</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G10">
         <v>30</v>
       </c>
+      <c r="H10" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>6524</v>
+      </c>
       <c r="J10" t="s">
-        <v>622</v>
+        <v>731</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -11037,37 +11223,48 @@
       </c>
       <c r="M10">
         <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>600</v>
+      </c>
+      <c r="P10" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>623</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C11" t="s">
         <v>624</v>
       </c>
-      <c r="C11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D11" t="s">
-        <v>626</v>
-      </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6501</v>
       </c>
       <c r="J11" t="s">
-        <v>627</v>
+        <v>737</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -11079,38 +11276,46 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="O11" t="s">
+        <v>738</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>628</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>739</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
-      </c>
-      <c r="D12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
       <c r="H12" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>6502</v>
       </c>
       <c r="J12" t="s">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -11122,38 +11327,46 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>959</v>
+      </c>
+      <c r="O12" t="s">
+        <v>738</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>631</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>741</v>
       </c>
       <c r="C13" t="s">
-        <v>625</v>
-      </c>
-      <c r="D13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G13">
         <v>30</v>
       </c>
       <c r="H13" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>6503</v>
       </c>
       <c r="J13" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -11165,38 +11378,46 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>638</v>
+      </c>
+      <c r="O13" t="s">
+        <v>738</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>634</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>635</v>
+        <v>743</v>
       </c>
       <c r="C14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>UNSX</v>
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
       </c>
       <c r="G14">
         <v>30</v>
       </c>
       <c r="H14" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6504</v>
       </c>
       <c r="J14" t="s">
-        <v>636</v>
+        <v>744</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -11208,38 +11429,46 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>1023</v>
+      </c>
+      <c r="O14" t="s">
+        <v>738</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>637</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>638</v>
+        <v>745</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
-      </c>
-      <c r="D15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>UNSX</v>
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6505</v>
       </c>
       <c r="J15" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -11251,38 +11480,46 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>1279</v>
+      </c>
+      <c r="O15" t="s">
+        <v>738</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="C16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>UNSX</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6506</v>
       </c>
       <c r="J16" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -11294,38 +11531,46 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>653</v>
+      </c>
+      <c r="O16" t="s">
+        <v>738</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
       </c>
       <c r="G17">
         <v>30</v>
       </c>
       <c r="H17" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6507</v>
       </c>
       <c r="J17" t="s">
-        <v>645</v>
+        <v>750</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -11337,38 +11582,46 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="O17" t="s">
+        <v>738</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>646</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNS6</v>
       </c>
       <c r="G18">
         <v>30</v>
       </c>
       <c r="H18" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>6508</v>
       </c>
       <c r="J18" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -11380,38 +11633,46 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="O18" t="s">
+        <v>738</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>649</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>650</v>
+        <v>753</v>
       </c>
       <c r="C19" t="s">
-        <v>625</v>
-      </c>
-      <c r="D19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS6</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="H19" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>6509</v>
       </c>
       <c r="J19" t="s">
-        <v>651</v>
+        <v>754</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -11423,38 +11684,46 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1305</v>
+      </c>
+      <c r="O19" t="s">
+        <v>738</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>653</v>
-      </c>
-      <c r="C20" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>"UNS"&amp;LEFT(RIGHT(B20,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"UNS"&amp;RIGHT(RIGHT(B20,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G20">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>6501</v>
       </c>
       <c r="J20" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -11466,38 +11735,46 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <f t="shared" si="3"/>
+        <v>2124</v>
+      </c>
+      <c r="O20" t="s">
+        <v>600</v>
+      </c>
+      <c r="P20" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>656</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>657</v>
-      </c>
-      <c r="C21" t="s">
-        <v>625</v>
+        <v>757</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>"UNS"&amp;LEFT(RIGHT(B21,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"UNS"&amp;RIGHT(RIGHT(B21,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>6502</v>
       </c>
       <c r="J21" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -11509,38 +11786,46 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1874</v>
+      </c>
+      <c r="O21" t="s">
+        <v>600</v>
+      </c>
+      <c r="P21" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>659</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="C22" t="s">
-        <v>625</v>
-      </c>
-      <c r="D22" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E22" si="6">"UNS"&amp;UPPER(LEFT(RIGHT(B22,3),1))</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22" si="7">"UNS"&amp;UPPER(LEFT(RIGHT(B22,1),1))</f>
         <v>UNS1</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>6503</v>
       </c>
       <c r="J22" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -11552,38 +11837,46 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1874</v>
+      </c>
+      <c r="O22" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>662</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>663</v>
-      </c>
-      <c r="C23" t="s">
-        <v>625</v>
+        <v>760</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E23:E34" si="8">"UNS"&amp;LEFT(RIGHT(B23,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F34" si="9">"UNS"&amp;RIGHT(RIGHT(B23,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G23">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>6504</v>
       </c>
       <c r="J23" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -11595,38 +11888,46 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2929</v>
+      </c>
+      <c r="O23" t="s">
+        <v>600</v>
+      </c>
+      <c r="P23" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>665</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>666</v>
-      </c>
-      <c r="C24" t="s">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="D24" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G24">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>6505</v>
       </c>
       <c r="J24" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -11638,38 +11939,46 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2929</v>
+      </c>
+      <c r="O24" t="s">
+        <v>600</v>
+      </c>
+      <c r="P24" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>668</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>669</v>
-      </c>
-      <c r="C25" t="s">
-        <v>625</v>
+        <v>764</v>
       </c>
       <c r="D25" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G25">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>6506</v>
       </c>
       <c r="J25" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -11681,38 +11990,46 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="O25" t="s">
+        <v>600</v>
+      </c>
+      <c r="P25" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>671</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
-      </c>
-      <c r="C26" t="s">
-        <v>625</v>
+        <v>766</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H26" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>6507</v>
       </c>
       <c r="J26" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -11724,79 +12041,97 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+      <c r="O26" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>675</v>
-      </c>
-      <c r="C27" t="s">
-        <v>625</v>
+        <v>768</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS3</v>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>6508</v>
+      </c>
+      <c r="J27" t="s">
+        <v>769</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+      <c r="O27" t="s">
+        <v>600</v>
+      </c>
+      <c r="P27" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G27">
-        <v>30</v>
-      </c>
-      <c r="H27" s="3">
-        <v>43217</v>
-      </c>
-      <c r="J27" t="s">
-        <v>676</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>677</v>
-      </c>
-      <c r="B28" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" t="s">
-        <v>625</v>
-      </c>
-      <c r="D28" t="s">
-        <v>679</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
+      <c r="F28" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H28" s="3">
-        <v>43203</v>
+        <v>43014</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>6509</v>
       </c>
       <c r="J28" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -11807,73 +12142,98 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>2865</v>
+      </c>
+      <c r="O28" t="s">
+        <v>600</v>
+      </c>
+      <c r="P28" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>681</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>682</v>
-      </c>
-      <c r="C29" t="s">
-        <v>625</v>
+        <v>772</v>
+      </c>
+      <c r="D29" t="s">
+        <v>613</v>
       </c>
       <c r="E29" t="str">
-        <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,3),1))</f>
-        <v>UNS8</v>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
       </c>
       <c r="F29" t="str">
-        <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,1),1))</f>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43197</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>6510</v>
+      </c>
+      <c r="J29" t="s">
+        <v>773</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>2865</v>
+      </c>
+      <c r="O29" t="s">
+        <v>600</v>
+      </c>
+      <c r="P29" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>774</v>
+      </c>
+      <c r="D30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G29">
-        <v>30</v>
-      </c>
-      <c r="H29" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J29" t="s">
-        <v>683</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>684</v>
-      </c>
-      <c r="B30" t="s">
-        <v>685</v>
-      </c>
-      <c r="C30" t="s">
-        <v>625</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ref="E30:E42" si="2">"UNS"&amp;UPPER(LEFT(RIGHT(B30,3),1))</f>
-        <v>UNS6</v>
-      </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30:F42" si="3">"UNS"&amp;UPPER(LEFT(RIGHT(B30,1),1))</f>
-        <v>UNS7</v>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H30" s="3">
-        <v>43224</v>
+        <v>43014</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>6511</v>
       </c>
       <c r="J30" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -11885,515 +12245,658 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>2119</v>
+      </c>
+      <c r="O30" t="s">
+        <v>600</v>
+      </c>
+      <c r="P30" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>687</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>688</v>
-      </c>
-      <c r="C31" t="s">
-        <v>625</v>
+        <v>776</v>
+      </c>
+      <c r="D31" t="s">
+        <v>613</v>
       </c>
       <c r="E31" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>UNS7</v>
-      </c>
-      <c r="F31" t="str">
+        <v>6512</v>
+      </c>
+      <c r="J31" t="s">
+        <v>777</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
+        <v>1869</v>
+      </c>
+      <c r="O31" t="s">
+        <v>600</v>
+      </c>
+      <c r="P31" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>778</v>
+      </c>
+      <c r="D32" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="H31" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J31" t="s">
-        <v>689</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>690</v>
-      </c>
-      <c r="B32" t="s">
-        <v>691</v>
-      </c>
-      <c r="C32" t="s">
-        <v>625</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F32" t="str">
+        <v>6513</v>
+      </c>
+      <c r="J32" t="s">
+        <v>779</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="3"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="H32" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J32" t="s">
-        <v>692</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>379</v>
+        <v>1869</v>
+      </c>
+      <c r="O32" t="s">
+        <v>600</v>
+      </c>
+      <c r="P32" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>693</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>694</v>
-      </c>
-      <c r="C33" t="s">
-        <v>625</v>
+        <v>780</v>
+      </c>
+      <c r="D33" t="s">
+        <v>613</v>
       </c>
       <c r="E33" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F33" t="str">
+        <v>6514</v>
+      </c>
+      <c r="J33" t="s">
+        <v>781</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="3"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G33">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J33" t="s">
-        <v>695</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>464</v>
+        <v>2924</v>
+      </c>
+      <c r="O33" t="s">
+        <v>600</v>
+      </c>
+      <c r="P33" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>696</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
-      </c>
-      <c r="C34" t="s">
-        <v>625</v>
+        <v>782</v>
+      </c>
+      <c r="D34" t="s">
+        <v>613</v>
       </c>
       <c r="E34" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>UNS6</v>
-      </c>
-      <c r="F34" t="str">
+        <v>6515</v>
+      </c>
+      <c r="J34" t="s">
+        <v>783</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="3"/>
-        <v>UNS7</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="H34" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J34" t="s">
-        <v>698</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>379</v>
+        <v>2924</v>
+      </c>
+      <c r="O34" t="s">
+        <v>600</v>
+      </c>
+      <c r="P34" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>699</v>
-      </c>
-      <c r="B35" t="s">
-        <v>700</v>
-      </c>
-      <c r="C35" t="s">
-        <v>625</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" t="str">
+        <f t="shared" ref="E35:E38" si="10">"UNS"&amp;LEFT(RIGHT(B35,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:F38" si="11">"UNS"&amp;RIGHT(RIGHT(B35,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="G35" s="4">
+        <v>30</v>
+      </c>
+      <c r="H35" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>UNS7</v>
-      </c>
-      <c r="F35" t="str">
+        <v>6601</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="O35" t="s">
+        <v>600</v>
+      </c>
+      <c r="P35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="10"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>6602</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="K36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="O36" t="s">
+        <v>600</v>
+      </c>
+      <c r="P36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="10"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="11"/>
         <v>UNSX</v>
       </c>
-      <c r="G35">
-        <v>30</v>
-      </c>
-      <c r="H35" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J35" t="s">
-        <v>701</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>702</v>
-      </c>
-      <c r="B36" t="s">
-        <v>703</v>
-      </c>
-      <c r="C36" t="s">
-        <v>625</v>
-      </c>
-      <c r="E36" t="str">
+      <c r="G37" s="4">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
+        <v>6603</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="K37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="O37" t="s">
+        <v>600</v>
+      </c>
+      <c r="P37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" t="str">
+        <f t="shared" si="10"/>
         <v>UNS4</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F38" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>30</v>
+      </c>
+      <c r="H38" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>6604</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="K38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="3"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G36">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J36" t="s">
-        <v>704</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>705</v>
-      </c>
-      <c r="B37" t="s">
-        <v>706</v>
-      </c>
-      <c r="C37" t="s">
-        <v>625</v>
-      </c>
-      <c r="E37" t="str">
+        <v>437</v>
+      </c>
+      <c r="O38" t="s">
+        <v>600</v>
+      </c>
+      <c r="P38" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>792</v>
+      </c>
+      <c r="C39" t="s">
+        <v>793</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:E41" si="12">"UNS"&amp;LEFT(RIGHT(B39,3),1)</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F41" si="13">"UNS"&amp;RIGHT(RIGHT(B39,3),1)</f>
+        <v>UNS4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F37" t="str">
+        <v>6605</v>
+      </c>
+      <c r="J39" t="s">
+        <v>794</v>
+      </c>
+      <c r="K39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="3"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="H37" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J37" t="s">
-        <v>707</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>708</v>
-      </c>
-      <c r="B38" t="s">
-        <v>709</v>
-      </c>
-      <c r="C38" t="s">
-        <v>625</v>
-      </c>
-      <c r="E38" t="str">
+        <v>1535</v>
+      </c>
+      <c r="O39" t="s">
+        <v>600</v>
+      </c>
+      <c r="P39" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C40" t="s">
+        <v>793</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="12"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="13"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F38" t="str">
+        <v>6606</v>
+      </c>
+      <c r="J40" t="s">
+        <v>794</v>
+      </c>
+      <c r="K40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="3"/>
+        <v>1535</v>
+      </c>
+      <c r="O40" t="s">
+        <v>600</v>
+      </c>
+      <c r="P40" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C41" t="s">
+        <v>793</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="12"/>
         <v>UNS1</v>
       </c>
-      <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J38" t="s">
-        <v>710</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>711</v>
-      </c>
-      <c r="B39" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" t="s">
-        <v>625</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="F41" t="str">
+        <f t="shared" si="13"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G41" s="4">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F39" t="str">
+        <v>6607</v>
+      </c>
+      <c r="J41" t="s">
+        <v>794</v>
+      </c>
+      <c r="K41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G39">
-        <v>30</v>
-      </c>
-      <c r="H39" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J39" t="s">
-        <v>713</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>714</v>
-      </c>
-      <c r="B40" t="s">
-        <v>715</v>
-      </c>
-      <c r="C40" t="s">
-        <v>625</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J40" t="s">
-        <v>716</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>717</v>
-      </c>
-      <c r="B41" t="s">
-        <v>718</v>
-      </c>
-      <c r="C41" t="s">
-        <v>625</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G41">
-        <v>30</v>
-      </c>
-      <c r="H41" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J41" t="s">
-        <v>719</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1869</v>
+        <v>1535</v>
+      </c>
+      <c r="O41" t="s">
+        <v>600</v>
+      </c>
+      <c r="P41" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>721</v>
+        <v>829</v>
       </c>
       <c r="C42" t="s">
-        <v>625</v>
-      </c>
-      <c r="E42" t="str">
+        <v>624</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F42" t="str">
+        <v>6510</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G42">
-        <v>30</v>
-      </c>
-      <c r="H42" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J42" t="s">
-        <v>722</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>2924</v>
+        <v>1032</v>
+      </c>
+      <c r="O42" t="s">
+        <v>738</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>723</v>
+        <v>831</v>
       </c>
       <c r="C43" t="s">
-        <v>625</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" ref="E43:E60" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B43,3),1))</f>
-        <v>UNS1</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" ref="F43:F60" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B43,1),1))</f>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
       </c>
       <c r="G43">
         <v>30</v>
       </c>
       <c r="H43" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J43" t="s">
-        <v>724</v>
+        <v>43298</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>6511</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>832</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -12405,41 +12908,44 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1173</v>
+        <f t="shared" si="3"/>
+        <v>1117</v>
       </c>
       <c r="O43" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P43" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>725</v>
+        <v>833</v>
       </c>
       <c r="C44" t="s">
-        <v>625</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
       </c>
       <c r="G44">
         <v>30</v>
       </c>
       <c r="H44" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J44" t="s">
-        <v>726</v>
+        <v>43298</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>6512</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -12451,41 +12957,44 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>653</v>
       </c>
       <c r="O44" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P44" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>727</v>
+        <v>835</v>
       </c>
       <c r="C45" t="s">
-        <v>625</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
       </c>
       <c r="G45">
         <v>30</v>
       </c>
       <c r="H45" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J45" t="s">
-        <v>728</v>
+        <v>43298</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>6513</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -12497,41 +13006,44 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>576</v>
       </c>
       <c r="O45" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P45" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="C46" t="s">
-        <v>625</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
       </c>
       <c r="G46">
         <v>30</v>
       </c>
       <c r="H46" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J46" t="s">
-        <v>730</v>
+        <v>43298</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>6514</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -12543,41 +13055,44 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1165</v>
+        <f t="shared" si="3"/>
+        <v>959</v>
       </c>
       <c r="O46" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P46" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>731</v>
+        <v>838</v>
       </c>
       <c r="C47" t="s">
-        <v>625</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
       </c>
       <c r="G47">
         <v>30</v>
       </c>
       <c r="H47" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J47" t="s">
-        <v>732</v>
+        <v>43298</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>6515</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -12589,41 +13104,44 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="O47" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P47" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>733</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>691</v>
+        <v>840</v>
       </c>
       <c r="C48" t="s">
-        <v>625</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS5</v>
+        <v>624</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
       </c>
       <c r="G48">
         <v>30</v>
       </c>
       <c r="H48" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J48" t="s">
-        <v>692</v>
+        <v>43298</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>6516</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -12635,35 +13153,44 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="O48" t="s">
+        <v>738</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>734</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>694</v>
+        <v>842</v>
       </c>
       <c r="C49" t="s">
-        <v>625</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="5"/>
-        <v>UNSX</v>
+        <v>624</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
       </c>
       <c r="G49">
         <v>30</v>
       </c>
       <c r="H49" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J49" t="s">
-        <v>695</v>
+        <v>43298</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>6517</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -12675,35 +13202,44 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>464</v>
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="O49" t="s">
+        <v>738</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>735</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>703</v>
+        <v>844</v>
       </c>
       <c r="C50" t="s">
-        <v>625</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS5</v>
+        <v>624</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
       </c>
       <c r="G50">
         <v>30</v>
       </c>
       <c r="H50" s="3">
-        <v>43237</v>
+        <v>43298</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>6518</v>
       </c>
       <c r="J50" t="s">
-        <v>704</v>
+        <v>845</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -12715,35 +13251,44 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="O50" t="s">
+        <v>738</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>736</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="5"/>
-        <v>UNSX</v>
+        <v>624</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
       </c>
       <c r="G51">
         <v>30</v>
       </c>
       <c r="H51" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J51" t="s">
-        <v>707</v>
+        <v>43298</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>6519</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -12755,50 +13300,60 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>464</v>
+        <f t="shared" si="3"/>
+        <v>1030</v>
+      </c>
+      <c r="O51" t="s">
+        <v>738</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="C52" t="s">
-        <v>625</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>624</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
       </c>
       <c r="G52">
         <v>30</v>
       </c>
       <c r="H52" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J52" t="s">
+        <v>43298</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>6520</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>1031</v>
+      </c>
+      <c r="O52" t="s">
         <v>738</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>624</v>
-      </c>
-      <c r="O52" t="s">
-        <v>739</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -12806,30 +13361,23 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>740</v>
-      </c>
-      <c r="C53" t="s">
-        <v>625</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS3</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS4</v>
+        <v>850</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>13.62</v>
       </c>
       <c r="H53" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>6521</v>
       </c>
       <c r="J53" t="s">
-        <v>741</v>
+        <v>853</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -12841,10 +13389,11 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>959</v>
+        <f t="shared" si="3"/>
+        <v>4153</v>
       </c>
       <c r="O53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
@@ -12852,30 +13401,23 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>742</v>
-      </c>
-      <c r="C54" t="s">
-        <v>625</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS3</v>
+        <v>851</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>27.18</v>
       </c>
       <c r="H54" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>6522</v>
       </c>
       <c r="J54" t="s">
-        <v>743</v>
+        <v>854</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -12887,10 +13429,11 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>638</v>
+        <f t="shared" si="3"/>
+        <v>2105</v>
       </c>
       <c r="O54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
@@ -12898,30 +13441,29 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>744</v>
-      </c>
-      <c r="C55" t="s">
-        <v>625</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="5"/>
-        <v>UNS5</v>
+        <v>852</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
       </c>
       <c r="G55">
         <v>30</v>
       </c>
       <c r="H55" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>6523</v>
       </c>
       <c r="J55" t="s">
-        <v>745</v>
+        <v>794</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -12933,271 +13475,301 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1023</v>
+        <f t="shared" si="3"/>
+        <v>1535</v>
       </c>
       <c r="O55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>40</v>
+      <c r="A56" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>746</v>
+        <v>855</v>
       </c>
       <c r="C56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E56" si="14">"UNS"&amp;LEFT(RIGHT(B56,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56" si="15">"UNS"&amp;RIGHT(RIGHT(B56,3),1)</f>
+        <v>UNS6</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>6608</v>
+      </c>
+      <c r="J56" t="s">
+        <v>856</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>1184</v>
+      </c>
+      <c r="O56" t="s">
+        <v>600</v>
+      </c>
+      <c r="P56" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>857</v>
+      </c>
+      <c r="C57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ref="E57:E68" si="16">"UNS"&amp;LEFT(RIGHT(B57,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ref="F57:F68" si="17">"UNS"&amp;RIGHT(RIGHT(B57,3),1)</f>
+        <v>UNS6</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>6609</v>
+      </c>
+      <c r="J57" t="s">
+        <v>858</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>1113</v>
+      </c>
+      <c r="O57" t="s">
+        <v>600</v>
+      </c>
+      <c r="P57" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
+        <v>859</v>
+      </c>
+      <c r="C58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="16"/>
         <v>UNS4</v>
       </c>
-      <c r="F56" t="str">
-        <f t="shared" si="5"/>
+      <c r="F58" t="str">
+        <f t="shared" si="17"/>
         <v>UNS5</v>
       </c>
-      <c r="G56">
-        <v>20</v>
-      </c>
-      <c r="H56" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J56" t="s">
-        <v>747</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1279</v>
-      </c>
-      <c r="O56" t="s">
-        <v>739</v>
-      </c>
-      <c r="P56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>748</v>
-      </c>
-      <c r="C57" t="s">
-        <v>625</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="4"/>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>6610</v>
+      </c>
+      <c r="J58" t="s">
+        <v>860</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>1106</v>
+      </c>
+      <c r="O58" t="s">
+        <v>600</v>
+      </c>
+      <c r="P58" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>861</v>
+      </c>
+      <c r="C59" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="16"/>
         <v>UNS5</v>
       </c>
-      <c r="F57" t="str">
-        <f t="shared" si="5"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G57">
-        <v>30</v>
-      </c>
-      <c r="H57" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J57" t="s">
-        <v>749</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>653</v>
-      </c>
-      <c r="O57" t="s">
-        <v>739</v>
-      </c>
-      <c r="P57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" t="s">
-        <v>750</v>
-      </c>
-      <c r="C58" t="s">
-        <v>625</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="4"/>
+      <c r="F59" t="str">
+        <f t="shared" si="17"/>
+        <v>UNS6</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>6611</v>
+      </c>
+      <c r="J59" t="s">
+        <v>862</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>1038</v>
+      </c>
+      <c r="O59" t="s">
+        <v>600</v>
+      </c>
+      <c r="P59" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>863</v>
+      </c>
+      <c r="C60" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="16"/>
         <v>UNS5</v>
       </c>
-      <c r="F58" t="str">
-        <f t="shared" si="5"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G58">
-        <v>30</v>
-      </c>
-      <c r="H58" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J58" t="s">
-        <v>751</v>
-      </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>576</v>
-      </c>
-      <c r="O58" t="s">
-        <v>739</v>
-      </c>
-      <c r="P58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" t="s">
-        <v>752</v>
-      </c>
-      <c r="C59" t="s">
-        <v>625</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS3</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="5"/>
+      <c r="F60" t="str">
+        <f t="shared" si="17"/>
         <v>UNS6</v>
       </c>
-      <c r="G59">
-        <v>30</v>
-      </c>
-      <c r="H59" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J59" t="s">
-        <v>753</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1009</v>
-      </c>
-      <c r="O59" t="s">
-        <v>739</v>
-      </c>
-      <c r="P59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>754</v>
-      </c>
-      <c r="C60" t="s">
-        <v>625</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="4"/>
-        <v>UNS6</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="5"/>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43301</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>6612</v>
+      </c>
+      <c r="J60" t="s">
+        <v>864</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>967</v>
+      </c>
+      <c r="O60" t="s">
+        <v>600</v>
+      </c>
+      <c r="P60" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>865</v>
+      </c>
+      <c r="C61" t="s">
+        <v>624</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="16"/>
         <v>UNS4</v>
       </c>
-      <c r="G60">
-        <v>30</v>
-      </c>
-      <c r="H60" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J60" t="s">
-        <v>755</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1305</v>
-      </c>
-      <c r="O60" t="s">
-        <v>739</v>
-      </c>
-      <c r="P60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>756</v>
-      </c>
-      <c r="D61" t="s">
-        <v>614</v>
-      </c>
-      <c r="E61" t="str">
-        <f>"UNS"&amp;LEFT(RIGHT(B61,3),1)</f>
-        <v>UNSX</v>
-      </c>
       <c r="F61" t="str">
-        <f>"UNS"&amp;RIGHT(RIGHT(B61,3),1)</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS5</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H61" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>6613</v>
       </c>
       <c r="J61" t="s">
-        <v>757</v>
+        <v>866</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -13209,42 +13781,46 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <f>LEN(J61)</f>
-        <v>2124</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="O61" t="s">
         <v>600</v>
       </c>
       <c r="P61" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>25</v>
+      <c r="A62" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>758</v>
-      </c>
-      <c r="D62" t="s">
-        <v>614</v>
+        <v>867</v>
+      </c>
+      <c r="C62" t="s">
+        <v>624</v>
       </c>
       <c r="E62" t="str">
-        <f>"UNS"&amp;LEFT(RIGHT(B62,3),1)</f>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS1</v>
       </c>
       <c r="F62" t="str">
-        <f>"UNS"&amp;RIGHT(RIGHT(B62,3),1)</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS3</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H62" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>6614</v>
       </c>
       <c r="J62" t="s">
-        <v>759</v>
+        <v>868</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -13256,42 +13832,46 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N75" si="6">LEN(J62)</f>
-        <v>1874</v>
+        <f t="shared" si="3"/>
+        <v>1880</v>
       </c>
       <c r="O62" t="s">
         <v>600</v>
       </c>
       <c r="P62" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>30</v>
+      <c r="A63" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>760</v>
+        <v>869</v>
       </c>
       <c r="C63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63" si="7">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" ref="F63" si="8">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS3</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H63" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>6615</v>
       </c>
       <c r="J63" t="s">
-        <v>622</v>
+        <v>870</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -13303,42 +13883,46 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="6"/>
-        <v>1874</v>
+        <f t="shared" si="3"/>
+        <v>1812</v>
       </c>
       <c r="O63" t="s">
         <v>600</v>
       </c>
       <c r="P63" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>35</v>
+      <c r="A64" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>761</v>
-      </c>
-      <c r="D64" t="s">
-        <v>614</v>
+        <v>880</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ref="E64:E75" si="9">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
+        <f t="shared" si="16"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="17"/>
         <v>UNSX</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" ref="F64:F75" si="10">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
-        <v>UNS1</v>
-      </c>
       <c r="G64">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H64" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>6616</v>
       </c>
       <c r="J64" t="s">
-        <v>762</v>
+        <v>871</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -13350,42 +13934,46 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="6"/>
-        <v>2929</v>
+        <f t="shared" si="3"/>
+        <v>1113</v>
       </c>
       <c r="O64" t="s">
         <v>600</v>
       </c>
       <c r="P64" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>40</v>
+      <c r="A65" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>763</v>
-      </c>
-      <c r="D65" t="s">
-        <v>614</v>
+        <v>872</v>
+      </c>
+      <c r="C65" t="s">
+        <v>624</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS8</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS5</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H65" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>6617</v>
       </c>
       <c r="J65" t="s">
-        <v>764</v>
+        <v>873</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -13397,42 +13985,46 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
-        <v>2929</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="O65" t="s">
         <v>600</v>
       </c>
       <c r="P65" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>44</v>
+      <c r="A66" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>765</v>
-      </c>
-      <c r="D66" t="s">
-        <v>614</v>
+        <v>874</v>
+      </c>
+      <c r="C66" t="s">
+        <v>624</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H66" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>6618</v>
       </c>
       <c r="J66" t="s">
-        <v>766</v>
+        <v>875</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -13444,42 +14036,46 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="6"/>
-        <v>2060</v>
+        <f t="shared" si="3"/>
+        <v>379</v>
       </c>
       <c r="O66" t="s">
         <v>600</v>
       </c>
       <c r="P66" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>49</v>
+      <c r="A67" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>767</v>
-      </c>
-      <c r="D67" t="s">
-        <v>614</v>
+        <v>876</v>
+      </c>
+      <c r="C67" t="s">
+        <v>624</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H67" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="18">CODE(LEFT(A67,1))*100+MID(A67,2,10)</f>
+        <v>6619</v>
       </c>
       <c r="J67" t="s">
-        <v>768</v>
+        <v>877</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -13491,42 +14087,46 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="6"/>
-        <v>1810</v>
+        <f t="shared" ref="N67:N68" si="19">LEN(J67)</f>
+        <v>379</v>
       </c>
       <c r="O67" t="s">
         <v>600</v>
       </c>
       <c r="P67" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>55</v>
+      <c r="A68" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>769</v>
-      </c>
-      <c r="D68" t="s">
-        <v>614</v>
+        <v>878</v>
+      </c>
+      <c r="C68" t="s">
+        <v>624</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H68" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I68">
+        <f>CODE(LEFT(A68,1))*100+MID(A68,2,10)</f>
+        <v>6620</v>
       </c>
       <c r="J68" t="s">
-        <v>770</v>
+        <v>879</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -13538,1266 +14138,49 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="6"/>
-        <v>1810</v>
+        <f t="shared" si="19"/>
+        <v>379</v>
       </c>
       <c r="O68" t="s">
         <v>600</v>
       </c>
       <c r="P68" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>771</v>
-      </c>
-      <c r="D69" t="s">
-        <v>614</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G69">
-        <v>24</v>
-      </c>
-      <c r="H69" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J69" t="s">
-        <v>772</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="6"/>
-        <v>2865</v>
-      </c>
-      <c r="O69" t="s">
-        <v>600</v>
-      </c>
-      <c r="P69" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>773</v>
-      </c>
-      <c r="D70" t="s">
-        <v>614</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="H70" s="3">
-        <v>43197</v>
-      </c>
-      <c r="J70" t="s">
-        <v>774</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="6"/>
-        <v>2865</v>
-      </c>
-      <c r="O70" t="s">
-        <v>600</v>
-      </c>
-      <c r="P70" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>775</v>
-      </c>
-      <c r="D71" t="s">
-        <v>614</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G71">
-        <v>24</v>
-      </c>
-      <c r="H71" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J71" t="s">
-        <v>776</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="6"/>
-        <v>2119</v>
-      </c>
-      <c r="O71" t="s">
-        <v>600</v>
-      </c>
-      <c r="P71" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>777</v>
-      </c>
-      <c r="D72" t="s">
-        <v>614</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G72">
-        <v>24</v>
-      </c>
-      <c r="H72" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J72" t="s">
-        <v>778</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="6"/>
-        <v>1869</v>
-      </c>
-      <c r="O72" t="s">
-        <v>600</v>
-      </c>
-      <c r="P72" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>779</v>
-      </c>
-      <c r="D73" t="s">
-        <v>614</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G73">
-        <v>24</v>
-      </c>
-      <c r="H73" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J73" t="s">
-        <v>780</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="6"/>
-        <v>1869</v>
-      </c>
-      <c r="O73" t="s">
-        <v>600</v>
-      </c>
-      <c r="P73" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>781</v>
-      </c>
-      <c r="D74" t="s">
-        <v>614</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G74">
-        <v>24</v>
-      </c>
-      <c r="H74" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J74" t="s">
-        <v>782</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="6"/>
-        <v>2924</v>
-      </c>
-      <c r="O74" t="s">
-        <v>600</v>
-      </c>
-      <c r="P74" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>783</v>
-      </c>
-      <c r="D75" t="s">
-        <v>614</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="9"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G75">
-        <v>24</v>
-      </c>
-      <c r="H75" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J75" t="s">
-        <v>784</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="6"/>
-        <v>2924</v>
-      </c>
-      <c r="O75" t="s">
-        <v>600</v>
-      </c>
-      <c r="P75" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" t="str">
-        <f t="shared" ref="E76:E79" si="11">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
-        <v>UNS5</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" ref="F76:F79" si="12">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
-        <v>UNSX</v>
-      </c>
-      <c r="G76" s="4">
-        <v>30</v>
-      </c>
-      <c r="H76" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="K76" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <v>0</v>
-      </c>
-      <c r="N76" s="4">
-        <v>438</v>
-      </c>
-      <c r="O76" t="s">
-        <v>600</v>
-      </c>
-      <c r="P76" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" t="str">
-        <f t="shared" si="11"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="12"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G77" s="4">
-        <v>30</v>
-      </c>
-      <c r="H77" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="K77" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="4">
-        <v>447</v>
-      </c>
-      <c r="O77" t="s">
-        <v>600</v>
-      </c>
-      <c r="P77" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" t="str">
-        <f t="shared" si="11"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="12"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G78" s="4">
-        <v>30</v>
-      </c>
-      <c r="H78" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="K78" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="4">
-        <v>428</v>
-      </c>
-      <c r="O78" t="s">
-        <v>600</v>
-      </c>
-      <c r="P78" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" t="str">
-        <f t="shared" si="11"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="12"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G79" s="4">
-        <v>30</v>
-      </c>
-      <c r="H79" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="K79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <v>0</v>
-      </c>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="4">
-        <v>437</v>
-      </c>
-      <c r="O79" t="s">
-        <v>600</v>
-      </c>
-      <c r="P79" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" t="s">
-        <v>793</v>
-      </c>
-      <c r="C80" t="s">
-        <v>794</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" ref="E80:E82" si="13">"UNS"&amp;LEFT(RIGHT(B80,3),1)</f>
-        <v>UNS1</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" ref="F80:F82" si="14">"UNS"&amp;RIGHT(RIGHT(B80,3),1)</f>
-        <v>UNS4</v>
-      </c>
-      <c r="G80" s="4">
-        <v>30</v>
-      </c>
-      <c r="H80" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J80" t="s">
-        <v>795</v>
-      </c>
-      <c r="K80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>600</v>
-      </c>
-      <c r="P80" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C81" t="s">
-        <v>794</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="13"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="14"/>
-        <v>UNS4</v>
-      </c>
-      <c r="G81" s="4">
-        <v>30</v>
-      </c>
-      <c r="H81" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J81" t="s">
-        <v>795</v>
-      </c>
-      <c r="K81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>600</v>
-      </c>
-      <c r="P81" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C82" t="s">
-        <v>794</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="13"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="14"/>
-        <v>UNS4</v>
-      </c>
-      <c r="G82" s="4">
-        <v>30</v>
-      </c>
-      <c r="H82" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J82" t="s">
-        <v>795</v>
-      </c>
-      <c r="K82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>600</v>
-      </c>
-      <c r="P82" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" t="s">
-        <v>830</v>
-      </c>
-      <c r="C83" t="s">
-        <v>625</v>
-      </c>
-      <c r="E83" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G83">
-        <v>30</v>
-      </c>
-      <c r="H83" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>1032</v>
-      </c>
-      <c r="O83" t="s">
-        <v>739</v>
-      </c>
-      <c r="P83" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" t="s">
-        <v>832</v>
-      </c>
-      <c r="C84" t="s">
-        <v>625</v>
-      </c>
-      <c r="E84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84">
-        <v>30</v>
-      </c>
-      <c r="H84" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1117</v>
-      </c>
-      <c r="O84" t="s">
-        <v>739</v>
-      </c>
-      <c r="P84" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" t="s">
-        <v>834</v>
-      </c>
-      <c r="C85" t="s">
-        <v>625</v>
-      </c>
-      <c r="E85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85">
-        <v>30</v>
-      </c>
-      <c r="H85" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>653</v>
-      </c>
-      <c r="O85" t="s">
-        <v>739</v>
-      </c>
-      <c r="P85" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>836</v>
-      </c>
-      <c r="C86" t="s">
-        <v>625</v>
-      </c>
-      <c r="E86" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86">
-        <v>30</v>
-      </c>
-      <c r="H86" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="K86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>576</v>
-      </c>
-      <c r="O86" t="s">
-        <v>739</v>
-      </c>
-      <c r="P86" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" t="s">
-        <v>838</v>
-      </c>
-      <c r="C87" t="s">
-        <v>625</v>
-      </c>
-      <c r="E87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87">
-        <v>30</v>
-      </c>
-      <c r="H87" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>959</v>
-      </c>
-      <c r="O87" t="s">
-        <v>739</v>
-      </c>
-      <c r="P87" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>839</v>
-      </c>
-      <c r="C88" t="s">
-        <v>625</v>
-      </c>
-      <c r="E88" t="s">
-        <v>33</v>
-      </c>
-      <c r="F88" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88">
-        <v>30</v>
-      </c>
-      <c r="H88" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="K88" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1000</v>
-      </c>
-      <c r="O88" t="s">
-        <v>739</v>
-      </c>
-      <c r="P88" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>841</v>
-      </c>
-      <c r="C89" t="s">
-        <v>625</v>
-      </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89">
-        <v>30</v>
-      </c>
-      <c r="H89" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>1009</v>
-      </c>
-      <c r="O89" t="s">
-        <v>739</v>
-      </c>
-      <c r="P89" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" t="s">
-        <v>843</v>
-      </c>
-      <c r="C90" t="s">
-        <v>625</v>
-      </c>
-      <c r="E90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" t="s">
-        <v>52</v>
-      </c>
-      <c r="G90">
-        <v>30</v>
-      </c>
-      <c r="H90" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>1024</v>
-      </c>
-      <c r="O90" t="s">
-        <v>739</v>
-      </c>
-      <c r="P90" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>845</v>
-      </c>
-      <c r="C91" t="s">
-        <v>625</v>
-      </c>
-      <c r="E91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91">
-        <v>30</v>
-      </c>
-      <c r="H91" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J91" t="s">
-        <v>846</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>168</v>
-      </c>
-      <c r="O91" t="s">
-        <v>739</v>
-      </c>
-      <c r="P91" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>847</v>
-      </c>
-      <c r="C92" t="s">
-        <v>625</v>
-      </c>
-      <c r="E92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F92" t="s">
-        <v>71</v>
-      </c>
-      <c r="G92">
-        <v>30</v>
-      </c>
-      <c r="H92" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>1030</v>
-      </c>
-      <c r="O92" t="s">
-        <v>739</v>
-      </c>
-      <c r="P92" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" t="s">
-        <v>849</v>
-      </c>
-      <c r="C93" t="s">
-        <v>625</v>
-      </c>
-      <c r="E93" t="s">
-        <v>52</v>
-      </c>
-      <c r="F93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93">
-        <v>30</v>
-      </c>
-      <c r="H93" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>1031</v>
-      </c>
-      <c r="O93" t="s">
-        <v>739</v>
-      </c>
-      <c r="P93" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" t="s">
-        <v>851</v>
-      </c>
-      <c r="G94">
-        <v>13.62</v>
-      </c>
-      <c r="H94" s="3">
-        <v>43304</v>
-      </c>
-      <c r="J94" t="s">
-        <v>854</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>4000</v>
-      </c>
-      <c r="O94" t="s">
-        <v>739</v>
-      </c>
-      <c r="P94" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" t="s">
-        <v>852</v>
-      </c>
-      <c r="G95">
-        <v>27.18</v>
-      </c>
-      <c r="H95" s="3">
-        <v>43304</v>
-      </c>
-      <c r="J95" t="s">
-        <v>855</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>1750</v>
-      </c>
-      <c r="O95" t="s">
-        <v>739</v>
-      </c>
-      <c r="P95" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" t="s">
-        <v>853</v>
-      </c>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96">
-        <v>30</v>
-      </c>
-      <c r="H96" s="3">
-        <v>43304</v>
-      </c>
-      <c r="J96" t="s">
-        <v>795</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>1300</v>
-      </c>
-      <c r="O96" t="s">
-        <v>739</v>
-      </c>
-      <c r="P96" t="s">
-        <v>601</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P82"/>
+  <autoFilter ref="A1:P68"/>
   <mergeCells count="4">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:P1">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O34 O20:O21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O34">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14809,7 +14192,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64:O75 O3 O61:O62 O48:O51 O7:O42">
+  <conditionalFormatting sqref="O10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -14821,7 +14204,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:O75">
+  <conditionalFormatting sqref="O10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -14833,7 +14216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14845,7 +14228,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -14857,7 +14240,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -14869,7 +14252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O8">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -14881,7 +14264,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14893,7 +14276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -14905,7 +14288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14917,7 +14300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -14929,7 +14312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14941,7 +14324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -14953,7 +14336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -14965,7 +14348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -14977,7 +14360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -14989,7 +14372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -15001,7 +14384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15013,7 +14396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15025,7 +14408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15037,7 +14420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15049,7 +14432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -15061,7 +14444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -15073,7 +14456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80:O82">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15085,7 +14468,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80:O82">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15103,10 +14486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16026,8 +15409,1599 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>602</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D25" t="s">
+        <v>613</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>614</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>616</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>618</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>621</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>626</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C30" t="s">
+        <v>624</v>
+      </c>
+      <c r="D30" t="s">
+        <v>625</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>629</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" t="s">
+        <v>625</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>632</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>633</v>
+      </c>
+      <c r="B32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C32" t="s">
+        <v>624</v>
+      </c>
+      <c r="D32" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>635</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>636</v>
+      </c>
+      <c r="B33" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" t="s">
+        <v>625</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>638</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>639</v>
+      </c>
+      <c r="B34" t="s">
+        <v>640</v>
+      </c>
+      <c r="C34" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" t="s">
+        <v>625</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>641</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>642</v>
+      </c>
+      <c r="B35" t="s">
+        <v>643</v>
+      </c>
+      <c r="C35" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" t="s">
+        <v>625</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J35" t="s">
+        <v>644</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>645</v>
+      </c>
+      <c r="B36" t="s">
+        <v>646</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>647</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" t="s">
+        <v>624</v>
+      </c>
+      <c r="D37" t="s">
+        <v>625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J37" t="s">
+        <v>650</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" t="s">
+        <v>653</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J38" t="s">
+        <v>654</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C39" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J39" t="s">
+        <v>657</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>658</v>
+      </c>
+      <c r="B40" t="s">
+        <v>659</v>
+      </c>
+      <c r="C40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" t="s">
+        <v>653</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J40" t="s">
+        <v>660</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>661</v>
+      </c>
+      <c r="B41" t="s">
+        <v>662</v>
+      </c>
+      <c r="C41" t="s">
+        <v>624</v>
+      </c>
+      <c r="D41" t="s">
+        <v>653</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J41" t="s">
+        <v>663</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>664</v>
+      </c>
+      <c r="B42" t="s">
+        <v>665</v>
+      </c>
+      <c r="C42" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" t="s">
+        <v>653</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J42" t="s">
+        <v>666</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B43" t="s">
+        <v>668</v>
+      </c>
+      <c r="C43" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" t="s">
+        <v>653</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J43" t="s">
+        <v>669</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>670</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D44" t="s">
+        <v>653</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J44" t="s">
+        <v>672</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>673</v>
+      </c>
+      <c r="B45" t="s">
+        <v>674</v>
+      </c>
+      <c r="C45" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" t="s">
+        <v>653</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J45" t="s">
+        <v>675</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>676</v>
+      </c>
+      <c r="B46" t="s">
+        <v>677</v>
+      </c>
+      <c r="C46" t="s">
+        <v>624</v>
+      </c>
+      <c r="D46" t="s">
+        <v>678</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43203</v>
+      </c>
+      <c r="J46" t="s">
+        <v>679</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>680</v>
+      </c>
+      <c r="B47" t="s">
+        <v>681</v>
+      </c>
+      <c r="C47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J47" t="s">
+        <v>682</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>683</v>
+      </c>
+      <c r="B48" t="s">
+        <v>684</v>
+      </c>
+      <c r="C48" t="s">
+        <v>624</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J48" t="s">
+        <v>685</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>686</v>
+      </c>
+      <c r="B49" t="s">
+        <v>687</v>
+      </c>
+      <c r="C49" t="s">
+        <v>624</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J49" t="s">
+        <v>688</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" t="s">
+        <v>690</v>
+      </c>
+      <c r="C50" t="s">
+        <v>624</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J50" t="s">
+        <v>691</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>692</v>
+      </c>
+      <c r="B51" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J51" t="s">
+        <v>694</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>695</v>
+      </c>
+      <c r="B52" t="s">
+        <v>696</v>
+      </c>
+      <c r="C52" t="s">
+        <v>624</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J52" t="s">
+        <v>697</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>698</v>
+      </c>
+      <c r="B53" t="s">
+        <v>699</v>
+      </c>
+      <c r="C53" t="s">
+        <v>624</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J53" t="s">
+        <v>700</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>701</v>
+      </c>
+      <c r="B54" t="s">
+        <v>702</v>
+      </c>
+      <c r="C54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J54" t="s">
+        <v>703</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>704</v>
+      </c>
+      <c r="B55" t="s">
+        <v>705</v>
+      </c>
+      <c r="C55" t="s">
+        <v>624</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J55" t="s">
+        <v>706</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>707</v>
+      </c>
+      <c r="B56" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56" t="s">
+        <v>624</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J56" t="s">
+        <v>709</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B57" t="s">
+        <v>711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J57" t="s">
+        <v>712</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>713</v>
+      </c>
+      <c r="B58" t="s">
+        <v>714</v>
+      </c>
+      <c r="C58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J58" t="s">
+        <v>715</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>716</v>
+      </c>
+      <c r="B59" t="s">
+        <v>717</v>
+      </c>
+      <c r="C59" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J59" t="s">
+        <v>718</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>719</v>
+      </c>
+      <c r="B60" t="s">
+        <v>720</v>
+      </c>
+      <c r="C60" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J60" t="s">
+        <v>721</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B61" t="s">
+        <v>690</v>
+      </c>
+      <c r="C61" t="s">
+        <v>624</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J61" t="s">
+        <v>691</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>733</v>
+      </c>
+      <c r="B62" t="s">
+        <v>693</v>
+      </c>
+      <c r="C62" t="s">
+        <v>624</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J62" t="s">
+        <v>694</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>734</v>
+      </c>
+      <c r="B63" t="s">
+        <v>702</v>
+      </c>
+      <c r="C63" t="s">
+        <v>624</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63">
+        <v>30</v>
+      </c>
+      <c r="H63" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J63" t="s">
+        <v>703</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>735</v>
+      </c>
+      <c r="B64" t="s">
+        <v>705</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64">
+        <v>30</v>
+      </c>
+      <c r="H64" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J64" t="s">
+        <v>706</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16039,7 +17013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="G3:G4">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16051,7 +17025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
+  <conditionalFormatting sqref="G6:G12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -16063,19 +17037,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G12">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="O2:O13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16087,7 +17061,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
+  <conditionalFormatting sqref="G14:G18 G20:G23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O18 O20:O23">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16099,56 +17109,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G18 G20:G23">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O18 O20:O23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
@@ -16160,7 +17122,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P1">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:O64">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16187,79 +17161,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" t="s">
         <v>798</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>799</v>
-      </c>
-      <c r="C1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -16760,7 +17734,7 @@
         <v>30.31</v>
       </c>
       <c r="H7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I7">
         <v>42.84</v>
@@ -16811,7 +17785,7 @@
         <v>42.06</v>
       </c>
       <c r="Y7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -16819,7 +17793,7 @@
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C8">
         <v>42.96</v>
@@ -16873,7 +17847,7 @@
         <v>47.56</v>
       </c>
       <c r="T8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U8">
         <v>42.56</v>
@@ -16888,12 +17862,12 @@
         <v>49.82</v>
       </c>
       <c r="Y8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B9">
         <v>41.02</v>
@@ -16935,37 +17909,37 @@
         <v>47.84</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -16973,615 +17947,615 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H10">
         <v>9.25</v>
       </c>
       <c r="I10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X16">
         <v>48.14</v>
       </c>
       <c r="Y16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -10557,7 +10557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G92 G94">
+  <conditionalFormatting sqref="G94 G92">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10724,9 +10724,9 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13507,7 +13507,7 @@
         <v>30</v>
       </c>
       <c r="H56" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
@@ -13558,7 +13558,7 @@
         <v>30</v>
       </c>
       <c r="H57" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
@@ -13609,7 +13609,7 @@
         <v>30</v>
       </c>
       <c r="H58" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
@@ -13660,7 +13660,7 @@
         <v>30</v>
       </c>
       <c r="H59" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
@@ -13711,7 +13711,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
@@ -13762,7 +13762,7 @@
         <v>30</v>
       </c>
       <c r="H61" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
@@ -13813,7 +13813,7 @@
         <v>30</v>
       </c>
       <c r="H62" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
@@ -13864,7 +13864,7 @@
         <v>30</v>
       </c>
       <c r="H63" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
@@ -13915,7 +13915,7 @@
         <v>30</v>
       </c>
       <c r="H64" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
@@ -13966,7 +13966,7 @@
         <v>30</v>
       </c>
       <c r="H65" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
@@ -14017,7 +14017,7 @@
         <v>30</v>
       </c>
       <c r="H66" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
@@ -14068,7 +14068,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67" si="18">CODE(LEFT(A67,1))*100+MID(A67,2,10)</f>
@@ -14119,7 +14119,7 @@
         <v>30</v>
       </c>
       <c r="H68" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I68">
         <f>CODE(LEFT(A68,1))*100+MID(A68,2,10)</f>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -19,7 +19,7 @@
     <sheet name="survey" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Gibson!$A$1:$P$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parts_1!$A$1:$O$175</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="882">
   <si>
     <t>well</t>
   </si>
@@ -1843,9 +1843,6 @@
     <t>ASSGIB01</t>
   </si>
   <si>
-    <t>384LDV_Plus_AQ_BP</t>
-  </si>
-  <si>
     <t>LasdcasT2m3-4</t>
   </si>
   <si>
@@ -2599,7 +2596,94 @@
     <t>cas9_BB</t>
   </si>
   <si>
-    <t>lys2_PCR_prod</t>
+    <t>ATTCGCGGCCGGTCTCAAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTAAGGTTGAGACCTGCAGGCTTCCTCGCTCA</t>
+  </si>
+  <si>
+    <t>GGAGGTGACTAAGGTTGAGACCTGCAGGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCACAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCATAGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGAACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGCGACCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTCTAAGAAACCATTATTATCATGACATTAACCTATAAAAATAGGCGTATCACGAGGCAGAATTTCAGATAAAAAAAATCCTTAGCTTTCGCTAAGGATGATTTCTGGAATTCGCGGCCGGTCTCAAATGGATAAGAAATACTCAATAG</t>
+  </si>
+  <si>
+    <t>NT1DE5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>NT18m5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>NT19m4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>CT1DE5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtccaggcatcaaataaaacgaaaggctcagtcgaaagactgggcctttcgttttatctgttgtttgtcggtgaacgctctctactagagtcacactggctcaccttcgggtgggcctttctgcgtttatagcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>CT18m5-6</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttctcgttcgctgccacctaagaatactctacggtcacatac</t>
+  </si>
+  <si>
+    <t>CT19m4-5</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>S22bxT17m1-3</t>
+  </si>
+  <si>
+    <t>cattactcgcatccattctcaggctgtctcgtctcgtctcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactgggcccaagttcacttaaaaaggagatcaacaatgaaagcaattttcgtactgaaacatcttaatcatgcctaggaagttttctaatgaatggtgagagccctggtagtcatccgcctgtcccgcgtcaccgatgctacgacttcaccggagcgtcagctggagtcttgccagcagctctgcgcccagcgcggctgggacgtcgtcggggtagcggaggatctggacgtctccggggcggtcgatccgttcgaccggaagcgcagaccgaacctggcccggtggctagcgttcgaggagcaaccgtttgacgtgatcgtggcgtaccgggtagatcggttgacccgatcgatccggcatcttcagcagctggtccactgggccgaggaccacaagaagctggtcgtctccgcgaccgaagcgcacttcgatacgacgacgccgtttgcggcggtcgtcatcgcgcttatgggaacggtggcgcagatggaattagaagcgatcaaagagcggaaccgttcggctgcgcatttcaatatccgcgccgggaaataccgaggatccctgccgccgtggggatacctgcctacgcgcgtggacggggagtggcggctggtgccggaccctgtgcagcgagagcgcatcctcgaggtgtatcaccgcgtcgtcgacaaccacgagccgctgcatctggtggcccacgacctgaaccggcgtggtgtcctgtcgccgaaggactacttcgcgcagctgcaaggccgcgagccgcagggccgggagtggtcggctaccgcgctgaagcgatcgatgatctccgaggcgatgctcgggtacgcgactctgaacggtaagaccgtccgagacgacgacggagccccgctggtgcgggctgagccgatcctgacccgtgagcagctggaggcgctgcgcgccgagctcgtgaagacctcccgggcgaagcccgcggtgtctaccccgtcgctgctgctgcgggtgttgttctgcgcggtgtgcggggagcccgcgtacaagttcgccgggggaggacgtaagcacccgcgctaccgctgccgctcgatggggttcccgaagcactgcgggaacggcacggtggcgatggccgagtgggacgcgttctgcgaggagcaggtactggatctgctcggggacgcggagcgtctggagaaagtctgggtagcgggctcggactccgcggtcgaactcgcggaggtgaacgcggagctggtggacctgacgtcgctgatcggctccccggcctaccgggcgggctctccgcagcgagaagcactggatgcccgtattgcggcgctggccgcgcggcaagaggagctggagggcctggaggctcgcccgtctggctgggagtggcgcgagtccgggcagcggttcggggactggtggcgggagcaggacaccgcggcaaagaacacctggcttcggtcgatgaacgttcggctgacgttcgacgtccgcggcgggctgactcgcacgatcgacttcggggatcttcaggagtacgagcagcatctcaggctcggcagcgtggtcgaacggctacacaccgggatgtcgtaaaggttctcggtaccaaattccagaaaagagacgctttcgagcgtcttttttcgttttggtccgcttgcactgaaggtcctcaatcgcactggaaacatcaaggtcg</t>
+  </si>
+  <si>
+    <t>SwbxT17m1-3</t>
+  </si>
+  <si>
+    <t>cattactcgcatccattctcaggctgtctcgtctcgtctcggagaacgatcgttggctgggggcctcgcttgggttattgctggtgcccggccgggcgcaatattcatgttgatgatttattatatatcgagtggtgtatttatttatattgtttgctccgttaccgttattaactactagagtcacacaggactactaaatggtgagagccctggtagtcatccgcctgtcccgcgtcaccgatgctacgacttcaccggagcgtcagctggagtcttgccagcagctctgcgcccagcgcggctgggacgtcgtcggggtagcggaggatctggacgtctccggggcggtcgatccgttcgaccggaagcgcagaccgaacctggcccggtggctagcgttcgaggagcaaccgtttgacgtgatcgtggcgtaccgggtagatcggttgacccgatcgatccggcatcttcagcagctggtccactgggccgaggaccacaagaagctggtcgtctccgcgaccgaagcgcacttcgatacgacgacgccgtttgcggcggtcgtcatcgcgcttatgggaacggtggcgcagatggaattagaagcgatcaaagagcggaaccgttcggctgcgcatttcaatatccgcgccgggaaataccgaggatccctgccgccgtggggatacctgcctacgcgcgtggacggggagtggcggctggtgccggaccctgtgcagcgagagcgcatcctcgaggtgtatcaccgcgtcgtcgacaaccacgagccgctgcatctggtggcccacgacctgaaccggcgtggtgtcctgtcgccgaaggactacttcgcgcagctgcaaggccgcgagccgcagggccgggagtggtcggctaccgcgctgaagcgatcgatgatctccgaggcgatgctcgggtacgcgactctgaacggtaagaccgtccgagacgacgacggagccccgctggtgcgggctgagccgatcctgacccgtgagcagctggaggcgctgcgcgccgagctcgtgaagacctcccgggcgaagcccgcggtgtctaccccgtcgctgctgctgcgggtgttgttctgcgcggtgtgcggggagcccgcgtacaagttcgccgggggaggacgtaagcacccgcgctaccgctgccgctcgatggggttcccgaagcactgcgggaacggcacggtggcgatggccgagtgggacgcgttctgcgaggagcaggtactggatctgctcggggacgcggagcgtctggagaaagtctgggtagcgggctcggactccgcggtcgaactcgcggaggtgaacgcggagctggtggacctgacgtcgctgatcggctccccggcctaccgggcgggctctccgcagcgagaagcactggatgcccgtattgcggcgctggccgcgcggcaagaggagctggagggcctggaggctcgcccgtctggctgggagtggcgcgagtccgggcagcggttcggggactggtggcgggagcaggacaccgcggcaaagaacacctggcttcggtcgatgaacgttcggctgacgttcgacgtccgcggcgggctgactcgcacgatcgacttcggggatcttcaggagtacgagcagcatctcaggctcggcagcgtggtcgaacggctacacaccgggatgtcgtaaaggttctcggtaccaaattccagaaaagagacgctttcgagcgtcttttttcgttttggtccgcttgcactgaaggtcctcaatcgcactggaaacatcaaggtcg</t>
+  </si>
+  <si>
+    <t>gagccaactccctttacaacctcactcaagtccgttagagggagtttacggctagctcagtcctaggtatagtgctagctactagagaaagaggagaaatactaaatggaactgcgtgacctggatttaaacctgctggtggtgttcaaccagttgctggtcgacagacgcgtctctgtcactgcggagaacctgggcctgacccagcctgccgtgagcaatgcgctgaaacgcctgcgcacctcgctacaggacccactcttcgtgcgcacacatcagggaatggaacccacaccctatgccgcgcatctggccgagcacgtcacttcggccatgcacgcactgcgcaacgccctacagcaccatgaaagcttcgatccgctgaccagcgagcgtaccttcaccctggccatgaccgacattggcgagatctacttcatgccgcggctgatggatgcgctggctcaccaggcccccaattgcgtgatcagtacggtgcgcgacagttcgatgagcctgatgcaggccttgcagaacggaaccgtggacttggccgtgggcctgcttcccaatctgcaaactggcttctttcagcgccggctgctccagaatcactacgtgtgcctatgtcgcaaggaccatccagtcacccgcgaacccctgactctggagcgcttctgttcctacggccacgtgcgtgtcatcgccgctggcaccggccacggcgaggtggacacgtacatgacacgggtcggcatccggcgcgacatccgtctggaagtgccgcacttcgccgccgttggccacatcctccagcgcaccgatctgctcgccactgtgccgatatgtttagccgactgctgcgtagagcccttcggcctaagcgccttgccgcacccagtcgtcttgcctgaaatagccatcaacatgttctggcatgcgaagtaccacaaggacctagccaatatttggttgcggcaactgatgtttgacctgtttacggattgaggtggccaattattgaaggcctccctaacggggggcctttttttgtttctggtctgccctcgcttccaggatacatagattaccacaactccgagcccttccacc</t>
+  </si>
+  <si>
+    <t>CT19m8-5</t>
+  </si>
+  <si>
+    <t>cctcgtctcaaccaaagcaatcaacccatcaaccacctggggagtttcaatttaatcatccggctcgtataatgtgtggatactagagaaagaggagaaatactaaatgattgagaatacctatagcgaaaagttcgagtccgcgttcgaacagatcaaagcggcggccaacgtggatgccgccatccgtattctccaggcggaatataacctcgatttcgtcacctaccatctcgcccagacaatcgcgagcaagatcgattcgcccttcgtgcgcaccacctatccggatgcctgggtttcccgttacctcctcaactgctatgtgaaggtcgatccgatcatcaagcagggcttcgaacgccagctgcccttcgactggagcgaggtcgaaccgacgccggaggcctatgccatgctggtcgacgcccagaaacacggcatcgatgacaatggctactccatccccgtcgccgacaaggcgcagcgccgcgccctgctgtcgctgaatgcccatataccggccgacgaatggaccgagctcgtgcgccgctaccgcaacgagtggatcgagatcgcccatctgatccaccgcaaggccgtatatgagctgcatggcgaaaacgatccggtgccggcattgtcgccgcgcgagatcgagtgtctgcactggaccgccctcggcaaggattacaaggatatttcggtcatcctgggcatatcagagcataccacacgcgattacctgaaaaccgcccgcttcaggctcggctgcaccacgatctcggccgccgcgtcgcgggctgttcaattgtgcatcatcaatccctataggatccgcatgacgcgacgtaattggtaaggtaacgcatgagaaagcccccggaagatcaccttccgggggcttttttattgcgcttgagccaactccctttacaacctcactcaagtccgttagag</t>
+  </si>
+  <si>
+    <t>Bg14-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaacccattgttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>Bg24-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaacctagtgttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>Bg34-7</t>
+  </si>
+  <si>
+    <t>ctgacctcctgccagcaatagtaagacaacacgcaaagtcggagacattgattatttgcacggcgtcacactttgctatgccatagcatttttatccataagattagcggatcctacctgacgctttttatcgcaactctctactgtttctccataccgtttttttgggctagctactgttgactactgttgaccagacaaaccaatggttttagagctagaaatagcaagttaaaataaggctagtccgttatcaacttgaaaaagtggcaccgagtcggtgcaggtccaattattgaacacccttcggggtgtttttttgtttctggtctgccgcttcaagacgctggctctgacatttccgctactgaactactcg</t>
+  </si>
+  <si>
+    <t>NT18m5-X</t>
+  </si>
+  <si>
+    <t>384LDV_Plus_AQ_GP</t>
+  </si>
+  <si>
+    <t>lys2_PCR_1-4</t>
   </si>
 </sst>
 </file>
@@ -4223,7 +4307,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -4275,7 +4359,7 @@
         <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -4327,7 +4411,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -4379,7 +4463,7 @@
         <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -4431,7 +4515,7 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G28">
         <v>30</v>
@@ -4480,7 +4564,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -7339,7 +7423,7 @@
         <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C87" t="s">
         <v>210</v>
@@ -9035,7 +9119,7 @@
         <v>106</v>
       </c>
       <c r="F121" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G121">
         <v>30</v>
@@ -9087,7 +9171,7 @@
         <v>106</v>
       </c>
       <c r="F122" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G122">
         <v>22.7</v>
@@ -9139,7 +9223,7 @@
         <v>106</v>
       </c>
       <c r="F123" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G123">
         <v>37.4</v>
@@ -9191,7 +9275,7 @@
         <v>106</v>
       </c>
       <c r="F124" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G124">
         <v>23.5</v>
@@ -9240,7 +9324,7 @@
         <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F125" t="s">
         <v>110</v>
@@ -9289,7 +9373,7 @@
         <v>538</v>
       </c>
       <c r="D126" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E126" t="s">
         <v>106</v>
@@ -9344,7 +9428,7 @@
         <v>161</v>
       </c>
       <c r="E127" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F127" t="s">
         <v>110</v>
@@ -9393,7 +9477,7 @@
         <v>538</v>
       </c>
       <c r="D128" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E128" t="s">
         <v>106</v>
@@ -9828,7 +9912,7 @@
         <v>7106</v>
       </c>
       <c r="J136" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K136" s="4" t="b">
         <v>1</v>
@@ -9932,7 +10016,7 @@
         <v>7108</v>
       </c>
       <c r="J138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K138" s="4" t="b">
         <v>1</v>
@@ -9984,7 +10068,7 @@
         <v>7109</v>
       </c>
       <c r="J139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K139" s="4" t="b">
         <v>1</v>
@@ -10036,7 +10120,7 @@
         <v>7110</v>
       </c>
       <c r="J140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K140" s="4" t="b">
         <v>1</v>
@@ -10060,13 +10144,13 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B141" t="s">
+        <v>819</v>
+      </c>
+      <c r="C141" t="s">
         <v>820</v>
-      </c>
-      <c r="C141" t="s">
-        <v>821</v>
       </c>
       <c r="D141" t="s">
         <v>146</v>
@@ -10084,7 +10168,7 @@
         <v>43301</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K141" s="4" t="b">
         <v>1</v>
@@ -10108,13 +10192,13 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B142" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>166</v>
@@ -10640,20 +10724,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -10727,6 +10812,10 @@
       <c r="G2">
         <v>30</v>
       </c>
+      <c r="I2">
+        <f>CODE(LEFT(A2,1))*100+MID(A2,2,10)</f>
+        <v>6516</v>
+      </c>
       <c r="J2" t="s">
         <v>599</v>
       </c>
@@ -10739,36 +10828,44 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2">
+        <f>LEN(J2)</f>
+        <v>4342</v>
+      </c>
       <c r="O2" t="s">
         <v>600</v>
       </c>
       <c r="P2" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E27" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
+        <f t="shared" ref="E3:E5" si="0">"UNS"&amp;LEFT(RIGHT(B3,3),1)</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F5" si="1">"UNS"&amp;RIGHT(RIGHT(B3,3),1)</f>
         <v>UNS3</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F27" si="1">"UNS"&amp;RIGHT(RIGHT(B3,3),1)</f>
-        <v>UNS4</v>
-      </c>
       <c r="G3">
         <v>30</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">CODE(LEFT(A3,1))*100+MID(A3,2,10)</f>
+        <v>6517</v>
+      </c>
       <c r="J3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -10778,31 +10875,45 @@
       </c>
       <c r="M3">
         <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="3">LEN(J3)</f>
+        <v>1948</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>UNS1</v>
+        <v>UNS5</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>UNS3</v>
+        <v>UNS6</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>6518</v>
+      </c>
       <c r="J4" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -10812,37 +10923,45 @@
       </c>
       <c r="M4">
         <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>1096</v>
       </c>
       <c r="O4" t="s">
         <v>600</v>
       </c>
       <c r="P4" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>UNS5</v>
+        <v>UNS4</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>UNS6</v>
+        <v>UNS5</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>6519</v>
+      </c>
       <c r="J5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -10852,37 +10971,48 @@
       </c>
       <c r="M5">
         <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1014</v>
       </c>
       <c r="O5" t="s">
         <v>600</v>
       </c>
       <c r="P5" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D6" t="s">
-        <v>611</v>
+        <v>722</v>
+      </c>
+      <c r="C6" t="s">
+        <v>624</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS4</v>
+        <f t="shared" ref="E6:E19" si="4">"UNS"&amp;UPPER(LEFT(RIGHT(B6,3),1))</f>
+        <v>UNS1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS5</v>
+        <f t="shared" ref="F6:F19" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B6,1),1))</f>
+        <v>UNS3</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
+      <c r="H6" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>6520</v>
+      </c>
       <c r="J6" t="s">
-        <v>612</v>
+        <v>723</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -10892,37 +11022,48 @@
       </c>
       <c r="M6">
         <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1173</v>
       </c>
       <c r="O6" t="s">
         <v>600</v>
       </c>
       <c r="P6" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D7" t="s">
-        <v>614</v>
+        <v>724</v>
+      </c>
+      <c r="C7" t="s">
+        <v>624</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
+      <c r="H7" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>6521</v>
+      </c>
       <c r="J7" t="s">
-        <v>615</v>
+        <v>725</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -10932,31 +11073,48 @@
       </c>
       <c r="M7">
         <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P7" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D8" t="s">
-        <v>614</v>
+        <v>726</v>
+      </c>
+      <c r="C8" t="s">
+        <v>624</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
+      <c r="H8" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>6522</v>
+      </c>
       <c r="J8" t="s">
-        <v>617</v>
+        <v>727</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -10966,31 +11124,48 @@
       </c>
       <c r="M8">
         <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>600</v>
+      </c>
+      <c r="P8" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>618</v>
-      </c>
-      <c r="D9" t="s">
-        <v>614</v>
+        <v>728</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
+      <c r="H9" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>6523</v>
+      </c>
       <c r="J9" t="s">
-        <v>619</v>
+        <v>729</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -11000,31 +11175,48 @@
       </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
+      <c r="O9" t="s">
+        <v>600</v>
+      </c>
+      <c r="P9" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>621</v>
-      </c>
-      <c r="D10" t="s">
-        <v>614</v>
+        <v>730</v>
+      </c>
+      <c r="C10" t="s">
+        <v>624</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>UNSX</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS1</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G10">
         <v>30</v>
       </c>
+      <c r="H10" s="3">
+        <v>43237</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>6524</v>
+      </c>
       <c r="J10" t="s">
-        <v>622</v>
+        <v>731</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -11034,37 +11226,48 @@
       </c>
       <c r="M10">
         <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="O10" t="s">
+        <v>600</v>
+      </c>
+      <c r="P10" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>623</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>736</v>
+      </c>
+      <c r="C11" t="s">
         <v>624</v>
       </c>
-      <c r="C11" t="s">
-        <v>625</v>
-      </c>
-      <c r="D11" t="s">
-        <v>626</v>
-      </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>6501</v>
       </c>
       <c r="J11" t="s">
-        <v>627</v>
+        <v>737</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -11076,38 +11279,46 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>624</v>
+      </c>
+      <c r="O11" t="s">
+        <v>738</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>628</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>739</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
-      </c>
-      <c r="D12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
       <c r="H12" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>6502</v>
       </c>
       <c r="J12" t="s">
-        <v>630</v>
+        <v>740</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -11119,38 +11330,46 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>959</v>
+      </c>
+      <c r="O12" t="s">
+        <v>738</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>631</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>741</v>
       </c>
       <c r="C13" t="s">
-        <v>625</v>
-      </c>
-      <c r="D13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS6</v>
+        <f t="shared" si="4"/>
+        <v>UNS1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS7</v>
+        <f t="shared" si="5"/>
+        <v>UNS3</v>
       </c>
       <c r="G13">
         <v>30</v>
       </c>
       <c r="H13" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>6503</v>
       </c>
       <c r="J13" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -11162,38 +11381,46 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>638</v>
+      </c>
+      <c r="O13" t="s">
+        <v>738</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>634</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>635</v>
+        <v>743</v>
       </c>
       <c r="C14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D14" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>UNSX</v>
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
       </c>
       <c r="G14">
         <v>30</v>
       </c>
       <c r="H14" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6504</v>
       </c>
       <c r="J14" t="s">
-        <v>636</v>
+        <v>744</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -11205,38 +11432,46 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>1023</v>
+      </c>
+      <c r="O14" t="s">
+        <v>738</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>637</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>638</v>
+        <v>745</v>
       </c>
       <c r="C15" t="s">
-        <v>625</v>
-      </c>
-      <c r="D15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS4</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>UNSX</v>
+        <f t="shared" si="5"/>
+        <v>UNS5</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6505</v>
       </c>
       <c r="J15" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -11248,38 +11483,46 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>1279</v>
+      </c>
+      <c r="O15" t="s">
+        <v>738</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="C16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>UNSX</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
       <c r="H16" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6506</v>
       </c>
       <c r="J16" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -11291,38 +11534,46 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>653</v>
+      </c>
+      <c r="O16" t="s">
+        <v>738</v>
+      </c>
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
       <c r="C17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS5</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNSX</v>
       </c>
       <c r="G17">
         <v>30</v>
       </c>
       <c r="H17" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6507</v>
       </c>
       <c r="J17" t="s">
-        <v>645</v>
+        <v>750</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -11334,38 +11585,46 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>576</v>
+      </c>
+      <c r="O17" t="s">
+        <v>738</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>646</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS3</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNS6</v>
       </c>
       <c r="G18">
         <v>30</v>
       </c>
       <c r="H18" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>6508</v>
       </c>
       <c r="J18" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -11377,38 +11636,46 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="O18" t="s">
+        <v>738</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>649</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>650</v>
+        <v>753</v>
       </c>
       <c r="C19" t="s">
-        <v>625</v>
-      </c>
-      <c r="D19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS7</v>
+        <f t="shared" si="4"/>
+        <v>UNS6</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS8</v>
+        <f t="shared" si="5"/>
+        <v>UNS4</v>
       </c>
       <c r="G19">
         <v>30</v>
       </c>
       <c r="H19" s="3">
-        <v>43217</v>
+        <v>43287</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>6509</v>
       </c>
       <c r="J19" t="s">
-        <v>651</v>
+        <v>754</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -11420,38 +11687,46 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1305</v>
+      </c>
+      <c r="O19" t="s">
+        <v>738</v>
+      </c>
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>653</v>
-      </c>
-      <c r="C20" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
       <c r="D20" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>"UNS"&amp;LEFT(RIGHT(B20,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"UNS"&amp;RIGHT(RIGHT(B20,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G20">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H20" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>6501</v>
       </c>
       <c r="J20" t="s">
-        <v>655</v>
+        <v>756</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -11463,38 +11738,46 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2124</v>
+      </c>
+      <c r="O20" t="s">
+        <v>600</v>
+      </c>
+      <c r="P20" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>656</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>657</v>
-      </c>
-      <c r="C21" t="s">
-        <v>625</v>
+        <v>757</v>
       </c>
       <c r="D21" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>"UNS"&amp;LEFT(RIGHT(B21,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"UNS"&amp;RIGHT(RIGHT(B21,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H21" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>6502</v>
       </c>
       <c r="J21" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -11506,38 +11789,46 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1874</v>
+      </c>
+      <c r="O21" t="s">
+        <v>600</v>
+      </c>
+      <c r="P21" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>659</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="C22" t="s">
-        <v>625</v>
-      </c>
-      <c r="D22" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E22" si="6">"UNS"&amp;UPPER(LEFT(RIGHT(B22,3),1))</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22" si="7">"UNS"&amp;UPPER(LEFT(RIGHT(B22,1),1))</f>
         <v>UNS1</v>
       </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G22">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H22" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>6503</v>
       </c>
       <c r="J22" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -11549,38 +11840,46 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1874</v>
+      </c>
+      <c r="O22" t="s">
+        <v>600</v>
+      </c>
+      <c r="P22" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>662</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>663</v>
-      </c>
-      <c r="C23" t="s">
-        <v>625</v>
+        <v>760</v>
       </c>
       <c r="D23" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E23:E34" si="8">"UNS"&amp;LEFT(RIGHT(B23,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" ref="F23:F34" si="9">"UNS"&amp;RIGHT(RIGHT(B23,3),1)</f>
         <v>UNS1</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G23">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H23" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>6504</v>
       </c>
       <c r="J23" t="s">
-        <v>664</v>
+        <v>761</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -11592,38 +11891,46 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2929</v>
+      </c>
+      <c r="O23" t="s">
+        <v>600</v>
+      </c>
+      <c r="P23" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>665</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>666</v>
-      </c>
-      <c r="C24" t="s">
-        <v>625</v>
+        <v>762</v>
       </c>
       <c r="D24" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G24">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H24" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>6505</v>
       </c>
       <c r="J24" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -11635,38 +11942,46 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2929</v>
+      </c>
+      <c r="O24" t="s">
+        <v>600</v>
+      </c>
+      <c r="P24" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>668</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>669</v>
-      </c>
-      <c r="C25" t="s">
-        <v>625</v>
+        <v>764</v>
       </c>
       <c r="D25" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G25">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H25" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>6506</v>
       </c>
       <c r="J25" t="s">
-        <v>670</v>
+        <v>765</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -11678,38 +11993,46 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="O25" t="s">
+        <v>600</v>
+      </c>
+      <c r="P25" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>671</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
-      </c>
-      <c r="C26" t="s">
-        <v>625</v>
+        <v>766</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="9"/>
         <v>UNS1</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>UNS3</v>
-      </c>
       <c r="G26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H26" s="3">
-        <v>43217</v>
+        <v>43014</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>6507</v>
       </c>
       <c r="J26" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -11721,79 +12044,97 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+      <c r="O26" t="s">
+        <v>600</v>
+      </c>
+      <c r="P26" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>675</v>
-      </c>
-      <c r="C27" t="s">
-        <v>625</v>
+        <v>768</v>
       </c>
       <c r="D27" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>UNS3</v>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>6508</v>
+      </c>
+      <c r="J27" t="s">
+        <v>769</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+      <c r="O27" t="s">
+        <v>600</v>
+      </c>
+      <c r="P27" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G27">
-        <v>30</v>
-      </c>
-      <c r="H27" s="3">
-        <v>43217</v>
-      </c>
-      <c r="J27" t="s">
-        <v>676</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>677</v>
-      </c>
-      <c r="B28" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" t="s">
-        <v>625</v>
-      </c>
-      <c r="D28" t="s">
-        <v>679</v>
-      </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>89</v>
+      <c r="F28" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H28" s="3">
-        <v>43203</v>
+        <v>43014</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>6509</v>
       </c>
       <c r="J28" t="s">
-        <v>680</v>
+        <v>771</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -11804,73 +12145,98 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>2865</v>
+      </c>
+      <c r="O28" t="s">
+        <v>600</v>
+      </c>
+      <c r="P28" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>681</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>682</v>
-      </c>
-      <c r="C29" t="s">
-        <v>625</v>
+        <v>772</v>
+      </c>
+      <c r="D29" t="s">
+        <v>613</v>
       </c>
       <c r="E29" t="str">
-        <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,3),1))</f>
-        <v>UNS8</v>
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
       </c>
       <c r="F29" t="str">
-        <f>"UNS"&amp;UPPER(LEFT(RIGHT(B29,1),1))</f>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43197</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>6510</v>
+      </c>
+      <c r="J29" t="s">
+        <v>773</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>2865</v>
+      </c>
+      <c r="O29" t="s">
+        <v>600</v>
+      </c>
+      <c r="P29" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>774</v>
+      </c>
+      <c r="D30" t="s">
+        <v>613</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G29">
-        <v>30</v>
-      </c>
-      <c r="H29" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J29" t="s">
-        <v>683</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>684</v>
-      </c>
-      <c r="B30" t="s">
-        <v>685</v>
-      </c>
-      <c r="C30" t="s">
-        <v>625</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ref="E30:E42" si="2">"UNS"&amp;UPPER(LEFT(RIGHT(B30,3),1))</f>
-        <v>UNS6</v>
-      </c>
       <c r="F30" t="str">
-        <f t="shared" ref="F30:F42" si="3">"UNS"&amp;UPPER(LEFT(RIGHT(B30,1),1))</f>
-        <v>UNS7</v>
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H30" s="3">
-        <v>43224</v>
+        <v>43014</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>6511</v>
       </c>
       <c r="J30" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -11882,507 +12248,658 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>2119</v>
+      </c>
+      <c r="O30" t="s">
+        <v>600</v>
+      </c>
+      <c r="P30" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>687</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>688</v>
-      </c>
-      <c r="C31" t="s">
-        <v>625</v>
+        <v>776</v>
+      </c>
+      <c r="D31" t="s">
+        <v>613</v>
       </c>
       <c r="E31" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>UNS7</v>
-      </c>
-      <c r="F31" t="str">
+        <v>6512</v>
+      </c>
+      <c r="J31" t="s">
+        <v>777</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
+        <v>1869</v>
+      </c>
+      <c r="O31" t="s">
+        <v>600</v>
+      </c>
+      <c r="P31" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>778</v>
+      </c>
+      <c r="D32" t="s">
+        <v>613</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="8"/>
         <v>UNSX</v>
       </c>
-      <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="H31" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J31" t="s">
-        <v>689</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>690</v>
-      </c>
-      <c r="B32" t="s">
-        <v>691</v>
-      </c>
-      <c r="C32" t="s">
-        <v>625</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="2"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F32" t="str">
+        <v>6513</v>
+      </c>
+      <c r="J32" t="s">
+        <v>779</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="3"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="H32" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J32" t="s">
-        <v>692</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>379</v>
+        <v>1869</v>
+      </c>
+      <c r="O32" t="s">
+        <v>600</v>
+      </c>
+      <c r="P32" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>693</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>694</v>
-      </c>
-      <c r="C33" t="s">
-        <v>625</v>
+        <v>780</v>
+      </c>
+      <c r="D33" t="s">
+        <v>613</v>
       </c>
       <c r="E33" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G33">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F33" t="str">
+        <v>6514</v>
+      </c>
+      <c r="J33" t="s">
+        <v>781</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="3"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G33">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J33" t="s">
-        <v>695</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>464</v>
+        <v>2924</v>
+      </c>
+      <c r="O33" t="s">
+        <v>600</v>
+      </c>
+      <c r="P33" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>696</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
-      </c>
-      <c r="C34" t="s">
-        <v>625</v>
+        <v>782</v>
+      </c>
+      <c r="D34" t="s">
+        <v>613</v>
       </c>
       <c r="E34" t="str">
+        <f t="shared" si="8"/>
+        <v>UNSX</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="9"/>
+        <v>UNS1</v>
+      </c>
+      <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43014</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="2"/>
-        <v>UNS6</v>
-      </c>
-      <c r="F34" t="str">
+        <v>6515</v>
+      </c>
+      <c r="J34" t="s">
+        <v>783</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="3"/>
-        <v>UNS7</v>
-      </c>
-      <c r="G34">
-        <v>30</v>
-      </c>
-      <c r="H34" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J34" t="s">
-        <v>698</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>379</v>
+        <v>2924</v>
+      </c>
+      <c r="O34" t="s">
+        <v>600</v>
+      </c>
+      <c r="P34" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>699</v>
-      </c>
-      <c r="B35" t="s">
-        <v>700</v>
-      </c>
-      <c r="C35" t="s">
-        <v>625</v>
-      </c>
+      <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" t="str">
+        <f t="shared" ref="E35:E38" si="10">"UNS"&amp;LEFT(RIGHT(B35,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:F38" si="11">"UNS"&amp;RIGHT(RIGHT(B35,3),1)</f>
+        <v>UNSX</v>
+      </c>
+      <c r="G35" s="4">
+        <v>30</v>
+      </c>
+      <c r="H35" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="2"/>
-        <v>UNS7</v>
-      </c>
-      <c r="F35" t="str">
+        <v>6601</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="K35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="O35" t="s">
+        <v>600</v>
+      </c>
+      <c r="P35" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" t="str">
+        <f t="shared" si="10"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>30</v>
+      </c>
+      <c r="H36" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>6602</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="K36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+      <c r="O36" t="s">
+        <v>600</v>
+      </c>
+      <c r="P36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" t="str">
+        <f t="shared" si="10"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="11"/>
         <v>UNSX</v>
       </c>
-      <c r="G35">
-        <v>30</v>
-      </c>
-      <c r="H35" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J35" t="s">
-        <v>701</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>702</v>
-      </c>
-      <c r="B36" t="s">
-        <v>703</v>
-      </c>
-      <c r="C36" t="s">
-        <v>625</v>
-      </c>
-      <c r="E36" t="str">
+      <c r="G37" s="4">
+        <v>30</v>
+      </c>
+      <c r="H37" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="2"/>
+        <v>6603</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="K37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>428</v>
+      </c>
+      <c r="O37" t="s">
+        <v>600</v>
+      </c>
+      <c r="P37" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" t="str">
+        <f t="shared" si="10"/>
         <v>UNS4</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F38" t="str">
+        <f t="shared" si="11"/>
+        <v>UNS5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>30</v>
+      </c>
+      <c r="H38" s="5">
+        <v>43290</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>6604</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="K38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="3"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G36">
-        <v>30</v>
-      </c>
-      <c r="H36" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J36" t="s">
-        <v>704</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>705</v>
-      </c>
-      <c r="B37" t="s">
-        <v>706</v>
-      </c>
-      <c r="C37" t="s">
-        <v>625</v>
-      </c>
-      <c r="E37" t="str">
+        <v>437</v>
+      </c>
+      <c r="O38" t="s">
+        <v>600</v>
+      </c>
+      <c r="P38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>792</v>
+      </c>
+      <c r="C39" t="s">
+        <v>793</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:E41" si="12">"UNS"&amp;LEFT(RIGHT(B39,3),1)</f>
+        <v>UNS1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F41" si="13">"UNS"&amp;RIGHT(RIGHT(B39,3),1)</f>
+        <v>UNS4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="2"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F37" t="str">
+        <v>6605</v>
+      </c>
+      <c r="J39" t="s">
+        <v>794</v>
+      </c>
+      <c r="K39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="3"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="H37" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J37" t="s">
-        <v>707</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>708</v>
-      </c>
-      <c r="B38" t="s">
-        <v>709</v>
-      </c>
-      <c r="C38" t="s">
-        <v>625</v>
-      </c>
-      <c r="E38" t="str">
+        <v>1535</v>
+      </c>
+      <c r="O39" t="s">
+        <v>600</v>
+      </c>
+      <c r="P39" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C40" t="s">
+        <v>793</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="12"/>
+        <v>UNS1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="13"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F38" t="str">
+        <v>6606</v>
+      </c>
+      <c r="J40" t="s">
+        <v>794</v>
+      </c>
+      <c r="K40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="3"/>
+        <v>1535</v>
+      </c>
+      <c r="O40" t="s">
+        <v>600</v>
+      </c>
+      <c r="P40" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C41" t="s">
+        <v>793</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="12"/>
         <v>UNS1</v>
       </c>
-      <c r="G38">
-        <v>30</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J38" t="s">
-        <v>710</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>711</v>
-      </c>
-      <c r="B39" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" t="s">
-        <v>625</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="F41" t="str">
+        <f t="shared" si="13"/>
+        <v>UNS4</v>
+      </c>
+      <c r="G41" s="4">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F39" t="str">
+        <v>6607</v>
+      </c>
+      <c r="J41" t="s">
+        <v>794</v>
+      </c>
+      <c r="K41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G39">
-        <v>30</v>
-      </c>
-      <c r="H39" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J39" t="s">
-        <v>713</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>714</v>
-      </c>
-      <c r="B40" t="s">
-        <v>715</v>
-      </c>
-      <c r="C40" t="s">
-        <v>625</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G40">
-        <v>30</v>
-      </c>
-      <c r="H40" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J40" t="s">
-        <v>716</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>2924</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>717</v>
-      </c>
-      <c r="B41" t="s">
-        <v>718</v>
-      </c>
-      <c r="C41" t="s">
-        <v>625</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G41">
-        <v>30</v>
-      </c>
-      <c r="H41" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J41" t="s">
-        <v>719</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1869</v>
+        <v>1535</v>
+      </c>
+      <c r="O41" t="s">
+        <v>600</v>
+      </c>
+      <c r="P41" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>721</v>
+        <v>829</v>
       </c>
       <c r="C42" t="s">
-        <v>625</v>
-      </c>
-      <c r="E42" t="str">
+        <v>624</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43298</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="2"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F42" t="str">
+        <v>6510</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="3"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G42">
-        <v>30</v>
-      </c>
-      <c r="H42" s="3">
-        <v>43224</v>
-      </c>
-      <c r="J42" t="s">
-        <v>722</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>2924</v>
+        <v>1032</v>
+      </c>
+      <c r="O42" t="s">
+        <v>738</v>
+      </c>
+      <c r="P42" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>723</v>
+        <v>831</v>
       </c>
       <c r="C43" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
       </c>
       <c r="G43">
         <v>30</v>
       </c>
       <c r="H43" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J43" t="s">
-        <v>724</v>
+        <v>43298</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>6511</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>832</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -12394,33 +12911,44 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1173</v>
+        <f t="shared" si="3"/>
+        <v>1117</v>
       </c>
       <c r="O43" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P43" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>725</v>
+        <v>833</v>
       </c>
       <c r="C44" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>28</v>
       </c>
       <c r="G44">
         <v>30</v>
       </c>
       <c r="H44" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J44" t="s">
-        <v>726</v>
+        <v>43298</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>6512</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -12432,33 +12960,44 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>653</v>
       </c>
       <c r="O44" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P44" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>727</v>
+        <v>835</v>
       </c>
       <c r="C45" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
       </c>
       <c r="G45">
         <v>30</v>
       </c>
       <c r="H45" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J45" t="s">
-        <v>728</v>
+        <v>43298</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>6513</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -12470,33 +13009,44 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>576</v>
       </c>
       <c r="O45" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P45" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="C46" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>52</v>
       </c>
       <c r="G46">
         <v>30</v>
       </c>
       <c r="H46" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J46" t="s">
-        <v>730</v>
+        <v>43298</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>6514</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>740</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -12508,33 +13058,44 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1165</v>
+        <f t="shared" si="3"/>
+        <v>959</v>
       </c>
       <c r="O46" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P46" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>731</v>
+        <v>838</v>
       </c>
       <c r="C47" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>52</v>
       </c>
       <c r="G47">
         <v>30</v>
       </c>
       <c r="H47" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J47" t="s">
-        <v>732</v>
+        <v>43298</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>6515</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>839</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -12546,33 +13107,44 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1164</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="O47" t="s">
-        <v>600</v>
+        <v>738</v>
       </c>
       <c r="P47" t="s">
-        <v>601</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>733</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>691</v>
+        <v>840</v>
       </c>
       <c r="C48" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>52</v>
       </c>
       <c r="G48">
         <v>30</v>
       </c>
       <c r="H48" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J48" t="s">
-        <v>692</v>
+        <v>43298</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>6516</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>841</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -12584,27 +13156,44 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="O48" t="s">
+        <v>738</v>
+      </c>
+      <c r="P48" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>734</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>694</v>
+        <v>842</v>
       </c>
       <c r="C49" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
       </c>
       <c r="G49">
         <v>30</v>
       </c>
       <c r="H49" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J49" t="s">
-        <v>695</v>
+        <v>43298</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>6517</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>843</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -12616,27 +13205,44 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>464</v>
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="O49" t="s">
+        <v>738</v>
+      </c>
+      <c r="P49" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>735</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>703</v>
+        <v>844</v>
       </c>
       <c r="C50" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>89</v>
       </c>
       <c r="G50">
         <v>30</v>
       </c>
       <c r="H50" s="3">
-        <v>43237</v>
+        <v>43298</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>6518</v>
       </c>
       <c r="J50" t="s">
-        <v>704</v>
+        <v>845</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -12648,27 +13254,44 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>379</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="O50" t="s">
+        <v>738</v>
+      </c>
+      <c r="P50" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>736</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
       </c>
       <c r="G51">
         <v>30</v>
       </c>
       <c r="H51" s="3">
-        <v>43237</v>
-      </c>
-      <c r="J51" t="s">
-        <v>707</v>
+        <v>43298</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>6519</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>847</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -12680,42 +13303,60 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>464</v>
+        <f t="shared" si="3"/>
+        <v>1030</v>
+      </c>
+      <c r="O51" t="s">
+        <v>738</v>
+      </c>
+      <c r="P51" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="C52" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
       </c>
       <c r="G52">
         <v>30</v>
       </c>
       <c r="H52" s="3">
-        <v>43287</v>
-      </c>
-      <c r="J52" t="s">
+        <v>43298</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>6520</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>1031</v>
+      </c>
+      <c r="O52" t="s">
         <v>738</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>624</v>
-      </c>
-      <c r="O52" t="s">
-        <v>739</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -12723,22 +13364,23 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>740</v>
-      </c>
-      <c r="C53" t="s">
-        <v>625</v>
+        <v>850</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>13.12</v>
       </c>
       <c r="H53" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>6521</v>
       </c>
       <c r="J53" t="s">
-        <v>741</v>
+        <v>852</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -12750,10 +13392,11 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>959</v>
+        <f t="shared" si="3"/>
+        <v>4153</v>
       </c>
       <c r="O53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
@@ -12761,22 +13404,23 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>742</v>
-      </c>
-      <c r="C54" t="s">
-        <v>625</v>
+        <v>851</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>22.6</v>
       </c>
       <c r="H54" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>6522</v>
       </c>
       <c r="J54" t="s">
-        <v>743</v>
+        <v>853</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -12788,10 +13432,11 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>638</v>
+        <f t="shared" si="3"/>
+        <v>2105</v>
       </c>
       <c r="O54" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
@@ -12799,22 +13444,29 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>744</v>
-      </c>
-      <c r="C55" t="s">
-        <v>625</v>
+        <v>881</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>52</v>
       </c>
       <c r="G55">
         <v>30</v>
       </c>
       <c r="H55" s="3">
-        <v>43287</v>
+        <v>43304</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>6523</v>
       </c>
       <c r="J55" t="s">
-        <v>745</v>
+        <v>794</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -12826,33 +13478,46 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1023</v>
+        <f t="shared" si="3"/>
+        <v>1535</v>
       </c>
       <c r="O55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>40</v>
+      <c r="A56" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>746</v>
+        <v>854</v>
       </c>
       <c r="C56" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ref="E56" si="14">"UNS"&amp;LEFT(RIGHT(B56,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56" si="15">"UNS"&amp;RIGHT(RIGHT(B56,3),1)</f>
+        <v>UNS6</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H56" s="3">
-        <v>43287</v>
+        <v>43301</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>6608</v>
       </c>
       <c r="J56" t="s">
-        <v>747</v>
+        <v>855</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -12864,33 +13529,46 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1279</v>
+        <f t="shared" si="3"/>
+        <v>1184</v>
       </c>
       <c r="O56" t="s">
-        <v>739</v>
+        <v>600</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>44</v>
+      <c r="A57" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="C57" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ref="E57:E68" si="16">"UNS"&amp;LEFT(RIGHT(B57,3),1)</f>
+        <v>UNS5</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ref="F57:F68" si="17">"UNS"&amp;RIGHT(RIGHT(B57,3),1)</f>
+        <v>UNS6</v>
       </c>
       <c r="G57">
         <v>30</v>
       </c>
       <c r="H57" s="3">
-        <v>43287</v>
+        <v>43301</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>6609</v>
       </c>
       <c r="J57" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -12902,33 +13580,46 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>653</v>
+        <f t="shared" si="3"/>
+        <v>1113</v>
       </c>
       <c r="O57" t="s">
-        <v>739</v>
+        <v>600</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>49</v>
+      <c r="A58" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>750</v>
+        <v>858</v>
       </c>
       <c r="C58" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="17"/>
+        <v>UNS5</v>
       </c>
       <c r="G58">
         <v>30</v>
       </c>
       <c r="H58" s="3">
-        <v>43287</v>
+        <v>43301</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>6610</v>
       </c>
       <c r="J58" t="s">
-        <v>751</v>
+        <v>859</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -12940,33 +13631,46 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>576</v>
+        <f t="shared" si="3"/>
+        <v>1106</v>
       </c>
       <c r="O58" t="s">
-        <v>739</v>
+        <v>600</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>55</v>
+      <c r="A59" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="B59" t="s">
-        <v>752</v>
+        <v>860</v>
       </c>
       <c r="C59" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="16"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="17"/>
+        <v>UNS6</v>
       </c>
       <c r="G59">
         <v>30</v>
       </c>
       <c r="H59" s="3">
-        <v>43287</v>
+        <v>43301</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>6611</v>
       </c>
       <c r="J59" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -12978,33 +13682,46 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1009</v>
+        <f t="shared" si="3"/>
+        <v>1038</v>
       </c>
       <c r="O59" t="s">
-        <v>739</v>
+        <v>600</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>59</v>
+      <c r="A60" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>754</v>
+        <v>862</v>
       </c>
       <c r="C60" t="s">
-        <v>625</v>
+        <v>624</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="16"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="17"/>
+        <v>UNS6</v>
       </c>
       <c r="G60">
         <v>30</v>
       </c>
       <c r="H60" s="3">
-        <v>43287</v>
+        <v>43301</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>6612</v>
       </c>
       <c r="J60" t="s">
-        <v>755</v>
+        <v>863</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -13016,41 +13733,46 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1305</v>
+        <f t="shared" si="3"/>
+        <v>967</v>
       </c>
       <c r="O60" t="s">
-        <v>739</v>
+        <v>600</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
+        <v>880</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>16</v>
+      <c r="A61" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>756</v>
-      </c>
-      <c r="D61" t="s">
-        <v>614</v>
+        <v>864</v>
+      </c>
+      <c r="C61" t="s">
+        <v>624</v>
       </c>
       <c r="E61" t="str">
-        <f>"UNS"&amp;LEFT(RIGHT(B61,3),1)</f>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F61" t="str">
-        <f>"UNS"&amp;RIGHT(RIGHT(B61,3),1)</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS5</v>
       </c>
       <c r="G61">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H61" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>6613</v>
       </c>
       <c r="J61" t="s">
-        <v>757</v>
+        <v>865</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -13062,42 +13784,46 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <f>LEN(J61)</f>
-        <v>2124</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="O61" t="s">
         <v>600</v>
       </c>
       <c r="P61" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>25</v>
+      <c r="A62" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>758</v>
-      </c>
-      <c r="D62" t="s">
-        <v>614</v>
+        <v>866</v>
+      </c>
+      <c r="C62" t="s">
+        <v>624</v>
       </c>
       <c r="E62" t="str">
-        <f>"UNS"&amp;LEFT(RIGHT(B62,3),1)</f>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS1</v>
       </c>
       <c r="F62" t="str">
-        <f>"UNS"&amp;RIGHT(RIGHT(B62,3),1)</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS3</v>
       </c>
       <c r="G62">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H62" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>6614</v>
       </c>
       <c r="J62" t="s">
-        <v>759</v>
+        <v>867</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -13109,42 +13835,46 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" ref="N62:N75" si="4">LEN(J62)</f>
-        <v>1874</v>
+        <f t="shared" si="3"/>
+        <v>1880</v>
       </c>
       <c r="O62" t="s">
         <v>600</v>
       </c>
       <c r="P62" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>30</v>
+      <c r="A63" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>760</v>
+        <v>868</v>
       </c>
       <c r="C63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63" si="5">"UNS"&amp;UPPER(LEFT(RIGHT(B63,3),1))</f>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" ref="F63" si="6">"UNS"&amp;UPPER(LEFT(RIGHT(B63,1),1))</f>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS3</v>
       </c>
       <c r="G63">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H63" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>6615</v>
       </c>
       <c r="J63" t="s">
-        <v>622</v>
+        <v>869</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -13156,42 +13886,46 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
-        <v>1874</v>
+        <f t="shared" si="3"/>
+        <v>1812</v>
       </c>
       <c r="O63" t="s">
         <v>600</v>
       </c>
       <c r="P63" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>35</v>
+      <c r="A64" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>761</v>
-      </c>
-      <c r="D64" t="s">
-        <v>614</v>
+        <v>879</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ref="E64:E75" si="7">"UNS"&amp;LEFT(RIGHT(B64,3),1)</f>
+        <f t="shared" si="16"/>
+        <v>UNS5</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="17"/>
         <v>UNSX</v>
       </c>
-      <c r="F64" t="str">
-        <f t="shared" ref="F64:F75" si="8">"UNS"&amp;RIGHT(RIGHT(B64,3),1)</f>
-        <v>UNS1</v>
-      </c>
       <c r="G64">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H64" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>6616</v>
       </c>
       <c r="J64" t="s">
-        <v>762</v>
+        <v>870</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -13203,42 +13937,46 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="4"/>
-        <v>2929</v>
+        <f t="shared" si="3"/>
+        <v>1113</v>
       </c>
       <c r="O64" t="s">
         <v>600</v>
       </c>
       <c r="P64" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>40</v>
+      <c r="A65" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>763</v>
-      </c>
-      <c r="D65" t="s">
-        <v>614</v>
+        <v>871</v>
+      </c>
+      <c r="C65" t="s">
+        <v>624</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS8</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS5</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H65" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>6617</v>
       </c>
       <c r="J65" t="s">
-        <v>764</v>
+        <v>872</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -13250,42 +13988,46 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="4"/>
-        <v>2929</v>
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="O65" t="s">
         <v>600</v>
       </c>
       <c r="P65" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>44</v>
+      <c r="A66" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>765</v>
-      </c>
-      <c r="D66" t="s">
-        <v>614</v>
+        <v>873</v>
+      </c>
+      <c r="C66" t="s">
+        <v>624</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H66" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>6618</v>
       </c>
       <c r="J66" t="s">
-        <v>766</v>
+        <v>874</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -13297,42 +14039,46 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="4"/>
-        <v>2060</v>
+        <f t="shared" si="3"/>
+        <v>379</v>
       </c>
       <c r="O66" t="s">
         <v>600</v>
       </c>
       <c r="P66" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>49</v>
+      <c r="A67" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>767</v>
-      </c>
-      <c r="D67" t="s">
-        <v>614</v>
+        <v>875</v>
+      </c>
+      <c r="C67" t="s">
+        <v>624</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H67" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67" si="18">CODE(LEFT(A67,1))*100+MID(A67,2,10)</f>
+        <v>6619</v>
       </c>
       <c r="J67" t="s">
-        <v>768</v>
+        <v>876</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -13344,42 +14090,46 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
-        <v>1810</v>
+        <f t="shared" ref="N67:N68" si="19">LEN(J67)</f>
+        <v>379</v>
       </c>
       <c r="O67" t="s">
         <v>600</v>
       </c>
       <c r="P67" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>55</v>
+      <c r="A68" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>769</v>
-      </c>
-      <c r="D68" t="s">
-        <v>614</v>
+        <v>877</v>
+      </c>
+      <c r="C68" t="s">
+        <v>624</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
+        <f t="shared" si="16"/>
+        <v>UNS4</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
+        <f t="shared" si="17"/>
+        <v>UNS7</v>
       </c>
       <c r="G68">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H68" s="3">
-        <v>43014</v>
+        <v>43301</v>
+      </c>
+      <c r="I68">
+        <f>CODE(LEFT(A68,1))*100+MID(A68,2,10)</f>
+        <v>6620</v>
       </c>
       <c r="J68" t="s">
-        <v>770</v>
+        <v>878</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -13391,1269 +14141,49 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
-        <v>1810</v>
+        <f t="shared" si="19"/>
+        <v>379</v>
       </c>
       <c r="O68" t="s">
         <v>600</v>
       </c>
       <c r="P68" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>771</v>
-      </c>
-      <c r="D69" t="s">
-        <v>614</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G69">
-        <v>24</v>
-      </c>
-      <c r="H69" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J69" t="s">
-        <v>772</v>
-      </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="4"/>
-        <v>2865</v>
-      </c>
-      <c r="O69" t="s">
-        <v>600</v>
-      </c>
-      <c r="P69" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>773</v>
-      </c>
-      <c r="D70" t="s">
-        <v>614</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G70">
-        <v>30</v>
-      </c>
-      <c r="H70" s="3">
-        <v>43197</v>
-      </c>
-      <c r="J70" t="s">
-        <v>774</v>
-      </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="4"/>
-        <v>2865</v>
-      </c>
-      <c r="O70" t="s">
-        <v>600</v>
-      </c>
-      <c r="P70" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>775</v>
-      </c>
-      <c r="D71" t="s">
-        <v>614</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G71">
-        <v>24</v>
-      </c>
-      <c r="H71" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J71" t="s">
-        <v>776</v>
-      </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="4"/>
-        <v>2119</v>
-      </c>
-      <c r="O71" t="s">
-        <v>600</v>
-      </c>
-      <c r="P71" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>777</v>
-      </c>
-      <c r="D72" t="s">
-        <v>614</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G72">
-        <v>24</v>
-      </c>
-      <c r="H72" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J72" t="s">
-        <v>778</v>
-      </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="4"/>
-        <v>1869</v>
-      </c>
-      <c r="O72" t="s">
-        <v>600</v>
-      </c>
-      <c r="P72" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>779</v>
-      </c>
-      <c r="D73" t="s">
-        <v>614</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G73">
-        <v>24</v>
-      </c>
-      <c r="H73" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J73" t="s">
-        <v>780</v>
-      </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="4"/>
-        <v>1869</v>
-      </c>
-      <c r="O73" t="s">
-        <v>600</v>
-      </c>
-      <c r="P73" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>781</v>
-      </c>
-      <c r="D74" t="s">
-        <v>614</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G74">
-        <v>24</v>
-      </c>
-      <c r="H74" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J74" t="s">
-        <v>782</v>
-      </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="4"/>
-        <v>2924</v>
-      </c>
-      <c r="O74" t="s">
-        <v>600</v>
-      </c>
-      <c r="P74" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" t="s">
-        <v>783</v>
-      </c>
-      <c r="D75" t="s">
-        <v>614</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="7"/>
-        <v>UNSX</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="8"/>
-        <v>UNS1</v>
-      </c>
-      <c r="G75">
-        <v>24</v>
-      </c>
-      <c r="H75" s="3">
-        <v>43014</v>
-      </c>
-      <c r="J75" t="s">
-        <v>784</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="4"/>
-        <v>2924</v>
-      </c>
-      <c r="O75" t="s">
-        <v>600</v>
-      </c>
-      <c r="P75" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" t="str">
-        <f t="shared" ref="E76:E79" si="9">"UNS"&amp;LEFT(RIGHT(B76,3),1)</f>
-        <v>UNS5</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" ref="F76:F79" si="10">"UNS"&amp;RIGHT(RIGHT(B76,3),1)</f>
-        <v>UNSX</v>
-      </c>
-      <c r="G76" s="4">
-        <v>30</v>
-      </c>
-      <c r="H76" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="K76" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="4">
-        <v>0</v>
-      </c>
-      <c r="M76" s="4">
-        <v>0</v>
-      </c>
-      <c r="N76" s="4">
-        <v>438</v>
-      </c>
-      <c r="O76" t="s">
-        <v>600</v>
-      </c>
-      <c r="P76" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" t="str">
-        <f t="shared" si="9"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G77" s="4">
-        <v>30</v>
-      </c>
-      <c r="H77" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="K77" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="4">
-        <v>447</v>
-      </c>
-      <c r="O77" t="s">
-        <v>600</v>
-      </c>
-      <c r="P77" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" t="str">
-        <f t="shared" si="9"/>
-        <v>UNS5</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="10"/>
-        <v>UNSX</v>
-      </c>
-      <c r="G78" s="4">
-        <v>30</v>
-      </c>
-      <c r="H78" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="K78" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0</v>
-      </c>
-      <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="4">
-        <v>428</v>
-      </c>
-      <c r="O78" t="s">
-        <v>600</v>
-      </c>
-      <c r="P78" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" t="str">
-        <f t="shared" si="9"/>
-        <v>UNS4</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="10"/>
-        <v>UNS5</v>
-      </c>
-      <c r="G79" s="4">
-        <v>30</v>
-      </c>
-      <c r="H79" s="5">
-        <v>43290</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="K79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="4">
-        <v>0</v>
-      </c>
-      <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="4">
-        <v>437</v>
-      </c>
-      <c r="O79" t="s">
-        <v>600</v>
-      </c>
-      <c r="P79" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" t="s">
-        <v>793</v>
-      </c>
-      <c r="C80" t="s">
-        <v>794</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" ref="E80:E82" si="11">"UNS"&amp;LEFT(RIGHT(B80,3),1)</f>
-        <v>UNS1</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" ref="F80:F82" si="12">"UNS"&amp;RIGHT(RIGHT(B80,3),1)</f>
-        <v>UNS4</v>
-      </c>
-      <c r="G80" s="4">
-        <v>30</v>
-      </c>
-      <c r="H80" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J80" t="s">
-        <v>795</v>
-      </c>
-      <c r="K80" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="4">
-        <v>0</v>
-      </c>
-      <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>600</v>
-      </c>
-      <c r="P80" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C81" t="s">
-        <v>794</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="11"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="12"/>
-        <v>UNS4</v>
-      </c>
-      <c r="G81" s="4">
-        <v>30</v>
-      </c>
-      <c r="H81" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J81" t="s">
-        <v>795</v>
-      </c>
-      <c r="K81" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="4">
-        <v>0</v>
-      </c>
-      <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>600</v>
-      </c>
-      <c r="P81" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="C82" t="s">
-        <v>794</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="11"/>
-        <v>UNS1</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="12"/>
-        <v>UNS4</v>
-      </c>
-      <c r="G82" s="4">
-        <v>30</v>
-      </c>
-      <c r="H82" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J82" t="s">
-        <v>795</v>
-      </c>
-      <c r="K82" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="4">
-        <v>0</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>600</v>
-      </c>
-      <c r="P82" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" t="s">
-        <v>830</v>
-      </c>
-      <c r="C83" t="s">
-        <v>625</v>
-      </c>
-      <c r="E83" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G83">
-        <v>30</v>
-      </c>
-      <c r="H83" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>1032</v>
-      </c>
-      <c r="O83" t="s">
-        <v>739</v>
-      </c>
-      <c r="P83" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" t="s">
-        <v>832</v>
-      </c>
-      <c r="C84" t="s">
-        <v>625</v>
-      </c>
-      <c r="E84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84">
-        <v>30</v>
-      </c>
-      <c r="H84" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1117</v>
-      </c>
-      <c r="O84" t="s">
-        <v>739</v>
-      </c>
-      <c r="P84" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" t="s">
-        <v>834</v>
-      </c>
-      <c r="C85" t="s">
-        <v>625</v>
-      </c>
-      <c r="E85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85">
-        <v>30</v>
-      </c>
-      <c r="H85" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>653</v>
-      </c>
-      <c r="O85" t="s">
-        <v>739</v>
-      </c>
-      <c r="P85" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>836</v>
-      </c>
-      <c r="C86" t="s">
-        <v>625</v>
-      </c>
-      <c r="E86" t="s">
-        <v>71</v>
-      </c>
-      <c r="F86" t="s">
-        <v>28</v>
-      </c>
-      <c r="G86">
-        <v>30</v>
-      </c>
-      <c r="H86" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="K86" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>576</v>
-      </c>
-      <c r="O86" t="s">
-        <v>739</v>
-      </c>
-      <c r="P86" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" t="s">
-        <v>838</v>
-      </c>
-      <c r="C87" t="s">
-        <v>625</v>
-      </c>
-      <c r="E87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87">
-        <v>30</v>
-      </c>
-      <c r="H87" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>959</v>
-      </c>
-      <c r="O87" t="s">
-        <v>739</v>
-      </c>
-      <c r="P87" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>839</v>
-      </c>
-      <c r="C88" t="s">
-        <v>625</v>
-      </c>
-      <c r="E88" t="s">
-        <v>33</v>
-      </c>
-      <c r="F88" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88">
-        <v>30</v>
-      </c>
-      <c r="H88" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="K88" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1000</v>
-      </c>
-      <c r="O88" t="s">
-        <v>739</v>
-      </c>
-      <c r="P88" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>841</v>
-      </c>
-      <c r="C89" t="s">
-        <v>625</v>
-      </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89">
-        <v>30</v>
-      </c>
-      <c r="H89" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>1009</v>
-      </c>
-      <c r="O89" t="s">
-        <v>739</v>
-      </c>
-      <c r="P89" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" t="s">
-        <v>843</v>
-      </c>
-      <c r="C90" t="s">
-        <v>625</v>
-      </c>
-      <c r="E90" t="s">
-        <v>33</v>
-      </c>
-      <c r="F90" t="s">
-        <v>52</v>
-      </c>
-      <c r="G90">
-        <v>30</v>
-      </c>
-      <c r="H90" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>1024</v>
-      </c>
-      <c r="O90" t="s">
-        <v>739</v>
-      </c>
-      <c r="P90" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>845</v>
-      </c>
-      <c r="C91" t="s">
-        <v>625</v>
-      </c>
-      <c r="E91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F91" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91">
-        <v>30</v>
-      </c>
-      <c r="H91" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J91" t="s">
-        <v>846</v>
-      </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>168</v>
-      </c>
-      <c r="O91" t="s">
-        <v>739</v>
-      </c>
-      <c r="P91" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>847</v>
-      </c>
-      <c r="C92" t="s">
-        <v>625</v>
-      </c>
-      <c r="E92" t="s">
-        <v>52</v>
-      </c>
-      <c r="F92" t="s">
-        <v>71</v>
-      </c>
-      <c r="G92">
-        <v>30</v>
-      </c>
-      <c r="H92" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>1030</v>
-      </c>
-      <c r="O92" t="s">
-        <v>739</v>
-      </c>
-      <c r="P92" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" t="s">
-        <v>849</v>
-      </c>
-      <c r="C93" t="s">
-        <v>625</v>
-      </c>
-      <c r="E93" t="s">
-        <v>52</v>
-      </c>
-      <c r="F93" t="s">
-        <v>71</v>
-      </c>
-      <c r="G93">
-        <v>30</v>
-      </c>
-      <c r="H93" s="3">
-        <v>43298</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>1031</v>
-      </c>
-      <c r="O93" t="s">
-        <v>739</v>
-      </c>
-      <c r="P93" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" t="s">
-        <v>851</v>
-      </c>
-      <c r="E94" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" t="s">
-        <v>110</v>
-      </c>
-      <c r="G94">
-        <v>13.62</v>
-      </c>
-      <c r="H94" s="3">
-        <v>43304</v>
-      </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>4000</v>
-      </c>
-      <c r="O94" t="s">
-        <v>739</v>
-      </c>
-      <c r="P94" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>115</v>
-      </c>
-      <c r="B95" t="s">
-        <v>852</v>
-      </c>
-      <c r="E95" t="s">
-        <v>110</v>
-      </c>
-      <c r="F95" t="s">
-        <v>156</v>
-      </c>
-      <c r="G95">
-        <v>27.18</v>
-      </c>
-      <c r="H95" s="3">
-        <v>43304</v>
-      </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>1750</v>
-      </c>
-      <c r="O95" t="s">
-        <v>739</v>
-      </c>
-      <c r="P95" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" t="s">
-        <v>853</v>
-      </c>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96">
-        <v>30</v>
-      </c>
-      <c r="H96" s="3">
-        <v>43304</v>
-      </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>1300</v>
-      </c>
-      <c r="O96" t="s">
-        <v>739</v>
-      </c>
-      <c r="P96" t="s">
-        <v>601</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P82"/>
+  <autoFilter ref="A1:P68"/>
   <mergeCells count="4">
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:P1">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O34 O20:O21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O34">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14665,7 +14195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64:O75 O3 O61:O62 O48:O51 O7:O42">
+  <conditionalFormatting sqref="O10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -14677,7 +14207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:O75">
+  <conditionalFormatting sqref="O10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -14689,7 +14219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14701,7 +14231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47">
+  <conditionalFormatting sqref="O9">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -14713,7 +14243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -14725,7 +14255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="O8">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -14737,7 +14267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14749,7 +14279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="O7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -14761,7 +14291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14773,7 +14303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44">
+  <conditionalFormatting sqref="O6">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -14785,7 +14315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14797,7 +14327,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="O5">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -14809,7 +14339,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -14821,7 +14351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -14833,7 +14363,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -14845,7 +14375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14857,7 +14387,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -14869,7 +14399,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14881,7 +14411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14893,7 +14423,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14905,7 +14435,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14917,7 +14447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O76:O79">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14929,7 +14459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80:O82">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14941,7 +14471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O80:O82">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14959,10 +14489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15882,8 +15412,1599 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>602</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" t="s">
+        <v>612</v>
+      </c>
+      <c r="D25" t="s">
+        <v>613</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="J25" t="s">
+        <v>614</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D26" t="s">
+        <v>613</v>
+      </c>
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="J26" t="s">
+        <v>616</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>456</v>
+      </c>
+      <c r="B27" t="s">
+        <v>617</v>
+      </c>
+      <c r="D27" t="s">
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>618</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>619</v>
+      </c>
+      <c r="B28" t="s">
+        <v>620</v>
+      </c>
+      <c r="D28" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>621</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>622</v>
+      </c>
+      <c r="B29" t="s">
+        <v>623</v>
+      </c>
+      <c r="C29" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>626</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C30" t="s">
+        <v>624</v>
+      </c>
+      <c r="D30" t="s">
+        <v>625</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>629</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B31" t="s">
+        <v>631</v>
+      </c>
+      <c r="C31" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" t="s">
+        <v>625</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>632</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>633</v>
+      </c>
+      <c r="B32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C32" t="s">
+        <v>624</v>
+      </c>
+      <c r="D32" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>635</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>636</v>
+      </c>
+      <c r="B33" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" t="s">
+        <v>625</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>638</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>639</v>
+      </c>
+      <c r="B34" t="s">
+        <v>640</v>
+      </c>
+      <c r="C34" t="s">
+        <v>624</v>
+      </c>
+      <c r="D34" t="s">
+        <v>625</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>641</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>642</v>
+      </c>
+      <c r="B35" t="s">
+        <v>643</v>
+      </c>
+      <c r="C35" t="s">
+        <v>624</v>
+      </c>
+      <c r="D35" t="s">
+        <v>625</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J35" t="s">
+        <v>644</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>645</v>
+      </c>
+      <c r="B36" t="s">
+        <v>646</v>
+      </c>
+      <c r="C36" t="s">
+        <v>624</v>
+      </c>
+      <c r="D36" t="s">
+        <v>625</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>647</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" t="s">
+        <v>624</v>
+      </c>
+      <c r="D37" t="s">
+        <v>625</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J37" t="s">
+        <v>650</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D38" t="s">
+        <v>653</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J38" t="s">
+        <v>654</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>655</v>
+      </c>
+      <c r="B39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C39" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J39" t="s">
+        <v>657</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>658</v>
+      </c>
+      <c r="B40" t="s">
+        <v>659</v>
+      </c>
+      <c r="C40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" t="s">
+        <v>653</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J40" t="s">
+        <v>660</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>661</v>
+      </c>
+      <c r="B41" t="s">
+        <v>662</v>
+      </c>
+      <c r="C41" t="s">
+        <v>624</v>
+      </c>
+      <c r="D41" t="s">
+        <v>653</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J41" t="s">
+        <v>663</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>664</v>
+      </c>
+      <c r="B42" t="s">
+        <v>665</v>
+      </c>
+      <c r="C42" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" t="s">
+        <v>653</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J42" t="s">
+        <v>666</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>667</v>
+      </c>
+      <c r="B43" t="s">
+        <v>668</v>
+      </c>
+      <c r="C43" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" t="s">
+        <v>653</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J43" t="s">
+        <v>669</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>670</v>
+      </c>
+      <c r="B44" t="s">
+        <v>671</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+      <c r="D44" t="s">
+        <v>653</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J44" t="s">
+        <v>672</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>673</v>
+      </c>
+      <c r="B45" t="s">
+        <v>674</v>
+      </c>
+      <c r="C45" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" t="s">
+        <v>653</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J45" t="s">
+        <v>675</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>676</v>
+      </c>
+      <c r="B46" t="s">
+        <v>677</v>
+      </c>
+      <c r="C46" t="s">
+        <v>624</v>
+      </c>
+      <c r="D46" t="s">
+        <v>678</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43203</v>
+      </c>
+      <c r="J46" t="s">
+        <v>679</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>680</v>
+      </c>
+      <c r="B47" t="s">
+        <v>681</v>
+      </c>
+      <c r="C47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J47" t="s">
+        <v>682</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>683</v>
+      </c>
+      <c r="B48" t="s">
+        <v>684</v>
+      </c>
+      <c r="C48" t="s">
+        <v>624</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J48" t="s">
+        <v>685</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>686</v>
+      </c>
+      <c r="B49" t="s">
+        <v>687</v>
+      </c>
+      <c r="C49" t="s">
+        <v>624</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J49" t="s">
+        <v>688</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>689</v>
+      </c>
+      <c r="B50" t="s">
+        <v>690</v>
+      </c>
+      <c r="C50" t="s">
+        <v>624</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J50" t="s">
+        <v>691</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>692</v>
+      </c>
+      <c r="B51" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J51" t="s">
+        <v>694</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>695</v>
+      </c>
+      <c r="B52" t="s">
+        <v>696</v>
+      </c>
+      <c r="C52" t="s">
+        <v>624</v>
+      </c>
+      <c r="E52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J52" t="s">
+        <v>697</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>698</v>
+      </c>
+      <c r="B53" t="s">
+        <v>699</v>
+      </c>
+      <c r="C53" t="s">
+        <v>624</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J53" t="s">
+        <v>700</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>701</v>
+      </c>
+      <c r="B54" t="s">
+        <v>702</v>
+      </c>
+      <c r="C54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J54" t="s">
+        <v>703</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>704</v>
+      </c>
+      <c r="B55" t="s">
+        <v>705</v>
+      </c>
+      <c r="C55" t="s">
+        <v>624</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J55" t="s">
+        <v>706</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>707</v>
+      </c>
+      <c r="B56" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56" t="s">
+        <v>624</v>
+      </c>
+      <c r="E56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J56" t="s">
+        <v>709</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>710</v>
+      </c>
+      <c r="B57" t="s">
+        <v>711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>624</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J57" t="s">
+        <v>712</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>713</v>
+      </c>
+      <c r="B58" t="s">
+        <v>714</v>
+      </c>
+      <c r="C58" t="s">
+        <v>624</v>
+      </c>
+      <c r="E58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J58" t="s">
+        <v>715</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>716</v>
+      </c>
+      <c r="B59" t="s">
+        <v>717</v>
+      </c>
+      <c r="C59" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J59" t="s">
+        <v>718</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>719</v>
+      </c>
+      <c r="B60" t="s">
+        <v>720</v>
+      </c>
+      <c r="C60" t="s">
+        <v>624</v>
+      </c>
+      <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J60" t="s">
+        <v>721</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>732</v>
+      </c>
+      <c r="B61" t="s">
+        <v>690</v>
+      </c>
+      <c r="C61" t="s">
+        <v>624</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J61" t="s">
+        <v>691</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>733</v>
+      </c>
+      <c r="B62" t="s">
+        <v>693</v>
+      </c>
+      <c r="C62" t="s">
+        <v>624</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J62" t="s">
+        <v>694</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>734</v>
+      </c>
+      <c r="B63" t="s">
+        <v>702</v>
+      </c>
+      <c r="C63" t="s">
+        <v>624</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63">
+        <v>30</v>
+      </c>
+      <c r="H63" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J63" t="s">
+        <v>703</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>735</v>
+      </c>
+      <c r="B64" t="s">
+        <v>705</v>
+      </c>
+      <c r="C64" t="s">
+        <v>624</v>
+      </c>
+      <c r="E64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64">
+        <v>30</v>
+      </c>
+      <c r="H64" s="3">
+        <v>43237</v>
+      </c>
+      <c r="J64" t="s">
+        <v>706</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>464</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15895,7 +17016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="G3:G4">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15907,7 +17028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
+  <conditionalFormatting sqref="G6:G12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -15919,19 +17040,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G12">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="O2:O13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15943,7 +17064,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O13">
+  <conditionalFormatting sqref="G14:G18 G20:G23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="50"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14:O18 O20:O23">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15955,56 +17112,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G18 G20:G23">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="30"/>
-        <cfvo type="num" val="50"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FF00B0F0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O18 O20:O23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="30"/>
@@ -16016,7 +17125,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P1">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:O64">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16043,79 +17164,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" t="s">
         <v>798</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>799</v>
-      </c>
-      <c r="C1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -16616,7 +17737,7 @@
         <v>30.31</v>
       </c>
       <c r="H7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I7">
         <v>42.84</v>
@@ -16667,7 +17788,7 @@
         <v>42.06</v>
       </c>
       <c r="Y7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -16675,7 +17796,7 @@
         <v>327</v>
       </c>
       <c r="B8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C8">
         <v>42.96</v>
@@ -16729,7 +17850,7 @@
         <v>47.56</v>
       </c>
       <c r="T8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U8">
         <v>42.56</v>
@@ -16744,12 +17865,12 @@
         <v>49.82</v>
       </c>
       <c r="Y8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B9">
         <v>41.02</v>
@@ -16791,37 +17912,37 @@
         <v>47.84</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -16829,615 +17950,615 @@
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H10">
         <v>9.25</v>
       </c>
       <c r="I10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y12" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y15" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X16">
         <v>48.14</v>
       </c>
       <c r="Y16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="R17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="S17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="T17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="W17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="X17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Y17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="480" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -10727,9 +10727,9 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13510,7 +13510,7 @@
         <v>30</v>
       </c>
       <c r="H56" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
@@ -13561,7 +13561,7 @@
         <v>30</v>
       </c>
       <c r="H57" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
@@ -13612,7 +13612,7 @@
         <v>30</v>
       </c>
       <c r="H58" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
@@ -13663,7 +13663,7 @@
         <v>30</v>
       </c>
       <c r="H59" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
@@ -13714,7 +13714,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
@@ -13765,7 +13765,7 @@
         <v>30</v>
       </c>
       <c r="H61" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
@@ -13816,7 +13816,7 @@
         <v>30</v>
       </c>
       <c r="H62" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
@@ -13867,7 +13867,7 @@
         <v>30</v>
       </c>
       <c r="H63" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
@@ -13918,7 +13918,7 @@
         <v>30</v>
       </c>
       <c r="H64" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
@@ -13969,7 +13969,7 @@
         <v>30</v>
       </c>
       <c r="H65" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
@@ -14020,7 +14020,7 @@
         <v>30</v>
       </c>
       <c r="H66" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
@@ -14071,7 +14071,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67" si="18">CODE(LEFT(A67,1))*100+MID(A67,2,10)</f>
@@ -14122,7 +14122,7 @@
         <v>30</v>
       </c>
       <c r="H68" s="3">
-        <v>43301</v>
+        <v>43304</v>
       </c>
       <c r="I68">
         <f>CODE(LEFT(A68,1))*100+MID(A68,2,10)</f>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="480" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27620" windowHeight="16540" tabRatio="799" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parts_1" sheetId="10" r:id="rId1"/>
@@ -10727,9 +10727,9 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/partslist/sourceplate4.xlsx
+++ b/partslist/sourceplate4.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="882">
   <si>
     <t>well</t>
   </si>
@@ -10557,7 +10557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G94 G92">
+  <conditionalFormatting sqref="G92 G94">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -10721,12 +10721,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13504,7 +13504,7 @@
         <v>UNS6</v>
       </c>
       <c r="G56">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H56" s="3">
         <v>43304</v>
@@ -13555,7 +13555,7 @@
         <v>UNS6</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H57" s="3">
         <v>43304</v>
@@ -13606,7 +13606,7 @@
         <v>UNS5</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H58" s="3">
         <v>43304</v>
@@ -13657,7 +13657,7 @@
         <v>UNS6</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H59" s="3">
         <v>43304</v>
@@ -13708,7 +13708,7 @@
         <v>UNS6</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H60" s="3">
         <v>43304</v>
@@ -13759,7 +13759,7 @@
         <v>UNS5</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H61" s="3">
         <v>43304</v>
@@ -13810,7 +13810,7 @@
         <v>UNS3</v>
       </c>
       <c r="G62">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H62" s="3">
         <v>43304</v>
@@ -13861,7 +13861,7 @@
         <v>UNS3</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H63" s="3">
         <v>43304</v>
@@ -13912,7 +13912,7 @@
         <v>UNSX</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H64" s="3">
         <v>43304</v>
@@ -13963,7 +13963,7 @@
         <v>UNS5</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H65" s="3">
         <v>43304</v>
@@ -14014,7 +14014,7 @@
         <v>UNS7</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H66" s="3">
         <v>43304</v>
@@ -14065,7 +14065,7 @@
         <v>UNS7</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H67" s="3">
         <v>43304</v>
@@ -14116,7 +14116,7 @@
         <v>UNS7</v>
       </c>
       <c r="G68">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H68" s="3">
         <v>43304</v>
@@ -14145,6 +14145,869 @@
         <v>600</v>
       </c>
       <c r="P68" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>622</v>
+      </c>
+      <c r="B69" t="s">
+        <v>623</v>
+      </c>
+      <c r="C69" t="s">
+        <v>624</v>
+      </c>
+      <c r="D69" t="s">
+        <v>625</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="H69" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J69" t="s">
+        <v>626</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>379</v>
+      </c>
+      <c r="O69" t="s">
+        <v>600</v>
+      </c>
+      <c r="P69" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>627</v>
+      </c>
+      <c r="B70" t="s">
+        <v>628</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" t="s">
+        <v>625</v>
+      </c>
+      <c r="E70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J70" t="s">
+        <v>629</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>379</v>
+      </c>
+      <c r="O70" t="s">
+        <v>600</v>
+      </c>
+      <c r="P70" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>630</v>
+      </c>
+      <c r="B71" t="s">
+        <v>631</v>
+      </c>
+      <c r="C71" t="s">
+        <v>624</v>
+      </c>
+      <c r="D71" t="s">
+        <v>625</v>
+      </c>
+      <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J71" t="s">
+        <v>632</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>379</v>
+      </c>
+      <c r="O71" t="s">
+        <v>600</v>
+      </c>
+      <c r="P71" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B72" t="s">
+        <v>634</v>
+      </c>
+      <c r="C72" t="s">
+        <v>624</v>
+      </c>
+      <c r="D72" t="s">
+        <v>625</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J72" t="s">
+        <v>635</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>505</v>
+      </c>
+      <c r="O72" t="s">
+        <v>600</v>
+      </c>
+      <c r="P72" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>636</v>
+      </c>
+      <c r="B73" t="s">
+        <v>637</v>
+      </c>
+      <c r="C73" t="s">
+        <v>624</v>
+      </c>
+      <c r="D73" t="s">
+        <v>625</v>
+      </c>
+      <c r="E73" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J73" t="s">
+        <v>638</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>600</v>
+      </c>
+      <c r="P73" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>639</v>
+      </c>
+      <c r="B74" t="s">
+        <v>640</v>
+      </c>
+      <c r="C74" t="s">
+        <v>624</v>
+      </c>
+      <c r="D74" t="s">
+        <v>625</v>
+      </c>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74">
+        <v>30</v>
+      </c>
+      <c r="H74" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J74" t="s">
+        <v>641</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>505</v>
+      </c>
+      <c r="O74" t="s">
+        <v>600</v>
+      </c>
+      <c r="P74" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>642</v>
+      </c>
+      <c r="B75" t="s">
+        <v>643</v>
+      </c>
+      <c r="C75" t="s">
+        <v>624</v>
+      </c>
+      <c r="D75" t="s">
+        <v>625</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75">
+        <v>30</v>
+      </c>
+      <c r="H75" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J75" t="s">
+        <v>644</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>505</v>
+      </c>
+      <c r="O75" t="s">
+        <v>600</v>
+      </c>
+      <c r="P75" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>646</v>
+      </c>
+      <c r="C76" t="s">
+        <v>624</v>
+      </c>
+      <c r="D76" t="s">
+        <v>625</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76">
+        <v>30</v>
+      </c>
+      <c r="H76" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J76" t="s">
+        <v>647</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>505</v>
+      </c>
+      <c r="O76" t="s">
+        <v>600</v>
+      </c>
+      <c r="P76" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>648</v>
+      </c>
+      <c r="B77" t="s">
+        <v>649</v>
+      </c>
+      <c r="C77" t="s">
+        <v>624</v>
+      </c>
+      <c r="D77" t="s">
+        <v>625</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77" s="3">
+        <v>43217</v>
+      </c>
+      <c r="J77" t="s">
+        <v>650</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>505</v>
+      </c>
+      <c r="O77" t="s">
+        <v>600</v>
+      </c>
+      <c r="P77" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>676</v>
+      </c>
+      <c r="B78" t="s">
+        <v>677</v>
+      </c>
+      <c r="C78" t="s">
+        <v>624</v>
+      </c>
+      <c r="D78" t="s">
+        <v>678</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78" s="3">
+        <v>43203</v>
+      </c>
+      <c r="J78" t="s">
+        <v>679</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>600</v>
+      </c>
+      <c r="P78" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>680</v>
+      </c>
+      <c r="B79" t="s">
+        <v>681</v>
+      </c>
+      <c r="C79" t="s">
+        <v>624</v>
+      </c>
+      <c r="E79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
+      <c r="H79" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J79" t="s">
+        <v>682</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>464</v>
+      </c>
+      <c r="O79" t="s">
+        <v>600</v>
+      </c>
+      <c r="P79" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>683</v>
+      </c>
+      <c r="B80" t="s">
+        <v>684</v>
+      </c>
+      <c r="C80" t="s">
+        <v>624</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80">
+        <v>30</v>
+      </c>
+      <c r="H80" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J80" t="s">
+        <v>685</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>379</v>
+      </c>
+      <c r="O80" t="s">
+        <v>600</v>
+      </c>
+      <c r="P80" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>686</v>
+      </c>
+      <c r="B81" t="s">
+        <v>687</v>
+      </c>
+      <c r="C81" t="s">
+        <v>624</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+      <c r="H81" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J81" t="s">
+        <v>688</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>464</v>
+      </c>
+      <c r="O81" t="s">
+        <v>600</v>
+      </c>
+      <c r="P81" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>689</v>
+      </c>
+      <c r="B82" t="s">
+        <v>690</v>
+      </c>
+      <c r="C82" t="s">
+        <v>624</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82">
+        <v>30</v>
+      </c>
+      <c r="H82" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J82" t="s">
+        <v>691</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>379</v>
+      </c>
+      <c r="O82" t="s">
+        <v>600</v>
+      </c>
+      <c r="P82" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>692</v>
+      </c>
+      <c r="B83" t="s">
+        <v>693</v>
+      </c>
+      <c r="C83" t="s">
+        <v>624</v>
+      </c>
+      <c r="E83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83">
+        <v>30</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J83" t="s">
+        <v>694</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>464</v>
+      </c>
+      <c r="O83" t="s">
+        <v>600</v>
+      </c>
+      <c r="P83" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>695</v>
+      </c>
+      <c r="B84" t="s">
+        <v>696</v>
+      </c>
+      <c r="C84" t="s">
+        <v>624</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
+      <c r="H84" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J84" t="s">
+        <v>697</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>379</v>
+      </c>
+      <c r="O84" t="s">
+        <v>600</v>
+      </c>
+      <c r="P84" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>698</v>
+      </c>
+      <c r="B85" t="s">
+        <v>699</v>
+      </c>
+      <c r="C85" t="s">
+        <v>624</v>
+      </c>
+      <c r="E85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85">
+        <v>30</v>
+      </c>
+      <c r="H85" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J85" t="s">
+        <v>700</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>464</v>
+      </c>
+      <c r="O85" t="s">
+        <v>600</v>
+      </c>
+      <c r="P85" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>701</v>
+      </c>
+      <c r="B86" t="s">
+        <v>702</v>
+      </c>
+      <c r="C86" t="s">
+        <v>624</v>
+      </c>
+      <c r="E86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J86" t="s">
+        <v>703</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>379</v>
+      </c>
+      <c r="O86" t="s">
+        <v>600</v>
+      </c>
+      <c r="P86" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>704</v>
+      </c>
+      <c r="B87" t="s">
+        <v>705</v>
+      </c>
+      <c r="C87" t="s">
+        <v>624</v>
+      </c>
+      <c r="E87" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87">
+        <v>30</v>
+      </c>
+      <c r="H87" s="3">
+        <v>43224</v>
+      </c>
+      <c r="J87" t="s">
+        <v>706</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>464</v>
+      </c>
+      <c r="O87" t="s">
+        <v>600</v>
+      </c>
+      <c r="P87" t="s">
         <v>881</v>
       </c>
     </row>
@@ -14157,6 +15020,198 @@
     <mergeCell ref="C38:D38"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:P1">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O34 O20:O21">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O34">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -14168,7 +15223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O34 O20:O21">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -14180,7 +15235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O34">
+  <conditionalFormatting sqref="O3">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14192,7 +15247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -14204,7 +15259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="O2">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -14216,7 +15271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14228,7 +15283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="O35:O38">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -14240,7 +15295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -14252,7 +15307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
+  <conditionalFormatting sqref="O39:O41">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -14264,7 +15319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14276,7 +15331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
+  <conditionalFormatting sqref="O56:O68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -14288,175 +15343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:O38">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:O38">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39:O41">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39:O41">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O56:O68">
+  <conditionalFormatting sqref="O69:O87">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14468,7 +15355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O56:O68">
+  <conditionalFormatting sqref="O69:O87">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14488,8 +15375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
